--- a/CBS Workflow.xlsx
+++ b/CBS Workflow.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jules\Documents\Development Areas\CBS Workflow\Library\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3A74D15D-B2AF-4F03-AA50-B6BD9BFF71FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E57DF236-0DB8-461E-93B3-B61DD7A27AC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -60,7 +60,7 @@
     <definedName name="temp">'[1]Station Data'!#REF!</definedName>
     <definedName name="Week">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="145621" calcMode="manual"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 

--- a/CBS Workflow.xlsx
+++ b/CBS Workflow.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jules\Documents\Development Areas\CBS Workflow\Library\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\CBSWorkflow\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E57DF236-0DB8-461E-93B3-B61DD7A27AC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{68E8EC75-9709-4676-B36E-997D87E2F976}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/CBS Workflow.xlsx
+++ b/CBS Workflow.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\CBSWorkflow\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{68E8EC75-9709-4676-B36E-997D87E2F976}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0F0279AE-37F0-4599-9A98-0A41C73618D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="6" r:id="rId1"/>
@@ -60,7 +60,19 @@
     <definedName name="temp">'[1]Station Data'!#REF!</definedName>
     <definedName name="Week">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -121,6 +133,4850 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>73025</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1514" name="Main Screen">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{994268F4-613B-3A45-6406-369B73DE290C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="23177500" cy="25400000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="1B998B"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="1B998B"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cap="flat" cmpd="sng" algn="ctr">
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100" b="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface=""/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>73025</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1516" name="MenuBar">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1417B528-A957-BD8F-6B6F-A5DD43616155}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="1968500" cy="25400000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="3D4547"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="3D4547"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cap="flat" cmpd="sng" algn="ctr">
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="63500" dist="37357" dir="2700000" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100" b="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface=""/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1515" name="Rectangle 1514" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B350D404-E2C6-99CF-596B-C059F5B75502}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="127000" cy="127000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIMenu.ProcessBtnPress(1)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1517" name="MenuItem - For Action">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C64942C1-8977-328B-E0B6-20CB2CD21611}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="1905000"/>
+          <a:ext cx="1905000" cy="393700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="3D4547"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="3D4547"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="476C9B"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1200" b="0">
+              <a:solidFill>
+                <a:srgbClr val="28E5D0"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>For Action</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIMenu.ProcessBtnPress(2)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1518" name="MenuItem - Active">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1029868-E22C-6069-E3A0-2AD4F1526504}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="2286000"/>
+          <a:ext cx="1905000" cy="393700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="3D4547"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="3D4547"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="476C9B"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1200" b="0">
+              <a:solidFill>
+                <a:srgbClr val="28E5D0"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Active</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>22225</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIMenu.ProcessBtnPress(3)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1519" name="MenuItem - Complete">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D33D3FC-80AA-4CFD-09CC-F85AF7A75879}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="2667000"/>
+          <a:ext cx="1905000" cy="393700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="3D4547"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="3D4547"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="476C9B"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1200" b="0">
+              <a:solidFill>
+                <a:srgbClr val="28E5D0"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Complete</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>22225</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIMenu.ProcessBtnPress(4)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1520" name="MenuItem - Dashboard">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6910506D-6172-D2A5-3790-81226C564758}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="3048000"/>
+          <a:ext cx="1905000" cy="393700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="3D4547"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="3D4547"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="476C9B"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1200" b="0">
+              <a:solidFill>
+                <a:srgbClr val="28E5D0"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Dashboard</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>22225</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIMenu.ProcessBtnPress(5)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1521" name="MenuItem - Reports">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{116043B4-9EB3-E423-10D1-E640DCABA4FF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="3429000"/>
+          <a:ext cx="1905000" cy="393700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="3D4547"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="3D4547"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="476C9B"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1200" b="0">
+              <a:solidFill>
+                <a:srgbClr val="28E5D0"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Reports</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>22225</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIMenu.ProcessBtnPress(6)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1522" name="MenuItem - Admin">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{815D582E-5CC4-E2D4-450A-F874746DF8E8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="3810000"/>
+          <a:ext cx="1905000" cy="393700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="3D4547"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="3D4547"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="476C9B"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1200" b="0">
+              <a:solidFill>
+                <a:srgbClr val="28E5D0"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Admin</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>22225</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIMenu.ProcessBtnPress(7)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1523" name="MenuItem - Exit">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDB24394-3CC0-B46A-3764-D18E512B7E96}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="4191000"/>
+          <a:ext cx="1905000" cy="393700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="3D4547"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="3D4547"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="476C9B"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1200" b="0">
+              <a:solidFill>
+                <a:srgbClr val="28E5D0"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Exit</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>469900</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1525" name="Main Frame">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DCDD66AE-D911-A403-211B-018796F22AC0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2159000" y="889000"/>
+          <a:ext cx="11303000" cy="1600200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="F6F7EB"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="F6F7EB"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cap="flat" cmpd="sng" algn="ctr">
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="63500" dist="37357" dir="2700000" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100" b="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface=""/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>469900</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1524" name="Main Frame Header">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0217C7C2-553B-2059-EA09-DF6A28246F3B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2159000" y="889000"/>
+          <a:ext cx="11303000" cy="317500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="06BEBD"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="06BEBD"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cap="flat" cmpd="sng" algn="ctr">
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1200" b="0">
+              <a:solidFill>
+                <a:srgbClr val="3D4547"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Active CDC Workflows</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIScreenCom.SortBy(&quot;Name&quot;), &quot;UIActive&quot;'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1527" name="TextBox 1526">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D5C72C2-E05C-6471-A2FB-D0B45837AB4D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2159000" y="1155700"/>
+          <a:ext cx="1524000" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="28E5D0"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="28E5D0"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="0">
+              <a:solidFill>
+                <a:srgbClr val="3D4547"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Name</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIScreenCom.SortBy(&quot;SSN&quot;), &quot;UIActive&quot;'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1528" name="TextBox 1527">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2BC27FC8-FFBE-8470-DD02-8CBCA92AEC9B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3683000" y="1155700"/>
+          <a:ext cx="1016000" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="28E5D0"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="28E5D0"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="0">
+              <a:solidFill>
+                <a:srgbClr val="3D4547"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>SSN</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIScreenCom.SortBy(&quot;Student ID&quot;), &quot;UIActive&quot;'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1529" name="TextBox 1528">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16BC199A-9172-DE6A-CF8A-5AAEB8E3BB7E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4699000" y="1155700"/>
+          <a:ext cx="1016000" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="28E5D0"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="28E5D0"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="0">
+              <a:solidFill>
+                <a:srgbClr val="3D4547"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Student ID</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIScreenCom.SortBy(&quot;Watch&quot;), &quot;UIActive&quot;'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1530" name="TextBox 1529">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21AE62F9-C758-BFA1-5392-E4260C9CC6FF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5715000" y="1155700"/>
+          <a:ext cx="762000" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="28E5D0"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="28E5D0"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="0">
+              <a:solidFill>
+                <a:srgbClr val="3D4547"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Watch</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIScreenCom.SortBy(&quot;DoD Certification&quot;), &quot;UIActive&quot;'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1531" name="TextBox 1530">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22DD6231-0F04-77F5-0806-75AA2A9C6141}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6477000" y="1155700"/>
+          <a:ext cx="1905000" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="28E5D0"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="28E5D0"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="0">
+              <a:solidFill>
+                <a:srgbClr val="3D4547"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>DoD Certification</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIScreenCom.SortBy(&quot;Step No&quot;), &quot;UIActive&quot;'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1532" name="TextBox 1531">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B32E0B4-6595-3B4B-D481-F3D27A363BF5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8382000" y="1155700"/>
+          <a:ext cx="762000" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="28E5D0"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="28E5D0"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="0">
+              <a:solidFill>
+                <a:srgbClr val="3D4547"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Step No</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIScreenCom.SortBy(&quot;Step Name&quot;), &quot;UIActive&quot;'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1533" name="TextBox 1532">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{810DD8A4-62E8-CA89-3794-1E4C9DFCE797}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9144000" y="1155700"/>
+          <a:ext cx="3048000" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="28E5D0"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="28E5D0"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="0">
+              <a:solidFill>
+                <a:srgbClr val="3D4547"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Step Name</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>469900</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIScreenCom.SortBy(&quot;Status&quot;), &quot;UIActive&quot;'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1534" name="TextBox 1533">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFB14E80-C57D-663B-9DD4-8DFBD42292DA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12192000" y="1155700"/>
+          <a:ext cx="1270000" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="28E5D0"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="28E5D0"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="0">
+              <a:solidFill>
+                <a:srgbClr val="3D4547"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Status</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIActive.OpenWorkflow(2)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1535" name="TextBox 1534">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A3ED9FA-DAF4-550A-DBBC-28A7EEB842DF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2159000" y="1422400"/>
+          <a:ext cx="1524000" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="F6F7EB"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-GB" sz="1000" b="0">
+            <a:solidFill>
+              <a:srgbClr val="476C9B"/>
+            </a:solidFill>
+            <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIActive.OpenWorkflow(2)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1536" name="TextBox 1535">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{343027B6-B361-018B-02CE-2AF4707D80AD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3683000" y="1422400"/>
+          <a:ext cx="1016000" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="F6F7EB"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-GB" sz="1000" b="0">
+            <a:solidFill>
+              <a:srgbClr val="476C9B"/>
+            </a:solidFill>
+            <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIActive.OpenWorkflow(2)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1537" name="TextBox 1536">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82F229A3-A211-24FA-04F7-5E14B5B15269}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4699000" y="1422400"/>
+          <a:ext cx="1016000" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="F6F7EB"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-GB" sz="1000" b="0">
+            <a:solidFill>
+              <a:srgbClr val="476C9B"/>
+            </a:solidFill>
+            <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIActive.OpenWorkflow(2)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1538" name="TextBox 1537">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D35BF053-6B68-4A26-922D-22480A83010C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5715000" y="1422400"/>
+          <a:ext cx="762000" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="F6F7EB"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-GB" sz="1000" b="0">
+            <a:solidFill>
+              <a:srgbClr val="476C9B"/>
+            </a:solidFill>
+            <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIActive.OpenWorkflow(2)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1539" name="TextBox 1538">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD6EB310-535C-D6CA-4CB5-CF047245746D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6477000" y="1422400"/>
+          <a:ext cx="1905000" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="F6F7EB"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-GB" sz="1000" b="0">
+            <a:solidFill>
+              <a:srgbClr val="476C9B"/>
+            </a:solidFill>
+            <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIActive.OpenWorkflow(2)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1540" name="TextBox 1539">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F8AD0BF-B2F7-2312-C14F-D3B9CD88D370}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8382000" y="1422400"/>
+          <a:ext cx="762000" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="F6F7EB"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="0">
+              <a:solidFill>
+                <a:srgbClr val="476C9B"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>1.03</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIActive.OpenWorkflow(2)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1541" name="TextBox 1540">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D27B96F2-CAC1-DBDE-69F8-960D7DA6667C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9144000" y="1422400"/>
+          <a:ext cx="3048000" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="F6F7EB"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="0">
+              <a:solidFill>
+                <a:srgbClr val="476C9B"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Complete enrolment</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>469900</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIActive.OpenWorkflow(2)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1542" name="TextBox 1541">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38FD1B40-FCBC-9C40-86AD-B3E5FE7E7A93}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12192000" y="1422400"/>
+          <a:ext cx="1270000" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="3EC300"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="4AEE00"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Waiting</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIActive.OpenWorkflow(3)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1543" name="TextBox 1542">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91FFFD19-F5F6-D76C-B591-DFF8323E6F04}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2159000" y="1689100"/>
+          <a:ext cx="1524000" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="F6F7EB"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-GB" sz="1000" b="0">
+            <a:solidFill>
+              <a:srgbClr val="476C9B"/>
+            </a:solidFill>
+            <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIActive.OpenWorkflow(3)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1544" name="TextBox 1543">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2779E98B-FA91-192F-5DCA-5FE41D64A715}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3683000" y="1689100"/>
+          <a:ext cx="1016000" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="F6F7EB"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-GB" sz="1000" b="0">
+            <a:solidFill>
+              <a:srgbClr val="476C9B"/>
+            </a:solidFill>
+            <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIActive.OpenWorkflow(3)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1545" name="TextBox 1544">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2AAE1F6E-C524-3CB3-B4A0-ED71F29FE8DF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4699000" y="1689100"/>
+          <a:ext cx="1016000" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="F6F7EB"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-GB" sz="1000" b="0">
+            <a:solidFill>
+              <a:srgbClr val="476C9B"/>
+            </a:solidFill>
+            <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIActive.OpenWorkflow(3)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1546" name="TextBox 1545">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FF18509-98D5-5625-0319-61C2AE1BB6B9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5715000" y="1689100"/>
+          <a:ext cx="762000" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="F6F7EB"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-GB" sz="1000" b="0">
+            <a:solidFill>
+              <a:srgbClr val="476C9B"/>
+            </a:solidFill>
+            <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIActive.OpenWorkflow(3)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1547" name="TextBox 1546">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{037E8F38-4C7E-EE04-ED63-221DEF049494}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6477000" y="1689100"/>
+          <a:ext cx="1905000" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="F6F7EB"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-GB" sz="1000" b="0">
+            <a:solidFill>
+              <a:srgbClr val="476C9B"/>
+            </a:solidFill>
+            <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIActive.OpenWorkflow(3)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1548" name="TextBox 1547">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07CF6CC9-56A1-0AB8-6C23-72800105521E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8382000" y="1689100"/>
+          <a:ext cx="762000" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="F6F7EB"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="0">
+              <a:solidFill>
+                <a:srgbClr val="476C9B"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>1.01</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIActive.OpenWorkflow(3)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1549" name="TextBox 1548">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D82CDEF1-F3AA-761A-EEED-9132FA4338F3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9144000" y="1689100"/>
+          <a:ext cx="3048000" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="F6F7EB"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="0">
+              <a:solidFill>
+                <a:srgbClr val="476C9B"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Enter Enrollment Date</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>469900</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIActive.OpenWorkflow(3)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1550" name="TextBox 1549">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE75B321-9017-4032-177B-41A0F963D3F1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12192000" y="1689100"/>
+          <a:ext cx="1270000" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="3EC300"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="4AEE00"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Action Req'd</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIActive.OpenWorkflow(4)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1551" name="TextBox 1550">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B746ADF-2FD7-D9D6-CE89-CA43F4D690BB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2159000" y="1955800"/>
+          <a:ext cx="1524000" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="F6F7EB"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-GB" sz="1000" b="0">
+            <a:solidFill>
+              <a:srgbClr val="476C9B"/>
+            </a:solidFill>
+            <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIActive.OpenWorkflow(4)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1552" name="TextBox 1551">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6A2FB64-E5CB-FD33-6672-20F7DD389875}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3683000" y="1955800"/>
+          <a:ext cx="1016000" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="F6F7EB"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-GB" sz="1000" b="0">
+            <a:solidFill>
+              <a:srgbClr val="476C9B"/>
+            </a:solidFill>
+            <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIActive.OpenWorkflow(4)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1553" name="TextBox 1552">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33EDB7BB-9FA9-1BD8-7FDE-BF80FE61B7FE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4699000" y="1955800"/>
+          <a:ext cx="1016000" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="F6F7EB"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-GB" sz="1000" b="0">
+            <a:solidFill>
+              <a:srgbClr val="476C9B"/>
+            </a:solidFill>
+            <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIActive.OpenWorkflow(4)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1554" name="TextBox 1553">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4FFD4F2-29E5-FF1B-72D5-74DBA875C770}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5715000" y="1955800"/>
+          <a:ext cx="762000" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="F6F7EB"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-GB" sz="1000" b="0">
+            <a:solidFill>
+              <a:srgbClr val="476C9B"/>
+            </a:solidFill>
+            <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIActive.OpenWorkflow(4)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1555" name="TextBox 1554">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A58D70D4-6328-809B-B445-6AF2E1314E09}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6477000" y="1955800"/>
+          <a:ext cx="1905000" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="F6F7EB"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-GB" sz="1000" b="0">
+            <a:solidFill>
+              <a:srgbClr val="476C9B"/>
+            </a:solidFill>
+            <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIActive.OpenWorkflow(4)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1556" name="TextBox 1555">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64DCA613-0284-EA26-5A3C-5AB6066420F4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8382000" y="1955800"/>
+          <a:ext cx="762000" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="F6F7EB"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="0">
+              <a:solidFill>
+                <a:srgbClr val="476C9B"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>1.03</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIActive.OpenWorkflow(4)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1557" name="TextBox 1556">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63224058-C26C-202B-1D41-58EEEFF07ADD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9144000" y="1955800"/>
+          <a:ext cx="3048000" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="F6F7EB"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="0">
+              <a:solidFill>
+                <a:srgbClr val="476C9B"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Complete enrolment</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>469900</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIActive.OpenWorkflow(4)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1558" name="TextBox 1557">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D769F8B5-05D1-18EB-04F5-93B4479136DC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12192000" y="1955800"/>
+          <a:ext cx="1270000" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="3EC300"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="4AEE00"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Waiting</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIActive.OpenWorkflow(5)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1559" name="TextBox 1558">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F5E5455-DA50-56AC-1216-B87755C9E587}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2159000" y="2222500"/>
+          <a:ext cx="1524000" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="F6F7EB"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-GB" sz="1000" b="0">
+            <a:solidFill>
+              <a:srgbClr val="476C9B"/>
+            </a:solidFill>
+            <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIActive.OpenWorkflow(5)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1560" name="TextBox 1559">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{244B7BC0-1DE0-ED96-C3BB-9A03DCC63347}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3683000" y="2222500"/>
+          <a:ext cx="1016000" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="F6F7EB"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-GB" sz="1000" b="0">
+            <a:solidFill>
+              <a:srgbClr val="476C9B"/>
+            </a:solidFill>
+            <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIActive.OpenWorkflow(5)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1561" name="TextBox 1560">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D31F3F0B-30FA-01DD-913C-257580E6ECBF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4699000" y="2222500"/>
+          <a:ext cx="1016000" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="F6F7EB"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-GB" sz="1000" b="0">
+            <a:solidFill>
+              <a:srgbClr val="476C9B"/>
+            </a:solidFill>
+            <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIActive.OpenWorkflow(5)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1562" name="TextBox 1561">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31AE5343-C185-727E-691A-B243ED243651}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5715000" y="2222500"/>
+          <a:ext cx="762000" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="F6F7EB"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-GB" sz="1000" b="0">
+            <a:solidFill>
+              <a:srgbClr val="476C9B"/>
+            </a:solidFill>
+            <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIActive.OpenWorkflow(5)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1563" name="TextBox 1562">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F428C74D-73E5-2CD7-92D8-8A7899A62226}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6477000" y="2222500"/>
+          <a:ext cx="1905000" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="F6F7EB"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-GB" sz="1000" b="0">
+            <a:solidFill>
+              <a:srgbClr val="476C9B"/>
+            </a:solidFill>
+            <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIActive.OpenWorkflow(5)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1564" name="TextBox 1563">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1A8ADDA-5D86-EBF2-4F78-6E0BF9621A9A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8382000" y="2222500"/>
+          <a:ext cx="762000" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="F6F7EB"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="0">
+              <a:solidFill>
+                <a:srgbClr val="476C9B"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>1.01</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIActive.OpenWorkflow(5)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1565" name="TextBox 1564">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31E315F1-FCE1-2BE8-C326-914D569605AC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9144000" y="2222500"/>
+          <a:ext cx="3048000" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="F6F7EB"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="0">
+              <a:solidFill>
+                <a:srgbClr val="476C9B"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Enter Enrollment Date</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>469900</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIActive.OpenWorkflow(5)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1566" name="TextBox 1565">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DE1CB8D-6E6D-44FC-40B6-D9BB0777D8FE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12192000" y="2222500"/>
+          <a:ext cx="1270000" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="3EC300"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="4AEE00"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Action Req'd</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>469900</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIScreenCom.ProcessBtnPress(6)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1526" name="BtnMain1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{542C79EE-641F-DA80-6015-697312523CD1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12192000" y="190500"/>
+          <a:ext cx="1270000" cy="508000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="06BEBD"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="28E5D0"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cap="flat" cmpd="sng" algn="ctr">
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="63500" dist="37357" dir="2700000" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1200" b="0">
+              <a:solidFill>
+                <a:srgbClr val="3D4547"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>New Workflow</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1567" name="Rectangle 1566">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0752C6B1-9F79-FFC8-73B2-93AC5710A9F8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="127000" cy="127000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1568" name="Main Frame">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{554D7846-9012-86AC-E1E6-FE870C06EE83}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="127000" cy="127000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6190,13 +11046,17 @@
   <dimension ref="A15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+      <selection activeCell="Z17" sqref="Z17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/CBS Workflow.xlsx
+++ b/CBS Workflow.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25128"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\CBSWorkflow\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8BABE81B-3CA1-4A39-8B88-9AE750C8A67B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0521A4CF-1B17-4A72-ACF1-9D9E008FE167}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7725" yWindow="1485" windowWidth="30615" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18405" yWindow="2370" windowWidth="21870" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="6" r:id="rId1"/>
@@ -101,6 +101,98 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>73025</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Main Screen">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65EABD0C-F5D3-DFF9-C92D-103E86CBDA59}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="23177500" cy="25400000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FBF9FF"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FBF9FF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cap="flat" cmpd="sng" algn="ctr">
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100" b="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface=""/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>39</xdr:col>
@@ -149,6 +241,1819 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Rectangle 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{450591C2-4C83-D31D-951F-7E9D573655E8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="127000" cy="127000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>73025</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="MenuBar">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D428F533-7224-E8FA-B279-2EC0860F95BD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="1968500" cy="25400000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:prstClr val="black"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="63500" dist="37357" dir="2700000" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100" b="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface=""/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Rectangle 3" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29A4C97E-42C2-8EB1-8A68-C8B2D4E84FFE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="127000" cy="127000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>127001</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>165101</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>47488</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>165101</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Logo">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{641AA52D-312B-5460-CE5A-C71560E530F2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="127001" y="165101"/>
+          <a:ext cx="1749287" cy="1143000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIMenu.ProcessBtnPress(1)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="MenuItem - For Action">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AADA3A66-9E7B-5352-44C6-706E26F93ED0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="1905000"/>
+          <a:ext cx="1905000" cy="393700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="D8336B"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="D8336B"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cap="flat" cmpd="sng" algn="ctr">
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:srgbClr val="134F69"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1200" b="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>For Action</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIMenu.ProcessBtnPress(2)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="MenuItem - Active">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57DF0E0F-6539-8104-42A5-A21BE67D0D8A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="2286000"/>
+          <a:ext cx="1905000" cy="393700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="134F69"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1200" b="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Active</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>22225</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIMenu.ProcessBtnPress(3)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="MenuItem - Complete">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DDF0BED-0652-E878-FABC-B6D9A06075EF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="2667000"/>
+          <a:ext cx="1905000" cy="393700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="134F69"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1200" b="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Complete</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>22225</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIMenu.ProcessBtnPress(4)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="MenuItem - Exit">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0886AC73-2D5E-A581-412A-D68455787488}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="3048000"/>
+          <a:ext cx="1905000" cy="393700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="134F69"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1200" b="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Exit</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>469900</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Main Frame">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44879660-7429-8E51-7ACC-0266D9EECF3D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2159000" y="889000"/>
+          <a:ext cx="11303000" cy="800100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="F1C40F"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="F1C40F"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cap="flat" cmpd="sng" algn="ctr">
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="63500" dist="37357" dir="2700000" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100" b="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface=""/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>469900</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Main Frame Header">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3DE4DF4-7B5A-1CD9-344A-118A81984E5C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2159000" y="889000"/>
+          <a:ext cx="11303000" cy="317500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="D8336B"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="D8336B"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cap="flat" cmpd="sng" algn="ctr">
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1200" b="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Workflows Requiring Attention</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIScreenCom.SortBy(&quot;Workflow No&quot;), &quot;UIForAction&quot;'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="TextBox 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1535CC25-36D2-9FA8-50D5-F2BAED2B44DF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2159000" y="1155700"/>
+          <a:ext cx="1270000" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="134F69"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="134F69"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Workflow No</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>292100</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIScreenCom.SortBy(&quot;Name&quot;), &quot;UIForAction&quot;'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="TextBox 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1660A44-DBF9-06DB-3D2E-6998F95651B0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3429000" y="1155700"/>
+          <a:ext cx="2540000" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="134F69"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="134F69"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Name</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>292100</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIScreenCom.SortBy(&quot;Step No&quot;), &quot;UIForAction&quot;'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="TextBox 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06D276C5-EE7D-8E8B-E36C-1C8A5F9801BD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5969000" y="1155700"/>
+          <a:ext cx="2540000" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="134F69"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="134F69"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Step No</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIScreenCom.SortBy(&quot;Step Name&quot;), &quot;UIForAction&quot;'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="TextBox 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A5080D5-072B-E51C-6CEB-FADF821DD57D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8509000" y="1155700"/>
+          <a:ext cx="3683000" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="134F69"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="134F69"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Step Name</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>469900</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIScreenCom.SortBy(&quot;Status&quot;), &quot;UIForAction&quot;'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="TextBox 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FF71F05-E9CD-7A69-67EB-F93AC0B7B66D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12192000" y="1155700"/>
+          <a:ext cx="1270000" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="134F69"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="134F69"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Status</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUiForAction.OpenWorkflow(1)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="TextBox 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5169B0CB-DC3E-E2BB-D250-9603DF101D7B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2159000" y="1422400"/>
+          <a:ext cx="1270000" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="0">
+              <a:solidFill>
+                <a:srgbClr val="434343"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>292100</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUiForAction.OpenWorkflow(1)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="TextBox 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19F6EE53-DE79-7BE9-8076-8C29A930C551}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3429000" y="1422400"/>
+          <a:ext cx="2540000" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="0">
+              <a:solidFill>
+                <a:srgbClr val="434343"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Debs</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>292100</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUiForAction.OpenWorkflow(1)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="TextBox 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAB98A94-ADA1-067F-F16B-5B414DD1DEBD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5969000" y="1422400"/>
+          <a:ext cx="2540000" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="0">
+              <a:solidFill>
+                <a:srgbClr val="434343"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>1.33</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUiForAction.OpenWorkflow(1)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="TextBox 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00F28ABD-E476-480C-970E-2AED9EF90429}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8509000" y="1422400"/>
+          <a:ext cx="3683000" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="0">
+              <a:solidFill>
+                <a:srgbClr val="434343"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Completion</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>469900</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUiForAction.OpenWorkflow(1)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="TextBox 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642660E8-5EC0-D413-B2C6-5E5F39F2A168}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12192000" y="1422400"/>
+          <a:ext cx="1270000" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="D7263D"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="D7263D"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Action Req'd</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>469900</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIScreenCom.ProcessBtnPress(6)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="BtnMain1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{462961E0-450B-8898-28C7-0D6E8A200102}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12192000" y="190500"/>
+          <a:ext cx="1270000" cy="508000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="134F69"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="134F69"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cap="flat" cmpd="sng" algn="ctr">
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="63500" dist="37357" dir="2700000" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1200" b="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>New Workflow</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -479,7 +2384,7 @@
   <dimension ref="B2:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U24" sqref="U24"/>
+      <selection activeCell="U7" sqref="U7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -494,7 +2399,9 @@
     </row>
     <row r="15" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
+  <dataConsolidate/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/CBS Workflow.xlsx
+++ b/CBS Workflow.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25330"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\CBSWorkflow\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jules\Documents\Development Areas\CBS Workflow\Library\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0521A4CF-1B17-4A72-ACF1-9D9E008FE167}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A3277B5D-D83E-409A-80F1-D4F43A5ABC03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18405" yWindow="2370" windowWidth="21870" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19245" yWindow="1875" windowWidth="22305" windowHeight="14415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="6" r:id="rId1"/>
@@ -119,7 +119,7 @@
         <xdr:cNvPr id="2" name="Main Screen">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65EABD0C-F5D3-DFF9-C92D-103E86CBDA59}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A974F82-9A02-C0E1-30FA-05F5FA2484A4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -261,7 +261,7 @@
         <xdr:cNvPr id="5" name="Rectangle 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{450591C2-4C83-D31D-951F-7E9D573655E8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9860825-6650-0D34-61DB-8F38ABD2C0D4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -318,10 +318,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="MenuBar">
+        <xdr:cNvPr id="4" name="MenuBar">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D428F533-7224-E8FA-B279-2EC0860F95BD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{323D5AE8-9F1F-78EB-0EB6-6AFB47DA963B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -407,10 +407,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Rectangle 3" hidden="1">
+        <xdr:cNvPr id="3" name="Rectangle 2" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29A4C97E-42C2-8EB1-8A68-C8B2D4E84FFE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FEEABF54-135F-5B0D-F046-6FD5F87D3F44}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -470,7 +470,7 @@
         <xdr:cNvPr id="7" name="Logo">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{641AA52D-312B-5460-CE5A-C71560E530F2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D686556-4B60-F1D2-98C6-599812ED2AED}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -520,7 +520,7 @@
         <xdr:cNvPr id="6" name="MenuItem - For Action">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AADA3A66-9E7B-5352-44C6-706E26F93ED0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE48197F-1DF1-481C-4BE5-A072F55BB9F3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -615,7 +615,7 @@
         <xdr:cNvPr id="8" name="MenuItem - Active">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57DF0E0F-6539-8104-42A5-A21BE67D0D8A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BFE8C87-1536-5C99-A22E-51B2857680FE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -700,7 +700,7 @@
         <xdr:cNvPr id="9" name="MenuItem - Complete">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DDF0BED-0652-E878-FABC-B6D9A06075EF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79E89F27-A080-6BAA-F8C1-F787845C2442}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -785,7 +785,7 @@
         <xdr:cNvPr id="10" name="MenuItem - Exit">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0886AC73-2D5E-A581-412A-D68455787488}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56B2715E-8833-CFB2-432A-74DCF25C3328}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -867,10 +867,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="Main Frame">
+        <xdr:cNvPr id="12" name="Main Frame">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44879660-7429-8E51-7ACC-0266D9EECF3D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E0D070B-DDA2-D8A9-F394-0C3006B9221A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -965,10 +965,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="Main Frame Header">
+        <xdr:cNvPr id="11" name="Main Frame Header">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3DE4DF4-7B5A-1CD9-344A-118A81984E5C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF4C53D0-DD4B-7A07-E4BB-C30CC4B32F21}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1063,7 +1063,7 @@
         <xdr:cNvPr id="14" name="TextBox 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1535CC25-36D2-9FA8-50D5-F2BAED2B44DF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECB19378-AB42-2722-9433-66622AC533CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1154,7 +1154,7 @@
         <xdr:cNvPr id="15" name="TextBox 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1660A44-DBF9-06DB-3D2E-6998F95651B0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C79626F7-1EA6-C44C-794F-6B32F5953E2F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1245,7 +1245,7 @@
         <xdr:cNvPr id="16" name="TextBox 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06D276C5-EE7D-8E8B-E36C-1C8A5F9801BD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86C0491D-1DAD-C72D-CCB2-E28AA7F3010F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1336,7 +1336,7 @@
         <xdr:cNvPr id="17" name="TextBox 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A5080D5-072B-E51C-6CEB-FADF821DD57D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BAAB0399-37F0-CEA8-63A4-5E36BCD3C7A9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1427,7 +1427,7 @@
         <xdr:cNvPr id="18" name="TextBox 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FF71F05-E9CD-7A69-67EB-F93AC0B7B66D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{050D48FD-F1AB-799B-1744-4C1BCEBBA374}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1513,12 +1513,12 @@
       <xdr:row>8</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUiForAction.OpenWorkflow(1)'" textlink="">
+    <xdr:sp macro="'ModUiForAction.OpenWorkflow(3)'" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5169B0CB-DC3E-E2BB-D250-9603DF101D7B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{595E9081-02A9-0D80-D11E-464436D4E871}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1584,7 +1584,7 @@
               </a:solidFill>
               <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>1</a:t>
+            <a:t>3</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1604,12 +1604,12 @@
       <xdr:row>8</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUiForAction.OpenWorkflow(1)'" textlink="">
+    <xdr:sp macro="'ModUiForAction.OpenWorkflow(3)'" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="20" name="TextBox 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19F6EE53-DE79-7BE9-8076-8C29A930C551}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DCDA433-A0A1-11B2-B0E6-2A2F84014973}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1675,7 +1675,7 @@
               </a:solidFill>
               <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>Debs</a:t>
+            <a:t>Jim Bob</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1695,12 +1695,12 @@
       <xdr:row>8</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUiForAction.OpenWorkflow(1)'" textlink="">
+    <xdr:sp macro="'ModUiForAction.OpenWorkflow(3)'" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAB98A94-ADA1-067F-F16B-5B414DD1DEBD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13E9E35C-AD09-A920-FB71-39F6E288DE00}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1766,7 +1766,7 @@
               </a:solidFill>
               <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>1.33</a:t>
+            <a:t>1.02</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1786,12 +1786,12 @@
       <xdr:row>8</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUiForAction.OpenWorkflow(1)'" textlink="">
+    <xdr:sp macro="'ModUiForAction.OpenWorkflow(3)'" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00F28ABD-E476-480C-970E-2AED9EF90429}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8297A586-A2A6-5F68-2ABB-18ECEDE3A7B5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1857,7 +1857,7 @@
               </a:solidFill>
               <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>Completion</a:t>
+            <a:t>Fact Find provided to Client</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1877,12 +1877,12 @@
       <xdr:row>8</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUiForAction.OpenWorkflow(1)'" textlink="">
+    <xdr:sp macro="'ModUiForAction.OpenWorkflow(3)'" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="23" name="TextBox 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642660E8-5EC0-D413-B2C6-5E5F39F2A168}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{772617D4-BFC1-8DA2-4FE5-E5AAB023ABA6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1899,10 +1899,10 @@
         <a:gradFill flip="none" rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
-              <a:srgbClr val="D7263D"/>
+              <a:srgbClr val="BAFF29"/>
             </a:gs>
             <a:gs pos="100000">
-              <a:srgbClr val="D7263D"/>
+              <a:srgbClr val="BAFF29"/>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="1"/>
@@ -1944,7 +1944,7 @@
           <a:r>
             <a:rPr lang="en-GB" sz="1100" b="0">
               <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
+                <a:srgbClr val="434343"/>
               </a:solidFill>
               <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
             </a:rPr>
@@ -1973,7 +1973,7 @@
         <xdr:cNvPr id="13" name="BtnMain1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{462961E0-450B-8898-28C7-0D6E8A200102}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E14F3243-26DE-9639-08A1-56D06EB3196E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>

--- a/CBS Workflow.xlsx
+++ b/CBS Workflow.xlsx
@@ -1,24 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25427"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jules\Documents\Development Areas\CBS Workflow\Library\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\CBSWorkflow\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A3277B5D-D83E-409A-80F1-D4F43A5ABC03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EDFE8772-2616-4C9A-8918-AA060635A56C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19245" yWindow="1875" windowWidth="22305" windowHeight="14415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3855" yWindow="3855" windowWidth="38700" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="6" r:id="rId1"/>
+    <sheet name="TblStepTemplate" sheetId="7" state="hidden" r:id="rId2"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">TblStepTemplate!$C$1:$N$42</definedName>
     <definedName name="MenuItem">Sheet1!$B$2</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -34,9 +36,503 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="163">
+  <si>
+    <t>WorkflowNo</t>
+  </si>
+  <si>
+    <t>WFName</t>
+  </si>
+  <si>
+    <t>Wait</t>
+  </si>
+  <si>
+    <t>StepType</t>
+  </si>
+  <si>
+    <t>StepNo</t>
+  </si>
+  <si>
+    <t>StepIndex</t>
+  </si>
+  <si>
+    <t>StepName</t>
+  </si>
+  <si>
+    <t>StartTime</t>
+  </si>
+  <si>
+    <t>EndTime</t>
+  </si>
+  <si>
+    <t>StepAction</t>
+  </si>
+  <si>
+    <t>NextStep</t>
+  </si>
+  <si>
+    <t>PrevStep</t>
+  </si>
+  <si>
+    <t>AltStep</t>
+  </si>
+  <si>
+    <t>RedThresh</t>
+  </si>
+  <si>
+    <t>AmberThresh</t>
+  </si>
+  <si>
+    <t>DataItem</t>
+  </si>
+  <si>
+    <t>DataFormat</t>
+  </si>
+  <si>
+    <t>DataDest</t>
+  </si>
+  <si>
+    <t>EmailArrived</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>AltEmail</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>CopyText</t>
+  </si>
+  <si>
+    <t>CopyTextName</t>
+  </si>
+  <si>
+    <t>UniqueID</t>
+  </si>
+  <si>
+    <t>initial</t>
+  </si>
+  <si>
+    <t>enDataInput</t>
+  </si>
+  <si>
+    <t>1.01</t>
+  </si>
+  <si>
+    <t>Client Details</t>
+  </si>
+  <si>
+    <t>Enter the Client's Details</t>
+  </si>
+  <si>
+    <t>1.02</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t xml:space="preserve">Client Details </t>
+  </si>
+  <si>
+    <t>Text</t>
+  </si>
+  <si>
+    <t>Workflow.Member</t>
+  </si>
+  <si>
+    <t>enStep</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fact Find to Client </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Send Fact Find to Client </t>
+  </si>
+  <si>
+    <t>1.03</t>
+  </si>
+  <si>
+    <t>enYesNo</t>
+  </si>
+  <si>
+    <t>Fact Find completed by Client</t>
+  </si>
+  <si>
+    <t>Has the Fact Finding form been received from the Client?</t>
+  </si>
+  <si>
+    <t>1.04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Complete Fact Find </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is the Fact Find information, complete? </t>
+  </si>
+  <si>
+    <t>1.05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Obtain missing information </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Obtain missing Fact Find information from Client </t>
+  </si>
+  <si>
+    <t>1.06</t>
+  </si>
+  <si>
+    <t>Issue Fact Find to Steve</t>
+  </si>
+  <si>
+    <t>Send the completed Fact Finding Form and supporting information to Steve</t>
+  </si>
+  <si>
+    <t>1.07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Redact lender terms for issue </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Redact the terms received from Steve in readiness to issue to the Client </t>
+  </si>
+  <si>
+    <t>1.08</t>
+  </si>
+  <si>
+    <t>Issue terms/DIP</t>
+  </si>
+  <si>
+    <t>Issue the Finance Terms to the Client for review and acceptance</t>
+  </si>
+  <si>
+    <t>1.09</t>
+  </si>
+  <si>
+    <t>Terms agreed by Client?</t>
+  </si>
+  <si>
+    <t>Have the Finance Terms been accepted by the Client?</t>
+  </si>
+  <si>
+    <t>1.10</t>
+  </si>
+  <si>
+    <t>Site visit with Lender</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schedule a site visit with the lender following acceptance of terms </t>
+  </si>
+  <si>
+    <t>1.11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acquire information for lender to proceed to credit committee </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Collect information (see lender requirements) from the Client for the Lender to proceed to credit approval </t>
+  </si>
+  <si>
+    <t>1.12</t>
+  </si>
+  <si>
+    <t>Commitment fee paid (if applicable)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Has the commitment fee been paid in readiness for credit approval? </t>
+  </si>
+  <si>
+    <t>1.13</t>
+  </si>
+  <si>
+    <t>Submitted for credit approval</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Has the lender submitted their proposal for credit approval? </t>
+  </si>
+  <si>
+    <t>1.14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Credit approval </t>
+  </si>
+  <si>
+    <t>Has credit approval been acquired?</t>
+  </si>
+  <si>
+    <t>1.15</t>
+  </si>
+  <si>
+    <t>Credit backed terms received</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Have credit backed terms been received? If not, acquire them from the lender. </t>
+  </si>
+  <si>
+    <t>1.16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lender fee quotes </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Has the lender issued fee quotes for the valuation, MS and legal fees to the Client? </t>
+  </si>
+  <si>
+    <t>1.17</t>
+  </si>
+  <si>
+    <t>Valuation instructed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Following acceptance of the fee quotes, has the lender instructed the valuation? </t>
+  </si>
+  <si>
+    <t>1.18</t>
+  </si>
+  <si>
+    <t>Valuation fee paid</t>
+  </si>
+  <si>
+    <t>Has the Client paid the valuation fee?</t>
+  </si>
+  <si>
+    <t>1.19</t>
+  </si>
+  <si>
+    <t>Valuation scheduled</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Has the valuation been scheduled? </t>
+  </si>
+  <si>
+    <t>1.20</t>
+  </si>
+  <si>
+    <t>Enter valuation date</t>
+  </si>
+  <si>
+    <t>Enter the date of the valuation</t>
+  </si>
+  <si>
+    <t>1.21</t>
+  </si>
+  <si>
+    <t>Valuation Date</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Workflow.Ddate</t>
+  </si>
+  <si>
+    <t>Valuation report completed</t>
+  </si>
+  <si>
+    <t>Has the valuation report been completed?</t>
+  </si>
+  <si>
+    <t>1.22</t>
+  </si>
+  <si>
+    <t>Lender Valuation report received</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Has the valuation report been received by the Lender? </t>
+  </si>
+  <si>
+    <t>1.23</t>
+  </si>
+  <si>
+    <t>CBS Valuation report received</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Has the valuation report been received by CBS from the Lender? </t>
+  </si>
+  <si>
+    <t>1.24</t>
+  </si>
+  <si>
+    <t>MS instructed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Has the MS been instructed? </t>
+  </si>
+  <si>
+    <t>1.25</t>
+  </si>
+  <si>
+    <t>MS fee paid</t>
+  </si>
+  <si>
+    <t>Has the Client paid the MS fee?</t>
+  </si>
+  <si>
+    <t>1.26</t>
+  </si>
+  <si>
+    <t>MS scheduled</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Has the MS been scheduled? </t>
+  </si>
+  <si>
+    <t>1.27</t>
+  </si>
+  <si>
+    <t>MS report completed</t>
+  </si>
+  <si>
+    <t>Has the MS report been completed?</t>
+  </si>
+  <si>
+    <t>1.28</t>
+  </si>
+  <si>
+    <t>Lender MS report received</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Has the MSreport been received by the Lender? </t>
+  </si>
+  <si>
+    <t>1.29</t>
+  </si>
+  <si>
+    <t>CBS MS report received</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Has the MS report been received by CBS from the Lender? </t>
+  </si>
+  <si>
+    <t>1.30</t>
+  </si>
+  <si>
+    <t>Legal fees paid / undertaking provided</t>
+  </si>
+  <si>
+    <t>Has the Client paid the legal fees and provided an undertaking?</t>
+  </si>
+  <si>
+    <t>1.31</t>
+  </si>
+  <si>
+    <t>CP's issued</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Have the CP's been issued by the Lender's solicitor? </t>
+  </si>
+  <si>
+    <t>1.32</t>
+  </si>
+  <si>
+    <t>CP's completed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Has the Client completed all of the CP's issued by the Lender's solicitor? </t>
+  </si>
+  <si>
+    <t>1.33</t>
+  </si>
+  <si>
+    <t>Liaise with Lender about completion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Has a completion date been agreed? </t>
+  </si>
+  <si>
+    <t>1.34</t>
+  </si>
+  <si>
+    <t>Target Completion</t>
+  </si>
+  <si>
+    <t>Enter the target completion date</t>
+  </si>
+  <si>
+    <t>1.35</t>
+  </si>
+  <si>
+    <t>Target Completion Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Raise CBS commission invoice </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Refer to Emma to raise an invoice to the Lender from CBS - provide details for this </t>
+  </si>
+  <si>
+    <t>1.36</t>
+  </si>
+  <si>
+    <t>Actual Completion</t>
+  </si>
+  <si>
+    <t>Has the loan completed?</t>
+  </si>
+  <si>
+    <t>1.37</t>
+  </si>
+  <si>
+    <t>Enter actual completion date</t>
+  </si>
+  <si>
+    <t>Enter the date of actual completion</t>
+  </si>
+  <si>
+    <t>1.38</t>
+  </si>
+  <si>
+    <t>Actual Completion Date</t>
+  </si>
+  <si>
+    <t>Commission payment received</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Has commision payment received? Check with Emma </t>
+  </si>
+  <si>
+    <t>1.39</t>
+  </si>
+  <si>
+    <t>Enter exit fee percentage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Record exit fee percentage charged to the lender for future invoice </t>
+  </si>
+  <si>
+    <t>1.40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">% figure </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter antipicated loan exit date </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Record anticipated exit date (end of loan term) and schedule raising invoice for this date - liaise with lender </t>
+  </si>
+  <si>
+    <t>1.41</t>
+  </si>
+  <si>
+    <t>Completion</t>
+  </si>
+  <si>
+    <t>Workflow has now completed</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -49,21 +545,68 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC0C0C0"/>
+        <bgColor rgb="FFC0C0C0"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFD0D7E5"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFD0D7E5"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFD0D7E5"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFD0D7E5"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -72,8 +615,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -119,7 +677,7 @@
         <xdr:cNvPr id="2" name="Main Screen">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A974F82-9A02-C0E1-30FA-05F5FA2484A4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FDDAD1A-4B15-2192-DEBE-967203930D44}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -261,7 +819,7 @@
         <xdr:cNvPr id="5" name="Rectangle 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9860825-6650-0D34-61DB-8F38ABD2C0D4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54397769-34C3-F671-6AD4-F385E5D88BAA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -321,7 +879,7 @@
         <xdr:cNvPr id="4" name="MenuBar">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{323D5AE8-9F1F-78EB-0EB6-6AFB47DA963B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8712810-071E-E76A-FF9C-51331AA1B7A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -410,7 +968,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FEEABF54-135F-5B0D-F046-6FD5F87D3F44}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D8D2825-602A-647A-D8EC-AB0BB8100996}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -467,10 +1025,10 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Logo">
+        <xdr:cNvPr id="6" name="Logo">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D686556-4B60-F1D2-98C6-599812ED2AED}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61C95436-F907-F137-17BE-343C62D2ABFC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -517,10 +1075,10 @@
     </xdr:to>
     <xdr:sp macro="'ModUIMenu.ProcessBtnPress(1)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="MenuItem - For Action">
+        <xdr:cNvPr id="7" name="MenuItem - For Action">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE48197F-1DF1-481C-4BE5-A072F55BB9F3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B0762FB-FFD4-CE92-C7E1-4AB2A8F26E01}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -529,6 +1087,91 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="1905000"/>
+          <a:ext cx="1905000" cy="393700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="134F69"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1200" b="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>For Action</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIMenu.ProcessBtnPress(2)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="MenuItem - Active">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5B37C0D-95B7-56FD-2795-514AE022A8C8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="2286000"/>
           <a:ext cx="1905000" cy="393700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -590,91 +1233,6 @@
               </a:solidFill>
               <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>For Action</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="'ModUIMenu.ProcessBtnPress(2)'" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="MenuItem - Active">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BFE8C87-1536-5C99-A22E-51B2857680FE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="2286000"/>
-          <a:ext cx="1905000" cy="393700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:srgbClr val="134F69"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1200" b="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
-            </a:rPr>
             <a:t>Active</a:t>
           </a:r>
         </a:p>
@@ -700,7 +1258,7 @@
         <xdr:cNvPr id="9" name="MenuItem - Complete">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79E89F27-A080-6BAA-F8C1-F787845C2442}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6698E691-A2AD-3F96-5D49-5116A8698315}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -785,7 +1343,7 @@
         <xdr:cNvPr id="10" name="MenuItem - Exit">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56B2715E-8833-CFB2-432A-74DCF25C3328}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{315EE960-CF46-D781-439A-3DB8913F91A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -862,15 +1420,15 @@
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>469900</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>136525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="12" name="Main Frame">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E0D070B-DDA2-D8A9-F394-0C3006B9221A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56EF5161-BF5B-AA00-E85B-5D5DF264DC83}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -879,7 +1437,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2159000" y="889000"/>
-          <a:ext cx="11303000" cy="800100"/>
+          <a:ext cx="11303000" cy="4572000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -887,10 +1445,10 @@
         <a:gradFill flip="none" rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
-              <a:srgbClr val="F1C40F"/>
+              <a:srgbClr val="FFFFFF"/>
             </a:gs>
             <a:gs pos="100000">
-              <a:srgbClr val="F1C40F"/>
+              <a:srgbClr val="FFFFFF"/>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="1"/>
@@ -968,7 +1526,7 @@
         <xdr:cNvPr id="11" name="Main Frame Header">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF4C53D0-DD4B-7A07-E4BB-C30CC4B32F21}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C76FE221-F079-DA61-0FF8-D09A96DBA065}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1038,7 +1596,7 @@
               </a:solidFill>
               <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>Workflows Requiring Attention</a:t>
+            <a:t>Active Workflows</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1058,12 +1616,12 @@
       <xdr:row>7</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIScreenCom.SortBy(&quot;Workflow No&quot;), &quot;UIForAction&quot;'" textlink="">
+    <xdr:sp macro="'ModUIScreenCom.SortBy(&quot;Workflow No&quot;), &quot;UIActive&quot;'" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="14" name="TextBox 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECB19378-AB42-2722-9433-66622AC533CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80FF1235-FFD6-57A3-B543-CBD09E806DAA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1149,12 +1707,12 @@
       <xdr:row>7</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIScreenCom.SortBy(&quot;Name&quot;), &quot;UIForAction&quot;'" textlink="">
+    <xdr:sp macro="'ModUIScreenCom.SortBy(&quot;Name&quot;), &quot;UIActive&quot;'" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="15" name="TextBox 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C79626F7-1EA6-C44C-794F-6B32F5953E2F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{633D9417-A1D3-F1A5-0D1C-BA188572A234}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1240,12 +1798,12 @@
       <xdr:row>7</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIScreenCom.SortBy(&quot;Step No&quot;), &quot;UIForAction&quot;'" textlink="">
+    <xdr:sp macro="'ModUIScreenCom.SortBy(&quot;Step No&quot;), &quot;UIActive&quot;'" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="16" name="TextBox 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86C0491D-1DAD-C72D-CCB2-E28AA7F3010F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A751BDDE-B4D7-6423-B74F-E13352426FBD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1331,12 +1889,12 @@
       <xdr:row>7</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIScreenCom.SortBy(&quot;Step Name&quot;), &quot;UIForAction&quot;'" textlink="">
+    <xdr:sp macro="'ModUIScreenCom.SortBy(&quot;Step Name&quot;), &quot;UIActive&quot;'" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="17" name="TextBox 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BAAB0399-37F0-CEA8-63A4-5E36BCD3C7A9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{602ABEC1-69A3-9952-7C9D-34C85B5A9A73}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1422,12 +1980,12 @@
       <xdr:row>7</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIScreenCom.SortBy(&quot;Status&quot;), &quot;UIForAction&quot;'" textlink="">
+    <xdr:sp macro="'ModUIScreenCom.SortBy(&quot;Status&quot;), &quot;UIActive&quot;'" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="18" name="TextBox 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{050D48FD-F1AB-799B-1744-4C1BCEBBA374}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F075BE6-5430-4E76-2CF3-A9E4E21C22AC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1502,461 +2060,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>330200</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="'ModUiForAction.OpenWorkflow(3)'" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="TextBox 18">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{595E9081-02A9-0D80-D11E-464436D4E871}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2159000" y="1422400"/>
-          <a:ext cx="1270000" cy="266700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
-        <a:ln w="0" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1000" b="0">
-              <a:solidFill>
-                <a:srgbClr val="434343"/>
-              </a:solidFill>
-              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>3</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>292100</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="'ModUiForAction.OpenWorkflow(3)'" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="TextBox 19">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DCDA433-A0A1-11B2-B0E6-2A2F84014973}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3429000" y="1422400"/>
-          <a:ext cx="2540000" cy="266700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
-        <a:ln w="0" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1000" b="0">
-              <a:solidFill>
-                <a:srgbClr val="434343"/>
-              </a:solidFill>
-              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>Jim Bob</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>292100</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>393700</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="'ModUiForAction.OpenWorkflow(3)'" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="TextBox 20">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13E9E35C-AD09-A920-FB71-39F6E288DE00}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5969000" y="1422400"/>
-          <a:ext cx="2540000" cy="266700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
-        <a:ln w="0" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1000" b="0">
-              <a:solidFill>
-                <a:srgbClr val="434343"/>
-              </a:solidFill>
-              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>1.02</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>393700</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="'ModUiForAction.OpenWorkflow(3)'" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="TextBox 21">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8297A586-A2A6-5F68-2ABB-18ECEDE3A7B5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8509000" y="1422400"/>
-          <a:ext cx="3683000" cy="266700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
-        <a:ln w="0" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1000" b="0">
-              <a:solidFill>
-                <a:srgbClr val="434343"/>
-              </a:solidFill>
-              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>Fact Find provided to Client</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>469900</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="'ModUiForAction.OpenWorkflow(3)'" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="TextBox 22">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{772617D4-BFC1-8DA2-4FE5-E5AAB023ABA6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12192000" y="1422400"/>
-          <a:ext cx="1270000" cy="266700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="BAFF29"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="BAFF29"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
-        <a:ln w="0" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100" b="0">
-              <a:solidFill>
-                <a:srgbClr val="434343"/>
-              </a:solidFill>
-              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>Action Req'd</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
       <xdr:row>1</xdr:row>
@@ -1973,7 +2076,7 @@
         <xdr:cNvPr id="13" name="BtnMain1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E14F3243-26DE-9639-08A1-56D06EB3196E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2FE09B3-4719-2C69-0997-462DBCDBDF5E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2051,6 +2154,251 @@
             </a:rPr>
             <a:t>New Workflow</a:t>
           </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rectangle 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C9CC503-ACAD-69A7-7814-035421D32E61}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="127000" cy="127000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rectangle 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49AE2FE5-AFE2-9F92-BBE8-A5AC442A7277}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="127000" cy="127000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Rectangle 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E8FD1D0-2FF0-5D50-4BC4-326DC6B1C54B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="127000" cy="127000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Rectangle 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE4D94DD-034F-2062-0EE7-4665C0D24815}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="127000" cy="127000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2394,7 +2742,7 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2404,4 +2752,2012 @@
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29DBF781-377D-4D51-BB7A-ACB62E9EAE6C}">
+  <sheetPr codeName="ShtTableImport"/>
+  <dimension ref="A1:Y42"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="6" width="13.85546875" customWidth="1"/>
+    <col min="7" max="7" width="36.7109375" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" customWidth="1"/>
+    <col min="9" max="9" width="13.85546875" customWidth="1"/>
+    <col min="10" max="10" width="79.5703125" customWidth="1"/>
+    <col min="11" max="17" width="13.85546875" customWidth="1"/>
+    <col min="18" max="18" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="25" width="13.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N2" s="4">
+        <v>2</v>
+      </c>
+      <c r="O2" s="4">
+        <v>1</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="R2" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N3" s="4">
+        <v>2</v>
+      </c>
+      <c r="O3" s="4">
+        <v>1</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M4" s="3">
+        <v>1.03</v>
+      </c>
+      <c r="N4" s="4">
+        <v>2</v>
+      </c>
+      <c r="O4" s="4">
+        <v>1</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="b">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="K5" s="5">
+        <v>1.06</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="M5" s="3">
+        <v>1.05</v>
+      </c>
+      <c r="N5" s="4">
+        <v>2</v>
+      </c>
+      <c r="O5" s="4">
+        <v>1</v>
+      </c>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="Y5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K6" s="5">
+        <v>1.06</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="M6" s="3"/>
+      <c r="N6" s="4">
+        <v>2</v>
+      </c>
+      <c r="O6" s="4">
+        <v>1</v>
+      </c>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="Y6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="b">
+        <v>0</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N7" s="4">
+        <v>2</v>
+      </c>
+      <c r="O7" s="4">
+        <v>1</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="b">
+        <v>0</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="M8" s="3"/>
+      <c r="N8" s="4">
+        <v>2</v>
+      </c>
+      <c r="O8" s="4">
+        <v>1</v>
+      </c>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="Y8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="b">
+        <v>0</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N9" s="4">
+        <v>2</v>
+      </c>
+      <c r="O9" s="4">
+        <v>1</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="b">
+        <v>1</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="M10" s="3">
+        <v>1.08</v>
+      </c>
+      <c r="N10" s="4">
+        <v>2</v>
+      </c>
+      <c r="O10" s="4">
+        <v>1</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="b">
+        <v>0</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N11" s="4">
+        <v>2</v>
+      </c>
+      <c r="O11" s="4">
+        <v>1</v>
+      </c>
+      <c r="P11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N12" s="4">
+        <v>2</v>
+      </c>
+      <c r="O12" s="4">
+        <v>1</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="b">
+        <v>1</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="M13" s="3">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="N13" s="4">
+        <v>2</v>
+      </c>
+      <c r="O13" s="4">
+        <v>1</v>
+      </c>
+      <c r="P13" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q13" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="b">
+        <v>0</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N14" s="4">
+        <v>2</v>
+      </c>
+      <c r="O14" s="4">
+        <v>1</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="b">
+        <v>1</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="M15" s="3">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="N15" s="4">
+        <v>2</v>
+      </c>
+      <c r="O15" s="4">
+        <v>1</v>
+      </c>
+      <c r="P15" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q15" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="b">
+        <v>1</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="M16" s="3">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="N16" s="4">
+        <v>2</v>
+      </c>
+      <c r="O16" s="4">
+        <v>1</v>
+      </c>
+      <c r="P16" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q16" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="b">
+        <v>1</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="M17" s="3">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="N17" s="4">
+        <v>2</v>
+      </c>
+      <c r="O17" s="4">
+        <v>1</v>
+      </c>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="Y17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="b">
+        <v>0</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N18" s="4">
+        <v>2</v>
+      </c>
+      <c r="O18" s="4">
+        <v>1</v>
+      </c>
+      <c r="P18" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q18" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="b">
+        <v>1</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="M19" s="3">
+        <v>1.17</v>
+      </c>
+      <c r="N19" s="4">
+        <v>2</v>
+      </c>
+      <c r="O19" s="4">
+        <v>1</v>
+      </c>
+      <c r="P19" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q19" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="b">
+        <v>1</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N20" s="4">
+        <v>2</v>
+      </c>
+      <c r="O20" s="4">
+        <v>1</v>
+      </c>
+      <c r="P20" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q20" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="b">
+        <v>0</v>
+      </c>
+      <c r="D21" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N21" s="4">
+        <v>2</v>
+      </c>
+      <c r="O21" s="4">
+        <v>1</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="R21" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="b">
+        <v>1</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="M22" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="N22" s="4">
+        <v>2</v>
+      </c>
+      <c r="O22" s="4">
+        <v>1</v>
+      </c>
+      <c r="P22" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q22" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y22">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="b">
+        <v>1</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="M23" s="3">
+        <v>1.21</v>
+      </c>
+      <c r="N23" s="4">
+        <v>2</v>
+      </c>
+      <c r="O23" s="4">
+        <v>1</v>
+      </c>
+      <c r="P23" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q23" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y23">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="b">
+        <v>1</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="M24" s="3">
+        <v>1.22</v>
+      </c>
+      <c r="N24" s="4">
+        <v>2</v>
+      </c>
+      <c r="O24" s="4">
+        <v>1</v>
+      </c>
+      <c r="P24" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q24" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y24">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="b">
+        <v>1</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="L25" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="M25" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N25" s="4">
+        <v>2</v>
+      </c>
+      <c r="O25" s="4">
+        <v>1</v>
+      </c>
+      <c r="P25" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q25" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="b">
+        <v>1</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N26" s="4">
+        <v>2</v>
+      </c>
+      <c r="O26" s="4">
+        <v>1</v>
+      </c>
+      <c r="P26" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q26" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y26">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="b">
+        <v>1</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="L27" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N27" s="4">
+        <v>2</v>
+      </c>
+      <c r="O27" s="4">
+        <v>1</v>
+      </c>
+      <c r="P27" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q27" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y27">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="b">
+        <v>1</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="K28" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="L28" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="M28" s="3">
+        <v>1.26</v>
+      </c>
+      <c r="N28" s="4">
+        <v>2</v>
+      </c>
+      <c r="O28" s="4">
+        <v>1</v>
+      </c>
+      <c r="P28" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q28" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y28">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="b">
+        <v>1</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="M29" s="3">
+        <v>1.27</v>
+      </c>
+      <c r="N29" s="4">
+        <v>2</v>
+      </c>
+      <c r="O29" s="4">
+        <v>1</v>
+      </c>
+      <c r="P29" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q29" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y29">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>1</v>
+      </c>
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" t="b">
+        <v>1</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="K30" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="L30" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="M30" s="3"/>
+      <c r="N30" s="4">
+        <v>2</v>
+      </c>
+      <c r="O30" s="4">
+        <v>1</v>
+      </c>
+      <c r="P30" s="3"/>
+      <c r="Q30" s="3"/>
+      <c r="Y30">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>1</v>
+      </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" t="b">
+        <v>1</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="J31" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="K31" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="L31" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="M31" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N31" s="4">
+        <v>2</v>
+      </c>
+      <c r="O31" s="4">
+        <v>1</v>
+      </c>
+      <c r="P31" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q31" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y31">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>1</v>
+      </c>
+      <c r="B32" t="s">
+        <v>25</v>
+      </c>
+      <c r="C32" t="b">
+        <v>1</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="L32" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N32" s="4">
+        <v>2</v>
+      </c>
+      <c r="O32" s="4">
+        <v>1</v>
+      </c>
+      <c r="P32" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q32" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y32">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>1</v>
+      </c>
+      <c r="B33" t="s">
+        <v>25</v>
+      </c>
+      <c r="C33" t="b">
+        <v>1</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="L33" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="M33" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N33" s="4">
+        <v>2</v>
+      </c>
+      <c r="O33" s="4">
+        <v>1</v>
+      </c>
+      <c r="P33" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q33" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y33">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>1</v>
+      </c>
+      <c r="B34" t="s">
+        <v>25</v>
+      </c>
+      <c r="C34" t="b">
+        <v>1</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="J34" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="K34" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="L34" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="M34" s="3"/>
+      <c r="N34" s="4">
+        <v>2</v>
+      </c>
+      <c r="O34" s="4">
+        <v>1</v>
+      </c>
+      <c r="P34" s="3"/>
+      <c r="Q34" s="3"/>
+      <c r="Y34">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25" ht="45" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>1</v>
+      </c>
+      <c r="B35" t="s">
+        <v>25</v>
+      </c>
+      <c r="C35" t="b">
+        <v>1</v>
+      </c>
+      <c r="D35" t="s">
+        <v>26</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="L35" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="M35" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N35" s="4">
+        <v>2</v>
+      </c>
+      <c r="O35" s="4">
+        <v>1</v>
+      </c>
+      <c r="P35" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q35" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="R35" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>1</v>
+      </c>
+      <c r="B36" t="s">
+        <v>25</v>
+      </c>
+      <c r="C36" t="b">
+        <v>0</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="J36" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="K36" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="L36" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="M36" s="3"/>
+      <c r="N36" s="4">
+        <v>2</v>
+      </c>
+      <c r="O36" s="4">
+        <v>1</v>
+      </c>
+      <c r="P36" s="3"/>
+      <c r="Q36" s="3"/>
+      <c r="Y36">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>1</v>
+      </c>
+      <c r="B37" t="s">
+        <v>25</v>
+      </c>
+      <c r="C37" t="b">
+        <v>0</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="J37" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="K37" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="L37" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="M37" s="3">
+        <v>1.35</v>
+      </c>
+      <c r="N37" s="4">
+        <v>2</v>
+      </c>
+      <c r="O37" s="4">
+        <v>1</v>
+      </c>
+      <c r="P37" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q37" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y37">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25" ht="45" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>1</v>
+      </c>
+      <c r="B38" t="s">
+        <v>25</v>
+      </c>
+      <c r="C38" t="b">
+        <v>0</v>
+      </c>
+      <c r="D38" t="s">
+        <v>26</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="J38" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="K38" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="L38" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="M38" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N38" s="4">
+        <v>2</v>
+      </c>
+      <c r="O38" s="4">
+        <v>1</v>
+      </c>
+      <c r="P38" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q38" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="R38" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y38">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>1</v>
+      </c>
+      <c r="B39" t="s">
+        <v>25</v>
+      </c>
+      <c r="C39" t="b">
+        <v>1</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="J39" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="K39" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="L39" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="M39" s="3">
+        <v>1.37</v>
+      </c>
+      <c r="N39" s="4">
+        <v>2</v>
+      </c>
+      <c r="O39" s="4">
+        <v>1</v>
+      </c>
+      <c r="P39" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q39" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y39">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>1</v>
+      </c>
+      <c r="B40" t="s">
+        <v>25</v>
+      </c>
+      <c r="C40" t="b">
+        <v>0</v>
+      </c>
+      <c r="D40" t="s">
+        <v>26</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="J40" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="K40" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="L40" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="M40" s="3"/>
+      <c r="N40" s="4">
+        <v>2</v>
+      </c>
+      <c r="O40" s="4">
+        <v>1</v>
+      </c>
+      <c r="P40" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q40" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="R40" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y40">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:25" ht="45" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>1</v>
+      </c>
+      <c r="B41" t="s">
+        <v>25</v>
+      </c>
+      <c r="C41" t="b">
+        <v>0</v>
+      </c>
+      <c r="D41" t="s">
+        <v>26</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="K41" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="L41" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="M41" s="3"/>
+      <c r="N41" s="4">
+        <v>2</v>
+      </c>
+      <c r="O41" s="4">
+        <v>1</v>
+      </c>
+      <c r="P41" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q41" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="R41" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y41">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>1</v>
+      </c>
+      <c r="B42" t="s">
+        <v>25</v>
+      </c>
+      <c r="C42" t="b">
+        <v>0</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="K42" s="3">
+        <v>0</v>
+      </c>
+      <c r="L42" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="M42" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N42" s="4">
+        <v>2</v>
+      </c>
+      <c r="O42" s="4">
+        <v>1</v>
+      </c>
+      <c r="P42" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q42" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y42">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="C1:N42" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/CBS Workflow.xlsx
+++ b/CBS Workflow.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\CBSWorkflow\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EDFE8772-2616-4C9A-8918-AA060635A56C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4976773D-E625-46C0-AA08-4785AF5B6B6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3855" yWindow="3855" windowWidth="38700" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="1020" windowWidth="21600" windowHeight="15180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="6" r:id="rId1"/>
@@ -677,7 +677,7 @@
         <xdr:cNvPr id="2" name="Main Screen">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FDDAD1A-4B15-2192-DEBE-967203930D44}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E87AB3C-4E70-4F1A-D728-E7A6EC25F2DB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -819,7 +819,7 @@
         <xdr:cNvPr id="5" name="Rectangle 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54397769-34C3-F671-6AD4-F385E5D88BAA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B58C004-D97B-1E60-9FEF-91F1EA398BEC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -879,7 +879,7 @@
         <xdr:cNvPr id="4" name="MenuBar">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8712810-071E-E76A-FF9C-51331AA1B7A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CFE351E2-97D5-24F8-3236-0A778BCD1CEE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -968,7 +968,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D8D2825-602A-647A-D8EC-AB0BB8100996}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63C8A3B5-0EF3-95DC-7D1B-1A530F7F202A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1028,7 +1028,7 @@
         <xdr:cNvPr id="6" name="Logo">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61C95436-F907-F137-17BE-343C62D2ABFC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AED57304-EA96-2F83-0E82-0E53A8814206}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1078,7 +1078,7 @@
         <xdr:cNvPr id="7" name="MenuItem - For Action">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B0762FB-FFD4-CE92-C7E1-4AB2A8F26E01}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE063F23-B147-4AF0-F056-C623F01AB650}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1163,7 +1163,7 @@
         <xdr:cNvPr id="8" name="MenuItem - Active">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5B37C0D-95B7-56FD-2795-514AE022A8C8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6D7904E-598D-905F-EC93-0E3F24F6A8FE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1258,7 +1258,7 @@
         <xdr:cNvPr id="9" name="MenuItem - Complete">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6698E691-A2AD-3F96-5D49-5116A8698315}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DFAED3E-0FD1-4107-EB46-98F225AD0EA6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1343,7 +1343,7 @@
         <xdr:cNvPr id="10" name="MenuItem - Exit">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{315EE960-CF46-D781-439A-3DB8913F91A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0549655B-8AC4-FE24-66E8-3DF06268CEA7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1428,7 +1428,7 @@
         <xdr:cNvPr id="12" name="Main Frame">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56EF5161-BF5B-AA00-E85B-5D5DF264DC83}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03B1BB3C-E52F-ABA0-60B0-679A8D4A457B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1526,7 +1526,7 @@
         <xdr:cNvPr id="11" name="Main Frame Header">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C76FE221-F079-DA61-0FF8-D09A96DBA065}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9D17A26-C0CE-546A-E17F-B28A0650E3C1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1621,7 +1621,7 @@
         <xdr:cNvPr id="14" name="TextBox 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80FF1235-FFD6-57A3-B543-CBD09E806DAA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5285ABA3-80DA-54C4-8A8F-D58854EE1809}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1712,7 +1712,7 @@
         <xdr:cNvPr id="15" name="TextBox 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{633D9417-A1D3-F1A5-0D1C-BA188572A234}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51B5C752-15D8-CB0B-0CE3-059B4E71E7CD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1803,7 +1803,7 @@
         <xdr:cNvPr id="16" name="TextBox 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A751BDDE-B4D7-6423-B74F-E13352426FBD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D0AD52F-CA0D-572D-5A08-A0AC7F86FC40}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1894,7 +1894,7 @@
         <xdr:cNvPr id="17" name="TextBox 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{602ABEC1-69A3-9952-7C9D-34C85B5A9A73}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47484D5F-35F0-2E1A-A6B2-EF8C33F53C72}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1985,7 +1985,7 @@
         <xdr:cNvPr id="18" name="TextBox 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F075BE6-5430-4E76-2CF3-A9E4E21C22AC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E46E0273-4226-4635-F44A-BDBFBD63B62F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2076,7 +2076,7 @@
         <xdr:cNvPr id="13" name="BtnMain1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2FE09B3-4719-2C69-0997-462DBCDBDF5E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A41B61CD-7EF1-99CD-63D8-AB6E30AE7435}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>

--- a/CBS Workflow.xlsx
+++ b/CBS Workflow.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\CBSWorkflow\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4976773D-E625-46C0-AA08-4785AF5B6B6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{453CB69D-7068-4F24-A581-9FB050DEF30B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="1020" windowWidth="21600" windowHeight="15180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="6" r:id="rId1"/>
@@ -677,7 +677,7 @@
         <xdr:cNvPr id="2" name="Main Screen">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E87AB3C-4E70-4F1A-D728-E7A6EC25F2DB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B597D539-61F3-FD9C-FD96-9BD84EA715C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -819,7 +819,7 @@
         <xdr:cNvPr id="5" name="Rectangle 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B58C004-D97B-1E60-9FEF-91F1EA398BEC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DF035D4-498B-4967-A40A-CB4F4CA961C2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -879,7 +879,7 @@
         <xdr:cNvPr id="4" name="MenuBar">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CFE351E2-97D5-24F8-3236-0A778BCD1CEE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A0A6F2B-2B2E-0C4B-B0EB-8E265CF70098}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -968,7 +968,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63C8A3B5-0EF3-95DC-7D1B-1A530F7F202A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B9F2C47-3E21-252A-CAB5-C9ECD5DA144B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1028,7 +1028,7 @@
         <xdr:cNvPr id="6" name="Logo">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AED57304-EA96-2F83-0E82-0E53A8814206}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF49AFA2-CAFA-C814-4030-425E84BD90FD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1078,7 +1078,7 @@
         <xdr:cNvPr id="7" name="MenuItem - For Action">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE063F23-B147-4AF0-F056-C623F01AB650}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51F45FA9-C97B-AA31-EA6F-2FED087E6017}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1087,91 +1087,6 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="1905000"/>
-          <a:ext cx="1905000" cy="393700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:srgbClr val="134F69"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1200" b="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>For Action</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="'ModUIMenu.ProcessBtnPress(2)'" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="MenuItem - Active">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6D7904E-598D-905F-EC93-0E3F24F6A8FE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="2286000"/>
           <a:ext cx="1905000" cy="393700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1233,6 +1148,91 @@
               </a:solidFill>
               <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
             </a:rPr>
+            <a:t>For Action</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIMenu.ProcessBtnPress(2)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="MenuItem - Active">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10AE81AC-7E10-3E45-E0E7-1FBCBE05AA6A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="2286000"/>
+          <a:ext cx="1905000" cy="393700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="134F69"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1200" b="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
+            </a:rPr>
             <a:t>Active</a:t>
           </a:r>
         </a:p>
@@ -1258,7 +1258,7 @@
         <xdr:cNvPr id="9" name="MenuItem - Complete">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DFAED3E-0FD1-4107-EB46-98F225AD0EA6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9FD882A-08D3-81F0-0929-9BDE7A1E98E5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1343,7 +1343,7 @@
         <xdr:cNvPr id="10" name="MenuItem - Exit">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0549655B-8AC4-FE24-66E8-3DF06268CEA7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19158AC9-7ED1-8090-8195-E79D704476F6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1420,15 +1420,15 @@
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>469900</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>136525</xdr:rowOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="12" name="Main Frame">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03B1BB3C-E52F-ABA0-60B0-679A8D4A457B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F5B3E0D-7711-EF0C-ADA1-238F4ABA1DB1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1437,7 +1437,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2159000" y="889000"/>
-          <a:ext cx="11303000" cy="4572000"/>
+          <a:ext cx="11303000" cy="800100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1526,7 +1526,7 @@
         <xdr:cNvPr id="11" name="Main Frame Header">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9D17A26-C0CE-546A-E17F-B28A0650E3C1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F84B5AC-6820-F93E-BCEE-E246A8CB1709}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1596,7 +1596,7 @@
               </a:solidFill>
               <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>Active Workflows</a:t>
+            <a:t>Workflows Requiring Attention</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1616,12 +1616,12 @@
       <xdr:row>7</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIScreenCom.SortBy(&quot;Workflow No&quot;), &quot;UIActive&quot;'" textlink="">
+    <xdr:sp macro="'ModUIScreenCom.SortBy(&quot;Workflow No&quot;), &quot;UIForAction&quot;'" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="14" name="TextBox 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5285ABA3-80DA-54C4-8A8F-D58854EE1809}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95EBB572-ADC3-2661-4690-1D364EB36B2C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1707,12 +1707,12 @@
       <xdr:row>7</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIScreenCom.SortBy(&quot;Name&quot;), &quot;UIActive&quot;'" textlink="">
+    <xdr:sp macro="'ModUIScreenCom.SortBy(&quot;Name&quot;), &quot;UIForAction&quot;'" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="15" name="TextBox 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51B5C752-15D8-CB0B-0CE3-059B4E71E7CD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3F79C4F-F926-9983-8081-19ED6F1EB1F7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1798,12 +1798,12 @@
       <xdr:row>7</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIScreenCom.SortBy(&quot;Step No&quot;), &quot;UIActive&quot;'" textlink="">
+    <xdr:sp macro="'ModUIScreenCom.SortBy(&quot;Step No&quot;), &quot;UIForAction&quot;'" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="16" name="TextBox 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D0AD52F-CA0D-572D-5A08-A0AC7F86FC40}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8ED1510-02CB-AA81-13D2-629A5DE6FE4A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1889,12 +1889,12 @@
       <xdr:row>7</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIScreenCom.SortBy(&quot;Step Name&quot;), &quot;UIActive&quot;'" textlink="">
+    <xdr:sp macro="'ModUIScreenCom.SortBy(&quot;Step Name&quot;), &quot;UIForAction&quot;'" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="17" name="TextBox 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47484D5F-35F0-2E1A-A6B2-EF8C33F53C72}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95CE746D-BD92-A3CF-1A5C-44E7D548AE54}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1980,12 +1980,12 @@
       <xdr:row>7</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIScreenCom.SortBy(&quot;Status&quot;), &quot;UIActive&quot;'" textlink="">
+    <xdr:sp macro="'ModUIScreenCom.SortBy(&quot;Status&quot;), &quot;UIForAction&quot;'" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="18" name="TextBox 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E46E0273-4226-4635-F44A-BDBFBD63B62F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7AA86A3-2B5E-B3A1-B1E1-3D30DE51972B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2060,6 +2060,458 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUiForAction.OpenWorkflow(1)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="TextBox 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4159F71-5FEB-12E8-FD06-9C2F3E19EB2A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2159000" y="1422400"/>
+          <a:ext cx="1270000" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="0">
+              <a:solidFill>
+                <a:srgbClr val="434343"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>292100</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUiForAction.OpenWorkflow(1)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="TextBox 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D35837FB-CE16-6FD3-0275-CD4DE6AEE9DE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3429000" y="1422400"/>
+          <a:ext cx="2540000" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-GB" sz="1000" b="0">
+            <a:solidFill>
+              <a:srgbClr val="434343"/>
+            </a:solidFill>
+            <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>292100</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUiForAction.OpenWorkflow(1)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="TextBox 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A917674-AF20-3F33-A47F-0F39D2155303}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5969000" y="1422400"/>
+          <a:ext cx="2540000" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="0">
+              <a:solidFill>
+                <a:srgbClr val="434343"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>1.01</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUiForAction.OpenWorkflow(1)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="TextBox 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FE32804-DED1-BCAE-F04D-0AEE25DAF48A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8509000" y="1422400"/>
+          <a:ext cx="3683000" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="0">
+              <a:solidFill>
+                <a:srgbClr val="434343"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Fact Find to Client</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>469900</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUiForAction.OpenWorkflow(1)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="TextBox 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3088090-E8D2-24C2-85B7-6B8741ACE199}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12192000" y="1422400"/>
+          <a:ext cx="1270000" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="BAFF29"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="BAFF29"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="0">
+              <a:solidFill>
+                <a:srgbClr val="434343"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Action Req'd</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
       <xdr:row>1</xdr:row>
@@ -2076,7 +2528,7 @@
         <xdr:cNvPr id="13" name="BtnMain1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A41B61CD-7EF1-99CD-63D8-AB6E30AE7435}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2743F87D-24D0-809C-FD73-F66836359E17}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2742,7 +3194,7 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/CBS Workflow.xlsx
+++ b/CBS Workflow.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\CBSWorkflow\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/50f47e56877e2071/Documents/Development Areas/CBS Workflow/Library/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{453CB69D-7068-4F24-A581-9FB050DEF30B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{048F7751-D3FE-4A8F-9779-E43919931CFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10800" yWindow="2730" windowWidth="38700" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="6" r:id="rId1"/>
@@ -674,10 +674,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Main Screen">
+        <xdr:cNvPr id="24" name="Main Screen">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B597D539-61F3-FD9C-FD96-9BD84EA715C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDCCE084-7F61-13CE-7A07-C72D4B82663B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -816,10 +816,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Rectangle 4">
+        <xdr:cNvPr id="27" name="Rectangle 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DF035D4-498B-4967-A40A-CB4F4CA961C2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{179F090C-D56D-7232-8FC2-067A5742F9EF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -876,10 +876,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="MenuBar">
+        <xdr:cNvPr id="26" name="MenuBar">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A0A6F2B-2B2E-0C4B-B0EB-8E265CF70098}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4F70CDC-4225-A86A-50E6-B5E10EBDC7BC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -965,10 +965,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Rectangle 2" hidden="1">
+        <xdr:cNvPr id="25" name="Rectangle 24" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B9F2C47-3E21-252A-CAB5-C9ECD5DA144B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE32A34E-15FD-546C-930F-B89EE75B6B17}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1025,10 +1025,10 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Logo">
+        <xdr:cNvPr id="28" name="Logo">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF49AFA2-CAFA-C814-4030-425E84BD90FD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE0EC78D-88E7-A4D8-4216-85E0751436FF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1075,10 +1075,10 @@
     </xdr:to>
     <xdr:sp macro="'ModUIMenu.ProcessBtnPress(1)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="MenuItem - For Action">
+        <xdr:cNvPr id="29" name="MenuItem - For Action">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51F45FA9-C97B-AA31-EA6F-2FED087E6017}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22243BA8-71DF-3B71-F2CE-B461E3794C6D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1170,10 +1170,10 @@
     </xdr:to>
     <xdr:sp macro="'ModUIMenu.ProcessBtnPress(2)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="MenuItem - Active">
+        <xdr:cNvPr id="30" name="MenuItem - Active">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10AE81AC-7E10-3E45-E0E7-1FBCBE05AA6A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A16DA888-9237-7CC7-FB97-CD61F164118E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1255,10 +1255,10 @@
     </xdr:to>
     <xdr:sp macro="'ModUIMenu.ProcessBtnPress(3)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="MenuItem - Complete">
+        <xdr:cNvPr id="31" name="MenuItem - Complete">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9FD882A-08D3-81F0-0929-9BDE7A1E98E5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80401883-5482-FB92-269D-210F36AF5DB5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1340,10 +1340,10 @@
     </xdr:to>
     <xdr:sp macro="'ModUIMenu.ProcessBtnPress(4)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="MenuItem - Exit">
+        <xdr:cNvPr id="32" name="MenuItem - Exit">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19158AC9-7ED1-8090-8195-E79D704476F6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42ED3ECE-4127-8C37-60DF-1A6372A3FAFE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1425,10 +1425,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="Main Frame">
+        <xdr:cNvPr id="34" name="Main Frame">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F5B3E0D-7711-EF0C-ADA1-238F4ABA1DB1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F80416CB-FEC4-A166-C6AA-F253476E4B1D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1523,10 +1523,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="Main Frame Header">
+        <xdr:cNvPr id="33" name="Main Frame Header">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F84B5AC-6820-F93E-BCEE-E246A8CB1709}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B59C09A-BBC6-1722-18A7-9E2762C3E256}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1618,10 +1618,10 @@
     </xdr:to>
     <xdr:sp macro="'ModUIScreenCom.SortBy(&quot;Workflow No&quot;), &quot;UIForAction&quot;'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="TextBox 13">
+        <xdr:cNvPr id="36" name="TextBox 35">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95EBB572-ADC3-2661-4690-1D364EB36B2C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C7F9778-BCAC-8DBB-9A43-CECAE58680EB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1709,10 +1709,10 @@
     </xdr:to>
     <xdr:sp macro="'ModUIScreenCom.SortBy(&quot;Name&quot;), &quot;UIForAction&quot;'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="TextBox 14">
+        <xdr:cNvPr id="37" name="TextBox 36">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3F79C4F-F926-9983-8081-19ED6F1EB1F7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{071EE52F-040D-5E38-4867-B49F2EF56EBE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1800,10 +1800,10 @@
     </xdr:to>
     <xdr:sp macro="'ModUIScreenCom.SortBy(&quot;Step No&quot;), &quot;UIForAction&quot;'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="TextBox 15">
+        <xdr:cNvPr id="38" name="TextBox 37">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8ED1510-02CB-AA81-13D2-629A5DE6FE4A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F7F4933-8C32-33D6-63AC-6B1F11CBF31E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1891,10 +1891,10 @@
     </xdr:to>
     <xdr:sp macro="'ModUIScreenCom.SortBy(&quot;Step Name&quot;), &quot;UIForAction&quot;'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="TextBox 16">
+        <xdr:cNvPr id="39" name="TextBox 38">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95CE746D-BD92-A3CF-1A5C-44E7D548AE54}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9F8AD46-2D46-CBD2-BA47-2B73DFE20A79}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1982,10 +1982,10 @@
     </xdr:to>
     <xdr:sp macro="'ModUIScreenCom.SortBy(&quot;Status&quot;), &quot;UIForAction&quot;'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="TextBox 17">
+        <xdr:cNvPr id="40" name="TextBox 39">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7AA86A3-2B5E-B3A1-B1E1-3D30DE51972B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4123D8F2-BA1F-3DDD-2360-324F31EBF8A1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2073,10 +2073,10 @@
     </xdr:to>
     <xdr:sp macro="'ModUiForAction.OpenWorkflow(1)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="TextBox 18">
+        <xdr:cNvPr id="41" name="TextBox 40">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4159F71-5FEB-12E8-FD06-9C2F3E19EB2A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{404C81D6-B3DE-67AE-E41F-ADF4020E40AE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2164,10 +2164,10 @@
     </xdr:to>
     <xdr:sp macro="'ModUiForAction.OpenWorkflow(1)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="TextBox 19">
+        <xdr:cNvPr id="42" name="TextBox 41">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D35837FB-CE16-6FD3-0275-CD4DE6AEE9DE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C82EC9EF-7356-9251-FC80-96BE647B07A8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2252,10 +2252,10 @@
     </xdr:to>
     <xdr:sp macro="'ModUiForAction.OpenWorkflow(1)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="TextBox 20">
+        <xdr:cNvPr id="43" name="TextBox 42">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A917674-AF20-3F33-A47F-0F39D2155303}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C061400E-3834-4679-939B-381751D27DF4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2343,10 +2343,10 @@
     </xdr:to>
     <xdr:sp macro="'ModUiForAction.OpenWorkflow(1)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="TextBox 21">
+        <xdr:cNvPr id="44" name="TextBox 43">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FE32804-DED1-BCAE-F04D-0AEE25DAF48A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{229531E5-D383-3727-50D3-A3A8EE191DAD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2434,10 +2434,10 @@
     </xdr:to>
     <xdr:sp macro="'ModUiForAction.OpenWorkflow(1)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="TextBox 22">
+        <xdr:cNvPr id="45" name="TextBox 44">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3088090-E8D2-24C2-85B7-6B8741ACE199}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FAD1E27E-1BE5-F146-DC43-544C5438CE53}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2525,10 +2525,10 @@
     </xdr:to>
     <xdr:sp macro="'ModUIScreenCom.ProcessBtnPress(6)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="BtnMain1">
+        <xdr:cNvPr id="35" name="BtnMain1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2743F87D-24D0-809C-FD73-F66836359E17}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FCFE6AC-D629-6A82-6854-420193486FAD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>

--- a/CBS Workflow.xlsx
+++ b/CBS Workflow.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/50f47e56877e2071/Documents/Development Areas/CBS Workflow/Library/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\CBSWorkflow\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{048F7751-D3FE-4A8F-9779-E43919931CFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2EF962E9-37D5-41B8-A0EA-5F427445D3D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10800" yWindow="2730" windowWidth="38700" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="6" r:id="rId1"/>
@@ -674,10 +674,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="Main Screen">
+        <xdr:cNvPr id="2" name="Main Screen">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDCCE084-7F61-13CE-7A07-C72D4B82663B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94B6ABCF-047D-5D5C-8DEA-188A98EF6205}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -816,10 +816,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="27" name="Rectangle 26">
+        <xdr:cNvPr id="5" name="Rectangle 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{179F090C-D56D-7232-8FC2-067A5742F9EF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01182D12-1190-1679-CF22-39A451DF86E0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -876,10 +876,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="26" name="MenuBar">
+        <xdr:cNvPr id="4" name="MenuBar">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4F70CDC-4225-A86A-50E6-B5E10EBDC7BC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2D47153-04DB-1D89-2620-319B4B684242}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -965,10 +965,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="25" name="Rectangle 24" hidden="1">
+        <xdr:cNvPr id="3" name="Rectangle 2" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE32A34E-15FD-546C-930F-B89EE75B6B17}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47BD3C45-90AD-1765-5E01-1D5BC987433F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1025,10 +1025,10 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="28" name="Logo">
+        <xdr:cNvPr id="6" name="Logo">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE0EC78D-88E7-A4D8-4216-85E0751436FF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73737E89-D1A7-D12A-0A66-E70A73C67E25}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1075,10 +1075,10 @@
     </xdr:to>
     <xdr:sp macro="'ModUIMenu.ProcessBtnPress(1)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="29" name="MenuItem - For Action">
+        <xdr:cNvPr id="7" name="MenuItem - For Action">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22243BA8-71DF-3B71-F2CE-B461E3794C6D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7975028C-F246-2A23-5CC8-695B1F736D13}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1170,10 +1170,10 @@
     </xdr:to>
     <xdr:sp macro="'ModUIMenu.ProcessBtnPress(2)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="30" name="MenuItem - Active">
+        <xdr:cNvPr id="8" name="MenuItem - Active">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A16DA888-9237-7CC7-FB97-CD61F164118E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93B05DBA-07F0-C1C4-C9ED-5C2F77E3B074}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1255,10 +1255,10 @@
     </xdr:to>
     <xdr:sp macro="'ModUIMenu.ProcessBtnPress(3)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="31" name="MenuItem - Complete">
+        <xdr:cNvPr id="9" name="MenuItem - Complete">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80401883-5482-FB92-269D-210F36AF5DB5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{198836AA-4A16-474D-48E9-105D006218F3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1340,10 +1340,10 @@
     </xdr:to>
     <xdr:sp macro="'ModUIMenu.ProcessBtnPress(4)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="32" name="MenuItem - Exit">
+        <xdr:cNvPr id="10" name="MenuItem - Exit">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42ED3ECE-4127-8C37-60DF-1A6372A3FAFE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDE7CA2E-C2A0-22CF-7E75-298BD773B79C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1425,10 +1425,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="34" name="Main Frame">
+        <xdr:cNvPr id="12" name="Main Frame">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F80416CB-FEC4-A166-C6AA-F253476E4B1D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C363C49-0855-88B0-5293-56E0BB2E5F99}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1523,10 +1523,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="33" name="Main Frame Header">
+        <xdr:cNvPr id="11" name="Main Frame Header">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B59C09A-BBC6-1722-18A7-9E2762C3E256}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC969CFF-B5A4-FC84-66B8-7AFFB45523AC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1618,10 +1618,10 @@
     </xdr:to>
     <xdr:sp macro="'ModUIScreenCom.SortBy(&quot;Workflow No&quot;), &quot;UIForAction&quot;'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="36" name="TextBox 35">
+        <xdr:cNvPr id="14" name="TextBox 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C7F9778-BCAC-8DBB-9A43-CECAE58680EB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2F857E8-BDA1-B3D0-4242-FCF413403CC6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1709,10 +1709,10 @@
     </xdr:to>
     <xdr:sp macro="'ModUIScreenCom.SortBy(&quot;Name&quot;), &quot;UIForAction&quot;'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="37" name="TextBox 36">
+        <xdr:cNvPr id="15" name="TextBox 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{071EE52F-040D-5E38-4867-B49F2EF56EBE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31377A72-8919-D5F5-09E5-6BFE0E55E737}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1800,10 +1800,10 @@
     </xdr:to>
     <xdr:sp macro="'ModUIScreenCom.SortBy(&quot;Step No&quot;), &quot;UIForAction&quot;'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="38" name="TextBox 37">
+        <xdr:cNvPr id="16" name="TextBox 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F7F4933-8C32-33D6-63AC-6B1F11CBF31E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09092D4D-6F4B-CDE4-F6E7-17007E928898}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1891,10 +1891,10 @@
     </xdr:to>
     <xdr:sp macro="'ModUIScreenCom.SortBy(&quot;Step Name&quot;), &quot;UIForAction&quot;'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="39" name="TextBox 38">
+        <xdr:cNvPr id="17" name="TextBox 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9F8AD46-2D46-CBD2-BA47-2B73DFE20A79}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81006C15-8984-22BB-639E-CFEAC052330C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1982,10 +1982,10 @@
     </xdr:to>
     <xdr:sp macro="'ModUIScreenCom.SortBy(&quot;Status&quot;), &quot;UIForAction&quot;'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="40" name="TextBox 39">
+        <xdr:cNvPr id="18" name="TextBox 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4123D8F2-BA1F-3DDD-2360-324F31EBF8A1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2167FEC-96FA-CDFA-C82A-BAF8837CF66E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2073,10 +2073,10 @@
     </xdr:to>
     <xdr:sp macro="'ModUiForAction.OpenWorkflow(1)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="41" name="TextBox 40">
+        <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{404C81D6-B3DE-67AE-E41F-ADF4020E40AE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B2D44FE-ACA8-4841-BCC9-5AE011071FC6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2164,10 +2164,10 @@
     </xdr:to>
     <xdr:sp macro="'ModUiForAction.OpenWorkflow(1)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="42" name="TextBox 41">
+        <xdr:cNvPr id="20" name="TextBox 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C82EC9EF-7356-9251-FC80-96BE647B07A8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFA167EC-A24F-74D1-8FCB-E923B887E488}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2252,10 +2252,10 @@
     </xdr:to>
     <xdr:sp macro="'ModUiForAction.OpenWorkflow(1)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="43" name="TextBox 42">
+        <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C061400E-3834-4679-939B-381751D27DF4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5699C329-3EE7-4403-8584-8D8DF8FAD6F1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2343,10 +2343,10 @@
     </xdr:to>
     <xdr:sp macro="'ModUiForAction.OpenWorkflow(1)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="44" name="TextBox 43">
+        <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{229531E5-D383-3727-50D3-A3A8EE191DAD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0476CFE6-F784-3D2B-4D1C-D92C7B52FF4E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2434,10 +2434,10 @@
     </xdr:to>
     <xdr:sp macro="'ModUiForAction.OpenWorkflow(1)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="45" name="TextBox 44">
+        <xdr:cNvPr id="23" name="TextBox 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FAD1E27E-1BE5-F146-DC43-544C5438CE53}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A69FCFF-3428-DA1E-9709-73147A1E639E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2454,10 +2454,10 @@
         <a:gradFill flip="none" rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
-              <a:srgbClr val="BAFF29"/>
+              <a:srgbClr val="F1C40F"/>
             </a:gs>
             <a:gs pos="100000">
-              <a:srgbClr val="BAFF29"/>
+              <a:srgbClr val="F1C40F"/>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="1"/>
@@ -2525,10 +2525,10 @@
     </xdr:to>
     <xdr:sp macro="'ModUIScreenCom.ProcessBtnPress(6)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="35" name="BtnMain1">
+        <xdr:cNvPr id="13" name="BtnMain1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FCFE6AC-D629-6A82-6854-420193486FAD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3BDB823-28F3-950E-690E-2930D680C3B1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>

--- a/CBS Workflow.xlsx
+++ b/CBS Workflow.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\CBSWorkflow\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2EF962E9-37D5-41B8-A0EA-5F427445D3D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D84E5DCF-1544-4B42-8A7B-62C2D235BD62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="6" r:id="rId1"/>
@@ -674,10 +674,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Main Screen">
+        <xdr:cNvPr id="24" name="Main Screen">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94B6ABCF-047D-5D5C-8DEA-188A98EF6205}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA25D4F5-2B7A-16B6-8509-86CD3BD394E8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -816,10 +816,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Rectangle 4">
+        <xdr:cNvPr id="27" name="Rectangle 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01182D12-1190-1679-CF22-39A451DF86E0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D771C5D9-01ED-BBB3-A611-5BBDFF0E29C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -876,10 +876,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="MenuBar">
+        <xdr:cNvPr id="26" name="MenuBar">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2D47153-04DB-1D89-2620-319B4B684242}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD67FD1C-84BD-D6EA-E86D-47A8925EBBB1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -965,10 +965,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Rectangle 2" hidden="1">
+        <xdr:cNvPr id="25" name="Rectangle 24" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47BD3C45-90AD-1765-5E01-1D5BC987433F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75EA7722-85C2-419D-B027-35023344981A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1025,10 +1025,10 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Logo">
+        <xdr:cNvPr id="28" name="Logo">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73737E89-D1A7-D12A-0A66-E70A73C67E25}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD15C345-626B-42DE-C3E3-1EA45BB0FE92}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1075,10 +1075,10 @@
     </xdr:to>
     <xdr:sp macro="'ModUIMenu.ProcessBtnPress(1)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="MenuItem - For Action">
+        <xdr:cNvPr id="29" name="MenuItem - For Action">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7975028C-F246-2A23-5CC8-695B1F736D13}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2848BE79-858B-C056-F024-1110ACDD7936}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1170,10 +1170,10 @@
     </xdr:to>
     <xdr:sp macro="'ModUIMenu.ProcessBtnPress(2)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="MenuItem - Active">
+        <xdr:cNvPr id="30" name="MenuItem - Active">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93B05DBA-07F0-C1C4-C9ED-5C2F77E3B074}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7EA36074-DCC4-B348-4584-A8C35A3A9448}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1255,10 +1255,10 @@
     </xdr:to>
     <xdr:sp macro="'ModUIMenu.ProcessBtnPress(3)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="MenuItem - Complete">
+        <xdr:cNvPr id="31" name="MenuItem - Complete">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{198836AA-4A16-474D-48E9-105D006218F3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{968BB391-F4D7-1B49-5638-0C7D055FC607}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1340,10 +1340,10 @@
     </xdr:to>
     <xdr:sp macro="'ModUIMenu.ProcessBtnPress(4)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="MenuItem - Exit">
+        <xdr:cNvPr id="32" name="MenuItem - Exit">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDE7CA2E-C2A0-22CF-7E75-298BD773B79C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6435D5B-31BB-55A1-604F-FBCC2A3165A1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1425,10 +1425,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="Main Frame">
+        <xdr:cNvPr id="34" name="Main Frame">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C363C49-0855-88B0-5293-56E0BB2E5F99}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{438F428F-8BB0-C6D3-5F52-13C415D83F0E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1523,10 +1523,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="Main Frame Header">
+        <xdr:cNvPr id="33" name="Main Frame Header">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC969CFF-B5A4-FC84-66B8-7AFFB45523AC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22FDE870-5AF4-96CB-720A-132AA61E4887}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1618,10 +1618,10 @@
     </xdr:to>
     <xdr:sp macro="'ModUIScreenCom.SortBy(&quot;Workflow No&quot;), &quot;UIForAction&quot;'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="TextBox 13">
+        <xdr:cNvPr id="36" name="TextBox 35">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2F857E8-BDA1-B3D0-4242-FCF413403CC6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11477F31-B341-362E-C32E-FCF66E511A42}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1709,10 +1709,10 @@
     </xdr:to>
     <xdr:sp macro="'ModUIScreenCom.SortBy(&quot;Name&quot;), &quot;UIForAction&quot;'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="TextBox 14">
+        <xdr:cNvPr id="37" name="TextBox 36">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31377A72-8919-D5F5-09E5-6BFE0E55E737}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D78BD8E8-EA48-C9D2-57D5-A86C6F397C67}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1800,10 +1800,10 @@
     </xdr:to>
     <xdr:sp macro="'ModUIScreenCom.SortBy(&quot;Step No&quot;), &quot;UIForAction&quot;'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="TextBox 15">
+        <xdr:cNvPr id="38" name="TextBox 37">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09092D4D-6F4B-CDE4-F6E7-17007E928898}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF057083-1D25-68BE-3B10-66B7F344FE8E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1891,10 +1891,10 @@
     </xdr:to>
     <xdr:sp macro="'ModUIScreenCom.SortBy(&quot;Step Name&quot;), &quot;UIForAction&quot;'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="TextBox 16">
+        <xdr:cNvPr id="39" name="TextBox 38">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81006C15-8984-22BB-639E-CFEAC052330C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C05C487-3E95-5E9A-25D0-C2B6DF5A22C9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1982,10 +1982,10 @@
     </xdr:to>
     <xdr:sp macro="'ModUIScreenCom.SortBy(&quot;Status&quot;), &quot;UIForAction&quot;'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="TextBox 17">
+        <xdr:cNvPr id="40" name="TextBox 39">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2167FEC-96FA-CDFA-C82A-BAF8837CF66E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7435B524-D679-C858-6321-27C8689D32D0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2073,10 +2073,10 @@
     </xdr:to>
     <xdr:sp macro="'ModUiForAction.OpenWorkflow(1)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="TextBox 18">
+        <xdr:cNvPr id="41" name="TextBox 40">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B2D44FE-ACA8-4841-BCC9-5AE011071FC6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60E11CA8-BE36-D2EB-029A-9B35C1D43C00}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2164,10 +2164,10 @@
     </xdr:to>
     <xdr:sp macro="'ModUiForAction.OpenWorkflow(1)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="TextBox 19">
+        <xdr:cNvPr id="42" name="TextBox 41">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFA167EC-A24F-74D1-8FCB-E923B887E488}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2461DB57-6C83-ABA9-025F-7CC990B07828}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2252,10 +2252,10 @@
     </xdr:to>
     <xdr:sp macro="'ModUiForAction.OpenWorkflow(1)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="TextBox 20">
+        <xdr:cNvPr id="43" name="TextBox 42">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5699C329-3EE7-4403-8584-8D8DF8FAD6F1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F6F4689-428F-C9A4-B250-2DE2150D8CBF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2343,10 +2343,10 @@
     </xdr:to>
     <xdr:sp macro="'ModUiForAction.OpenWorkflow(1)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="TextBox 21">
+        <xdr:cNvPr id="44" name="TextBox 43">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0476CFE6-F784-3D2B-4D1C-D92C7B52FF4E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3C7B361-99E4-A9DB-352A-AF6E7C864CD9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2434,10 +2434,10 @@
     </xdr:to>
     <xdr:sp macro="'ModUiForAction.OpenWorkflow(1)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="TextBox 22">
+        <xdr:cNvPr id="45" name="TextBox 44">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A69FCFF-3428-DA1E-9709-73147A1E639E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C95547C0-2303-FF2E-EB89-FC7F0E9D61A0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2454,10 +2454,10 @@
         <a:gradFill flip="none" rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
-              <a:srgbClr val="F1C40F"/>
+              <a:srgbClr val="D7263D"/>
             </a:gs>
             <a:gs pos="100000">
-              <a:srgbClr val="F1C40F"/>
+              <a:srgbClr val="D7263D"/>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="1"/>
@@ -2499,7 +2499,7 @@
           <a:r>
             <a:rPr lang="en-GB" sz="1100" b="0">
               <a:solidFill>
-                <a:srgbClr val="434343"/>
+                <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
               <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
             </a:rPr>
@@ -2525,10 +2525,10 @@
     </xdr:to>
     <xdr:sp macro="'ModUIScreenCom.ProcessBtnPress(6)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="BtnMain1">
+        <xdr:cNvPr id="35" name="BtnMain1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3BDB823-28F3-950E-690E-2930D680C3B1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02C6D988-3F98-239F-E74A-6FFFCBD4C376}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>

--- a/CBS Workflow.xlsx
+++ b/CBS Workflow.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\CBSWorkflow\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D84E5DCF-1544-4B42-8A7B-62C2D235BD62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3EF29587-46B4-464B-8789-99432EEC2E3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4245" yWindow="4245" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="6" r:id="rId1"/>
@@ -674,10 +674,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="Main Screen">
+        <xdr:cNvPr id="2" name="Main Screen">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA25D4F5-2B7A-16B6-8509-86CD3BD394E8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C638FEF7-CC36-6FF6-E761-E369607BF1E2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -816,10 +816,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="27" name="Rectangle 26">
+        <xdr:cNvPr id="5" name="Rectangle 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D771C5D9-01ED-BBB3-A611-5BBDFF0E29C4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89FDE453-FBFA-18AE-98EB-82494B0637F8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -876,10 +876,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="26" name="MenuBar">
+        <xdr:cNvPr id="4" name="MenuBar">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD67FD1C-84BD-D6EA-E86D-47A8925EBBB1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0F13501-549A-1797-DCD9-A18BC97D3506}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -965,10 +965,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="25" name="Rectangle 24" hidden="1">
+        <xdr:cNvPr id="3" name="Rectangle 2" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75EA7722-85C2-419D-B027-35023344981A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C3B8645-BADC-DE78-E5A9-5B5AD4BC0EE5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1025,10 +1025,10 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="28" name="Logo">
+        <xdr:cNvPr id="6" name="Logo">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD15C345-626B-42DE-C3E3-1EA45BB0FE92}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85D04433-4D85-A893-5F1D-042C69007BA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1075,10 +1075,10 @@
     </xdr:to>
     <xdr:sp macro="'ModUIMenu.ProcessBtnPress(1)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="29" name="MenuItem - For Action">
+        <xdr:cNvPr id="7" name="MenuItem - For Action">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2848BE79-858B-C056-F024-1110ACDD7936}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42E32E2B-7AAC-35CE-82AF-059CD72C941C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1170,10 +1170,10 @@
     </xdr:to>
     <xdr:sp macro="'ModUIMenu.ProcessBtnPress(2)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="30" name="MenuItem - Active">
+        <xdr:cNvPr id="8" name="MenuItem - Active">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7EA36074-DCC4-B348-4584-A8C35A3A9448}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{532665A7-1F02-023B-B658-9D5E60FBC8EC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1255,10 +1255,10 @@
     </xdr:to>
     <xdr:sp macro="'ModUIMenu.ProcessBtnPress(3)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="31" name="MenuItem - Complete">
+        <xdr:cNvPr id="9" name="MenuItem - Complete">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{968BB391-F4D7-1B49-5638-0C7D055FC607}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{268E8C95-B36C-B356-6DFA-89F4BD891E30}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1340,10 +1340,10 @@
     </xdr:to>
     <xdr:sp macro="'ModUIMenu.ProcessBtnPress(4)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="32" name="MenuItem - Exit">
+        <xdr:cNvPr id="10" name="MenuItem - Exit">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6435D5B-31BB-55A1-604F-FBCC2A3165A1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54BED1F2-3333-B478-33CF-B16A322B999A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1425,10 +1425,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="34" name="Main Frame">
+        <xdr:cNvPr id="12" name="Main Frame">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{438F428F-8BB0-C6D3-5F52-13C415D83F0E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11BC2537-98CD-A992-FEEE-26DE7025EFFD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1523,10 +1523,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="33" name="Main Frame Header">
+        <xdr:cNvPr id="11" name="Main Frame Header">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22FDE870-5AF4-96CB-720A-132AA61E4887}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAF83E68-A1D5-289B-C2E2-845C0458C416}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1618,10 +1618,10 @@
     </xdr:to>
     <xdr:sp macro="'ModUIScreenCom.SortBy(&quot;Workflow No&quot;), &quot;UIForAction&quot;'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="36" name="TextBox 35">
+        <xdr:cNvPr id="14" name="TextBox 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11477F31-B341-362E-C32E-FCF66E511A42}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE141846-3F86-151D-6919-10EFC4E4C4BB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1709,10 +1709,10 @@
     </xdr:to>
     <xdr:sp macro="'ModUIScreenCom.SortBy(&quot;Name&quot;), &quot;UIForAction&quot;'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="37" name="TextBox 36">
+        <xdr:cNvPr id="15" name="TextBox 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D78BD8E8-EA48-C9D2-57D5-A86C6F397C67}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEEDA832-13BF-035B-E69B-74F5746B8A39}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1800,10 +1800,10 @@
     </xdr:to>
     <xdr:sp macro="'ModUIScreenCom.SortBy(&quot;Step No&quot;), &quot;UIForAction&quot;'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="38" name="TextBox 37">
+        <xdr:cNvPr id="16" name="TextBox 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF057083-1D25-68BE-3B10-66B7F344FE8E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51038E00-D8DE-6E8B-7AA1-3697DE28C543}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1891,10 +1891,10 @@
     </xdr:to>
     <xdr:sp macro="'ModUIScreenCom.SortBy(&quot;Step Name&quot;), &quot;UIForAction&quot;'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="39" name="TextBox 38">
+        <xdr:cNvPr id="17" name="TextBox 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C05C487-3E95-5E9A-25D0-C2B6DF5A22C9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6492139-561C-F4AE-FA72-3FA1F93747F9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1982,10 +1982,10 @@
     </xdr:to>
     <xdr:sp macro="'ModUIScreenCom.SortBy(&quot;Status&quot;), &quot;UIForAction&quot;'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="40" name="TextBox 39">
+        <xdr:cNvPr id="18" name="TextBox 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7435B524-D679-C858-6321-27C8689D32D0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61C2C69D-18C6-B980-BFB7-98CBD676C2B1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2073,10 +2073,10 @@
     </xdr:to>
     <xdr:sp macro="'ModUiForAction.OpenWorkflow(1)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="41" name="TextBox 40">
+        <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60E11CA8-BE36-D2EB-029A-9B35C1D43C00}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B83D3D7C-8DCC-6777-9B89-03341DD68422}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2164,10 +2164,10 @@
     </xdr:to>
     <xdr:sp macro="'ModUiForAction.OpenWorkflow(1)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="42" name="TextBox 41">
+        <xdr:cNvPr id="20" name="TextBox 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2461DB57-6C83-ABA9-025F-7CC990B07828}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF150D0E-C67B-31C2-1278-BBA26273D7CC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2252,10 +2252,10 @@
     </xdr:to>
     <xdr:sp macro="'ModUiForAction.OpenWorkflow(1)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="43" name="TextBox 42">
+        <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F6F4689-428F-C9A4-B250-2DE2150D8CBF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50A43516-4DAD-2F99-2D25-F1A02B9EDF08}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2343,10 +2343,10 @@
     </xdr:to>
     <xdr:sp macro="'ModUiForAction.OpenWorkflow(1)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="44" name="TextBox 43">
+        <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3C7B361-99E4-A9DB-352A-AF6E7C864CD9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{312AA4F5-CE3A-D2B1-BEF0-757D63DA60C3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2434,10 +2434,10 @@
     </xdr:to>
     <xdr:sp macro="'ModUiForAction.OpenWorkflow(1)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="45" name="TextBox 44">
+        <xdr:cNvPr id="23" name="TextBox 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C95547C0-2303-FF2E-EB89-FC7F0E9D61A0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9551B35-2CC1-22D8-C035-CBB8CFCF52CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2525,10 +2525,10 @@
     </xdr:to>
     <xdr:sp macro="'ModUIScreenCom.ProcessBtnPress(6)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="35" name="BtnMain1">
+        <xdr:cNvPr id="13" name="BtnMain1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02C6D988-3F98-239F-E74A-6FFFCBD4C376}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53254784-FD35-5F53-D984-5F9D5CD5E5B5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>

--- a/CBS Workflow.xlsx
+++ b/CBS Workflow.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\CBSWorkflow\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3EF29587-46B4-464B-8789-99432EEC2E3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8513F8C3-E36A-420C-A470-BD7D19851976}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4245" yWindow="4245" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18630" yWindow="1170" windowWidth="17430" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="6" r:id="rId1"/>
@@ -659,6 +659,56 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>558800</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4829" name="TEMPLATE - Logo" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DD60F29-BC8A-CD9F-F23B-AD9C56698867}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="24117300" y="2276475"/>
+          <a:ext cx="2235200" cy="1460500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -674,10 +724,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Main Screen">
+        <xdr:cNvPr id="19" name="Main Screen">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C638FEF7-CC36-6FF6-E761-E369607BF1E2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB06C404-189A-DAC0-D966-902CE5B986E0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -751,56 +801,6 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>42</xdr:col>
-      <xdr:colOff>558800</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4829" name="TEMPLATE - Logo" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DD60F29-BC8A-CD9F-F23B-AD9C56698867}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="24117300" y="2276475"/>
-          <a:ext cx="2235200" cy="1460500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -816,10 +816,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Rectangle 4">
+        <xdr:cNvPr id="20" name="Rectangle 19" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89FDE453-FBFA-18AE-98EB-82494B0637F8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E6AA0F9-21E3-28E8-85FA-7872A72537C7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -876,10 +876,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="MenuBar">
+        <xdr:cNvPr id="21" name="MenuBar">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0F13501-549A-1797-DCD9-A18BC97D3506}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CFA89F96-66AD-D851-C2C5-65A4F00AD7D6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -965,10 +965,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Rectangle 2" hidden="1">
+        <xdr:cNvPr id="22" name="Rectangle 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C3B8645-BADC-DE78-E5A9-5B5AD4BC0EE5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A500877-C4D2-42D0-86F3-5590F3FC3ACD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1025,10 +1025,10 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Logo">
+        <xdr:cNvPr id="23" name="Logo">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85D04433-4D85-A893-5F1D-042C69007BA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E68B4684-C585-63BA-EE95-84334E1BB043}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1075,10 +1075,10 @@
     </xdr:to>
     <xdr:sp macro="'ModUIMenu.ProcessBtnPress(1)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="MenuItem - For Action">
+        <xdr:cNvPr id="24" name="MenuItem - For Action">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42E32E2B-7AAC-35CE-82AF-059CD72C941C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{501B011A-4444-FEED-5EAA-48AAB2B110B5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1095,30 +1095,20 @@
         <a:gradFill flip="none" rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
-              <a:srgbClr val="D8336B"/>
+              <a:srgbClr val="FFFFFF"/>
             </a:gs>
             <a:gs pos="100000">
-              <a:srgbClr val="D8336B"/>
+              <a:srgbClr val="FFFFFF"/>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="1"/>
           <a:tileRect/>
         </a:gradFill>
-        <a:ln w="0" cap="flat" cmpd="sng" algn="ctr">
-          <a:noFill/>
-          <a:prstDash val="solid"/>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="134F69"/>
+          </a:solidFill>
         </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:srgbClr val="134F69"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -1144,7 +1134,7 @@
           <a:r>
             <a:rPr lang="en-GB" sz="1200" b="0">
               <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
+                <a:srgbClr val="000000"/>
               </a:solidFill>
               <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
             </a:rPr>
@@ -1170,10 +1160,10 @@
     </xdr:to>
     <xdr:sp macro="'ModUIMenu.ProcessBtnPress(2)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="MenuItem - Active">
+        <xdr:cNvPr id="25" name="MenuItem - Active">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{532665A7-1F02-023B-B658-9D5E60FBC8EC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF532E8B-8DD4-3932-3D5C-CF2181C30356}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1255,10 +1245,10 @@
     </xdr:to>
     <xdr:sp macro="'ModUIMenu.ProcessBtnPress(3)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="MenuItem - Complete">
+        <xdr:cNvPr id="26" name="MenuItem - Complete">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{268E8C95-B36C-B356-6DFA-89F4BD891E30}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55B2CFEF-5C54-7A41-779C-D6BBC85273F8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1340,10 +1330,10 @@
     </xdr:to>
     <xdr:sp macro="'ModUIMenu.ProcessBtnPress(4)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="MenuItem - Exit">
+        <xdr:cNvPr id="27" name="MenuItem - Exit">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54BED1F2-3333-B478-33CF-B16A322B999A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA2E2430-1D2F-1033-34CA-82AD15C1FD3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1420,15 +1410,15 @@
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>469900</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="Main Frame">
+        <xdr:cNvPr id="28" name="Main Frame Header">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11BC2537-98CD-A992-FEEE-26DE7025EFFD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37EAF801-9F44-5869-1D2A-AFC27333D34F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1437,7 +1427,102 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2159000" y="889000"/>
-          <a:ext cx="11303000" cy="800100"/>
+          <a:ext cx="11303000" cy="317500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="D8336B"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="D8336B"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cap="flat" cmpd="sng" algn="ctr">
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1200" b="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Active Workflows</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>469900</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>136525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="Main Frame">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0753FA1B-68BC-3423-7B97-9EFB394995DF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2159000" y="889000"/>
+          <a:ext cx="11303000" cy="4572000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1510,1008 +1595,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>330200</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>469900</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="Main Frame Header">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAF83E68-A1D5-289B-C2E2-845C0458C416}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2159000" y="889000"/>
-          <a:ext cx="11303000" cy="317500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="D8336B"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="D8336B"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
-        <a:ln w="0" cap="flat" cmpd="sng" algn="ctr">
-          <a:noFill/>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1200" b="0">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>Workflows Requiring Attention</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>330200</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="'ModUIScreenCom.SortBy(&quot;Workflow No&quot;), &quot;UIForAction&quot;'" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="TextBox 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE141846-3F86-151D-6919-10EFC4E4C4BB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2159000" y="1155700"/>
-          <a:ext cx="1270000" cy="266700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="134F69"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="134F69"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
-        <a:ln w="0" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1000" b="0">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>Workflow No</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>292100</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="'ModUIScreenCom.SortBy(&quot;Name&quot;), &quot;UIForAction&quot;'" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="TextBox 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEEDA832-13BF-035B-E69B-74F5746B8A39}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3429000" y="1155700"/>
-          <a:ext cx="2540000" cy="266700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="134F69"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="134F69"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
-        <a:ln w="0" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1000" b="0">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>Name</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>292100</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>393700</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="'ModUIScreenCom.SortBy(&quot;Step No&quot;), &quot;UIForAction&quot;'" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="TextBox 15">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51038E00-D8DE-6E8B-7AA1-3697DE28C543}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5969000" y="1155700"/>
-          <a:ext cx="2540000" cy="266700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="134F69"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="134F69"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
-        <a:ln w="0" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1000" b="0">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>Step No</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>393700</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="'ModUIScreenCom.SortBy(&quot;Step Name&quot;), &quot;UIForAction&quot;'" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="TextBox 16">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6492139-561C-F4AE-FA72-3FA1F93747F9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8509000" y="1155700"/>
-          <a:ext cx="3683000" cy="266700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="134F69"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="134F69"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
-        <a:ln w="0" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1000" b="0">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>Step Name</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>469900</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="'ModUIScreenCom.SortBy(&quot;Status&quot;), &quot;UIForAction&quot;'" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="TextBox 17">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61C2C69D-18C6-B980-BFB7-98CBD676C2B1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12192000" y="1155700"/>
-          <a:ext cx="1270000" cy="266700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="134F69"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="134F69"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
-        <a:ln w="0" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1000" b="0">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>Status</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>330200</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="'ModUiForAction.OpenWorkflow(1)'" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="TextBox 18">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B83D3D7C-8DCC-6777-9B89-03341DD68422}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2159000" y="1422400"/>
-          <a:ext cx="1270000" cy="266700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
-        <a:ln w="0" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1000" b="0">
-              <a:solidFill>
-                <a:srgbClr val="434343"/>
-              </a:solidFill>
-              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>1</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>292100</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="'ModUiForAction.OpenWorkflow(1)'" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="TextBox 19">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF150D0E-C67B-31C2-1278-BBA26273D7CC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3429000" y="1422400"/>
-          <a:ext cx="2540000" cy="266700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
-        <a:ln w="0" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="en-GB" sz="1000" b="0">
-            <a:solidFill>
-              <a:srgbClr val="434343"/>
-            </a:solidFill>
-            <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>292100</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>393700</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="'ModUiForAction.OpenWorkflow(1)'" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="TextBox 20">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50A43516-4DAD-2F99-2D25-F1A02B9EDF08}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5969000" y="1422400"/>
-          <a:ext cx="2540000" cy="266700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
-        <a:ln w="0" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1000" b="0">
-              <a:solidFill>
-                <a:srgbClr val="434343"/>
-              </a:solidFill>
-              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>1.01</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>393700</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="'ModUiForAction.OpenWorkflow(1)'" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="TextBox 21">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{312AA4F5-CE3A-D2B1-BEF0-757D63DA60C3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8509000" y="1422400"/>
-          <a:ext cx="3683000" cy="266700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
-        <a:ln w="0" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1000" b="0">
-              <a:solidFill>
-                <a:srgbClr val="434343"/>
-              </a:solidFill>
-              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>Fact Find to Client</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>469900</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="'ModUiForAction.OpenWorkflow(1)'" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="TextBox 22">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9551B35-2CC1-22D8-C035-CBB8CFCF52CA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12192000" y="1422400"/>
-          <a:ext cx="1270000" cy="266700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="D7263D"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="D7263D"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
-        <a:ln w="0" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100" b="0">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>Action Req'd</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
       <xdr:row>1</xdr:row>
@@ -2525,10 +1608,10 @@
     </xdr:to>
     <xdr:sp macro="'ModUIScreenCom.ProcessBtnPress(6)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="BtnMain1">
+        <xdr:cNvPr id="30" name="BtnMain1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53254784-FD35-5F53-D984-5F9D5CD5E5B5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4EB9C102-43DD-9B79-BD35-6C0E90EBE7AE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3183,7 +2266,7 @@
   <sheetPr codeName="ShtMain"/>
   <dimension ref="B2:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
       <selection activeCell="U7" sqref="U7"/>
     </sheetView>
   </sheetViews>
@@ -3194,7 +2277,7 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/CBS Workflow.xlsx
+++ b/CBS Workflow.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\CBSWorkflow\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8513F8C3-E36A-420C-A470-BD7D19851976}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{58BC82AE-EE9A-44C3-B561-DBA8F430DFD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18630" yWindow="1170" windowWidth="17430" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2640" yWindow="2640" windowWidth="17430" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="6" r:id="rId1"/>
@@ -659,6 +659,98 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>73025</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="Main Screen">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FABE3DC1-8135-B74C-6A6E-805DBE4B3878}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="23177500" cy="25400000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FBF9FF"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FBF9FF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cap="flat" cmpd="sng" algn="ctr">
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100" b="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface=""/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>39</xdr:col>
@@ -717,98 +809,6 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>431800</xdr:colOff>
-      <xdr:row>133</xdr:row>
-      <xdr:rowOff>73025</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="Main Screen">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB06C404-189A-DAC0-D966-902CE5B986E0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="23177500" cy="25400000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="FBF9FF"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="FBF9FF"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
-        <a:ln w="0" cap="flat" cmpd="sng" algn="ctr">
-          <a:noFill/>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-GB" sz="1100" b="0">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface=""/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>127000</xdr:colOff>
       <xdr:row>0</xdr:row>
@@ -816,10 +816,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="Rectangle 19" hidden="1">
+        <xdr:cNvPr id="44" name="Rectangle 43">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E6AA0F9-21E3-28E8-85FA-7872A72537C7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F174C29D-77A9-9F6E-C2C9-835149F09E36}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -876,10 +876,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="MenuBar">
+        <xdr:cNvPr id="43" name="MenuBar">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CFA89F96-66AD-D851-C2C5-65A4F00AD7D6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FDE716D-FE1F-CD2D-B3F7-CDC4FB97776D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -965,10 +965,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="Rectangle 21">
+        <xdr:cNvPr id="42" name="Rectangle 41" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A500877-C4D2-42D0-86F3-5590F3FC3ACD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E85A2024-83FA-921C-E386-CFA77676EAD9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1025,10 +1025,10 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="23" name="Logo">
+        <xdr:cNvPr id="45" name="Logo">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E68B4684-C585-63BA-EE95-84334E1BB043}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E2E9BA3-5D56-8750-8487-CACAB569B063}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1075,10 +1075,10 @@
     </xdr:to>
     <xdr:sp macro="'ModUIMenu.ProcessBtnPress(1)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="MenuItem - For Action">
+        <xdr:cNvPr id="46" name="MenuItem - For Action">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{501B011A-4444-FEED-5EAA-48AAB2B110B5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35EF731F-F431-8AEC-18EA-7DF63A9A7631}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1095,20 +1095,30 @@
         <a:gradFill flip="none" rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
-              <a:srgbClr val="FFFFFF"/>
+              <a:srgbClr val="D8336B"/>
             </a:gs>
             <a:gs pos="100000">
-              <a:srgbClr val="FFFFFF"/>
+              <a:srgbClr val="D8336B"/>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="1"/>
           <a:tileRect/>
         </a:gradFill>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:srgbClr val="134F69"/>
-          </a:solidFill>
+        <a:ln w="0" cap="flat" cmpd="sng" algn="ctr">
+          <a:noFill/>
+          <a:prstDash val="solid"/>
         </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:srgbClr val="134F69"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -1134,7 +1144,7 @@
           <a:r>
             <a:rPr lang="en-GB" sz="1200" b="0">
               <a:solidFill>
-                <a:srgbClr val="000000"/>
+                <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
               <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
             </a:rPr>
@@ -1160,10 +1170,10 @@
     </xdr:to>
     <xdr:sp macro="'ModUIMenu.ProcessBtnPress(2)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="25" name="MenuItem - Active">
+        <xdr:cNvPr id="47" name="MenuItem - Active">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF532E8B-8DD4-3932-3D5C-CF2181C30356}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1053AE2-AD38-2A3B-7C24-DB8577096ADB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1245,10 +1255,10 @@
     </xdr:to>
     <xdr:sp macro="'ModUIMenu.ProcessBtnPress(3)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="26" name="MenuItem - Complete">
+        <xdr:cNvPr id="48" name="MenuItem - Complete">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55B2CFEF-5C54-7A41-779C-D6BBC85273F8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D205D264-C56B-4D53-7AEC-1A557A739E93}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1330,10 +1340,10 @@
     </xdr:to>
     <xdr:sp macro="'ModUIMenu.ProcessBtnPress(4)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="27" name="MenuItem - Exit">
+        <xdr:cNvPr id="49" name="MenuItem - Exit">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA2E2430-1D2F-1033-34CA-82AD15C1FD3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8B03BB1-A960-4883-A9FA-421299BCAB12}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1410,15 +1420,15 @@
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>469900</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="28" name="Main Frame Header">
+        <xdr:cNvPr id="51" name="Main Frame">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37EAF801-9F44-5869-1D2A-AFC27333D34F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A91040FE-D32A-154F-D387-ABA9CF9AB1CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1427,102 +1437,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2159000" y="889000"/>
-          <a:ext cx="11303000" cy="317500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="D8336B"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="D8336B"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
-        <a:ln w="0" cap="flat" cmpd="sng" algn="ctr">
-          <a:noFill/>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1200" b="0">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>Active Workflows</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>330200</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>469900</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>136525</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="29" name="Main Frame">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0753FA1B-68BC-3423-7B97-9EFB394995DF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2159000" y="889000"/>
-          <a:ext cx="11303000" cy="4572000"/>
+          <a:ext cx="11303000" cy="800100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1595,6 +1510,1008 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>469900</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="50" name="Main Frame Header">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67D929F1-7341-EFA1-E438-9BB699AFBA08}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2159000" y="889000"/>
+          <a:ext cx="11303000" cy="317500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="D8336B"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="D8336B"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cap="flat" cmpd="sng" algn="ctr">
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1200" b="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Workflows Requiring Attention</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIScreenCom.SortBy(&quot;Workflow No&quot;), &quot;UIForAction&quot;'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="53" name="TextBox 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5EE53D2-0DE6-38A4-C343-78B028D26C85}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2159000" y="1155700"/>
+          <a:ext cx="1270000" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="134F69"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="134F69"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Workflow No</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>292100</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIScreenCom.SortBy(&quot;Name&quot;), &quot;UIForAction&quot;'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="54" name="TextBox 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6ACF7E6A-AE48-CBD1-4259-2617887A8AF5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3429000" y="1155700"/>
+          <a:ext cx="2540000" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="134F69"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="134F69"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Name</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>292100</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIScreenCom.SortBy(&quot;Step No&quot;), &quot;UIForAction&quot;'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="55" name="TextBox 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9EBA00C-9E46-2590-8E94-3655527ABF08}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5969000" y="1155700"/>
+          <a:ext cx="2540000" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="134F69"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="134F69"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Step No</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIScreenCom.SortBy(&quot;Step Name&quot;), &quot;UIForAction&quot;'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="56" name="TextBox 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60B0DE4F-0F60-8626-6069-8A29F36282AE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8509000" y="1155700"/>
+          <a:ext cx="3683000" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="134F69"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="134F69"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Step Name</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>469900</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIScreenCom.SortBy(&quot;Status&quot;), &quot;UIForAction&quot;'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="57" name="TextBox 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99E6BB31-72D5-CA6F-A5A2-949ACAD98FD2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12192000" y="1155700"/>
+          <a:ext cx="1270000" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="134F69"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="134F69"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Status</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUiForAction.OpenWorkflow(1)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="58" name="TextBox 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0593DA95-4188-9D79-7500-0B27A303CFA6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2159000" y="1422400"/>
+          <a:ext cx="1270000" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="0">
+              <a:solidFill>
+                <a:srgbClr val="434343"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>292100</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUiForAction.OpenWorkflow(1)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="59" name="TextBox 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BA22333-D9FE-D9CE-BC3F-0AD80A4ECD43}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3429000" y="1422400"/>
+          <a:ext cx="2540000" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-GB" sz="1000" b="0">
+            <a:solidFill>
+              <a:srgbClr val="434343"/>
+            </a:solidFill>
+            <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>292100</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUiForAction.OpenWorkflow(1)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="60" name="TextBox 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B55A84A-F880-1E84-9280-E09C7C98D908}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5969000" y="1422400"/>
+          <a:ext cx="2540000" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="0">
+              <a:solidFill>
+                <a:srgbClr val="434343"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>1.01</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUiForAction.OpenWorkflow(1)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="61" name="TextBox 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B04DD94-871C-DE38-EB85-3FF59986257E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8509000" y="1422400"/>
+          <a:ext cx="3683000" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="0">
+              <a:solidFill>
+                <a:srgbClr val="434343"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Fact Find to Client</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>469900</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUiForAction.OpenWorkflow(1)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="62" name="TextBox 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E229DFDF-FD53-1C93-A1CB-79F7C4BA2D78}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12192000" y="1422400"/>
+          <a:ext cx="1270000" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="D7263D"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="D7263D"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Action Req'd</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
       <xdr:row>1</xdr:row>
@@ -1608,10 +2525,10 @@
     </xdr:to>
     <xdr:sp macro="'ModUIScreenCom.ProcessBtnPress(6)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="30" name="BtnMain1">
+        <xdr:cNvPr id="52" name="BtnMain1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4EB9C102-43DD-9B79-BD35-6C0E90EBE7AE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9A673F6-6054-C2D0-FE3F-9457C89C8A50}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1688,6 +2605,913 @@
               <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
             </a:rPr>
             <a:t>New Workflow</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIScreenCom.SortBy(&quot;Workflow No&quot;), &quot;UIForAction&quot;'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="63" name="TextBox 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DC8C025-1885-59DE-A7F8-1AAEC2C10197}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2159000" y="1155700"/>
+          <a:ext cx="1270000" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="134F69"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="134F69"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Workflow No</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>292100</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIScreenCom.SortBy(&quot;Name&quot;), &quot;UIForAction&quot;'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4800" name="TextBox 4799">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6140AC9-CAA4-A1F3-736D-DCB85C5CD8BF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3429000" y="1155700"/>
+          <a:ext cx="2540000" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="134F69"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="134F69"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Name</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>292100</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIScreenCom.SortBy(&quot;Step No&quot;), &quot;UIForAction&quot;'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4801" name="TextBox 4800">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47737EAD-B2FA-4324-6946-6B727D1DC2D2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5969000" y="1155700"/>
+          <a:ext cx="2540000" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="134F69"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="134F69"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Step No</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIScreenCom.SortBy(&quot;Step Name&quot;), &quot;UIForAction&quot;'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4802" name="TextBox 4801">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80EE48D4-D586-B7B0-86DE-A9177956B9ED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8509000" y="1155700"/>
+          <a:ext cx="3683000" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="134F69"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="134F69"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Step Name</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>469900</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIScreenCom.SortBy(&quot;Status&quot;), &quot;UIForAction&quot;'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4803" name="TextBox 4802">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{010A3704-B447-CDE5-8716-618E10143F88}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12192000" y="1155700"/>
+          <a:ext cx="1270000" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="134F69"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="134F69"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Status</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUiForAction.OpenWorkflow(1)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4804" name="TextBox 4803">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DEB66681-16F8-CB85-9C7F-A0CA856F1284}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2159000" y="1422400"/>
+          <a:ext cx="1270000" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="0">
+              <a:solidFill>
+                <a:srgbClr val="434343"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>292100</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUiForAction.OpenWorkflow(1)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4805" name="TextBox 4804">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25430E13-F106-7270-F374-54E71360FEFD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3429000" y="1422400"/>
+          <a:ext cx="2540000" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-GB" sz="1000" b="0">
+            <a:solidFill>
+              <a:srgbClr val="434343"/>
+            </a:solidFill>
+            <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>292100</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUiForAction.OpenWorkflow(1)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4806" name="TextBox 4805">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA9F4EAE-B0C7-7C3C-59E0-30B58AE124E8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5969000" y="1422400"/>
+          <a:ext cx="2540000" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="0">
+              <a:solidFill>
+                <a:srgbClr val="434343"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>1.01</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUiForAction.OpenWorkflow(1)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4807" name="TextBox 4806">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F847AC36-8FEC-E1C1-3955-A4B0A19C8A36}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8509000" y="1422400"/>
+          <a:ext cx="3683000" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="0">
+              <a:solidFill>
+                <a:srgbClr val="434343"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Fact Find to Client</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>469900</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUiForAction.OpenWorkflow(1)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4808" name="TextBox 4807">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2B08C48-48A0-9A83-3324-E1296695930C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12192000" y="1422400"/>
+          <a:ext cx="1270000" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="BAFF29"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="BAFF29"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="0">
+              <a:solidFill>
+                <a:srgbClr val="434343"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Action Req'd</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2266,7 +4090,7 @@
   <sheetPr codeName="ShtMain"/>
   <dimension ref="B2:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="U7" sqref="U7"/>
     </sheetView>
   </sheetViews>
@@ -2277,7 +4101,7 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/CBS Workflow.xlsx
+++ b/CBS Workflow.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\CBSWorkflow\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{58BC82AE-EE9A-44C3-B561-DBA8F430DFD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{68EAA88E-DC0A-4EAC-9950-EB5B2F4DEACE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="2640" windowWidth="17430" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="1515" yWindow="1515" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="6" r:id="rId1"/>
@@ -642,8 +642,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF2AAF92"/>
+      <color rgb="FF434343"/>
       <color rgb="FFFFF9FB"/>
-      <color rgb="FF2AAF92"/>
     </mruColors>
   </colors>
   <extLst>
@@ -659,6 +660,56 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>558800</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4829" name="TEMPLATE - Logo">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DD60F29-BC8A-CD9F-F23B-AD9C56698867}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="24117300" y="2276475"/>
+          <a:ext cx="2235200" cy="1460500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -674,10 +725,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="41" name="Main Screen">
+        <xdr:cNvPr id="2" name="Main Screen">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FABE3DC1-8135-B74C-6A6E-805DBE4B3878}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D6E6505-2B84-A7D2-28B0-3F5849C12E51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -751,56 +802,6 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>42</xdr:col>
-      <xdr:colOff>558800</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4829" name="TEMPLATE - Logo" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DD60F29-BC8A-CD9F-F23B-AD9C56698867}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="24117300" y="2276475"/>
-          <a:ext cx="2235200" cy="1460500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -816,10 +817,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="44" name="Rectangle 43">
+        <xdr:cNvPr id="3" name="Rectangle 2" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F174C29D-77A9-9F6E-C2C9-835149F09E36}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A7B8D3F-EC9C-9B7D-2794-1C7BC7D7AFC1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -876,10 +877,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="43" name="MenuBar">
+        <xdr:cNvPr id="4" name="MenuBar">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FDE716D-FE1F-CD2D-B3F7-CDC4FB97776D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC852730-2B10-E330-6A1C-FDD222C9D1C7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -965,10 +966,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="42" name="Rectangle 41" hidden="1">
+        <xdr:cNvPr id="5" name="Rectangle 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E85A2024-83FA-921C-E386-CFA77676EAD9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43813F6B-25AE-2C9A-7EDA-1F32863D2287}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1025,10 +1026,10 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="45" name="Logo">
+        <xdr:cNvPr id="6" name="Logo">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E2E9BA3-5D56-8750-8487-CACAB569B063}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{541EA065-4BD9-663B-D84C-88DED74D6F2F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1075,10 +1076,10 @@
     </xdr:to>
     <xdr:sp macro="'ModUIMenu.ProcessBtnPress(1)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="46" name="MenuItem - For Action">
+        <xdr:cNvPr id="7" name="MenuItem - For Action">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35EF731F-F431-8AEC-18EA-7DF63A9A7631}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E9D5A16-BDC4-61C0-E491-4B86A0C0382B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1087,6 +1088,91 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="1905000"/>
+          <a:ext cx="1905000" cy="393700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="134F69"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1200" b="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>For Action</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIMenu.ProcessBtnPress(2)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="MenuItem - Projects">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87AC9798-D148-BDF9-5CCA-A0EC11A2037B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="2286000"/>
           <a:ext cx="1905000" cy="393700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1148,92 +1234,7 @@
               </a:solidFill>
               <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>For Action</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="'ModUIMenu.ProcessBtnPress(2)'" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="47" name="MenuItem - Active">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1053AE2-AD38-2A3B-7C24-DB8577096ADB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="2286000"/>
-          <a:ext cx="1905000" cy="393700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:srgbClr val="134F69"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1200" b="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>Active</a:t>
+            <a:t>Projects</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1255,10 +1256,10 @@
     </xdr:to>
     <xdr:sp macro="'ModUIMenu.ProcessBtnPress(3)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="48" name="MenuItem - Complete">
+        <xdr:cNvPr id="9" name="MenuItem - CRM">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D205D264-C56B-4D53-7AEC-1A557A739E93}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D05DD9A2-1230-B148-AB44-8CBDFC958C2A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1318,7 +1319,7 @@
               </a:solidFill>
               <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>Complete</a:t>
+            <a:t>CRM</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1340,10 +1341,10 @@
     </xdr:to>
     <xdr:sp macro="'ModUIMenu.ProcessBtnPress(4)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="49" name="MenuItem - Exit">
+        <xdr:cNvPr id="10" name="MenuItem - Dashboard">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8B03BB1-A960-4883-A9FA-421299BCAB12}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DDBF3A6-AA48-5C3B-7D00-19C79BE9776B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1403,7 +1404,7 @@
               </a:solidFill>
               <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>Exit</a:t>
+            <a:t>Dashboard</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1412,23 +1413,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>330200</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>469900</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>22225</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp macro="'ModUIMenu.ProcessBtnPress(5)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="51" name="Main Frame">
+        <xdr:cNvPr id="11" name="MenuItem - Reports">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A91040FE-D32A-154F-D387-ABA9CF9AB1CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28E1D7E4-453C-4EE2-05F2-5BCEB815E9BB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1436,8 +1437,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2159000" y="889000"/>
-          <a:ext cx="11303000" cy="800100"/>
+          <a:off x="0" y="3429000"/>
+          <a:ext cx="1905000" cy="393700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1454,119 +1455,11 @@
           <a:lin ang="5400000" scaled="1"/>
           <a:tileRect/>
         </a:gradFill>
-        <a:ln w="0" cap="flat" cmpd="sng" algn="ctr">
-          <a:noFill/>
-          <a:prstDash val="solid"/>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="134F69"/>
+          </a:solidFill>
         </a:ln>
-        <a:effectLst>
-          <a:outerShdw blurRad="63500" dist="37357" dir="2700000" rotWithShape="0">
-            <a:prstClr val="black">
-              <a:alpha val="40000"/>
-            </a:prstClr>
-          </a:outerShdw>
-        </a:effectLst>
-        <a:extLst>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-GB" sz="1100" b="0">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface=""/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>330200</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>469900</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="50" name="Main Frame Header">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67D929F1-7341-EFA1-E438-9BB699AFBA08}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2159000" y="889000"/>
-          <a:ext cx="11303000" cy="317500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="D8336B"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="D8336B"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
-        <a:ln w="0" cap="flat" cmpd="sng" algn="ctr">
-          <a:noFill/>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -1592,11 +1485,11 @@
           <a:r>
             <a:rPr lang="en-GB" sz="1200" b="0">
               <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
+                <a:srgbClr val="000000"/>
               </a:solidFill>
               <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>Workflows Requiring Attention</a:t>
+            <a:t>Reports</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1605,487 +1498,32 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>330200</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>22225</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIScreenCom.SortBy(&quot;Workflow No&quot;), &quot;UIForAction&quot;'" textlink="">
+    <xdr:sp macro="'ModUIMenu.ProcessBtnPress(6)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="53" name="TextBox 52">
+        <xdr:cNvPr id="12" name="MenuItem - Admin">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5EE53D2-0DE6-38A4-C343-78B028D26C85}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A18474D-2876-E4C5-65C7-F732A658145E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
+        <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2159000" y="1155700"/>
-          <a:ext cx="1270000" cy="266700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="134F69"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="134F69"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
-        <a:ln w="0" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1000" b="0">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>Workflow No</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>292100</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="'ModUIScreenCom.SortBy(&quot;Name&quot;), &quot;UIForAction&quot;'" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="54" name="TextBox 53">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6ACF7E6A-AE48-CBD1-4259-2617887A8AF5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3429000" y="1155700"/>
-          <a:ext cx="2540000" cy="266700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="134F69"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="134F69"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
-        <a:ln w="0" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1000" b="0">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>Name</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>292100</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>393700</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="'ModUIScreenCom.SortBy(&quot;Step No&quot;), &quot;UIForAction&quot;'" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="55" name="TextBox 54">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9EBA00C-9E46-2590-8E94-3655527ABF08}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5969000" y="1155700"/>
-          <a:ext cx="2540000" cy="266700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="134F69"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="134F69"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
-        <a:ln w="0" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1000" b="0">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>Step No</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>393700</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="'ModUIScreenCom.SortBy(&quot;Step Name&quot;), &quot;UIForAction&quot;'" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="56" name="TextBox 55">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60B0DE4F-0F60-8626-6069-8A29F36282AE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8509000" y="1155700"/>
-          <a:ext cx="3683000" cy="266700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="134F69"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="134F69"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
-        <a:ln w="0" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1000" b="0">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>Step Name</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>469900</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="'ModUIScreenCom.SortBy(&quot;Status&quot;), &quot;UIForAction&quot;'" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="57" name="TextBox 56">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99E6BB31-72D5-CA6F-A5A2-949ACAD98FD2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12192000" y="1155700"/>
-          <a:ext cx="1270000" cy="266700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="134F69"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="134F69"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
-        <a:ln w="0" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1000" b="0">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>Status</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>330200</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="'ModUiForAction.OpenWorkflow(1)'" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="58" name="TextBox 57">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0593DA95-4188-9D79-7500-0B27A303CFA6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2159000" y="1422400"/>
-          <a:ext cx="1270000" cy="266700"/>
+          <a:off x="0" y="3810000"/>
+          <a:ext cx="1905000" cy="393700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2102,479 +1540,11 @@
           <a:lin ang="5400000" scaled="1"/>
           <a:tileRect/>
         </a:gradFill>
-        <a:ln w="0" cmpd="sng">
-          <a:noFill/>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="134F69"/>
+          </a:solidFill>
         </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1000" b="0">
-              <a:solidFill>
-                <a:srgbClr val="434343"/>
-              </a:solidFill>
-              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>1</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>292100</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="'ModUiForAction.OpenWorkflow(1)'" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="59" name="TextBox 58">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BA22333-D9FE-D9CE-BC3F-0AD80A4ECD43}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3429000" y="1422400"/>
-          <a:ext cx="2540000" cy="266700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
-        <a:ln w="0" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="en-GB" sz="1000" b="0">
-            <a:solidFill>
-              <a:srgbClr val="434343"/>
-            </a:solidFill>
-            <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>292100</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>393700</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="'ModUiForAction.OpenWorkflow(1)'" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="60" name="TextBox 59">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B55A84A-F880-1E84-9280-E09C7C98D908}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5969000" y="1422400"/>
-          <a:ext cx="2540000" cy="266700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
-        <a:ln w="0" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1000" b="0">
-              <a:solidFill>
-                <a:srgbClr val="434343"/>
-              </a:solidFill>
-              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>1.01</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>393700</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="'ModUiForAction.OpenWorkflow(1)'" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="61" name="TextBox 60">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B04DD94-871C-DE38-EB85-3FF59986257E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8509000" y="1422400"/>
-          <a:ext cx="3683000" cy="266700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
-        <a:ln w="0" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1000" b="0">
-              <a:solidFill>
-                <a:srgbClr val="434343"/>
-              </a:solidFill>
-              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>Fact Find to Client</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>469900</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="'ModUiForAction.OpenWorkflow(1)'" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="62" name="TextBox 61">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E229DFDF-FD53-1C93-A1CB-79F7C4BA2D78}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12192000" y="1422400"/>
-          <a:ext cx="1270000" cy="266700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="D7263D"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="D7263D"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
-        <a:ln w="0" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100" b="0">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>Action Req'd</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>469900</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="'ModUIScreenCom.ProcessBtnPress(6)'" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="52" name="BtnMain1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9A673F6-6054-C2D0-FE3F-9457C89C8A50}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12192000" y="190500"/>
-          <a:ext cx="1270000" cy="508000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="134F69"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="134F69"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
-        <a:ln w="0" cap="flat" cmpd="sng" algn="ctr">
-          <a:noFill/>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:effectLst>
-          <a:outerShdw blurRad="63500" dist="37357" dir="2700000" rotWithShape="0">
-            <a:prstClr val="black">
-              <a:alpha val="40000"/>
-            </a:prstClr>
-          </a:outerShdw>
-        </a:effectLst>
-        <a:extLst>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -2600,11 +1570,11 @@
           <a:r>
             <a:rPr lang="en-GB" sz="1200" b="0">
               <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
+                <a:srgbClr val="000000"/>
               </a:solidFill>
               <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>New Workflow</a:t>
+            <a:t>Admin</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2613,487 +1583,32 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>330200</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>22225</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIScreenCom.SortBy(&quot;Workflow No&quot;), &quot;UIForAction&quot;'" textlink="">
+    <xdr:sp macro="'ModUIMenu.ProcessBtnPress(7)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="63" name="TextBox 62">
+        <xdr:cNvPr id="13" name="MenuItem - Exit">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DC8C025-1885-59DE-A7F8-1AAEC2C10197}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{978E0FE9-B4A4-94D8-2D6C-DBCACFA062F3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
+        <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2159000" y="1155700"/>
-          <a:ext cx="1270000" cy="266700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="134F69"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="134F69"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
-        <a:ln w="0" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1000" b="0">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>Workflow No</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>292100</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="'ModUIScreenCom.SortBy(&quot;Name&quot;), &quot;UIForAction&quot;'" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4800" name="TextBox 4799">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6140AC9-CAA4-A1F3-736D-DCB85C5CD8BF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3429000" y="1155700"/>
-          <a:ext cx="2540000" cy="266700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="134F69"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="134F69"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
-        <a:ln w="0" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1000" b="0">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>Name</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>292100</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>393700</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="'ModUIScreenCom.SortBy(&quot;Step No&quot;), &quot;UIForAction&quot;'" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4801" name="TextBox 4800">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47737EAD-B2FA-4324-6946-6B727D1DC2D2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5969000" y="1155700"/>
-          <a:ext cx="2540000" cy="266700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="134F69"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="134F69"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
-        <a:ln w="0" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1000" b="0">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>Step No</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>393700</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="'ModUIScreenCom.SortBy(&quot;Step Name&quot;), &quot;UIForAction&quot;'" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4802" name="TextBox 4801">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80EE48D4-D586-B7B0-86DE-A9177956B9ED}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8509000" y="1155700"/>
-          <a:ext cx="3683000" cy="266700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="134F69"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="134F69"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
-        <a:ln w="0" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1000" b="0">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>Step Name</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>469900</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="'ModUIScreenCom.SortBy(&quot;Status&quot;), &quot;UIForAction&quot;'" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4803" name="TextBox 4802">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{010A3704-B447-CDE5-8716-618E10143F88}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12192000" y="1155700"/>
-          <a:ext cx="1270000" cy="266700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="134F69"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="134F69"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
-        <a:ln w="0" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1000" b="0">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>Status</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>330200</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="'ModUiForAction.OpenWorkflow(1)'" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4804" name="TextBox 4803">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DEB66681-16F8-CB85-9C7F-A0CA856F1284}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2159000" y="1422400"/>
-          <a:ext cx="1270000" cy="266700"/>
+          <a:off x="0" y="4191000"/>
+          <a:ext cx="1905000" cy="393700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3110,408 +1625,41 @@
           <a:lin ang="5400000" scaled="1"/>
           <a:tileRect/>
         </a:gradFill>
-        <a:ln w="0" cmpd="sng">
-          <a:noFill/>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="134F69"/>
+          </a:solidFill>
         </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
         </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
+          <a:schemeClr val="accent1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
+          <a:schemeClr val="lt1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-GB" sz="1000" b="0">
+            <a:rPr lang="en-GB" sz="1200" b="0">
               <a:solidFill>
-                <a:srgbClr val="434343"/>
+                <a:srgbClr val="000000"/>
               </a:solidFill>
               <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>1</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>292100</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="'ModUiForAction.OpenWorkflow(1)'" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4805" name="TextBox 4804">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25430E13-F106-7270-F374-54E71360FEFD}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3429000" y="1422400"/>
-          <a:ext cx="2540000" cy="266700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
-        <a:ln w="0" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="en-GB" sz="1000" b="0">
-            <a:solidFill>
-              <a:srgbClr val="434343"/>
-            </a:solidFill>
-            <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>292100</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>393700</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="'ModUiForAction.OpenWorkflow(1)'" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4806" name="TextBox 4805">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA9F4EAE-B0C7-7C3C-59E0-30B58AE124E8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5969000" y="1422400"/>
-          <a:ext cx="2540000" cy="266700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
-        <a:ln w="0" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1000" b="0">
-              <a:solidFill>
-                <a:srgbClr val="434343"/>
-              </a:solidFill>
-              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>1.01</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>393700</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="'ModUiForAction.OpenWorkflow(1)'" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4807" name="TextBox 4806">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F847AC36-8FEC-E1C1-3955-A4B0A19C8A36}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8509000" y="1422400"/>
-          <a:ext cx="3683000" cy="266700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
-        <a:ln w="0" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1000" b="0">
-              <a:solidFill>
-                <a:srgbClr val="434343"/>
-              </a:solidFill>
-              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>Fact Find to Client</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>469900</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="'ModUiForAction.OpenWorkflow(1)'" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4808" name="TextBox 4807">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2B08C48-48A0-9A83-3324-E1296695930C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12192000" y="1422400"/>
-          <a:ext cx="1270000" cy="266700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="BAFF29"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="BAFF29"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
-        <a:ln w="0" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100" b="0">
-              <a:solidFill>
-                <a:srgbClr val="434343"/>
-              </a:solidFill>
-              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>Action Req'd</a:t>
+            <a:t>Exit</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -4090,7 +2238,7 @@
   <sheetPr codeName="ShtMain"/>
   <dimension ref="B2:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="U7" sqref="U7"/>
     </sheetView>
   </sheetViews>
@@ -4101,7 +2249,7 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/CBS Workflow.xlsx
+++ b/CBS Workflow.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\CBSWorkflow\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{58BC82AE-EE9A-44C3-B561-DBA8F430DFD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2EFBD953-480C-4B74-B917-B232FB966522}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="2640" windowWidth="17430" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="43650" yWindow="3570" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="6" r:id="rId1"/>
@@ -18,6 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">TblStepTemplate!$C$1:$N$42</definedName>
+    <definedName name="Button">Sheet1!$B$2</definedName>
     <definedName name="MenuItem">Sheet1!$B$2</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
@@ -674,10 +675,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="41" name="Main Screen">
+        <xdr:cNvPr id="2" name="Main Screen">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FABE3DC1-8135-B74C-6A6E-805DBE4B3878}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE6319A9-0556-32C4-8271-DCDAE5EE277F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -816,10 +817,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="44" name="Rectangle 43">
+        <xdr:cNvPr id="5" name="Rectangle 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F174C29D-77A9-9F6E-C2C9-835149F09E36}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC4CE39E-1E83-4B84-6C6E-048B63A53DB9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -876,10 +877,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="43" name="MenuBar">
+        <xdr:cNvPr id="4" name="MenuBar">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FDE716D-FE1F-CD2D-B3F7-CDC4FB97776D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52626E13-A87D-1279-5D5E-F0919C284133}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -965,10 +966,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="42" name="Rectangle 41" hidden="1">
+        <xdr:cNvPr id="3" name="Rectangle 2" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E85A2024-83FA-921C-E386-CFA77676EAD9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{967A8540-27CC-6E9B-0C33-131ACBC8BEB1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1025,10 +1026,10 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="45" name="Logo">
+        <xdr:cNvPr id="6" name="Logo">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E2E9BA3-5D56-8750-8487-CACAB569B063}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6F427F6-35FB-D346-8A00-AD7E40C94CB7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1075,10 +1076,10 @@
     </xdr:to>
     <xdr:sp macro="'ModUIMenu.ProcessBtnPress(1)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="46" name="MenuItem - For Action">
+        <xdr:cNvPr id="7" name="Button - For Action">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35EF731F-F431-8AEC-18EA-7DF63A9A7631}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE0F4A49-5674-3ADD-BBF2-A256BA915469}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1170,10 +1171,10 @@
     </xdr:to>
     <xdr:sp macro="'ModUIMenu.ProcessBtnPress(2)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="47" name="MenuItem - Active">
+        <xdr:cNvPr id="8" name="Button - Active">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1053AE2-AD38-2A3B-7C24-DB8577096ADB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFC3339C-2C54-952A-7C45-9EE0EC7A8B32}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1255,10 +1256,10 @@
     </xdr:to>
     <xdr:sp macro="'ModUIMenu.ProcessBtnPress(3)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="48" name="MenuItem - Complete">
+        <xdr:cNvPr id="9" name="Button - Complete">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D205D264-C56B-4D53-7AEC-1A557A739E93}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5922238-0176-F845-4E61-92390F7F2E2A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1340,10 +1341,10 @@
     </xdr:to>
     <xdr:sp macro="'ModUIMenu.ProcessBtnPress(4)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="49" name="MenuItem - Exit">
+        <xdr:cNvPr id="10" name="Button - Exit">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8B03BB1-A960-4883-A9FA-421299BCAB12}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E29C4B85-F8F1-AFB9-89BB-C871BF0C37A8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1420,15 +1421,15 @@
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>469900</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="51" name="Main Frame">
+        <xdr:cNvPr id="12" name="Main Frame">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A91040FE-D32A-154F-D387-ABA9CF9AB1CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A52432BF-0985-2FBA-60BC-3B350C417272}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1437,7 +1438,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2159000" y="889000"/>
-          <a:ext cx="11303000" cy="800100"/>
+          <a:ext cx="11303000" cy="1066800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1523,10 +1524,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="50" name="Main Frame Header">
+        <xdr:cNvPr id="11" name="Main Frame Header">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67D929F1-7341-EFA1-E438-9BB699AFBA08}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BDB06D8-10BC-5865-F0AA-52ABDD1390E3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1618,10 +1619,10 @@
     </xdr:to>
     <xdr:sp macro="'ModUIScreenCom.SortBy(&quot;Workflow No&quot;), &quot;UIForAction&quot;'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="53" name="TextBox 52">
+        <xdr:cNvPr id="14" name="TextBox 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5EE53D2-0DE6-38A4-C343-78B028D26C85}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5404B414-9A1E-8297-4D6E-220FA5B36E04}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1709,10 +1710,10 @@
     </xdr:to>
     <xdr:sp macro="'ModUIScreenCom.SortBy(&quot;Name&quot;), &quot;UIForAction&quot;'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="54" name="TextBox 53">
+        <xdr:cNvPr id="15" name="TextBox 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6ACF7E6A-AE48-CBD1-4259-2617887A8AF5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE623428-0428-F254-79CD-FB0B5CAE81C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1800,10 +1801,10 @@
     </xdr:to>
     <xdr:sp macro="'ModUIScreenCom.SortBy(&quot;Step No&quot;), &quot;UIForAction&quot;'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="55" name="TextBox 54">
+        <xdr:cNvPr id="16" name="TextBox 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9EBA00C-9E46-2590-8E94-3655527ABF08}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE8E177C-F2FA-9D13-0968-DB80762597BE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1891,10 +1892,10 @@
     </xdr:to>
     <xdr:sp macro="'ModUIScreenCom.SortBy(&quot;Step Name&quot;), &quot;UIForAction&quot;'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="56" name="TextBox 55">
+        <xdr:cNvPr id="17" name="TextBox 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60B0DE4F-0F60-8626-6069-8A29F36282AE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D49F3D2F-3642-ED74-C263-F52125743D41}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1982,10 +1983,10 @@
     </xdr:to>
     <xdr:sp macro="'ModUIScreenCom.SortBy(&quot;Status&quot;), &quot;UIForAction&quot;'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="57" name="TextBox 56">
+        <xdr:cNvPr id="18" name="TextBox 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99E6BB31-72D5-CA6F-A5A2-949ACAD98FD2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9789260-A2EB-C6F1-7DCE-288E80D65C1F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2073,10 +2074,10 @@
     </xdr:to>
     <xdr:sp macro="'ModUiForAction.OpenWorkflow(1)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="58" name="TextBox 57">
+        <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0593DA95-4188-9D79-7500-0B27A303CFA6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37B3ECE1-FDA9-B076-DB6B-1658D2B75937}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2164,10 +2165,10 @@
     </xdr:to>
     <xdr:sp macro="'ModUiForAction.OpenWorkflow(1)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="59" name="TextBox 58">
+        <xdr:cNvPr id="20" name="TextBox 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BA22333-D9FE-D9CE-BC3F-0AD80A4ECD43}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8EF9A1B-6ABE-19A6-9990-8BDE46707A37}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2252,10 +2253,10 @@
     </xdr:to>
     <xdr:sp macro="'ModUiForAction.OpenWorkflow(1)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="60" name="TextBox 59">
+        <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B55A84A-F880-1E84-9280-E09C7C98D908}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61DFA723-E62E-33F5-E85C-8806F2C3C1AB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2343,10 +2344,10 @@
     </xdr:to>
     <xdr:sp macro="'ModUiForAction.OpenWorkflow(1)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="61" name="TextBox 60">
+        <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B04DD94-871C-DE38-EB85-3FF59986257E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD79B3A8-8E0D-D8DF-9C23-B56941CA3ADC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2434,10 +2435,10 @@
     </xdr:to>
     <xdr:sp macro="'ModUiForAction.OpenWorkflow(1)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="62" name="TextBox 61">
+        <xdr:cNvPr id="23" name="TextBox 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E229DFDF-FD53-1C93-A1CB-79F7C4BA2D78}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2D5675C-3F91-D129-F031-ED7179CE7CBE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2512,6 +2513,458 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUiForAction.OpenWorkflow(2)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="TextBox 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04612271-D609-AA2C-0191-833852DC538F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2159000" y="1689100"/>
+          <a:ext cx="1270000" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="0">
+              <a:solidFill>
+                <a:srgbClr val="434343"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>292100</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUiForAction.OpenWorkflow(2)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="TextBox 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D2E8F5C-1EC1-40C6-F48A-0097595B58A1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3429000" y="1689100"/>
+          <a:ext cx="2540000" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-GB" sz="1000" b="0">
+            <a:solidFill>
+              <a:srgbClr val="434343"/>
+            </a:solidFill>
+            <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>292100</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUiForAction.OpenWorkflow(2)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="TextBox 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06A5CA11-0B9A-51CD-4EE8-EE3491892FE8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5969000" y="1689100"/>
+          <a:ext cx="2540000" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="0">
+              <a:solidFill>
+                <a:srgbClr val="434343"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>1.01</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUiForAction.OpenWorkflow(2)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="TextBox 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3B46A75-BDCD-2300-5A54-398402126F57}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8509000" y="1689100"/>
+          <a:ext cx="3683000" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="0">
+              <a:solidFill>
+                <a:srgbClr val="434343"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Fact Find to Client</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>469900</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUiForAction.OpenWorkflow(2)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="TextBox 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{143892B3-8F1E-0F94-F585-E7153C3D0BF0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12192000" y="1689100"/>
+          <a:ext cx="1270000" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="BAFF29"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="BAFF29"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="0">
+              <a:solidFill>
+                <a:srgbClr val="434343"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Action Req'd</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
       <xdr:row>1</xdr:row>
@@ -2525,10 +2978,10 @@
     </xdr:to>
     <xdr:sp macro="'ModUIScreenCom.ProcessBtnPress(6)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="52" name="BtnMain1">
+        <xdr:cNvPr id="13" name="BtnMain1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9A673F6-6054-C2D0-FE3F-9457C89C8A50}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6286727-8002-5C44-EB9B-F929A49366BA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2605,913 +3058,6 @@
               <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
             </a:rPr>
             <a:t>New Workflow</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>330200</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="'ModUIScreenCom.SortBy(&quot;Workflow No&quot;), &quot;UIForAction&quot;'" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="63" name="TextBox 62">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DC8C025-1885-59DE-A7F8-1AAEC2C10197}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2159000" y="1155700"/>
-          <a:ext cx="1270000" cy="266700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="134F69"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="134F69"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
-        <a:ln w="0" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1000" b="0">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>Workflow No</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>292100</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="'ModUIScreenCom.SortBy(&quot;Name&quot;), &quot;UIForAction&quot;'" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4800" name="TextBox 4799">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6140AC9-CAA4-A1F3-736D-DCB85C5CD8BF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3429000" y="1155700"/>
-          <a:ext cx="2540000" cy="266700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="134F69"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="134F69"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
-        <a:ln w="0" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1000" b="0">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>Name</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>292100</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>393700</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="'ModUIScreenCom.SortBy(&quot;Step No&quot;), &quot;UIForAction&quot;'" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4801" name="TextBox 4800">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47737EAD-B2FA-4324-6946-6B727D1DC2D2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5969000" y="1155700"/>
-          <a:ext cx="2540000" cy="266700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="134F69"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="134F69"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
-        <a:ln w="0" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1000" b="0">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>Step No</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>393700</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="'ModUIScreenCom.SortBy(&quot;Step Name&quot;), &quot;UIForAction&quot;'" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4802" name="TextBox 4801">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80EE48D4-D586-B7B0-86DE-A9177956B9ED}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8509000" y="1155700"/>
-          <a:ext cx="3683000" cy="266700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="134F69"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="134F69"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
-        <a:ln w="0" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1000" b="0">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>Step Name</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>469900</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="'ModUIScreenCom.SortBy(&quot;Status&quot;), &quot;UIForAction&quot;'" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4803" name="TextBox 4802">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{010A3704-B447-CDE5-8716-618E10143F88}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12192000" y="1155700"/>
-          <a:ext cx="1270000" cy="266700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="134F69"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="134F69"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
-        <a:ln w="0" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1000" b="0">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>Status</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>330200</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="'ModUiForAction.OpenWorkflow(1)'" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4804" name="TextBox 4803">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DEB66681-16F8-CB85-9C7F-A0CA856F1284}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2159000" y="1422400"/>
-          <a:ext cx="1270000" cy="266700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
-        <a:ln w="0" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1000" b="0">
-              <a:solidFill>
-                <a:srgbClr val="434343"/>
-              </a:solidFill>
-              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>1</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>292100</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="'ModUiForAction.OpenWorkflow(1)'" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4805" name="TextBox 4804">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25430E13-F106-7270-F374-54E71360FEFD}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3429000" y="1422400"/>
-          <a:ext cx="2540000" cy="266700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
-        <a:ln w="0" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="en-GB" sz="1000" b="0">
-            <a:solidFill>
-              <a:srgbClr val="434343"/>
-            </a:solidFill>
-            <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>292100</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>393700</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="'ModUiForAction.OpenWorkflow(1)'" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4806" name="TextBox 4805">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA9F4EAE-B0C7-7C3C-59E0-30B58AE124E8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5969000" y="1422400"/>
-          <a:ext cx="2540000" cy="266700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
-        <a:ln w="0" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1000" b="0">
-              <a:solidFill>
-                <a:srgbClr val="434343"/>
-              </a:solidFill>
-              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>1.01</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>393700</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="'ModUiForAction.OpenWorkflow(1)'" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4807" name="TextBox 4806">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F847AC36-8FEC-E1C1-3955-A4B0A19C8A36}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8509000" y="1422400"/>
-          <a:ext cx="3683000" cy="266700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
-        <a:ln w="0" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1000" b="0">
-              <a:solidFill>
-                <a:srgbClr val="434343"/>
-              </a:solidFill>
-              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>Fact Find to Client</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>469900</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="'ModUiForAction.OpenWorkflow(1)'" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4808" name="TextBox 4807">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2B08C48-48A0-9A83-3324-E1296695930C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12192000" y="1422400"/>
-          <a:ext cx="1270000" cy="266700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="BAFF29"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="BAFF29"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
-        <a:ln w="0" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100" b="0">
-              <a:solidFill>
-                <a:srgbClr val="434343"/>
-              </a:solidFill>
-              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>Action Req'd</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -4090,8 +3636,8 @@
   <sheetPr codeName="ShtMain"/>
   <dimension ref="B2:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U7" sqref="U7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/CBS Workflow.xlsx
+++ b/CBS Workflow.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\CBSWorkflow\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3E4E8D05-C452-4EBD-A5A6-EF8DAEE4FCAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1D38FA46-FAB2-495C-8832-00E376B7E422}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2295" yWindow="2295" windowWidth="28800" windowHeight="15345" xr2:uid="{00ACA1FB-AD02-4E9F-8F74-E5C81A868DC7}"/>
+    <workbookView xWindow="-27855" yWindow="2745" windowWidth="28800" windowHeight="15345" xr2:uid="{00ACA1FB-AD02-4E9F-8F74-E5C81A868DC7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/CBS Workflow.xlsx
+++ b/CBS Workflow.xlsx
@@ -1,25 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\CBSWorkflow\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1D38FA46-FAB2-495C-8832-00E376B7E422}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{691BDFF4-32C3-4217-8FBF-5DFB2DD7FDF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27855" yWindow="2745" windowWidth="28800" windowHeight="15345" xr2:uid="{00ACA1FB-AD02-4E9F-8F74-E5C81A868DC7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId1"/>
+    <sheet name="TblStepTemplate" sheetId="7" state="hidden" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029" calcMode="manual"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">TblStepTemplate!$C$1:$N$42</definedName>
+    <definedName name="Button">Sheet1!$B$2</definedName>
+  </definedNames>
+  <calcPr calcId="191028"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -28,16 +30,509 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="163">
+  <si>
+    <t>WorkflowNo</t>
+  </si>
+  <si>
+    <t>WFName</t>
+  </si>
+  <si>
+    <t>Wait</t>
+  </si>
+  <si>
+    <t>StepType</t>
+  </si>
+  <si>
+    <t>StepNo</t>
+  </si>
+  <si>
+    <t>StepIndex</t>
+  </si>
+  <si>
+    <t>StepName</t>
+  </si>
+  <si>
+    <t>StartTime</t>
+  </si>
+  <si>
+    <t>EndTime</t>
+  </si>
+  <si>
+    <t>StepAction</t>
+  </si>
+  <si>
+    <t>NextStep</t>
+  </si>
+  <si>
+    <t>PrevStep</t>
+  </si>
+  <si>
+    <t>AltStep</t>
+  </si>
+  <si>
+    <t>RedThresh</t>
+  </si>
+  <si>
+    <t>AmberThresh</t>
+  </si>
+  <si>
+    <t>DataItem</t>
+  </si>
+  <si>
+    <t>DataFormat</t>
+  </si>
+  <si>
+    <t>DataDest</t>
+  </si>
+  <si>
+    <t>EmailArrived</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>AltEmail</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>CopyText</t>
+  </si>
+  <si>
+    <t>CopyTextName</t>
+  </si>
+  <si>
+    <t>UniqueID</t>
+  </si>
+  <si>
+    <t>initial</t>
+  </si>
+  <si>
+    <t>enDataInput</t>
+  </si>
+  <si>
+    <t>1.01</t>
+  </si>
+  <si>
+    <t>Client Details</t>
+  </si>
+  <si>
+    <t>Enter the Client's Details</t>
+  </si>
+  <si>
+    <t>1.02</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t xml:space="preserve">Client Details </t>
+  </si>
+  <si>
+    <t>Text</t>
+  </si>
+  <si>
+    <t>Workflow.Member</t>
+  </si>
+  <si>
+    <t>enStep</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fact Find to Client </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Send Fact Find to Client </t>
+  </si>
+  <si>
+    <t>1.03</t>
+  </si>
+  <si>
+    <t>enYesNo</t>
+  </si>
+  <si>
+    <t>Fact Find completed by Client</t>
+  </si>
+  <si>
+    <t>Has the Fact Finding form been received from the Client?</t>
+  </si>
+  <si>
+    <t>1.04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Complete Fact Find </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is the Fact Find information, complete? </t>
+  </si>
+  <si>
+    <t>1.05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Obtain missing information </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Obtain missing Fact Find information from Client </t>
+  </si>
+  <si>
+    <t>1.06</t>
+  </si>
+  <si>
+    <t>Issue Fact Find to Steve</t>
+  </si>
+  <si>
+    <t>Send the completed Fact Finding Form and supporting information to Steve</t>
+  </si>
+  <si>
+    <t>1.07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Redact lender terms for issue </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Redact the terms received from Steve in readiness to issue to the Client </t>
+  </si>
+  <si>
+    <t>1.08</t>
+  </si>
+  <si>
+    <t>Issue terms/DIP</t>
+  </si>
+  <si>
+    <t>Issue the Finance Terms to the Client for review and acceptance</t>
+  </si>
+  <si>
+    <t>1.09</t>
+  </si>
+  <si>
+    <t>Terms agreed by Client?</t>
+  </si>
+  <si>
+    <t>Have the Finance Terms been accepted by the Client?</t>
+  </si>
+  <si>
+    <t>1.10</t>
+  </si>
+  <si>
+    <t>Site visit with Lender</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schedule a site visit with the lender following acceptance of terms </t>
+  </si>
+  <si>
+    <t>1.11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acquire information for lender to proceed to credit committee </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Collect information (see lender requirements) from the Client for the Lender to proceed to credit approval </t>
+  </si>
+  <si>
+    <t>1.12</t>
+  </si>
+  <si>
+    <t>Commitment fee paid (if applicable)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Has the commitment fee been paid in readiness for credit approval? </t>
+  </si>
+  <si>
+    <t>1.13</t>
+  </si>
+  <si>
+    <t>Submitted for credit approval</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Has the lender submitted their proposal for credit approval? </t>
+  </si>
+  <si>
+    <t>1.14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Credit approval </t>
+  </si>
+  <si>
+    <t>Has credit approval been acquired?</t>
+  </si>
+  <si>
+    <t>1.15</t>
+  </si>
+  <si>
+    <t>Credit backed terms received</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Have credit backed terms been received? If not, acquire them from the lender. </t>
+  </si>
+  <si>
+    <t>1.16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lender fee quotes </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Has the lender issued fee quotes for the valuation, MS and legal fees to the Client? </t>
+  </si>
+  <si>
+    <t>1.17</t>
+  </si>
+  <si>
+    <t>Valuation instructed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Following acceptance of the fee quotes, has the lender instructed the valuation? </t>
+  </si>
+  <si>
+    <t>1.18</t>
+  </si>
+  <si>
+    <t>Valuation fee paid</t>
+  </si>
+  <si>
+    <t>Has the Client paid the valuation fee?</t>
+  </si>
+  <si>
+    <t>1.19</t>
+  </si>
+  <si>
+    <t>Valuation scheduled</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Has the valuation been scheduled? </t>
+  </si>
+  <si>
+    <t>1.20</t>
+  </si>
+  <si>
+    <t>Enter valuation date</t>
+  </si>
+  <si>
+    <t>Enter the date of the valuation</t>
+  </si>
+  <si>
+    <t>1.21</t>
+  </si>
+  <si>
+    <t>Valuation Date</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Workflow.Ddate</t>
+  </si>
+  <si>
+    <t>Valuation report completed</t>
+  </si>
+  <si>
+    <t>Has the valuation report been completed?</t>
+  </si>
+  <si>
+    <t>1.22</t>
+  </si>
+  <si>
+    <t>Lender Valuation report received</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Has the valuation report been received by the Lender? </t>
+  </si>
+  <si>
+    <t>1.23</t>
+  </si>
+  <si>
+    <t>CBS Valuation report received</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Has the valuation report been received by CBS from the Lender? </t>
+  </si>
+  <si>
+    <t>1.24</t>
+  </si>
+  <si>
+    <t>MS instructed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Has the MS been instructed? </t>
+  </si>
+  <si>
+    <t>1.25</t>
+  </si>
+  <si>
+    <t>MS fee paid</t>
+  </si>
+  <si>
+    <t>Has the Client paid the MS fee?</t>
+  </si>
+  <si>
+    <t>1.26</t>
+  </si>
+  <si>
+    <t>MS scheduled</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Has the MS been scheduled? </t>
+  </si>
+  <si>
+    <t>1.27</t>
+  </si>
+  <si>
+    <t>MS report completed</t>
+  </si>
+  <si>
+    <t>Has the MS report been completed?</t>
+  </si>
+  <si>
+    <t>1.28</t>
+  </si>
+  <si>
+    <t>Lender MS report received</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Has the MSreport been received by the Lender? </t>
+  </si>
+  <si>
+    <t>1.29</t>
+  </si>
+  <si>
+    <t>CBS MS report received</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Has the MS report been received by CBS from the Lender? </t>
+  </si>
+  <si>
+    <t>1.30</t>
+  </si>
+  <si>
+    <t>Legal fees paid / undertaking provided</t>
+  </si>
+  <si>
+    <t>Has the Client paid the legal fees and provided an undertaking?</t>
+  </si>
+  <si>
+    <t>1.31</t>
+  </si>
+  <si>
+    <t>CP's issued</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Have the CP's been issued by the Lender's solicitor? </t>
+  </si>
+  <si>
+    <t>1.32</t>
+  </si>
+  <si>
+    <t>CP's completed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Has the Client completed all of the CP's issued by the Lender's solicitor? </t>
+  </si>
+  <si>
+    <t>1.33</t>
+  </si>
+  <si>
+    <t>Liaise with Lender about completion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Has a completion date been agreed? </t>
+  </si>
+  <si>
+    <t>1.34</t>
+  </si>
+  <si>
+    <t>Target Completion</t>
+  </si>
+  <si>
+    <t>Enter the target completion date</t>
+  </si>
+  <si>
+    <t>1.35</t>
+  </si>
+  <si>
+    <t>Target Completion Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Raise CBS commission invoice </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Refer to Emma to raise an invoice to the Lender from CBS - provide details for this </t>
+  </si>
+  <si>
+    <t>1.36</t>
+  </si>
+  <si>
+    <t>Actual Completion</t>
+  </si>
+  <si>
+    <t>Has the loan completed?</t>
+  </si>
+  <si>
+    <t>1.37</t>
+  </si>
+  <si>
+    <t>Enter actual completion date</t>
+  </si>
+  <si>
+    <t>Enter the date of actual completion</t>
+  </si>
+  <si>
+    <t>1.38</t>
+  </si>
+  <si>
+    <t>Actual Completion Date</t>
+  </si>
+  <si>
+    <t>Commission payment received</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Has commision payment received? Check with Emma </t>
+  </si>
+  <si>
+    <t>1.39</t>
+  </si>
+  <si>
+    <t>Enter exit fee percentage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Record exit fee percentage charged to the lender for future invoice </t>
+  </si>
+  <si>
+    <t>1.40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">% figure </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter antipicated loan exit date </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Record anticipated exit date (end of loan term) and schedule raising invoice for this date - liaise with lender </t>
+  </si>
+  <si>
+    <t>1.41</t>
+  </si>
+  <si>
+    <t>Completion</t>
+  </si>
+  <si>
+    <t>Workflow has now completed</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -45,16 +540,38 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC0C0C0"/>
+        <bgColor rgb="FFC0C0C0"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -62,18 +579,73 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFD0D7E5"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFD0D7E5"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFD0D7E5"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFD0D7E5"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Percent 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFF9FB"/>
+      <color rgb="FF2AAF92"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -95,6 +667,1060 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>73025</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="51" name="Main Screen">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91E7B2CA-52C4-A1DF-16FE-F34CA5960DE4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="23177500" cy="25400000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FBF9FF"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FBF9FF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cap="flat" cmpd="sng" algn="ctr">
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100" b="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface=""/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>558800</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4829" name="TEMPLATE - Logo" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DD60F29-BC8A-CD9F-F23B-AD9C56698867}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="24117300" y="2276475"/>
+          <a:ext cx="2235200" cy="1460500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="54" name="Rectangle 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65FC0162-C8AE-FB98-AE1B-5C4CD487B8DA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="127000" cy="127000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>73025</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="53" name="MenuBar">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7B3A496-3425-09A0-48DE-198EB09312F6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="1968500" cy="25400000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:prstClr val="black"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="63500" dist="37357" dir="2700000" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100" b="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface=""/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="52" name="Rectangle 51" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BFBBC10-B33B-5E85-2B5C-B37132035B82}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="127000" cy="127000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>127001</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>165101</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>47488</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>165101</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="55" name="Logo">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A6B7BAD-97CE-E187-2812-A1710BD2D746}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="127001" y="165101"/>
+          <a:ext cx="1749287" cy="1143000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIMenu.ProcessBtnPress(1)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="56" name="Button - For Action">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59C3BDAF-6BA1-7BB3-34D1-46EE68CB6501}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="1905000"/>
+          <a:ext cx="1905000" cy="393700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="D8336B"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="D8336B"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cap="flat" cmpd="sng" algn="ctr">
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:srgbClr val="134F69"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1200" b="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>For Action</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIMenu.ProcessBtnPress(2)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="57" name="Button - Active">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5E203CD-32BC-A3B7-E2ED-109B0E0ED83B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="2286000"/>
+          <a:ext cx="1905000" cy="393700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="134F69"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1200" b="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Active</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>22225</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIMenu.ProcessBtnPress(3)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="58" name="Button - Complete">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54437494-B2EB-AF54-57F3-ECD4AF34BBD7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="2667000"/>
+          <a:ext cx="1905000" cy="393700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="134F69"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1200" b="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Complete</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>22225</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIMenu.ProcessBtnPress(4)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="59" name="Button - Exit">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2866CC2-B957-C5AA-7768-B01A46543AB9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="3048000"/>
+          <a:ext cx="1905000" cy="393700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="134F69"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1200" b="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Exit</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>469900</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4811" name="Main Frame">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85F59DEF-23CC-4969-A2E9-74ECC1E7F8C6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2159000" y="889000"/>
+          <a:ext cx="11303000" cy="1600200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cap="flat" cmpd="sng" algn="ctr">
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="63500" dist="37357" dir="2700000" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100" b="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface=""/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>469900</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4810" name="Main Frame Header" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CFEFF57-A651-4970-104D-AF1C12F4F9D4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2159000" y="889000"/>
+          <a:ext cx="11303000" cy="317500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="D8336B"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="D8336B"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cap="flat" cmpd="sng" algn="ctr">
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1200" b="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Workflows Requiring Attention</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>469900</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIScreenCom.ProcessBtnPress(6)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4812" name="BtnMain1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5EB95ED-D498-C8BF-21D1-EB6AE267A9BA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12192000" y="190500"/>
+          <a:ext cx="1270000" cy="508000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="134F69"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="134F69"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cap="flat" cmpd="sng" algn="ctr">
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="63500" dist="37357" dir="2700000" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1200" b="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>New Workflow</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>127000</xdr:colOff>
       <xdr:row>0</xdr:row>
@@ -105,7 +1731,187 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4CEEC39-3309-56C2-D5C9-4061C2D11785}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C9CC503-ACAD-69A7-7814-035421D32E61}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="127000" cy="127000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rectangle 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49AE2FE5-AFE2-9F92-BBE8-A5AC442A7277}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="127000" cy="127000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Rectangle 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E8FD1D0-2FF0-5D50-4BC4-326DC6B1C54B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="127000" cy="127000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Rectangle 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE4D94DD-034F-2062-0EE7-4665C0D24815}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -161,44 +1967,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -248,9 +2054,9 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -306,156 +2112,2200 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{594331EF-02A2-48B1-A572-C572D4A6B822}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="ShtMain"/>
-  <dimension ref="A1"/>
+  <dimension ref="B2:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="U7" sqref="U7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <dataConsolidate/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29DBF781-377D-4D51-BB7A-ACB62E9EAE6C}">
+  <sheetPr codeName="ShtTableImport"/>
+  <dimension ref="A1:Y42"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="6" width="13.85546875" customWidth="1"/>
+    <col min="7" max="7" width="36.7109375" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" customWidth="1"/>
+    <col min="9" max="9" width="13.85546875" customWidth="1"/>
+    <col min="10" max="10" width="79.5703125" customWidth="1"/>
+    <col min="11" max="17" width="13.85546875" customWidth="1"/>
+    <col min="18" max="18" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="25" width="13.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N2" s="4">
+        <v>2</v>
+      </c>
+      <c r="O2" s="4">
+        <v>1</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="R2" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N3" s="4">
+        <v>2</v>
+      </c>
+      <c r="O3" s="4">
+        <v>1</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M4" s="3">
+        <v>1.03</v>
+      </c>
+      <c r="N4" s="4">
+        <v>2</v>
+      </c>
+      <c r="O4" s="4">
+        <v>1</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="b">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="K5" s="5">
+        <v>1.06</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="M5" s="3">
+        <v>1.05</v>
+      </c>
+      <c r="N5" s="4">
+        <v>2</v>
+      </c>
+      <c r="O5" s="4">
+        <v>1</v>
+      </c>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="Y5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K6" s="5">
+        <v>1.06</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="M6" s="3"/>
+      <c r="N6" s="4">
+        <v>2</v>
+      </c>
+      <c r="O6" s="4">
+        <v>1</v>
+      </c>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="Y6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="b">
+        <v>0</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N7" s="4">
+        <v>2</v>
+      </c>
+      <c r="O7" s="4">
+        <v>1</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="b">
+        <v>0</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="M8" s="3"/>
+      <c r="N8" s="4">
+        <v>2</v>
+      </c>
+      <c r="O8" s="4">
+        <v>1</v>
+      </c>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="Y8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="b">
+        <v>0</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N9" s="4">
+        <v>2</v>
+      </c>
+      <c r="O9" s="4">
+        <v>1</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="b">
+        <v>1</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="M10" s="3">
+        <v>1.08</v>
+      </c>
+      <c r="N10" s="4">
+        <v>2</v>
+      </c>
+      <c r="O10" s="4">
+        <v>1</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="b">
+        <v>0</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N11" s="4">
+        <v>2</v>
+      </c>
+      <c r="O11" s="4">
+        <v>1</v>
+      </c>
+      <c r="P11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N12" s="4">
+        <v>2</v>
+      </c>
+      <c r="O12" s="4">
+        <v>1</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="b">
+        <v>1</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="M13" s="3">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="N13" s="4">
+        <v>2</v>
+      </c>
+      <c r="O13" s="4">
+        <v>1</v>
+      </c>
+      <c r="P13" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q13" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="b">
+        <v>0</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N14" s="4">
+        <v>2</v>
+      </c>
+      <c r="O14" s="4">
+        <v>1</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="b">
+        <v>1</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="M15" s="3">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="N15" s="4">
+        <v>2</v>
+      </c>
+      <c r="O15" s="4">
+        <v>1</v>
+      </c>
+      <c r="P15" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q15" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="b">
+        <v>1</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="M16" s="3">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="N16" s="4">
+        <v>2</v>
+      </c>
+      <c r="O16" s="4">
+        <v>1</v>
+      </c>
+      <c r="P16" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q16" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="b">
+        <v>1</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="M17" s="3">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="N17" s="4">
+        <v>2</v>
+      </c>
+      <c r="O17" s="4">
+        <v>1</v>
+      </c>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="Y17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="b">
+        <v>0</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N18" s="4">
+        <v>2</v>
+      </c>
+      <c r="O18" s="4">
+        <v>1</v>
+      </c>
+      <c r="P18" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q18" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="b">
+        <v>1</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="M19" s="3">
+        <v>1.17</v>
+      </c>
+      <c r="N19" s="4">
+        <v>2</v>
+      </c>
+      <c r="O19" s="4">
+        <v>1</v>
+      </c>
+      <c r="P19" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q19" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="b">
+        <v>1</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N20" s="4">
+        <v>2</v>
+      </c>
+      <c r="O20" s="4">
+        <v>1</v>
+      </c>
+      <c r="P20" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q20" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="b">
+        <v>0</v>
+      </c>
+      <c r="D21" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N21" s="4">
+        <v>2</v>
+      </c>
+      <c r="O21" s="4">
+        <v>1</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="R21" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="b">
+        <v>1</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="M22" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="N22" s="4">
+        <v>2</v>
+      </c>
+      <c r="O22" s="4">
+        <v>1</v>
+      </c>
+      <c r="P22" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q22" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y22">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="b">
+        <v>1</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="M23" s="3">
+        <v>1.21</v>
+      </c>
+      <c r="N23" s="4">
+        <v>2</v>
+      </c>
+      <c r="O23" s="4">
+        <v>1</v>
+      </c>
+      <c r="P23" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q23" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y23">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="b">
+        <v>1</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="M24" s="3">
+        <v>1.22</v>
+      </c>
+      <c r="N24" s="4">
+        <v>2</v>
+      </c>
+      <c r="O24" s="4">
+        <v>1</v>
+      </c>
+      <c r="P24" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q24" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y24">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="b">
+        <v>1</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="L25" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="M25" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N25" s="4">
+        <v>2</v>
+      </c>
+      <c r="O25" s="4">
+        <v>1</v>
+      </c>
+      <c r="P25" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q25" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="b">
+        <v>1</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N26" s="4">
+        <v>2</v>
+      </c>
+      <c r="O26" s="4">
+        <v>1</v>
+      </c>
+      <c r="P26" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q26" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y26">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="b">
+        <v>1</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="L27" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N27" s="4">
+        <v>2</v>
+      </c>
+      <c r="O27" s="4">
+        <v>1</v>
+      </c>
+      <c r="P27" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q27" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y27">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="b">
+        <v>1</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="K28" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="L28" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="M28" s="3">
+        <v>1.26</v>
+      </c>
+      <c r="N28" s="4">
+        <v>2</v>
+      </c>
+      <c r="O28" s="4">
+        <v>1</v>
+      </c>
+      <c r="P28" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q28" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y28">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="b">
+        <v>1</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="M29" s="3">
+        <v>1.27</v>
+      </c>
+      <c r="N29" s="4">
+        <v>2</v>
+      </c>
+      <c r="O29" s="4">
+        <v>1</v>
+      </c>
+      <c r="P29" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q29" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y29">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>1</v>
+      </c>
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" t="b">
+        <v>1</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="K30" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="L30" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="M30" s="3"/>
+      <c r="N30" s="4">
+        <v>2</v>
+      </c>
+      <c r="O30" s="4">
+        <v>1</v>
+      </c>
+      <c r="P30" s="3"/>
+      <c r="Q30" s="3"/>
+      <c r="Y30">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>1</v>
+      </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" t="b">
+        <v>1</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="J31" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="K31" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="L31" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="M31" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N31" s="4">
+        <v>2</v>
+      </c>
+      <c r="O31" s="4">
+        <v>1</v>
+      </c>
+      <c r="P31" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q31" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y31">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>1</v>
+      </c>
+      <c r="B32" t="s">
+        <v>25</v>
+      </c>
+      <c r="C32" t="b">
+        <v>1</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="L32" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N32" s="4">
+        <v>2</v>
+      </c>
+      <c r="O32" s="4">
+        <v>1</v>
+      </c>
+      <c r="P32" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q32" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y32">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>1</v>
+      </c>
+      <c r="B33" t="s">
+        <v>25</v>
+      </c>
+      <c r="C33" t="b">
+        <v>1</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="L33" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="M33" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N33" s="4">
+        <v>2</v>
+      </c>
+      <c r="O33" s="4">
+        <v>1</v>
+      </c>
+      <c r="P33" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q33" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y33">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>1</v>
+      </c>
+      <c r="B34" t="s">
+        <v>25</v>
+      </c>
+      <c r="C34" t="b">
+        <v>1</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="J34" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="K34" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="L34" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="M34" s="3"/>
+      <c r="N34" s="4">
+        <v>2</v>
+      </c>
+      <c r="O34" s="4">
+        <v>1</v>
+      </c>
+      <c r="P34" s="3"/>
+      <c r="Q34" s="3"/>
+      <c r="Y34">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25" ht="45" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>1</v>
+      </c>
+      <c r="B35" t="s">
+        <v>25</v>
+      </c>
+      <c r="C35" t="b">
+        <v>1</v>
+      </c>
+      <c r="D35" t="s">
+        <v>26</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="L35" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="M35" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N35" s="4">
+        <v>2</v>
+      </c>
+      <c r="O35" s="4">
+        <v>1</v>
+      </c>
+      <c r="P35" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q35" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="R35" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>1</v>
+      </c>
+      <c r="B36" t="s">
+        <v>25</v>
+      </c>
+      <c r="C36" t="b">
+        <v>0</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="J36" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="K36" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="L36" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="M36" s="3"/>
+      <c r="N36" s="4">
+        <v>2</v>
+      </c>
+      <c r="O36" s="4">
+        <v>1</v>
+      </c>
+      <c r="P36" s="3"/>
+      <c r="Q36" s="3"/>
+      <c r="Y36">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>1</v>
+      </c>
+      <c r="B37" t="s">
+        <v>25</v>
+      </c>
+      <c r="C37" t="b">
+        <v>0</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="J37" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="K37" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="L37" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="M37" s="3">
+        <v>1.35</v>
+      </c>
+      <c r="N37" s="4">
+        <v>2</v>
+      </c>
+      <c r="O37" s="4">
+        <v>1</v>
+      </c>
+      <c r="P37" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q37" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y37">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25" ht="45" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>1</v>
+      </c>
+      <c r="B38" t="s">
+        <v>25</v>
+      </c>
+      <c r="C38" t="b">
+        <v>0</v>
+      </c>
+      <c r="D38" t="s">
+        <v>26</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="J38" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="K38" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="L38" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="M38" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N38" s="4">
+        <v>2</v>
+      </c>
+      <c r="O38" s="4">
+        <v>1</v>
+      </c>
+      <c r="P38" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q38" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="R38" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y38">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>1</v>
+      </c>
+      <c r="B39" t="s">
+        <v>25</v>
+      </c>
+      <c r="C39" t="b">
+        <v>1</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="J39" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="K39" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="L39" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="M39" s="3">
+        <v>1.37</v>
+      </c>
+      <c r="N39" s="4">
+        <v>2</v>
+      </c>
+      <c r="O39" s="4">
+        <v>1</v>
+      </c>
+      <c r="P39" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q39" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y39">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>1</v>
+      </c>
+      <c r="B40" t="s">
+        <v>25</v>
+      </c>
+      <c r="C40" t="b">
+        <v>0</v>
+      </c>
+      <c r="D40" t="s">
+        <v>26</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="J40" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="K40" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="L40" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="M40" s="3"/>
+      <c r="N40" s="4">
+        <v>2</v>
+      </c>
+      <c r="O40" s="4">
+        <v>1</v>
+      </c>
+      <c r="P40" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q40" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="R40" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y40">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:25" ht="45" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>1</v>
+      </c>
+      <c r="B41" t="s">
+        <v>25</v>
+      </c>
+      <c r="C41" t="b">
+        <v>0</v>
+      </c>
+      <c r="D41" t="s">
+        <v>26</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="K41" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="L41" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="M41" s="3"/>
+      <c r="N41" s="4">
+        <v>2</v>
+      </c>
+      <c r="O41" s="4">
+        <v>1</v>
+      </c>
+      <c r="P41" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q41" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="R41" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y41">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>1</v>
+      </c>
+      <c r="B42" t="s">
+        <v>25</v>
+      </c>
+      <c r="C42" t="b">
+        <v>0</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="K42" s="3">
+        <v>0</v>
+      </c>
+      <c r="L42" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="M42" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N42" s="4">
+        <v>2</v>
+      </c>
+      <c r="O42" s="4">
+        <v>1</v>
+      </c>
+      <c r="P42" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q42" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y42">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="C1:N42" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/CBS Workflow.xlsx
+++ b/CBS Workflow.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25629"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\CBSWorkflow\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{691BDFF4-32C3-4217-8FBF-5DFB2DD7FDF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CC06EB8B-43BB-4285-BEF0-9196DB71374C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5310" yWindow="5085" windowWidth="23730" windowHeight="10410" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="6" r:id="rId1"/>
@@ -674,10 +674,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="51" name="Main Screen">
+        <xdr:cNvPr id="5747" name="Main Screen">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91E7B2CA-52C4-A1DF-16FE-F34CA5960DE4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{889036E3-C933-E648-0DE9-DDC12D0964DD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -816,10 +816,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="54" name="Rectangle 53">
+        <xdr:cNvPr id="5750" name="Rectangle 5749">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65FC0162-C8AE-FB98-AE1B-5C4CD487B8DA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37AF861B-BE46-FB17-457E-71739C836BAE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -876,10 +876,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="53" name="MenuBar">
+        <xdr:cNvPr id="5749" name="MenuBar">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7B3A496-3425-09A0-48DE-198EB09312F6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECF5549E-D745-9A1E-633A-72D60620D9B1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -965,10 +965,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="52" name="Rectangle 51" hidden="1">
+        <xdr:cNvPr id="5748" name="Rectangle 5747" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BFBBC10-B33B-5E85-2B5C-B37132035B82}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B00BA21-8025-1D42-3C59-DDCCCFB7C9C0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1025,10 +1025,10 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="55" name="Logo">
+        <xdr:cNvPr id="5751" name="Logo">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A6B7BAD-97CE-E187-2812-A1710BD2D746}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC5213FE-325F-1472-A1EB-7C06214B6572}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1075,10 +1075,10 @@
     </xdr:to>
     <xdr:sp macro="'ModUIMenu.ProcessBtnPress(1)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="56" name="Button - For Action">
+        <xdr:cNvPr id="5752" name="Button - For Action">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59C3BDAF-6BA1-7BB3-34D1-46EE68CB6501}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D46C13E9-F1B7-41C4-A342-8DC18920A2A4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1087,6 +1087,91 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="1905000"/>
+          <a:ext cx="1905000" cy="393700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="134F69"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1200" b="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>For Action</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIMenu.ProcessBtnPress(2)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5753" name="Button - Active">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82F2FF0F-FFCF-9E6C-A1C2-79D3433BB14E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="2286000"/>
           <a:ext cx="1905000" cy="393700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1148,93 +1233,6 @@
               </a:solidFill>
               <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>For Action</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="'ModUIMenu.ProcessBtnPress(2)'" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="57" name="Button - Active">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5E203CD-32BC-A3B7-E2ED-109B0E0ED83B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="2286000"/>
-          <a:ext cx="1905000" cy="393700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:srgbClr val="134F69"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1200" b="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
-            </a:rPr>
             <a:t>Active</a:t>
           </a:r>
         </a:p>
@@ -1257,10 +1255,10 @@
     </xdr:to>
     <xdr:sp macro="'ModUIMenu.ProcessBtnPress(3)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="58" name="Button - Complete">
+        <xdr:cNvPr id="5754" name="Button - Complete">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54437494-B2EB-AF54-57F3-ECD4AF34BBD7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{567BF6FC-C499-3DC6-9912-7C67D484F144}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1286,13 +1284,11 @@
           <a:lin ang="5400000" scaled="1"/>
           <a:tileRect/>
         </a:gradFill>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700">
           <a:solidFill>
             <a:srgbClr val="134F69"/>
           </a:solidFill>
-          <a:prstDash val="solid"/>
         </a:ln>
-        <a:effectLst/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -1344,10 +1340,10 @@
     </xdr:to>
     <xdr:sp macro="'ModUIMenu.ProcessBtnPress(4)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="59" name="Button - Exit">
+        <xdr:cNvPr id="5755" name="Button - Exit">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2866CC2-B957-C5AA-7768-B01A46543AB9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5CAECFD-F396-2BDD-7338-26C130A69CB3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1418,21 +1414,21 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>330200</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>469900</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4811" name="Main Frame">
+        <xdr:cNvPr id="5757" name="Main Frame">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85F59DEF-23CC-4969-A2E9-74ECC1E7F8C6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20DB0048-04B8-7E79-5AB1-7FE354A895B1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1440,8 +1436,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2159000" y="889000"/>
-          <a:ext cx="11303000" cy="1600200"/>
+          <a:off x="2159000" y="1143000"/>
+          <a:ext cx="11303000" cy="4572000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1516,21 +1512,21 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>330200</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>469900</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4810" name="Main Frame Header" hidden="1">
+        <xdr:cNvPr id="5756" name="Main Frame Header">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CFEFF57-A651-4970-104D-AF1C12F4F9D4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C58D7FA8-A0B5-CB02-17AC-BCB7137E3661}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1538,7 +1534,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2159000" y="889000"/>
+          <a:off x="2159000" y="1143000"/>
           <a:ext cx="11303000" cy="317500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1600,7 +1596,2270 @@
               </a:solidFill>
               <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>Workflows Requiring Attention</a:t>
+            <a:t>Active Workflows</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5759" name="1-0">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CEF725B-73E1-349A-FBAF-6FB621D0BE17}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2159000" y="1460500"/>
+          <a:ext cx="2540000" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="134F69"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="134F69"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Workflow No</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5760" name="2-0">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA6E9208-C602-FE3B-CEFA-CBC5DA642B43}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4699000" y="1460500"/>
+          <a:ext cx="2540000" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="134F69"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="134F69"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Name</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5761" name="3-0">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2BED1D24-7489-65E1-97F2-A01A42E56704}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7239000" y="1460500"/>
+          <a:ext cx="3683000" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="134F69"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="134F69"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Step No</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5762" name="4-0">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B240755-7744-1B47-1A81-AFB95D3EF901}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10922000" y="1460500"/>
+          <a:ext cx="1270000" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="134F69"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="134F69"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Step Name</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5763" name="5-0">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F94423A-487E-769E-81BC-1DAEDF8020A0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12192000" y="1460500"/>
+          <a:ext cx="0" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="134F69"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="134F69"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Status</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5764" name="1-1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{688E1DD1-9C11-4DFD-C4B3-73FA59757697}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2159000" y="1714500"/>
+          <a:ext cx="2540000" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="0">
+              <a:solidFill>
+                <a:srgbClr val="434343"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5765" name="2-1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F71C62A-5502-FB06-9067-7E2772149602}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4699000" y="1714500"/>
+          <a:ext cx="2540000" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="0">
+              <a:solidFill>
+                <a:srgbClr val="434343"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>1.01</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5766" name="3-1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E8506CE-B0B6-55F9-7659-ACF19698897B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7239000" y="1714500"/>
+          <a:ext cx="3683000" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="0">
+              <a:solidFill>
+                <a:srgbClr val="434343"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>enActionReqd</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5767" name="4-1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE96FF60-2AB9-46D7-023B-40553C8CDD65}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10922000" y="1714500"/>
+          <a:ext cx="1270000" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-GB" sz="1000" b="0">
+            <a:solidFill>
+              <a:srgbClr val="434343"/>
+            </a:solidFill>
+            <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5768" name="5-1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5034B13C-6D26-E5E4-E50D-CDA81EF27130}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12192000" y="1714500"/>
+          <a:ext cx="0" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="0">
+              <a:solidFill>
+                <a:srgbClr val="434343"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Fact Find to Client</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5769" name="1-2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B0050F2-2F59-1F3A-308B-CDBE9BAB544D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2159000" y="2095500"/>
+          <a:ext cx="2540000" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="0">
+              <a:solidFill>
+                <a:srgbClr val="434343"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5770" name="2-2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2559D10-102F-7953-1AD5-807B9D732A80}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4699000" y="2095500"/>
+          <a:ext cx="2540000" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="0">
+              <a:solidFill>
+                <a:srgbClr val="434343"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>1.01</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5771" name="3-2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41C3A6F9-DC90-0FD2-B098-AFED8790CCD2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7239000" y="2095500"/>
+          <a:ext cx="3683000" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="0">
+              <a:solidFill>
+                <a:srgbClr val="434343"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>enActionReqd</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5772" name="4-2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5ED32371-0A50-9E02-C08C-59937862BAC9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10922000" y="2095500"/>
+          <a:ext cx="1270000" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-GB" sz="1000" b="0">
+            <a:solidFill>
+              <a:srgbClr val="434343"/>
+            </a:solidFill>
+            <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5773" name="5-2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{939B8DFC-B94E-4F3B-BB3F-4C488C87947B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12192000" y="2095500"/>
+          <a:ext cx="0" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="0">
+              <a:solidFill>
+                <a:srgbClr val="434343"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Fact Find to Client</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5774" name="1-3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{268A3D27-C0AF-7AB3-461D-33FD5E999F8F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2159000" y="2476500"/>
+          <a:ext cx="2540000" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="0">
+              <a:solidFill>
+                <a:srgbClr val="434343"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>3</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5775" name="2-3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{750F7B9C-821E-E4F9-847B-74E9861B8AD4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4699000" y="2476500"/>
+          <a:ext cx="2540000" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="0">
+              <a:solidFill>
+                <a:srgbClr val="434343"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>1.01</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5776" name="3-3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36FAC6BA-D6B9-B8EB-A7D8-42A89EC31108}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7239000" y="2476500"/>
+          <a:ext cx="3683000" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="0">
+              <a:solidFill>
+                <a:srgbClr val="434343"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>enActionReqd</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5777" name="4-3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68BD322D-BD12-5807-15AB-917A8BE9FD66}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10922000" y="2476500"/>
+          <a:ext cx="1270000" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-GB" sz="1000" b="0">
+            <a:solidFill>
+              <a:srgbClr val="434343"/>
+            </a:solidFill>
+            <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5778" name="5-3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{511FCD12-DBD8-6671-F117-40F543A4A02E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12192000" y="2476500"/>
+          <a:ext cx="0" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="0">
+              <a:solidFill>
+                <a:srgbClr val="434343"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Fact Find to Client</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5779" name="1-4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1AD5C693-27B5-24E8-EBFB-B2FEE15B61F0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2159000" y="2857500"/>
+          <a:ext cx="2540000" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="0">
+              <a:solidFill>
+                <a:srgbClr val="434343"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>4</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5780" name="2-4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F4F966C-10C5-3620-9BF7-8D78617C8F5A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4699000" y="2857500"/>
+          <a:ext cx="2540000" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="0">
+              <a:solidFill>
+                <a:srgbClr val="434343"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>1.01</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5781" name="3-4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7EBEBCEC-773C-BC54-7393-A2C7E1F44740}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7239000" y="2857500"/>
+          <a:ext cx="3683000" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="0">
+              <a:solidFill>
+                <a:srgbClr val="434343"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>enActionReqd</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5782" name="4-4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E16AB73D-1501-10DF-E25B-9A3790221569}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10922000" y="2857500"/>
+          <a:ext cx="1270000" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-GB" sz="1000" b="0">
+            <a:solidFill>
+              <a:srgbClr val="434343"/>
+            </a:solidFill>
+            <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5783" name="5-4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D31229BF-BD1E-A4EF-F7DB-8BCBE57FF0B4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12192000" y="2857500"/>
+          <a:ext cx="0" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="0">
+              <a:solidFill>
+                <a:srgbClr val="434343"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Fact Find to Client</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1622,10 +3881,10 @@
     </xdr:to>
     <xdr:sp macro="'ModUIScreenCom.ProcessBtnPress(6)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4812" name="BtnMain1">
+        <xdr:cNvPr id="5758" name="BtnMain1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5EB95ED-D498-C8BF-21D1-EB6AE267A9BA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41B8020E-0AD5-D33E-1D29-EEDDA8387119}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2280,8 +4539,8 @@
   <sheetPr codeName="ShtMain"/>
   <dimension ref="B2:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U7" sqref="U7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2291,7 +4550,7 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/CBS Workflow.xlsx
+++ b/CBS Workflow.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25629"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\CBSWorkflow\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2EFBD953-480C-4B74-B917-B232FB966522}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6BE4496D-B724-458C-AF2B-8F16F49D494B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43650" yWindow="3570" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1905" yWindow="1905" windowWidth="21600" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="6" r:id="rId1"/>
@@ -19,9 +19,8 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">TblStepTemplate!$C$1:$N$42</definedName>
     <definedName name="Button">Sheet1!$B$2</definedName>
-    <definedName name="MenuItem">Sheet1!$B$2</definedName>
   </definedNames>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191028" calcMode="manual"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -30,7 +29,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -660,98 +658,6 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>431800</xdr:colOff>
-      <xdr:row>133</xdr:row>
-      <xdr:rowOff>73025</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Main Screen">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE6319A9-0556-32C4-8271-DCDAE5EE277F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="23177500" cy="25400000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="FBF9FF"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="FBF9FF"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
-        <a:ln w="0" cap="flat" cmpd="sng" algn="ctr">
-          <a:noFill/>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-GB" sz="1100" b="0">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface=""/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>39</xdr:col>
@@ -810,17 +716,17 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>73025</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Rectangle 4">
+        <xdr:cNvPr id="2" name="Main Screen">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC4CE39E-1E83-4B84-6C6E-048B63A53DB9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6D2409D-79E9-C133-A21F-16B6A914590E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -829,67 +735,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="127000" cy="127000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-GB" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>139700</xdr:colOff>
-      <xdr:row>133</xdr:row>
-      <xdr:rowOff>73025</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="MenuBar">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52626E13-A87D-1279-5D5E-F0919C284133}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="1968500" cy="25400000"/>
+          <a:ext cx="23177500" cy="25400000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -897,27 +743,30 @@
         <a:gradFill flip="none" rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
-              <a:srgbClr val="FFFFFF"/>
+              <a:srgbClr val="FBF9FF"/>
             </a:gs>
             <a:gs pos="100000">
-              <a:srgbClr val="FFFFFF"/>
+              <a:srgbClr val="FBF9FF"/>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="1"/>
           <a:tileRect/>
         </a:gradFill>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:prstClr val="black"/>
-          </a:solidFill>
+        <a:ln w="0" cap="flat" cmpd="sng" algn="ctr">
+          <a:noFill/>
+          <a:prstDash val="solid"/>
         </a:ln>
-        <a:effectLst>
-          <a:outerShdw blurRad="63500" dist="37357" dir="2700000" rotWithShape="0">
-            <a:prstClr val="black">
-              <a:alpha val="40000"/>
-            </a:prstClr>
-          </a:outerShdw>
-        </a:effectLst>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -969,7 +818,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{967A8540-27CC-6E9B-0C33-131ACBC8BEB1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8A6F988-FCDB-6FB1-08CF-F9BAB112E22C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1011,16 +860,165 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>73025</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="MenuBar">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52024DB0-723E-8CDC-765C-C6EAEAB25F7D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="1968500" cy="25400000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:prstClr val="black"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="63500" dist="37357" dir="2700000" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100" b="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface=""/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Rectangle 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7191349-1FCF-DB20-4750-BB9D92167776}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="127000" cy="127000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>127001</xdr:colOff>
+      <xdr:colOff>63501</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>165101</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>47488</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>593588</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>165101</xdr:rowOff>
     </xdr:to>
@@ -1029,7 +1027,7 @@
         <xdr:cNvPr id="6" name="Logo">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6F427F6-35FB-D346-8A00-AD7E40C94CB7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{943CD819-2AB4-058C-6C2F-1FCA1BB80F48}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1051,7 +1049,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="127001" y="165101"/>
+          <a:off x="63501" y="165101"/>
           <a:ext cx="1749287" cy="1143000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1064,22 +1062,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>63500</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
+      <xdr:colOff>139700</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIMenu.ProcessBtnPress(1)'" textlink="">
+    <xdr:sp macro="'ModUIMenu.ButtonClickEvent(1)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="Button - For Action">
+        <xdr:cNvPr id="7" name="Menu Btn - 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE0F4A49-5674-3ADD-BBF2-A256BA915469}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F22D6C4D-7E00-0145-2E10-BABB26F320D4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1087,7 +1085,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="1905000"/>
+          <a:off x="63500" y="1905000"/>
           <a:ext cx="1905000" cy="393700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1159,22 +1157,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>63500</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
+      <xdr:colOff>139700</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIMenu.ProcessBtnPress(2)'" textlink="">
+    <xdr:sp macro="'ModUIMenu.ButtonClickEvent(2)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="Button - Active">
+        <xdr:cNvPr id="8" name="Menu Btn - 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFC3339C-2C54-952A-7C45-9EE0EC7A8B32}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{975B8134-6FDC-D9B3-7E82-EF8E3D217E69}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1182,7 +1180,92 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="2286000"/>
+          <a:off x="63500" y="2298700"/>
+          <a:ext cx="1905000" cy="393700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="134F69"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1200" b="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Projects</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIMenu.ButtonClickEvent(2.1)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Menu Btn - 2.1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A8FDCDA-F131-0CF0-C963-BD65FEC7DE81}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1968500" y="2298700"/>
           <a:ext cx="1905000" cy="393700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1243,23 +1326,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>22225</xdr:rowOff>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIMenu.ProcessBtnPress(3)'" textlink="">
+    <xdr:sp macro="'ModUIMenu.ButtonClickEvent(2.2)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="Button - Complete">
+        <xdr:cNvPr id="10" name="Menu Btn - 2.2" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5922238-0176-F845-4E61-92390F7F2E2A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A04F021F-31A2-ED5F-FFA8-F2444408BBEA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1267,7 +1350,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="2667000"/>
+          <a:off x="1968500" y="2692400"/>
           <a:ext cx="1905000" cy="393700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1319,7 +1402,7 @@
               </a:solidFill>
               <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>Complete</a:t>
+            <a:t>Closed</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1329,22 +1412,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>22225</xdr:rowOff>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIMenu.ProcessBtnPress(4)'" textlink="">
+    <xdr:sp macro="'ModUIMenu.ButtonClickEvent(3)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="Button - Exit">
+        <xdr:cNvPr id="11" name="Menu Btn - 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E29C4B85-F8F1-AFB9-89BB-C871BF0C37A8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A57FB4D8-CA01-F29D-9F7D-0E4BD7AC607B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1352,7 +1435,1367 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="3048000"/>
+          <a:off x="63500" y="2692400"/>
+          <a:ext cx="1905000" cy="393700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="134F69"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1200" b="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>CRM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIMenu.ButtonClickEvent(3.1)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Menu Btn - 3.1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1966C32C-ACA7-C8F3-FB9D-1551DECFB984}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1968500" y="2692400"/>
+          <a:ext cx="1905000" cy="393700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="134F69"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1200" b="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Clients</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>60325</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIMenu.ButtonClickEvent(3.2)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="Menu Btn - 3.2" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{682E420C-234B-94B6-78A5-B2B0B82C575A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1968500" y="3086100"/>
+          <a:ext cx="1905000" cy="393700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="134F69"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1200" b="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>SPVs</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>60325</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>73025</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIMenu.ButtonClickEvent(3.3)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="Menu Btn - 3.3" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88767E3D-F4EC-A065-F047-81355B00B567}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1968500" y="3479800"/>
+          <a:ext cx="1905000" cy="393700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="134F69"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1200" b="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Contacts</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>73025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIMenu.ButtonClickEvent(3.4)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="Menu Btn - 3.4" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{549BB7C1-53FE-4BDE-2063-4AEE32A29499}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1968500" y="3873500"/>
+          <a:ext cx="1905000" cy="393700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="134F69"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1200" b="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Projects</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIMenu.ButtonClickEvent(3.5)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="Menu Btn - 3.5" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0C6A246-69EB-AC90-EB64-00849F80F8B4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1968500" y="4267200"/>
+          <a:ext cx="1905000" cy="393700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="134F69"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1200" b="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Lenders</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>60325</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIMenu.ButtonClickEvent(4)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="Menu Btn - 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68974946-A575-79AF-6695-BC89CC2CD776}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="63500" y="3086100"/>
+          <a:ext cx="1905000" cy="393700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="134F69"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1200" b="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Dashboard</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>60325</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>73025</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIMenu.ButtonClickEvent(5)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="Menu Btn - 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCA258FF-4D44-4FAD-823F-BC5BD50688F2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="63500" y="3479800"/>
+          <a:ext cx="1905000" cy="393700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="134F69"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1200" b="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Reports</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>73025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIMenu.ButtonClickEvent(6)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="Menu Btn - 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E989FAF-2C3C-C42E-1CFD-CFDB03D0E692}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="63500" y="3873500"/>
+          <a:ext cx="1905000" cy="393700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="134F69"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1200" b="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Admin</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>73025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIMenu.ButtonClickEvent(6.1)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="Menu Btn - 6.1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F38A5582-6D2B-B49A-20B4-0F14BAE6AF7A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1968500" y="3873500"/>
+          <a:ext cx="1905000" cy="393700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="134F69"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1200" b="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Users</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIMenu.ButtonClickEvent(6.2)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="Menu Btn - 6.2" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{848FFB65-328B-8E2A-B9DE-B73A1A046572}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1968500" y="4267200"/>
+          <a:ext cx="1905000" cy="393700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="134F69"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1200" b="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Email Templates</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>111125</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIMenu.ButtonClickEvent(6.3)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="Menu Btn - 6.3" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A816C802-49DF-6192-10AC-6245ED42E458}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1968500" y="4660900"/>
+          <a:ext cx="1905000" cy="393700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="134F69"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1200" b="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Documents</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>111125</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIMenu.ButtonClickEvent(6.4)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="Menu Btn - 6.4" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71B6DA56-A933-E1FE-DFCA-EC8B25D377D9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1968500" y="5054600"/>
+          <a:ext cx="1905000" cy="393700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="134F69"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1200" b="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Workflows</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>136525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIMenu.ButtonClickEvent(6.5)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="Menu Btn - 6.5" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{496B1C70-43F3-F75A-4E3F-7D140EB87E13}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1968500" y="5448300"/>
+          <a:ext cx="1905000" cy="393700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="134F69"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1200" b="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Workflow Types</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>136525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>149225</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIMenu.ButtonClickEvent(6.6)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="Menu Btn - 6.6" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A48710A-2A89-5754-970D-86D69FA74687}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1968500" y="5842000"/>
+          <a:ext cx="1905000" cy="393700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="134F69"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1200" b="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Lists</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>149225</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIMenu.ButtonClickEvent(6.7)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="Menu Btn - 6.7" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{546D4AAF-7700-3627-52DB-5385D1F7F83B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1968500" y="6235700"/>
+          <a:ext cx="1905000" cy="393700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="134F69"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1200" b="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Roles</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIMenu.ButtonClickEvent(7)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="Menu Btn - 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D8B5AEA-744A-8D51-32CB-E2CB703B92DB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="63500" y="4267200"/>
           <a:ext cx="1905000" cy="393700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1405,1659 +2848,6 @@
               <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
             </a:rPr>
             <a:t>Exit</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>330200</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>469900</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="Main Frame">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A52432BF-0985-2FBA-60BC-3B350C417272}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2159000" y="889000"/>
-          <a:ext cx="11303000" cy="1066800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
-        <a:ln w="0" cap="flat" cmpd="sng" algn="ctr">
-          <a:noFill/>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:effectLst>
-          <a:outerShdw blurRad="63500" dist="37357" dir="2700000" rotWithShape="0">
-            <a:prstClr val="black">
-              <a:alpha val="40000"/>
-            </a:prstClr>
-          </a:outerShdw>
-        </a:effectLst>
-        <a:extLst>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-GB" sz="1100" b="0">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface=""/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>330200</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>469900</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="Main Frame Header">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BDB06D8-10BC-5865-F0AA-52ABDD1390E3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2159000" y="889000"/>
-          <a:ext cx="11303000" cy="317500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="D8336B"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="D8336B"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
-        <a:ln w="0" cap="flat" cmpd="sng" algn="ctr">
-          <a:noFill/>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1200" b="0">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>Workflows Requiring Attention</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>330200</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="'ModUIScreenCom.SortBy(&quot;Workflow No&quot;), &quot;UIForAction&quot;'" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="TextBox 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5404B414-9A1E-8297-4D6E-220FA5B36E04}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2159000" y="1155700"/>
-          <a:ext cx="1270000" cy="266700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="134F69"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="134F69"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
-        <a:ln w="0" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1000" b="0">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>Workflow No</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>292100</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="'ModUIScreenCom.SortBy(&quot;Name&quot;), &quot;UIForAction&quot;'" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="TextBox 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE623428-0428-F254-79CD-FB0B5CAE81C5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3429000" y="1155700"/>
-          <a:ext cx="2540000" cy="266700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="134F69"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="134F69"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
-        <a:ln w="0" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1000" b="0">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>Name</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>292100</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>393700</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="'ModUIScreenCom.SortBy(&quot;Step No&quot;), &quot;UIForAction&quot;'" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="TextBox 15">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE8E177C-F2FA-9D13-0968-DB80762597BE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5969000" y="1155700"/>
-          <a:ext cx="2540000" cy="266700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="134F69"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="134F69"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
-        <a:ln w="0" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1000" b="0">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>Step No</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>393700</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="'ModUIScreenCom.SortBy(&quot;Step Name&quot;), &quot;UIForAction&quot;'" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="TextBox 16">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D49F3D2F-3642-ED74-C263-F52125743D41}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8509000" y="1155700"/>
-          <a:ext cx="3683000" cy="266700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="134F69"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="134F69"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
-        <a:ln w="0" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1000" b="0">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>Step Name</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>469900</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="'ModUIScreenCom.SortBy(&quot;Status&quot;), &quot;UIForAction&quot;'" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="TextBox 17">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9789260-A2EB-C6F1-7DCE-288E80D65C1F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12192000" y="1155700"/>
-          <a:ext cx="1270000" cy="266700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="134F69"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="134F69"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
-        <a:ln w="0" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1000" b="0">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>Status</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>330200</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="'ModUiForAction.OpenWorkflow(1)'" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="TextBox 18">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37B3ECE1-FDA9-B076-DB6B-1658D2B75937}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2159000" y="1422400"/>
-          <a:ext cx="1270000" cy="266700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
-        <a:ln w="0" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1000" b="0">
-              <a:solidFill>
-                <a:srgbClr val="434343"/>
-              </a:solidFill>
-              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>1</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>292100</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="'ModUiForAction.OpenWorkflow(1)'" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="TextBox 19">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8EF9A1B-6ABE-19A6-9990-8BDE46707A37}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3429000" y="1422400"/>
-          <a:ext cx="2540000" cy="266700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
-        <a:ln w="0" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="en-GB" sz="1000" b="0">
-            <a:solidFill>
-              <a:srgbClr val="434343"/>
-            </a:solidFill>
-            <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>292100</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>393700</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="'ModUiForAction.OpenWorkflow(1)'" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="TextBox 20">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61DFA723-E62E-33F5-E85C-8806F2C3C1AB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5969000" y="1422400"/>
-          <a:ext cx="2540000" cy="266700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
-        <a:ln w="0" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1000" b="0">
-              <a:solidFill>
-                <a:srgbClr val="434343"/>
-              </a:solidFill>
-              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>1.01</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>393700</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="'ModUiForAction.OpenWorkflow(1)'" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="TextBox 21">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD79B3A8-8E0D-D8DF-9C23-B56941CA3ADC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8509000" y="1422400"/>
-          <a:ext cx="3683000" cy="266700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
-        <a:ln w="0" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1000" b="0">
-              <a:solidFill>
-                <a:srgbClr val="434343"/>
-              </a:solidFill>
-              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>Fact Find to Client</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>469900</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="'ModUiForAction.OpenWorkflow(1)'" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="TextBox 22">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2D5675C-3F91-D129-F031-ED7179CE7CBE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12192000" y="1422400"/>
-          <a:ext cx="1270000" cy="266700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="D7263D"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="D7263D"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
-        <a:ln w="0" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100" b="0">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>Action Req'd</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>330200</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="'ModUiForAction.OpenWorkflow(2)'" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="TextBox 23">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04612271-D609-AA2C-0191-833852DC538F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2159000" y="1689100"/>
-          <a:ext cx="1270000" cy="266700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
-        <a:ln w="0" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1000" b="0">
-              <a:solidFill>
-                <a:srgbClr val="434343"/>
-              </a:solidFill>
-              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>2</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>292100</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="'ModUiForAction.OpenWorkflow(2)'" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="25" name="TextBox 24">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D2E8F5C-1EC1-40C6-F48A-0097595B58A1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3429000" y="1689100"/>
-          <a:ext cx="2540000" cy="266700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
-        <a:ln w="0" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="en-GB" sz="1000" b="0">
-            <a:solidFill>
-              <a:srgbClr val="434343"/>
-            </a:solidFill>
-            <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>292100</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>393700</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="'ModUiForAction.OpenWorkflow(2)'" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="26" name="TextBox 25">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06A5CA11-0B9A-51CD-4EE8-EE3491892FE8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5969000" y="1689100"/>
-          <a:ext cx="2540000" cy="266700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
-        <a:ln w="0" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1000" b="0">
-              <a:solidFill>
-                <a:srgbClr val="434343"/>
-              </a:solidFill>
-              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>1.01</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>393700</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="'ModUiForAction.OpenWorkflow(2)'" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="27" name="TextBox 26">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3B46A75-BDCD-2300-5A54-398402126F57}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8509000" y="1689100"/>
-          <a:ext cx="3683000" cy="266700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
-        <a:ln w="0" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1000" b="0">
-              <a:solidFill>
-                <a:srgbClr val="434343"/>
-              </a:solidFill>
-              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>Fact Find to Client</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>469900</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="'ModUiForAction.OpenWorkflow(2)'" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="28" name="TextBox 27">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{143892B3-8F1E-0F94-F585-E7153C3D0BF0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12192000" y="1689100"/>
-          <a:ext cx="1270000" cy="266700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="BAFF29"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="BAFF29"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
-        <a:ln w="0" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100" b="0">
-              <a:solidFill>
-                <a:srgbClr val="434343"/>
-              </a:solidFill>
-              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>Action Req'd</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>469900</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="'ModUIScreenCom.ProcessBtnPress(6)'" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="BtnMain1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6286727-8002-5C44-EB9B-F929A49366BA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12192000" y="190500"/>
-          <a:ext cx="1270000" cy="508000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="134F69"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="134F69"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
-        <a:ln w="0" cap="flat" cmpd="sng" algn="ctr">
-          <a:noFill/>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:effectLst>
-          <a:outerShdw blurRad="63500" dist="37357" dir="2700000" rotWithShape="0">
-            <a:prstClr val="black">
-              <a:alpha val="40000"/>
-            </a:prstClr>
-          </a:outerShdw>
-        </a:effectLst>
-        <a:extLst>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1200" b="0">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>New Workflow</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -3636,8 +3426,8 @@
   <sheetPr codeName="ShtMain"/>
   <dimension ref="B2:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="V22" sqref="V22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3647,7 +3437,7 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2">
-        <v>1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/CBS Workflow.xlsx
+++ b/CBS Workflow.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\CBSWorkflow\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/50f47e56877e2071/Documents/Development Areas/CBS Workflow/Library/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6BE4496D-B724-458C-AF2B-8F16F49D494B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{90184CBE-039E-4A45-8372-2391E99FEA06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1905" yWindow="1905" windowWidth="21600" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="1620" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="6" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">TblStepTemplate!$C$1:$N$42</definedName>
     <definedName name="Button">Sheet1!$B$2</definedName>
   </definedNames>
-  <calcPr calcId="191028" calcMode="manual"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -723,10 +723,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Main Screen">
+        <xdr:cNvPr id="28" name="Main Screen">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6D2409D-79E9-C133-A21F-16B6A914590E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C067997C-927E-838B-7A75-39CA878D52AD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -815,10 +815,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Rectangle 2" hidden="1">
+        <xdr:cNvPr id="29" name="Rectangle 28" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8A6F988-FCDB-6FB1-08CF-F9BAB112E22C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{009B909C-BB44-CA85-82CA-E5ECABFD6976}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -875,10 +875,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="MenuBar">
+        <xdr:cNvPr id="30" name="MenuBar">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52024DB0-723E-8CDC-765C-C6EAEAB25F7D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61D93C9B-9ECD-E55C-62F1-F4E577257AEC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -964,10 +964,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Rectangle 4">
+        <xdr:cNvPr id="31" name="Rectangle 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7191349-1FCF-DB20-4750-BB9D92167776}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B80A5F77-E96F-37C7-82A0-9C1B6AA5E94B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1024,10 +1024,10 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Logo">
+        <xdr:cNvPr id="32" name="Logo">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{943CD819-2AB4-058C-6C2F-1FCA1BB80F48}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C4A1C07-5616-4C15-6A49-C0436AF6CF75}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1074,10 +1074,10 @@
     </xdr:to>
     <xdr:sp macro="'ModUIMenu.ButtonClickEvent(1)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="Menu Btn - 1">
+        <xdr:cNvPr id="33" name="Menu Btn - 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F22D6C4D-7E00-0145-2E10-BABB26F320D4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FF36EDD-D1F0-9314-A2DA-927ACBF20C38}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1169,10 +1169,10 @@
     </xdr:to>
     <xdr:sp macro="'ModUIMenu.ButtonClickEvent(2)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="Menu Btn - 2">
+        <xdr:cNvPr id="34" name="Menu Btn - 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{975B8134-6FDC-D9B3-7E82-EF8E3D217E69}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A83DB015-1E6A-AD5E-7A7E-C55EE6FEFB02}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1254,10 +1254,10 @@
     </xdr:to>
     <xdr:sp macro="'ModUIMenu.ButtonClickEvent(2.1)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="Menu Btn - 2.1" hidden="1">
+        <xdr:cNvPr id="35" name="Menu Btn - 2.1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A8FDCDA-F131-0CF0-C963-BD65FEC7DE81}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75153D3F-DE6C-A345-7E73-A7817D5E97CD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1339,10 +1339,10 @@
     </xdr:to>
     <xdr:sp macro="'ModUIMenu.ButtonClickEvent(2.2)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="Menu Btn - 2.2" hidden="1">
+        <xdr:cNvPr id="36" name="Menu Btn - 2.2" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A04F021F-31A2-ED5F-FFA8-F2444408BBEA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E21A7A2-F6A3-488B-F87E-4C74B59DE02B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1424,10 +1424,10 @@
     </xdr:to>
     <xdr:sp macro="'ModUIMenu.ButtonClickEvent(3)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="Menu Btn - 3">
+        <xdr:cNvPr id="37" name="Menu Btn - 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A57FB4D8-CA01-F29D-9F7D-0E4BD7AC607B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B138716E-79F9-5622-52FE-B1A0B7EB26B2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1509,10 +1509,10 @@
     </xdr:to>
     <xdr:sp macro="'ModUIMenu.ButtonClickEvent(3.1)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="Menu Btn - 3.1" hidden="1">
+        <xdr:cNvPr id="38" name="Menu Btn - 3.1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1966C32C-ACA7-C8F3-FB9D-1551DECFB984}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED0EBB96-EF25-8678-732A-E6AEF3A96E31}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1594,10 +1594,10 @@
     </xdr:to>
     <xdr:sp macro="'ModUIMenu.ButtonClickEvent(3.2)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="Menu Btn - 3.2" hidden="1">
+        <xdr:cNvPr id="39" name="Menu Btn - 3.2" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{682E420C-234B-94B6-78A5-B2B0B82C575A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B14C3423-F4C5-BCE1-B2B3-CA5B88CDE0BF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1679,10 +1679,10 @@
     </xdr:to>
     <xdr:sp macro="'ModUIMenu.ButtonClickEvent(3.3)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="Menu Btn - 3.3" hidden="1">
+        <xdr:cNvPr id="40" name="Menu Btn - 3.3" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88767E3D-F4EC-A065-F047-81355B00B567}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A02EBA1-F39B-D2F4-C290-4E08957A0CFF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1764,10 +1764,10 @@
     </xdr:to>
     <xdr:sp macro="'ModUIMenu.ButtonClickEvent(3.4)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="Menu Btn - 3.4" hidden="1">
+        <xdr:cNvPr id="41" name="Menu Btn - 3.4" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{549BB7C1-53FE-4BDE-2063-4AEE32A29499}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6468D6EB-572E-3486-00DB-19CE551A133D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1849,10 +1849,10 @@
     </xdr:to>
     <xdr:sp macro="'ModUIMenu.ButtonClickEvent(3.5)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="Menu Btn - 3.5" hidden="1">
+        <xdr:cNvPr id="42" name="Menu Btn - 3.5" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0C6A246-69EB-AC90-EB64-00849F80F8B4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7031FBFE-15C7-2E5C-F9A5-3778E2C39F4B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1934,10 +1934,10 @@
     </xdr:to>
     <xdr:sp macro="'ModUIMenu.ButtonClickEvent(4)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="Menu Btn - 4">
+        <xdr:cNvPr id="43" name="Menu Btn - 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68974946-A575-79AF-6695-BC89CC2CD776}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CD8BBF3-95A9-0A4D-ED6E-677B96FCA12B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2019,10 +2019,10 @@
     </xdr:to>
     <xdr:sp macro="'ModUIMenu.ButtonClickEvent(5)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="Menu Btn - 5">
+        <xdr:cNvPr id="44" name="Menu Btn - 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCA258FF-4D44-4FAD-823F-BC5BD50688F2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3F54961-8039-011F-8535-2C26F2E435AA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2104,10 +2104,10 @@
     </xdr:to>
     <xdr:sp macro="'ModUIMenu.ButtonClickEvent(6)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="Menu Btn - 6">
+        <xdr:cNvPr id="45" name="Menu Btn - 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E989FAF-2C3C-C42E-1CFD-CFDB03D0E692}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D9BAFA8-8831-24E3-6642-654B7D695945}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2189,10 +2189,10 @@
     </xdr:to>
     <xdr:sp macro="'ModUIMenu.ButtonClickEvent(6.1)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="Menu Btn - 6.1" hidden="1">
+        <xdr:cNvPr id="46" name="Menu Btn - 6.1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F38A5582-6D2B-B49A-20B4-0F14BAE6AF7A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7833FF49-0D2D-9D90-16A6-0CB1810B30BA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2274,10 +2274,10 @@
     </xdr:to>
     <xdr:sp macro="'ModUIMenu.ButtonClickEvent(6.2)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="Menu Btn - 6.2" hidden="1">
+        <xdr:cNvPr id="47" name="Menu Btn - 6.2" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{848FFB65-328B-8E2A-B9DE-B73A1A046572}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8240A8A7-C2C3-E305-3F0B-FC18F52CED07}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2359,10 +2359,10 @@
     </xdr:to>
     <xdr:sp macro="'ModUIMenu.ButtonClickEvent(6.3)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="Menu Btn - 6.3" hidden="1">
+        <xdr:cNvPr id="48" name="Menu Btn - 6.3" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A816C802-49DF-6192-10AC-6245ED42E458}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E45C7AF-C8CE-771B-32E3-29369D54BF63}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2444,10 +2444,10 @@
     </xdr:to>
     <xdr:sp macro="'ModUIMenu.ButtonClickEvent(6.4)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="Menu Btn - 6.4" hidden="1">
+        <xdr:cNvPr id="49" name="Menu Btn - 6.4" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71B6DA56-A933-E1FE-DFCA-EC8B25D377D9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{552B179B-5E22-9893-F5F7-C5BC228A1C4C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2529,10 +2529,10 @@
     </xdr:to>
     <xdr:sp macro="'ModUIMenu.ButtonClickEvent(6.5)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="Menu Btn - 6.5" hidden="1">
+        <xdr:cNvPr id="50" name="Menu Btn - 6.5" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{496B1C70-43F3-F75A-4E3F-7D140EB87E13}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16CE0CA0-EB01-2026-559F-FD658530FCFB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2614,10 +2614,10 @@
     </xdr:to>
     <xdr:sp macro="'ModUIMenu.ButtonClickEvent(6.6)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="25" name="Menu Btn - 6.6" hidden="1">
+        <xdr:cNvPr id="51" name="Menu Btn - 6.6" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A48710A-2A89-5754-970D-86D69FA74687}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E1463EB-D746-5CE4-D905-8A3D797F7471}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2699,10 +2699,10 @@
     </xdr:to>
     <xdr:sp macro="'ModUIMenu.ButtonClickEvent(6.7)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="26" name="Menu Btn - 6.7" hidden="1">
+        <xdr:cNvPr id="52" name="Menu Btn - 6.7" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{546D4AAF-7700-3627-52DB-5385D1F7F83B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16B5FEDA-566E-0E31-F366-90DA3E28D212}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2784,10 +2784,10 @@
     </xdr:to>
     <xdr:sp macro="'ModUIMenu.ButtonClickEvent(7)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="27" name="Menu Btn - 7">
+        <xdr:cNvPr id="53" name="Menu Btn - 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D8B5AEA-744A-8D51-32CB-E2CB703B92DB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9265344D-55AA-7CA0-8F15-F09CB281A73F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3427,7 +3427,7 @@
   <dimension ref="B2:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V22" sqref="V22"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/CBS Workflow.xlsx
+++ b/CBS Workflow.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/50f47e56877e2071/Documents/Development Areas/CBS Workflow/Library/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\CBSWorkflow\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{90184CBE-039E-4A45-8372-2391E99FEA06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B64D17B5-B15D-4331-AD3E-7AE4DBF0AA0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="1620" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -723,10 +723,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="28" name="Main Screen">
+        <xdr:cNvPr id="2" name="Main Screen">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C067997C-927E-838B-7A75-39CA878D52AD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F1D83AB-E62F-B72D-8203-E38C320F8F71}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -815,10 +815,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="29" name="Rectangle 28" hidden="1">
+        <xdr:cNvPr id="3" name="Rectangle 2" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{009B909C-BB44-CA85-82CA-E5ECABFD6976}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C551BDF1-85E8-2A32-5417-8A171B5634AE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -875,10 +875,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="30" name="MenuBar">
+        <xdr:cNvPr id="4" name="MenuBar">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61D93C9B-9ECD-E55C-62F1-F4E577257AEC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0301131D-62F7-4878-06AF-C3051B41350F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -964,10 +964,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="31" name="Rectangle 30">
+        <xdr:cNvPr id="5" name="Rectangle 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B80A5F77-E96F-37C7-82A0-9C1B6AA5E94B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E694EF01-70C2-5231-3F7C-58CCC32F2C3C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1024,10 +1024,10 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="32" name="Logo">
+        <xdr:cNvPr id="6" name="Logo">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C4A1C07-5616-4C15-6A49-C0436AF6CF75}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE0C793F-93AB-F089-C446-25EDDF2E91DC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1074,10 +1074,10 @@
     </xdr:to>
     <xdr:sp macro="'ModUIMenu.ButtonClickEvent(1)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="33" name="Menu Btn - 1">
+        <xdr:cNvPr id="7" name="Menu Btn - 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FF36EDD-D1F0-9314-A2DA-927ACBF20C38}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3379EC37-6FEC-5560-7F95-FECD47378C93}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1091,18 +1091,9 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="D8336B"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="D8336B"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
+        <a:solidFill>
+          <a:srgbClr val="D8336B"/>
+        </a:solidFill>
         <a:ln w="0" cap="flat" cmpd="sng" algn="ctr">
           <a:noFill/>
           <a:prstDash val="solid"/>
@@ -1136,7 +1127,7 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr"/>
@@ -1169,10 +1160,10 @@
     </xdr:to>
     <xdr:sp macro="'ModUIMenu.ButtonClickEvent(2)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="34" name="Menu Btn - 2">
+        <xdr:cNvPr id="8" name="Menu Btn - 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A83DB015-1E6A-AD5E-7A7E-C55EE6FEFB02}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF95B9D6-5728-F460-17E9-D7A6BA64EA1D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1186,18 +1177,9 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
         <a:ln w="12700">
           <a:solidFill>
             <a:srgbClr val="134F69"/>
@@ -1221,7 +1203,7 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr"/>
@@ -1254,10 +1236,10 @@
     </xdr:to>
     <xdr:sp macro="'ModUIMenu.ButtonClickEvent(2.1)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="35" name="Menu Btn - 2.1" hidden="1">
+        <xdr:cNvPr id="9" name="Menu Btn - 2.1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75153D3F-DE6C-A345-7E73-A7817D5E97CD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B52BDB2A-239A-A8EE-3678-E390C47EC2D4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1271,18 +1253,9 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
         <a:ln w="12700">
           <a:solidFill>
             <a:srgbClr val="134F69"/>
@@ -1306,7 +1279,7 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr"/>
@@ -1339,10 +1312,10 @@
     </xdr:to>
     <xdr:sp macro="'ModUIMenu.ButtonClickEvent(2.2)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="36" name="Menu Btn - 2.2" hidden="1">
+        <xdr:cNvPr id="10" name="Menu Btn - 2.2" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E21A7A2-F6A3-488B-F87E-4C74B59DE02B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEE44FDF-ED9A-950D-4CC0-824A61F0A3CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1356,18 +1329,9 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
         <a:ln w="12700">
           <a:solidFill>
             <a:srgbClr val="134F69"/>
@@ -1391,7 +1355,7 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr"/>
@@ -1424,10 +1388,10 @@
     </xdr:to>
     <xdr:sp macro="'ModUIMenu.ButtonClickEvent(3)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="37" name="Menu Btn - 3">
+        <xdr:cNvPr id="11" name="Menu Btn - 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B138716E-79F9-5622-52FE-B1A0B7EB26B2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A12E0FC-FE22-F679-42D9-6C4143CAC51F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1441,18 +1405,9 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
         <a:ln w="12700">
           <a:solidFill>
             <a:srgbClr val="134F69"/>
@@ -1476,7 +1431,7 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr"/>
@@ -1509,10 +1464,10 @@
     </xdr:to>
     <xdr:sp macro="'ModUIMenu.ButtonClickEvent(3.1)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="38" name="Menu Btn - 3.1" hidden="1">
+        <xdr:cNvPr id="12" name="Menu Btn - 3.1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED0EBB96-EF25-8678-732A-E6AEF3A96E31}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8296860-42C8-9ABA-7E16-5ABDF2EE3FB0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1526,18 +1481,9 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
         <a:ln w="12700">
           <a:solidFill>
             <a:srgbClr val="134F69"/>
@@ -1561,7 +1507,7 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr"/>
@@ -1594,10 +1540,10 @@
     </xdr:to>
     <xdr:sp macro="'ModUIMenu.ButtonClickEvent(3.2)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="39" name="Menu Btn - 3.2" hidden="1">
+        <xdr:cNvPr id="13" name="Menu Btn - 3.2" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B14C3423-F4C5-BCE1-B2B3-CA5B88CDE0BF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B72ADC4E-F901-679D-46AF-8016FDCD1347}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1611,18 +1557,9 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
         <a:ln w="12700">
           <a:solidFill>
             <a:srgbClr val="134F69"/>
@@ -1646,7 +1583,7 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr"/>
@@ -1679,10 +1616,10 @@
     </xdr:to>
     <xdr:sp macro="'ModUIMenu.ButtonClickEvent(3.3)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="40" name="Menu Btn - 3.3" hidden="1">
+        <xdr:cNvPr id="14" name="Menu Btn - 3.3" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A02EBA1-F39B-D2F4-C290-4E08957A0CFF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18181947-25A8-A3CA-8651-92D8721B0545}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1696,18 +1633,9 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
         <a:ln w="12700">
           <a:solidFill>
             <a:srgbClr val="134F69"/>
@@ -1731,7 +1659,7 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr"/>
@@ -1764,10 +1692,10 @@
     </xdr:to>
     <xdr:sp macro="'ModUIMenu.ButtonClickEvent(3.4)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="41" name="Menu Btn - 3.4" hidden="1">
+        <xdr:cNvPr id="15" name="Menu Btn - 3.4" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6468D6EB-572E-3486-00DB-19CE551A133D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26821839-AAB0-B244-542B-054F9C926557}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1781,18 +1709,9 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
         <a:ln w="12700">
           <a:solidFill>
             <a:srgbClr val="134F69"/>
@@ -1816,7 +1735,7 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr"/>
@@ -1849,10 +1768,10 @@
     </xdr:to>
     <xdr:sp macro="'ModUIMenu.ButtonClickEvent(3.5)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="42" name="Menu Btn - 3.5" hidden="1">
+        <xdr:cNvPr id="16" name="Menu Btn - 3.5" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7031FBFE-15C7-2E5C-F9A5-3778E2C39F4B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDEEDADE-A9FB-7003-3E8D-7EA2558A4611}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1866,18 +1785,9 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
         <a:ln w="12700">
           <a:solidFill>
             <a:srgbClr val="134F69"/>
@@ -1901,7 +1811,7 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr"/>
@@ -1934,10 +1844,10 @@
     </xdr:to>
     <xdr:sp macro="'ModUIMenu.ButtonClickEvent(4)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="43" name="Menu Btn - 4">
+        <xdr:cNvPr id="17" name="Menu Btn - 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CD8BBF3-95A9-0A4D-ED6E-677B96FCA12B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29399E4C-CF8F-F543-5196-9484DBBDE85D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1951,18 +1861,9 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
         <a:ln w="12700">
           <a:solidFill>
             <a:srgbClr val="134F69"/>
@@ -1986,7 +1887,7 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr"/>
@@ -2019,10 +1920,10 @@
     </xdr:to>
     <xdr:sp macro="'ModUIMenu.ButtonClickEvent(5)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="44" name="Menu Btn - 5">
+        <xdr:cNvPr id="18" name="Menu Btn - 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3F54961-8039-011F-8535-2C26F2E435AA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD1A15F1-048B-CBD4-19B3-1F52326B10EE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2036,18 +1937,9 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
         <a:ln w="12700">
           <a:solidFill>
             <a:srgbClr val="134F69"/>
@@ -2071,7 +1963,7 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr"/>
@@ -2104,10 +1996,10 @@
     </xdr:to>
     <xdr:sp macro="'ModUIMenu.ButtonClickEvent(6)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="45" name="Menu Btn - 6">
+        <xdr:cNvPr id="19" name="Menu Btn - 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D9BAFA8-8831-24E3-6642-654B7D695945}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CAF89329-D0EC-542E-EB75-EDA68D11558A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2121,18 +2013,9 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
         <a:ln w="12700">
           <a:solidFill>
             <a:srgbClr val="134F69"/>
@@ -2156,7 +2039,7 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr"/>
@@ -2189,10 +2072,10 @@
     </xdr:to>
     <xdr:sp macro="'ModUIMenu.ButtonClickEvent(6.1)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="46" name="Menu Btn - 6.1" hidden="1">
+        <xdr:cNvPr id="20" name="Menu Btn - 6.1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7833FF49-0D2D-9D90-16A6-0CB1810B30BA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F1617E9-5096-D47E-499C-D4D3878912FF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2206,18 +2089,9 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
         <a:ln w="12700">
           <a:solidFill>
             <a:srgbClr val="134F69"/>
@@ -2241,7 +2115,7 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr"/>
@@ -2274,10 +2148,10 @@
     </xdr:to>
     <xdr:sp macro="'ModUIMenu.ButtonClickEvent(6.2)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="47" name="Menu Btn - 6.2" hidden="1">
+        <xdr:cNvPr id="21" name="Menu Btn - 6.2" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8240A8A7-C2C3-E305-3F0B-FC18F52CED07}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50AEEAAF-F2B6-8A9C-1A5E-8EF8C8579B22}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2291,18 +2165,9 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
         <a:ln w="12700">
           <a:solidFill>
             <a:srgbClr val="134F69"/>
@@ -2326,7 +2191,7 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr"/>
@@ -2359,10 +2224,10 @@
     </xdr:to>
     <xdr:sp macro="'ModUIMenu.ButtonClickEvent(6.3)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="48" name="Menu Btn - 6.3" hidden="1">
+        <xdr:cNvPr id="22" name="Menu Btn - 6.3" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E45C7AF-C8CE-771B-32E3-29369D54BF63}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{013AA1B4-B135-D155-2AD3-18D6C913CE92}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2376,18 +2241,9 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
         <a:ln w="12700">
           <a:solidFill>
             <a:srgbClr val="134F69"/>
@@ -2411,7 +2267,7 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr"/>
@@ -2444,10 +2300,10 @@
     </xdr:to>
     <xdr:sp macro="'ModUIMenu.ButtonClickEvent(6.4)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="49" name="Menu Btn - 6.4" hidden="1">
+        <xdr:cNvPr id="23" name="Menu Btn - 6.4" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{552B179B-5E22-9893-F5F7-C5BC228A1C4C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5A5BC89-C172-D918-76BE-A2EFA1F347E8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2461,18 +2317,9 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
         <a:ln w="12700">
           <a:solidFill>
             <a:srgbClr val="134F69"/>
@@ -2496,7 +2343,7 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr"/>
@@ -2529,10 +2376,10 @@
     </xdr:to>
     <xdr:sp macro="'ModUIMenu.ButtonClickEvent(6.5)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="50" name="Menu Btn - 6.5" hidden="1">
+        <xdr:cNvPr id="24" name="Menu Btn - 6.5" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16CE0CA0-EB01-2026-559F-FD658530FCFB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DF5A2DE-CC43-3EEA-606E-300292657150}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2546,18 +2393,9 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
         <a:ln w="12700">
           <a:solidFill>
             <a:srgbClr val="134F69"/>
@@ -2581,7 +2419,7 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr"/>
@@ -2614,10 +2452,10 @@
     </xdr:to>
     <xdr:sp macro="'ModUIMenu.ButtonClickEvent(6.6)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="51" name="Menu Btn - 6.6" hidden="1">
+        <xdr:cNvPr id="25" name="Menu Btn - 6.6" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E1463EB-D746-5CE4-D905-8A3D797F7471}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3B88026-6869-A9CF-9B97-C4FA743B2EDE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2631,18 +2469,9 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
         <a:ln w="12700">
           <a:solidFill>
             <a:srgbClr val="134F69"/>
@@ -2666,7 +2495,7 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr"/>
@@ -2699,10 +2528,10 @@
     </xdr:to>
     <xdr:sp macro="'ModUIMenu.ButtonClickEvent(6.7)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="52" name="Menu Btn - 6.7" hidden="1">
+        <xdr:cNvPr id="26" name="Menu Btn - 6.7" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16B5FEDA-566E-0E31-F366-90DA3E28D212}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD861B24-09CA-43BB-3EE9-1296005CA92F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2716,18 +2545,9 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
         <a:ln w="12700">
           <a:solidFill>
             <a:srgbClr val="134F69"/>
@@ -2751,7 +2571,7 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr"/>
@@ -2784,10 +2604,10 @@
     </xdr:to>
     <xdr:sp macro="'ModUIMenu.ButtonClickEvent(7)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="53" name="Menu Btn - 7">
+        <xdr:cNvPr id="27" name="Menu Btn - 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9265344D-55AA-7CA0-8F15-F09CB281A73F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{133D3419-1213-F63B-D837-8931154B7EF4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2801,18 +2621,9 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
         <a:ln w="12700">
           <a:solidFill>
             <a:srgbClr val="134F69"/>
@@ -2836,7 +2647,7 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr"/>

--- a/CBS Workflow.xlsx
+++ b/CBS Workflow.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\CBSWorkflow\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B64D17B5-B15D-4331-AD3E-7AE4DBF0AA0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D1D47054-282C-4E99-98CD-1C5C4006B71E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="1620" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3540" yWindow="1455" windowWidth="21600" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="6" r:id="rId1"/>
@@ -726,7 +726,7 @@
         <xdr:cNvPr id="2" name="Main Screen">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F1D83AB-E62F-B72D-8203-E38C320F8F71}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E9CAEAA-046C-3868-5C07-322DE44D7779}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -818,7 +818,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C551BDF1-85E8-2A32-5417-8A171B5634AE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7535C162-0075-4BEE-892C-6A84D537405A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -878,7 +878,7 @@
         <xdr:cNvPr id="4" name="MenuBar">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0301131D-62F7-4878-06AF-C3051B41350F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7539466-7721-FFA3-96F7-A4B69DD833CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -967,7 +967,7 @@
         <xdr:cNvPr id="5" name="Rectangle 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E694EF01-70C2-5231-3F7C-58CCC32F2C3C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A07DD489-6FCF-B040-0AAE-647B52444180}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1027,7 +1027,7 @@
         <xdr:cNvPr id="6" name="Logo">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE0C793F-93AB-F089-C446-25EDDF2E91DC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7AEC7E13-9C65-A9A2-D6C0-B672BA04EFFB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1077,7 +1077,7 @@
         <xdr:cNvPr id="7" name="Menu Btn - 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3379EC37-6FEC-5560-7F95-FECD47378C93}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8243A78-9232-957F-0D3A-7372C66F3F7C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1163,7 +1163,7 @@
         <xdr:cNvPr id="8" name="Menu Btn - 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF95B9D6-5728-F460-17E9-D7A6BA64EA1D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B877187D-4590-B8FD-8FC3-C0C3C06818DF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1239,7 +1239,7 @@
         <xdr:cNvPr id="9" name="Menu Btn - 2.1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B52BDB2A-239A-A8EE-3678-E390C47EC2D4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF52C01F-D1D4-DD70-AE76-8F50078F99F5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1315,7 +1315,7 @@
         <xdr:cNvPr id="10" name="Menu Btn - 2.2" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEE44FDF-ED9A-950D-4CC0-824A61F0A3CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D43462B3-2153-6C7A-FA80-56A30732C13D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1391,7 +1391,7 @@
         <xdr:cNvPr id="11" name="Menu Btn - 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A12E0FC-FE22-F679-42D9-6C4143CAC51F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6AD1FDE6-0990-831D-1E1A-781C564A6A44}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1467,7 +1467,7 @@
         <xdr:cNvPr id="12" name="Menu Btn - 3.1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8296860-42C8-9ABA-7E16-5ABDF2EE3FB0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87004E3F-9AC5-C5E6-5C3E-F5816C7A66AE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1543,7 +1543,7 @@
         <xdr:cNvPr id="13" name="Menu Btn - 3.2" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B72ADC4E-F901-679D-46AF-8016FDCD1347}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7DE4179-9843-6B27-F412-F886FE753B16}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1619,7 +1619,7 @@
         <xdr:cNvPr id="14" name="Menu Btn - 3.3" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18181947-25A8-A3CA-8651-92D8721B0545}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53E575B1-F82A-713E-D4AD-8684F6114C02}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1695,7 +1695,7 @@
         <xdr:cNvPr id="15" name="Menu Btn - 3.4" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26821839-AAB0-B244-542B-054F9C926557}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFB8F904-E4B3-B3B0-5FA3-6E226B8C9E5F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1771,7 +1771,7 @@
         <xdr:cNvPr id="16" name="Menu Btn - 3.5" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDEEDADE-A9FB-7003-3E8D-7EA2558A4611}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74AB5207-AD2B-9F4B-9185-5311F57F6C17}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1847,7 +1847,7 @@
         <xdr:cNvPr id="17" name="Menu Btn - 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29399E4C-CF8F-F543-5196-9484DBBDE85D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A683DD3-AA94-4FA2-F608-D8CE4F0D0640}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1923,7 +1923,7 @@
         <xdr:cNvPr id="18" name="Menu Btn - 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD1A15F1-048B-CBD4-19B3-1F52326B10EE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2FEB144-88A0-78DC-18E3-1B8379336DEC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1999,7 +1999,7 @@
         <xdr:cNvPr id="19" name="Menu Btn - 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CAF89329-D0EC-542E-EB75-EDA68D11558A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9AF33C5E-38F4-FB9E-6235-8A0B1EB57A61}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2075,7 +2075,7 @@
         <xdr:cNvPr id="20" name="Menu Btn - 6.1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F1617E9-5096-D47E-499C-D4D3878912FF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35F62AE3-FC19-338A-0786-670C2DCA8E4A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2151,7 +2151,7 @@
         <xdr:cNvPr id="21" name="Menu Btn - 6.2" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50AEEAAF-F2B6-8A9C-1A5E-8EF8C8579B22}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78748C6E-C4FD-871D-DB86-AB1A8C89A11A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2227,7 +2227,7 @@
         <xdr:cNvPr id="22" name="Menu Btn - 6.3" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{013AA1B4-B135-D155-2AD3-18D6C913CE92}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B01FC50-F8BA-C5C8-7411-5E6FAA5D1C8F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2303,7 +2303,7 @@
         <xdr:cNvPr id="23" name="Menu Btn - 6.4" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5A5BC89-C172-D918-76BE-A2EFA1F347E8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C07173A-05C3-07DB-C007-ADEA6E3C7277}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2379,7 +2379,7 @@
         <xdr:cNvPr id="24" name="Menu Btn - 6.5" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DF5A2DE-CC43-3EEA-606E-300292657150}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB985045-2958-6616-6810-3978F2D5F301}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2455,7 +2455,7 @@
         <xdr:cNvPr id="25" name="Menu Btn - 6.6" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3B88026-6869-A9CF-9B97-C4FA743B2EDE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A1A0ABF-FE96-43DD-C58F-CCB1E39D9427}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2531,7 +2531,7 @@
         <xdr:cNvPr id="26" name="Menu Btn - 6.7" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD861B24-09CA-43BB-3EE9-1296005CA92F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{118D6F2D-A438-E766-1ACC-9C198EFB4C31}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2607,7 +2607,7 @@
         <xdr:cNvPr id="27" name="Menu Btn - 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{133D3419-1213-F63B-D837-8931154B7EF4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36DDB9F1-A0B4-7D11-6B8E-F64EDFD6B71C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>

--- a/CBS Workflow.xlsx
+++ b/CBS Workflow.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\CBSWorkflow\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D1D47054-282C-4E99-98CD-1C5C4006B71E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4497D5A6-527B-43BF-B757-C9CD40A407D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3540" yWindow="1455" windowWidth="21600" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="1620" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="6" r:id="rId1"/>
-    <sheet name="TblStepTemplate" sheetId="7" state="hidden" r:id="rId2"/>
+    <sheet name="To Do" sheetId="8" r:id="rId2"/>
+    <sheet name="TblStepTemplate" sheetId="7" state="hidden" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">TblStepTemplate!$C$1:$N$42</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TblStepTemplate!$C$1:$N$42</definedName>
     <definedName name="Button">Sheet1!$B$2</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="174">
   <si>
     <t>WorkflowNo</t>
   </si>
@@ -525,13 +526,46 @@
   </si>
   <si>
     <t>Workflow has now completed</t>
+  </si>
+  <si>
+    <t>Align button text</t>
+  </si>
+  <si>
+    <t>Align button frame</t>
+  </si>
+  <si>
+    <t>Selected button to stay highlighted</t>
+  </si>
+  <si>
+    <t>remove form titles</t>
+  </si>
+  <si>
+    <t>Revisit instructions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prefill data picker list </t>
+  </si>
+  <si>
+    <t>Client name on project form</t>
+  </si>
+  <si>
+    <t>Spv name on project form</t>
+  </si>
+  <si>
+    <t>Remove duplicate projects from list</t>
+  </si>
+  <si>
+    <t>restructure Class Hierarchy</t>
+  </si>
+  <si>
+    <t>Add RAG Colours</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -554,6 +588,11 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Myriad"/>
     </font>
   </fonts>
   <fills count="3">
@@ -614,7 +653,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -631,6 +670,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -658,56 +698,6 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>42</xdr:col>
-      <xdr:colOff>558800</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4829" name="TEMPLATE - Logo" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DD60F29-BC8A-CD9F-F23B-AD9C56698867}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="24117300" y="2276475"/>
-          <a:ext cx="2235200" cy="1460500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -723,10 +713,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Main Screen">
+        <xdr:cNvPr id="10052" name="Main Screen">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E9CAEAA-046C-3868-5C07-322DE44D7779}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F364260F-54E3-23D4-5F0C-B7C9818CF959}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -800,6 +790,56 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>558800</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4829" name="TEMPLATE - Logo" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DD60F29-BC8A-CD9F-F23B-AD9C56698867}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="24117300" y="2276475"/>
+          <a:ext cx="2235200" cy="1460500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -815,10 +855,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Rectangle 2" hidden="1">
+        <xdr:cNvPr id="10055" name="Rectangle 10054">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7535C162-0075-4BEE-892C-6A84D537405A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{572FA403-75B0-9707-E931-F46C1D340E52}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -862,6 +902,2452 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10079" name="Main Frame">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D03F3274-51D3-84B0-C6D1-9656A0E2C364}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2159000" y="1143000"/>
+          <a:ext cx="8890000" cy="4572000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cap="flat" cmpd="sng" algn="ctr">
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="63500" dist="37357" dir="2700000" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100" b="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface=""/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10078" name="Main Frame Header">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E308708-699B-0873-C629-E0C674BC4B69}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2159000" y="1143000"/>
+          <a:ext cx="8890000" cy="317500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="D8336B"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="D8336B"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cap="flat" cmpd="sng" algn="ctr">
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1200" b="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Active Projects</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIButtons.ProcessBtnClicks(&quot;10:1&quot;)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10084" name="0-0">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC443AA5-C11C-F705-13E6-382E5EF6A3CD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2159000" y="1460500"/>
+          <a:ext cx="635000" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="134F69"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="134F69"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Project No</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIButtons.ProcessBtnClicks(&quot;10:1&quot;)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10085" name="1-0">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76C5D4FB-BFB9-8905-7B1D-5D54F4C34360}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2794000" y="1460500"/>
+          <a:ext cx="1270000" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="134F69"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="134F69"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Client Name</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIButtons.ProcessBtnClicks(&quot;10:1&quot;)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10086" name="2-0">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4BDC3F9-4089-3A80-CF4A-66B968DB1BFC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4064000" y="1460500"/>
+          <a:ext cx="1270000" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="134F69"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="134F69"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>SPV No</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIButtons.ProcessBtnClicks(&quot;10:1&quot;)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10087" name="3-0">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FBBBF7FF-AEC7-E035-FE44-0AC7C77D4182}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5334000" y="1460500"/>
+          <a:ext cx="1270000" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="134F69"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="134F69"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Case Manager</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIButtons.ProcessBtnClicks(&quot;10:1&quot;)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10088" name="4-0">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DF4F6F4-5535-11D6-4551-0FEF3EAA2730}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6604000" y="1460500"/>
+          <a:ext cx="635000" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="134F69"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="134F69"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Step No</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIButtons.ProcessBtnClicks(&quot;10:1&quot;)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10089" name="5-0">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDB6EF5F-492D-2BE8-5EDC-61CEC471D16B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7239000" y="1460500"/>
+          <a:ext cx="2540000" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="134F69"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="134F69"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Step Name</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIButtons.ProcessBtnClicks(&quot;10:1&quot;)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10090" name="6-0">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E5322B4-ED5E-D7A0-73B2-F70E2AA372E3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9779000" y="1460500"/>
+          <a:ext cx="1270000" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="134F69"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="134F69"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Status</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIButtons.ProcessBtnClicks(&quot;10:1&quot;)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10091" name="0-1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{569A590A-E8AA-A225-31CC-7A23216091FB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2159000" y="1714500"/>
+          <a:ext cx="635000" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="0">
+              <a:solidFill>
+                <a:srgbClr val="434343"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIButtons.ProcessBtnClicks(&quot;10:1&quot;)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10092" name="1-1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{864A0761-67C8-2CBD-F986-A982CAC40352}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2794000" y="1714500"/>
+          <a:ext cx="1270000" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="0">
+              <a:solidFill>
+                <a:srgbClr val="434343"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Sainsburys</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIButtons.ProcessBtnClicks(&quot;10:1&quot;)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10093" name="2-1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{111C4B9B-EFB0-1801-3753-E90E8CAF8C30}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4064000" y="1714500"/>
+          <a:ext cx="1270000" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="0">
+              <a:solidFill>
+                <a:srgbClr val="434343"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Old SPV</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIButtons.ProcessBtnClicks(&quot;10:1&quot;)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10094" name="3-1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{661FF2CD-EB23-DFC1-C795-934EE547AEC9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5334000" y="1714500"/>
+          <a:ext cx="1270000" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="0">
+              <a:solidFill>
+                <a:srgbClr val="434343"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Fred Bloggs</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIButtons.ProcessBtnClicks(&quot;10:1&quot;)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10095" name="4-1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E2F76AF-4EC6-269E-79CC-06426092C4D9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6604000" y="1714500"/>
+          <a:ext cx="635000" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="0">
+              <a:solidFill>
+                <a:srgbClr val="434343"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>1.01</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIButtons.ProcessBtnClicks(&quot;10:1&quot;)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10096" name="5-1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A48D2B7-A800-3DD1-DB2A-46A8D9FBC446}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7239000" y="1714500"/>
+          <a:ext cx="2540000" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="0">
+              <a:solidFill>
+                <a:srgbClr val="434343"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Fact Find to Client</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIButtons.ProcessBtnClicks(&quot;10:1&quot;)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10097" name="6-1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B08E418-DF8C-22D9-3551-2B74C6E161B7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9779000" y="1714500"/>
+          <a:ext cx="1270000" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="D7263D"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="D7263D"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>enActionReqd</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIButtons.ProcessBtnClicks(&quot;10:1&quot;)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10098" name="0-2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F42F479-F22B-3FAF-FC07-7978F87E0212}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2159000" y="1968500"/>
+          <a:ext cx="635000" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="0">
+              <a:solidFill>
+                <a:srgbClr val="434343"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIButtons.ProcessBtnClicks(&quot;10:1&quot;)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10099" name="1-2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD65B0AA-1D76-3556-DE5E-78EFCA9DAA8E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2794000" y="1968500"/>
+          <a:ext cx="1270000" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="0">
+              <a:solidFill>
+                <a:srgbClr val="434343"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Sainsburys</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIButtons.ProcessBtnClicks(&quot;10:1&quot;)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10100" name="2-2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3049B77B-F17E-78AC-75D7-4179601DF0C5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4064000" y="1968500"/>
+          <a:ext cx="1270000" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="0">
+              <a:solidFill>
+                <a:srgbClr val="434343"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Old SPV</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIButtons.ProcessBtnClicks(&quot;10:1&quot;)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10101" name="3-2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06CE0976-C4C6-C6A7-D69E-E87F8C89F62D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5334000" y="1968500"/>
+          <a:ext cx="1270000" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="0">
+              <a:solidFill>
+                <a:srgbClr val="434343"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Fred Bloggs</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIButtons.ProcessBtnClicks(&quot;10:1&quot;)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10102" name="4-2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE784549-FDA3-3EFC-189D-A9786A93146F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6604000" y="1968500"/>
+          <a:ext cx="635000" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="0">
+              <a:solidFill>
+                <a:srgbClr val="434343"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>1.17</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIButtons.ProcessBtnClicks(&quot;10:1&quot;)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10103" name="5-2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0EF8058-D928-BA3A-9351-BDE01EC2DE96}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7239000" y="1968500"/>
+          <a:ext cx="2540000" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="0">
+              <a:solidFill>
+                <a:srgbClr val="434343"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Agree next steps with Client</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIButtons.ProcessBtnClicks(&quot;10:1&quot;)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10104" name="6-2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13F86416-3D68-51F6-98A8-8554FD71F7E7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9779000" y="1968500"/>
+          <a:ext cx="1270000" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="D7263D"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="D7263D"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>enActionReqd</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10081" name="Button Frame" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1890C26-DE04-70D5-C0B6-65FB03D13F22}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10033000" y="63500"/>
+          <a:ext cx="3492500" cy="762000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cap="flat" cmpd="sng" algn="ctr">
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="63500" dist="37357" dir="2700000" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100" b="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface=""/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10080" name="Rectangle 10079" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C0E5322-4C4E-B455-75E8-F2641AD1D02B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="127000" cy="127000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>469900</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>520700</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIButtons.ProcessBtnClicks(7)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10082" name="BtnMain1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32A7AF40-3E94-D172-32FF-2D7B660E501F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10414000" y="317500"/>
+          <a:ext cx="1270000" cy="508000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="134F69"/>
+        </a:solidFill>
+        <a:ln w="0" cap="flat" cmpd="sng" algn="ctr">
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="63500" dist="37357" dir="2700000" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1200" b="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>New Project Workflow</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIButtons.ProcessBtnClicks(8)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10083" name="BtnMain2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9EC53D2B-10B8-E2AE-37DC-8C57EA4FBC11}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12001500" y="317500"/>
+          <a:ext cx="1270000" cy="508000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="134F69"/>
+        </a:solidFill>
+        <a:ln w="0" cap="flat" cmpd="sng" algn="ctr">
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="63500" dist="37357" dir="2700000" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1200" b="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>New Lender Workflow</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
@@ -875,10 +3361,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="MenuBar">
+        <xdr:cNvPr id="10054" name="MenuBar">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7539466-7721-FFA3-96F7-A4B69DD833CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9D1C000-34B6-DD8A-EC01-6C27162C8A50}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -964,10 +3450,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Rectangle 4">
+        <xdr:cNvPr id="10053" name="Rectangle 10052" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A07DD489-6FCF-B040-0AAE-647B52444180}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBD3F095-E117-47C0-26F9-6354CB4F3E40}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1024,10 +3510,10 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Logo">
+        <xdr:cNvPr id="10056" name="Logo">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7AEC7E13-9C65-A9A2-D6C0-B672BA04EFFB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0E3F2C6-9987-2420-2EB1-7302442798D3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1074,10 +3560,10 @@
     </xdr:to>
     <xdr:sp macro="'ModUIMenu.ButtonClickEvent(1)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="Menu Btn - 1">
+        <xdr:cNvPr id="10057" name="Menu Btn - 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8243A78-9232-957F-0D3A-7372C66F3F7C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{647C3D4B-2CFC-52B2-0F99-FDDC1332EFE4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1086,6 +3572,162 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="63500" y="1905000"/>
+          <a:ext cx="1905000" cy="393700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="134F69"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1200" b="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>For Action</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIMenu.ButtonClickEvent(2)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10058" name="Menu Btn - 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99137D08-314A-D603-F330-25FC8DAD53C5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="63500" y="2298700"/>
+          <a:ext cx="1905000" cy="393700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="134F69"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1200" b="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Projects</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIMenu.ButtonClickEvent(2.1)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10059" name="Menu Btn - 2.1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45006965-2E76-D9F2-2EE3-6CCF6872F0A3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1968500" y="2298700"/>
           <a:ext cx="1905000" cy="393700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1138,158 +3780,6 @@
               </a:solidFill>
               <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>For Action</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>139700</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="'ModUIMenu.ButtonClickEvent(2)'" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="Menu Btn - 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B877187D-4590-B8FD-8FC3-C0C3C06818DF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="63500" y="2298700"/>
-          <a:ext cx="1905000" cy="393700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:srgbClr val="134F69"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1200" b="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>Projects</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>139700</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>215900</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="'ModUIMenu.ButtonClickEvent(2.1)'" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="Menu Btn - 2.1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF52C01F-D1D4-DD70-AE76-8F50078F99F5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1968500" y="2298700"/>
-          <a:ext cx="1905000" cy="393700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:srgbClr val="134F69"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1200" b="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
-            </a:rPr>
             <a:t>Active</a:t>
           </a:r>
         </a:p>
@@ -1312,10 +3802,10 @@
     </xdr:to>
     <xdr:sp macro="'ModUIMenu.ButtonClickEvent(2.2)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="Menu Btn - 2.2" hidden="1">
+        <xdr:cNvPr id="10060" name="Menu Btn - 2.2" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D43462B3-2153-6C7A-FA80-56A30732C13D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5AC86CC8-D410-42E6-F0A7-C6FE82A5FA47}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1388,10 +3878,10 @@
     </xdr:to>
     <xdr:sp macro="'ModUIMenu.ButtonClickEvent(3)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="Menu Btn - 3">
+        <xdr:cNvPr id="10061" name="Menu Btn - 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6AD1FDE6-0990-831D-1E1A-781C564A6A44}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50772403-1CDD-DC71-5E3A-0668856888C2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1464,10 +3954,10 @@
     </xdr:to>
     <xdr:sp macro="'ModUIMenu.ButtonClickEvent(3.1)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="Menu Btn - 3.1" hidden="1">
+        <xdr:cNvPr id="10062" name="Menu Btn - 3.1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87004E3F-9AC5-C5E6-5C3E-F5816C7A66AE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D84F4C9-A171-4530-76D1-4357BEB3B122}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1540,10 +4030,10 @@
     </xdr:to>
     <xdr:sp macro="'ModUIMenu.ButtonClickEvent(3.2)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="Menu Btn - 3.2" hidden="1">
+        <xdr:cNvPr id="10063" name="Menu Btn - 3.2" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7DE4179-9843-6B27-F412-F886FE753B16}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89B246D4-1577-BE67-8367-429A7493FDDB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1616,10 +4106,10 @@
     </xdr:to>
     <xdr:sp macro="'ModUIMenu.ButtonClickEvent(3.3)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="Menu Btn - 3.3" hidden="1">
+        <xdr:cNvPr id="10064" name="Menu Btn - 3.3" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53E575B1-F82A-713E-D4AD-8684F6114C02}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F33B139-1756-4D22-36A1-CDB663336CA4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1692,10 +4182,10 @@
     </xdr:to>
     <xdr:sp macro="'ModUIMenu.ButtonClickEvent(3.4)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="Menu Btn - 3.4" hidden="1">
+        <xdr:cNvPr id="10065" name="Menu Btn - 3.4" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFB8F904-E4B3-B3B0-5FA3-6E226B8C9E5F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4A6C06B-1CD0-F3D4-4BE0-81660AE40CDD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1768,10 +4258,10 @@
     </xdr:to>
     <xdr:sp macro="'ModUIMenu.ButtonClickEvent(3.5)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="Menu Btn - 3.5" hidden="1">
+        <xdr:cNvPr id="10066" name="Menu Btn - 3.5" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74AB5207-AD2B-9F4B-9185-5311F57F6C17}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F32DEAB-F3F4-1038-0FF2-79C13AB95075}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1844,10 +4334,10 @@
     </xdr:to>
     <xdr:sp macro="'ModUIMenu.ButtonClickEvent(4)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="Menu Btn - 4">
+        <xdr:cNvPr id="10067" name="Menu Btn - 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A683DD3-AA94-4FA2-F608-D8CE4F0D0640}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF4CBC7D-76B6-6622-29BB-028F2403254F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1920,10 +4410,10 @@
     </xdr:to>
     <xdr:sp macro="'ModUIMenu.ButtonClickEvent(5)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="Menu Btn - 5">
+        <xdr:cNvPr id="10068" name="Menu Btn - 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2FEB144-88A0-78DC-18E3-1B8379336DEC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA39EBE7-4D80-549D-C535-FCA314854654}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1996,10 +4486,10 @@
     </xdr:to>
     <xdr:sp macro="'ModUIMenu.ButtonClickEvent(6)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="Menu Btn - 6">
+        <xdr:cNvPr id="10069" name="Menu Btn - 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9AF33C5E-38F4-FB9E-6235-8A0B1EB57A61}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA081E3B-0494-3A76-069B-0D01BDF5254E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2072,10 +4562,10 @@
     </xdr:to>
     <xdr:sp macro="'ModUIMenu.ButtonClickEvent(6.1)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="Menu Btn - 6.1" hidden="1">
+        <xdr:cNvPr id="10070" name="Menu Btn - 6.1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35F62AE3-FC19-338A-0786-670C2DCA8E4A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{190BACA0-532F-6D6E-E8DE-724E68384BC3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2148,10 +4638,10 @@
     </xdr:to>
     <xdr:sp macro="'ModUIMenu.ButtonClickEvent(6.2)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="Menu Btn - 6.2" hidden="1">
+        <xdr:cNvPr id="10071" name="Menu Btn - 6.2" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78748C6E-C4FD-871D-DB86-AB1A8C89A11A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CCFAF65-7BAA-58BC-0F10-FED599C3B89A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2224,10 +4714,10 @@
     </xdr:to>
     <xdr:sp macro="'ModUIMenu.ButtonClickEvent(6.3)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="Menu Btn - 6.3" hidden="1">
+        <xdr:cNvPr id="10072" name="Menu Btn - 6.3" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B01FC50-F8BA-C5C8-7411-5E6FAA5D1C8F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{051ACB86-248C-F0E0-A2F7-8ACAA656905C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2300,10 +4790,10 @@
     </xdr:to>
     <xdr:sp macro="'ModUIMenu.ButtonClickEvent(6.4)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="Menu Btn - 6.4" hidden="1">
+        <xdr:cNvPr id="10073" name="Menu Btn - 6.4" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C07173A-05C3-07DB-C007-ADEA6E3C7277}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCB4C3AF-3EA0-468B-EDBB-9573A9CDE65C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2376,10 +4866,10 @@
     </xdr:to>
     <xdr:sp macro="'ModUIMenu.ButtonClickEvent(6.5)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="Menu Btn - 6.5" hidden="1">
+        <xdr:cNvPr id="10074" name="Menu Btn - 6.5" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB985045-2958-6616-6810-3978F2D5F301}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C3FA258-49B9-470E-D382-0A70DB6F1D7B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2452,10 +4942,10 @@
     </xdr:to>
     <xdr:sp macro="'ModUIMenu.ButtonClickEvent(6.6)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="25" name="Menu Btn - 6.6" hidden="1">
+        <xdr:cNvPr id="10075" name="Menu Btn - 6.6" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A1A0ABF-FE96-43DD-C58F-CCB1E39D9427}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D0CEC81-7CCB-23AA-E027-6A3568A7489F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2528,10 +5018,10 @@
     </xdr:to>
     <xdr:sp macro="'ModUIMenu.ButtonClickEvent(6.7)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="26" name="Menu Btn - 6.7" hidden="1">
+        <xdr:cNvPr id="10076" name="Menu Btn - 6.7" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{118D6F2D-A438-E766-1ACC-9C198EFB4C31}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC830120-7E15-B6CD-84A8-6EDD7D2F5D6B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2604,10 +5094,10 @@
     </xdr:to>
     <xdr:sp macro="'ModUIMenu.ButtonClickEvent(7)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="27" name="Menu Btn - 7">
+        <xdr:cNvPr id="10077" name="Menu Btn - 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36DDB9F1-A0B4-7D11-6B8E-F64EDFD6B71C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58C53F4F-7937-519A-0A68-64BC9482B918}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3238,21 +5728,25 @@
   <dimension ref="B2:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:2">
       <c r="B2">
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="2:2">
+      <c r="B12" s="6"/>
+    </row>
+    <row r="15" spans="2:2" ht="14.25" customHeight="1"/>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="LIxcXN9cfsxSeBRXsakILRqyLNnQ4yqDq9nbajkEdD2X2LtDKan9zPRC3il9WupbRHh65Y+mKtbRSdZnU2i/8Q==" saltValue="kIq0vMxHoqjzIgrScPeiCg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <dataConsolidate/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -3261,6 +5755,117 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAF5DD8E-1975-411A-A399-0A0AA8DBB752}">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="B1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3">
+      <c r="B1">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="2" spans="2:3">
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3">
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3">
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3">
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3">
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3">
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3">
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3">
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3">
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3">
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11" t="s">
+        <v>170</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B1:C11">
+    <sortCondition ref="C1:C11"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29DBF781-377D-4D51-BB7A-ACB62E9EAE6C}">
   <sheetPr codeName="ShtTableImport"/>
   <dimension ref="A1:Y42"/>
@@ -3269,7 +5874,7 @@
       <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="6" width="13.85546875" customWidth="1"/>
     <col min="7" max="7" width="36.7109375" customWidth="1"/>
@@ -3281,7 +5886,7 @@
     <col min="19" max="25" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3358,7 +5963,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3408,7 +6013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -3455,7 +6060,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -3502,7 +6107,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -3545,7 +6150,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -3586,7 +6191,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -3633,7 +6238,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -3674,7 +6279,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -3721,7 +6326,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25">
       <c r="A10">
         <v>1</v>
       </c>
@@ -3768,7 +6373,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25">
       <c r="A11">
         <v>1</v>
       </c>
@@ -3815,7 +6420,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" ht="30">
       <c r="A12">
         <v>1</v>
       </c>
@@ -3862,7 +6467,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25">
       <c r="A13">
         <v>1</v>
       </c>
@@ -3909,7 +6514,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25">
       <c r="A14">
         <v>1</v>
       </c>
@@ -3956,7 +6561,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25">
       <c r="A15">
         <v>1</v>
       </c>
@@ -4003,7 +6608,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25">
       <c r="A16">
         <v>1</v>
       </c>
@@ -4050,7 +6655,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25">
       <c r="A17">
         <v>1</v>
       </c>
@@ -4093,7 +6698,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25">
       <c r="A18">
         <v>1</v>
       </c>
@@ -4140,7 +6745,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25">
       <c r="A19">
         <v>1</v>
       </c>
@@ -4187,7 +6792,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25">
       <c r="A20">
         <v>1</v>
       </c>
@@ -4234,7 +6839,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25" ht="30">
       <c r="A21">
         <v>1</v>
       </c>
@@ -4284,7 +6889,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25">
       <c r="A22">
         <v>1</v>
       </c>
@@ -4331,7 +6936,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:25">
       <c r="A23">
         <v>1</v>
       </c>
@@ -4378,7 +6983,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:25">
       <c r="A24">
         <v>1</v>
       </c>
@@ -4425,7 +7030,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:25">
       <c r="A25">
         <v>1</v>
       </c>
@@ -4472,7 +7077,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:25">
       <c r="A26">
         <v>1</v>
       </c>
@@ -4519,7 +7124,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:25">
       <c r="A27">
         <v>1</v>
       </c>
@@ -4566,7 +7171,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:25">
       <c r="A28">
         <v>1</v>
       </c>
@@ -4613,7 +7218,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:25">
       <c r="A29">
         <v>1</v>
       </c>
@@ -4660,7 +7265,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:25">
       <c r="A30">
         <v>1</v>
       </c>
@@ -4701,7 +7306,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:25">
       <c r="A31">
         <v>1</v>
       </c>
@@ -4748,7 +7353,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:25">
       <c r="A32">
         <v>1</v>
       </c>
@@ -4795,7 +7400,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:25">
       <c r="A33">
         <v>1</v>
       </c>
@@ -4842,7 +7447,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:25">
       <c r="A34">
         <v>1</v>
       </c>
@@ -4883,7 +7488,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:25" ht="45" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:25" ht="45">
       <c r="A35">
         <v>1</v>
       </c>
@@ -4933,7 +7538,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:25">
       <c r="A36">
         <v>1</v>
       </c>
@@ -4974,7 +7579,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:25">
       <c r="A37">
         <v>1</v>
       </c>
@@ -5021,7 +7626,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:25" ht="45" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:25" ht="45">
       <c r="A38">
         <v>1</v>
       </c>
@@ -5071,7 +7676,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:25">
       <c r="A39">
         <v>1</v>
       </c>
@@ -5118,7 +7723,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:25" ht="30">
       <c r="A40">
         <v>1</v>
       </c>
@@ -5166,7 +7771,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:25" ht="45" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:25" ht="45">
       <c r="A41">
         <v>1</v>
       </c>
@@ -5214,7 +7819,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:25">
       <c r="A42">
         <v>1</v>
       </c>

--- a/CBS Workflow.xlsx
+++ b/CBS Workflow.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\CBSWorkflow\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/50f47e56877e2071/Documents/Development Areas/CBS Workflow/Library/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4497D5A6-527B-43BF-B757-C9CD40A407D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1FA8F4B4-1F2D-4725-9240-AF710A235788}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="1620" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="39615" yWindow="4590" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="6" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="180">
   <si>
     <t>WorkflowNo</t>
   </si>
@@ -531,41 +531,59 @@
     <t>Align button text</t>
   </si>
   <si>
-    <t>Align button frame</t>
-  </si>
-  <si>
     <t>Selected button to stay highlighted</t>
   </si>
   <si>
-    <t>remove form titles</t>
-  </si>
-  <si>
-    <t>Revisit instructions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prefill data picker list </t>
-  </si>
-  <si>
     <t>Client name on project form</t>
   </si>
   <si>
     <t>Spv name on project form</t>
   </si>
   <si>
-    <t>Remove duplicate projects from list</t>
-  </si>
-  <si>
     <t>restructure Class Hierarchy</t>
   </si>
   <si>
     <t>Add RAG Colours</t>
+  </si>
+  <si>
+    <t>Redesign for Project with multiple lender workflows</t>
+  </si>
+  <si>
+    <t>Create lender workflows</t>
+  </si>
+  <si>
+    <t>Add CRM Facility</t>
+  </si>
+  <si>
+    <t>Help facility for each step</t>
+  </si>
+  <si>
+    <t>Add relevant data to workflow form</t>
+  </si>
+  <si>
+    <t>Add note / conversation facility to workflow</t>
+  </si>
+  <si>
+    <t>RAGs not correct</t>
+  </si>
+  <si>
+    <t>Turn off debug.aserts</t>
+  </si>
+  <si>
+    <t>Deal with hyphens in SQL search in picker</t>
+  </si>
+  <si>
+    <t>Closed Projects</t>
+  </si>
+  <si>
+    <t>For Action Projects</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -593,6 +611,13 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Myriad"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -653,7 +678,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -671,6 +696,7 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -698,98 +724,6 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>431800</xdr:colOff>
-      <xdr:row>133</xdr:row>
-      <xdr:rowOff>73025</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10052" name="Main Screen">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F364260F-54E3-23D4-5F0C-B7C9818CF959}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="23177500" cy="25400000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="FBF9FF"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="FBF9FF"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
-        <a:ln w="0" cap="flat" cmpd="sng" algn="ctr">
-          <a:noFill/>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-GB" sz="1100" b="0">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface=""/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>39</xdr:col>
@@ -848,17 +782,17 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>73025</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10055" name="Rectangle 10054">
+        <xdr:cNvPr id="2" name="Main Screen">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{572FA403-75B0-9707-E931-F46C1D340E52}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B5AD977-B84B-8B91-B5D9-658F1058E114}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -867,67 +801,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="127000" cy="127000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-GB" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>330200</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10079" name="Main Frame">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D03F3274-51D3-84B0-C6D1-9656A0E2C364}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2159000" y="1143000"/>
-          <a:ext cx="8890000" cy="4572000"/>
+          <a:ext cx="23177500" cy="25400000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -935,108 +809,10 @@
         <a:gradFill flip="none" rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
-              <a:srgbClr val="FFFFFF"/>
+              <a:srgbClr val="FBF9FF"/>
             </a:gs>
             <a:gs pos="100000">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
-        <a:ln w="0" cap="flat" cmpd="sng" algn="ctr">
-          <a:noFill/>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:effectLst>
-          <a:outerShdw blurRad="63500" dist="37357" dir="2700000" rotWithShape="0">
-            <a:prstClr val="black">
-              <a:alpha val="40000"/>
-            </a:prstClr>
-          </a:outerShdw>
-        </a:effectLst>
-        <a:extLst>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-GB" sz="1100" b="0">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface=""/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>330200</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10078" name="Main Frame Header">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E308708-699B-0873-C629-E0C674BC4B69}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2159000" y="1143000"/>
-          <a:ext cx="8890000" cy="317500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="D8336B"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="D8336B"/>
+              <a:srgbClr val="FBF9FF"/>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="1"/>
@@ -1047,2018 +823,6 @@
           <a:prstDash val="solid"/>
         </a:ln>
         <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1200" b="0">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>Active Projects</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>330200</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>355600</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="'ModUIButtons.ProcessBtnClicks(&quot;10:1&quot;)'" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10084" name="0-0">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC443AA5-C11C-F705-13E6-382E5EF6A3CD}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2159000" y="1460500"/>
-          <a:ext cx="635000" cy="254000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="134F69"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="134F69"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
-        <a:ln w="0" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1000" b="0">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>Project No</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>355600</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>406400</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="'ModUIButtons.ProcessBtnClicks(&quot;10:1&quot;)'" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10085" name="1-0">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76C5D4FB-BFB9-8905-7B1D-5D54F4C34360}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2794000" y="1460500"/>
-          <a:ext cx="1270000" cy="254000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="134F69"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="134F69"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
-        <a:ln w="0" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1000" b="0">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>Client Name</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>406400</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="'ModUIButtons.ProcessBtnClicks(&quot;10:1&quot;)'" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10086" name="2-0">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4BDC3F9-4089-3A80-CF4A-66B968DB1BFC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4064000" y="1460500"/>
-          <a:ext cx="1270000" cy="254000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="134F69"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="134F69"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
-        <a:ln w="0" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1000" b="0">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>SPV No</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>317500</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="'ModUIButtons.ProcessBtnClicks(&quot;10:1&quot;)'" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10087" name="3-0">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FBBBF7FF-AEC7-E035-FE44-0AC7C77D4182}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5334000" y="1460500"/>
-          <a:ext cx="1270000" cy="254000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="134F69"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="134F69"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
-        <a:ln w="0" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1000" b="0">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>Case Manager</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>317500</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="'ModUIButtons.ProcessBtnClicks(&quot;10:1&quot;)'" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10088" name="4-0">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DF4F6F4-5535-11D6-4551-0FEF3EAA2730}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6604000" y="1460500"/>
-          <a:ext cx="635000" cy="254000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="134F69"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="134F69"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
-        <a:ln w="0" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1000" b="0">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>Step No</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>444500</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="'ModUIButtons.ProcessBtnClicks(&quot;10:1&quot;)'" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10089" name="5-0">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDB6EF5F-492D-2BE8-5EDC-61CEC471D16B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7239000" y="1460500"/>
-          <a:ext cx="2540000" cy="254000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="134F69"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="134F69"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
-        <a:ln w="0" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1000" b="0">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>Step Name</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>444500</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="'ModUIButtons.ProcessBtnClicks(&quot;10:1&quot;)'" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10090" name="6-0">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E5322B4-ED5E-D7A0-73B2-F70E2AA372E3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9779000" y="1460500"/>
-          <a:ext cx="1270000" cy="254000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="134F69"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="134F69"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
-        <a:ln w="0" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1000" b="0">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>Status</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>330200</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>355600</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="'ModUIButtons.ProcessBtnClicks(&quot;10:1&quot;)'" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10091" name="0-1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{569A590A-E8AA-A225-31CC-7A23216091FB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2159000" y="1714500"/>
-          <a:ext cx="635000" cy="254000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
-        <a:ln w="0" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1000" b="0">
-              <a:solidFill>
-                <a:srgbClr val="434343"/>
-              </a:solidFill>
-              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>1</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>355600</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>406400</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="'ModUIButtons.ProcessBtnClicks(&quot;10:1&quot;)'" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10092" name="1-1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{864A0761-67C8-2CBD-F986-A982CAC40352}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2794000" y="1714500"/>
-          <a:ext cx="1270000" cy="254000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
-        <a:ln w="0" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1000" b="0">
-              <a:solidFill>
-                <a:srgbClr val="434343"/>
-              </a:solidFill>
-              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>Sainsburys</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>406400</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="'ModUIButtons.ProcessBtnClicks(&quot;10:1&quot;)'" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10093" name="2-1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{111C4B9B-EFB0-1801-3753-E90E8CAF8C30}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4064000" y="1714500"/>
-          <a:ext cx="1270000" cy="254000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
-        <a:ln w="0" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1000" b="0">
-              <a:solidFill>
-                <a:srgbClr val="434343"/>
-              </a:solidFill>
-              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>Old SPV</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>317500</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="'ModUIButtons.ProcessBtnClicks(&quot;10:1&quot;)'" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10094" name="3-1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{661FF2CD-EB23-DFC1-C795-934EE547AEC9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5334000" y="1714500"/>
-          <a:ext cx="1270000" cy="254000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
-        <a:ln w="0" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1000" b="0">
-              <a:solidFill>
-                <a:srgbClr val="434343"/>
-              </a:solidFill>
-              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>Fred Bloggs</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>317500</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="'ModUIButtons.ProcessBtnClicks(&quot;10:1&quot;)'" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10095" name="4-1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E2F76AF-4EC6-269E-79CC-06426092C4D9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6604000" y="1714500"/>
-          <a:ext cx="635000" cy="254000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
-        <a:ln w="0" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1000" b="0">
-              <a:solidFill>
-                <a:srgbClr val="434343"/>
-              </a:solidFill>
-              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>1.01</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>444500</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="'ModUIButtons.ProcessBtnClicks(&quot;10:1&quot;)'" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10096" name="5-1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A48D2B7-A800-3DD1-DB2A-46A8D9FBC446}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7239000" y="1714500"/>
-          <a:ext cx="2540000" cy="254000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
-        <a:ln w="0" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1000" b="0">
-              <a:solidFill>
-                <a:srgbClr val="434343"/>
-              </a:solidFill>
-              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>Fact Find to Client</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>444500</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="'ModUIButtons.ProcessBtnClicks(&quot;10:1&quot;)'" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10097" name="6-1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B08E418-DF8C-22D9-3551-2B74C6E161B7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9779000" y="1714500"/>
-          <a:ext cx="1270000" cy="254000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="D7263D"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="D7263D"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
-        <a:ln w="0" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100" b="0">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>enActionReqd</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>330200</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>355600</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="'ModUIButtons.ProcessBtnClicks(&quot;10:1&quot;)'" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10098" name="0-2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F42F479-F22B-3FAF-FC07-7978F87E0212}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2159000" y="1968500"/>
-          <a:ext cx="635000" cy="254000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
-        <a:ln w="0" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1000" b="0">
-              <a:solidFill>
-                <a:srgbClr val="434343"/>
-              </a:solidFill>
-              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>1</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>355600</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>406400</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="'ModUIButtons.ProcessBtnClicks(&quot;10:1&quot;)'" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10099" name="1-2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD65B0AA-1D76-3556-DE5E-78EFCA9DAA8E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2794000" y="1968500"/>
-          <a:ext cx="1270000" cy="254000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
-        <a:ln w="0" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1000" b="0">
-              <a:solidFill>
-                <a:srgbClr val="434343"/>
-              </a:solidFill>
-              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>Sainsburys</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>406400</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="'ModUIButtons.ProcessBtnClicks(&quot;10:1&quot;)'" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10100" name="2-2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3049B77B-F17E-78AC-75D7-4179601DF0C5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4064000" y="1968500"/>
-          <a:ext cx="1270000" cy="254000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
-        <a:ln w="0" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1000" b="0">
-              <a:solidFill>
-                <a:srgbClr val="434343"/>
-              </a:solidFill>
-              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>Old SPV</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>317500</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="'ModUIButtons.ProcessBtnClicks(&quot;10:1&quot;)'" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10101" name="3-2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06CE0976-C4C6-C6A7-D69E-E87F8C89F62D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5334000" y="1968500"/>
-          <a:ext cx="1270000" cy="254000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
-        <a:ln w="0" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1000" b="0">
-              <a:solidFill>
-                <a:srgbClr val="434343"/>
-              </a:solidFill>
-              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>Fred Bloggs</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>317500</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="'ModUIButtons.ProcessBtnClicks(&quot;10:1&quot;)'" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10102" name="4-2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE784549-FDA3-3EFC-189D-A9786A93146F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6604000" y="1968500"/>
-          <a:ext cx="635000" cy="254000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
-        <a:ln w="0" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1000" b="0">
-              <a:solidFill>
-                <a:srgbClr val="434343"/>
-              </a:solidFill>
-              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>1.17</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>444500</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="'ModUIButtons.ProcessBtnClicks(&quot;10:1&quot;)'" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10103" name="5-2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0EF8058-D928-BA3A-9351-BDE01EC2DE96}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7239000" y="1968500"/>
-          <a:ext cx="2540000" cy="254000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
-        <a:ln w="0" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1000" b="0">
-              <a:solidFill>
-                <a:srgbClr val="434343"/>
-              </a:solidFill>
-              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>Agree next steps with Client</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>444500</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="'ModUIButtons.ProcessBtnClicks(&quot;10:1&quot;)'" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10104" name="6-2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13F86416-3D68-51F6-98A8-8554FD71F7E7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9779000" y="1968500"/>
-          <a:ext cx="1270000" cy="254000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="D7263D"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="D7263D"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
-        <a:ln w="0" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100" b="0">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>enActionReqd</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>88900</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10081" name="Button Frame" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1890C26-DE04-70D5-C0B6-65FB03D13F22}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10033000" y="63500"/>
-          <a:ext cx="3492500" cy="762000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
-        <a:ln w="0" cap="flat" cmpd="sng" algn="ctr">
-          <a:noFill/>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:effectLst>
-          <a:outerShdw blurRad="63500" dist="37357" dir="2700000" rotWithShape="0">
-            <a:prstClr val="black">
-              <a:alpha val="40000"/>
-            </a:prstClr>
-          </a:outerShdw>
-        </a:effectLst>
         <a:extLst>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
             <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cap="flat" cmpd="sng" algn="ctr">
@@ -3117,10 +881,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10080" name="Rectangle 10079" hidden="1">
+        <xdr:cNvPr id="3" name="Rectangle 2" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C0E5322-4C4E-B455-75E8-F2641AD1D02B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3CDC5D79-5BD7-1C18-74BB-FA7F51B585FA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3164,190 +928,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>469900</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>520700</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="'ModUIButtons.ProcessBtnClicks(7)'" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10082" name="BtnMain1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32A7AF40-3E94-D172-32FF-2D7B660E501F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10414000" y="317500"/>
-          <a:ext cx="1270000" cy="508000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="134F69"/>
-        </a:solidFill>
-        <a:ln w="0" cap="flat" cmpd="sng" algn="ctr">
-          <a:noFill/>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:effectLst>
-          <a:outerShdw blurRad="63500" dist="37357" dir="2700000" rotWithShape="0">
-            <a:prstClr val="black">
-              <a:alpha val="40000"/>
-            </a:prstClr>
-          </a:outerShdw>
-        </a:effectLst>
-        <a:extLst>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1200" b="0">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>New Project Workflow</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>279400</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="'ModUIButtons.ProcessBtnClicks(8)'" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10083" name="BtnMain2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9EC53D2B-10B8-E2AE-37DC-8C57EA4FBC11}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12001500" y="317500"/>
-          <a:ext cx="1270000" cy="508000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="134F69"/>
-        </a:solidFill>
-        <a:ln w="0" cap="flat" cmpd="sng" algn="ctr">
-          <a:noFill/>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:effectLst>
-          <a:outerShdw blurRad="63500" dist="37357" dir="2700000" rotWithShape="0">
-            <a:prstClr val="black">
-              <a:alpha val="40000"/>
-            </a:prstClr>
-          </a:outerShdw>
-        </a:effectLst>
-        <a:extLst>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1200" b="0">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>New Lender Workflow</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
@@ -3361,10 +941,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10054" name="MenuBar">
+        <xdr:cNvPr id="4" name="MenuBar">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9D1C000-34B6-DD8A-EC01-6C27162C8A50}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32549685-A6CA-6830-A905-C34D15391D36}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3450,10 +1030,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10053" name="Rectangle 10052" hidden="1">
+        <xdr:cNvPr id="5" name="Rectangle 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBD3F095-E117-47C0-26F9-6354CB4F3E40}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09BCF574-E4CF-7B71-BF44-00756D7B14CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3510,10 +1090,10 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10056" name="Logo">
+        <xdr:cNvPr id="6" name="Logo">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0E3F2C6-9987-2420-2EB1-7302442798D3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39F18D25-CC45-70C8-5BA6-A29F408AD6DF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3560,10 +1140,10 @@
     </xdr:to>
     <xdr:sp macro="'ModUIMenu.ButtonClickEvent(1)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10057" name="Menu Btn - 1">
+        <xdr:cNvPr id="7" name="Menu Btn - 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{647C3D4B-2CFC-52B2-0F99-FDDC1332EFE4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{624E4E72-4118-1568-408D-DA0A066C098E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3578,15 +1158,23 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
+          <a:srgbClr val="D8336B"/>
         </a:solidFill>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:srgbClr val="134F69"/>
-          </a:solidFill>
+        <a:ln w="0" cap="flat" cmpd="sng" algn="ctr">
+          <a:noFill/>
           <a:prstDash val="solid"/>
         </a:ln>
         <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:srgbClr val="134F69"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -3612,7 +1200,7 @@
           <a:r>
             <a:rPr lang="en-GB" sz="1200" b="0">
               <a:solidFill>
-                <a:srgbClr val="000000"/>
+                <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
               <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
             </a:rPr>
@@ -3638,10 +1226,10 @@
     </xdr:to>
     <xdr:sp macro="'ModUIMenu.ButtonClickEvent(2)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10058" name="Menu Btn - 2">
+        <xdr:cNvPr id="8" name="Menu Btn - 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99137D08-314A-D603-F330-25FC8DAD53C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B939E051-57EC-9A2C-7F9C-FA091433CBC6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3658,13 +1246,11 @@
         <a:solidFill>
           <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700">
           <a:solidFill>
             <a:srgbClr val="134F69"/>
           </a:solidFill>
-          <a:prstDash val="solid"/>
         </a:ln>
-        <a:effectLst/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -3716,10 +1302,10 @@
     </xdr:to>
     <xdr:sp macro="'ModUIMenu.ButtonClickEvent(2.1)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10059" name="Menu Btn - 2.1" hidden="1">
+        <xdr:cNvPr id="9" name="Menu Btn - 2.1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45006965-2E76-D9F2-2EE3-6CCF6872F0A3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B48B097-BECD-FDB2-22FF-0951A8ED7FEF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3734,23 +1320,13 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="D8336B"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="0" cap="flat" cmpd="sng" algn="ctr">
-          <a:noFill/>
-          <a:prstDash val="solid"/>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="134F69"/>
+          </a:solidFill>
         </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:srgbClr val="134F69"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -3776,7 +1352,7 @@
           <a:r>
             <a:rPr lang="en-GB" sz="1200" b="0">
               <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
+                <a:srgbClr val="000000"/>
               </a:solidFill>
               <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
             </a:rPr>
@@ -3802,10 +1378,10 @@
     </xdr:to>
     <xdr:sp macro="'ModUIMenu.ButtonClickEvent(2.2)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10060" name="Menu Btn - 2.2" hidden="1">
+        <xdr:cNvPr id="10" name="Menu Btn - 2.2" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5AC86CC8-D410-42E6-F0A7-C6FE82A5FA47}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DCCD0B7-0A05-84BE-E976-18BBBB1A67EA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3878,10 +1454,10 @@
     </xdr:to>
     <xdr:sp macro="'ModUIMenu.ButtonClickEvent(3)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10061" name="Menu Btn - 3">
+        <xdr:cNvPr id="11" name="Menu Btn - 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50772403-1CDD-DC71-5E3A-0668856888C2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C8D39BB-0A2E-D5F7-6C4F-604B81A89268}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3954,10 +1530,10 @@
     </xdr:to>
     <xdr:sp macro="'ModUIMenu.ButtonClickEvent(3.1)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10062" name="Menu Btn - 3.1" hidden="1">
+        <xdr:cNvPr id="12" name="Menu Btn - 3.1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D84F4C9-A171-4530-76D1-4357BEB3B122}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6BBA824-C523-9868-853E-2A40A5E8D53E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4030,10 +1606,10 @@
     </xdr:to>
     <xdr:sp macro="'ModUIMenu.ButtonClickEvent(3.2)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10063" name="Menu Btn - 3.2" hidden="1">
+        <xdr:cNvPr id="13" name="Menu Btn - 3.2" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89B246D4-1577-BE67-8367-429A7493FDDB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD5279AC-674D-E047-83CA-2C065661A92A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4106,10 +1682,10 @@
     </xdr:to>
     <xdr:sp macro="'ModUIMenu.ButtonClickEvent(3.3)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10064" name="Menu Btn - 3.3" hidden="1">
+        <xdr:cNvPr id="14" name="Menu Btn - 3.3" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F33B139-1756-4D22-36A1-CDB663336CA4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3650E7D-7F37-337E-017D-4392B4538D3C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4182,10 +1758,10 @@
     </xdr:to>
     <xdr:sp macro="'ModUIMenu.ButtonClickEvent(3.4)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10065" name="Menu Btn - 3.4" hidden="1">
+        <xdr:cNvPr id="15" name="Menu Btn - 3.4" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4A6C06B-1CD0-F3D4-4BE0-81660AE40CDD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD2E30DB-D269-01CA-9E3F-CFFCD71FAC91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4258,10 +1834,10 @@
     </xdr:to>
     <xdr:sp macro="'ModUIMenu.ButtonClickEvent(3.5)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10066" name="Menu Btn - 3.5" hidden="1">
+        <xdr:cNvPr id="16" name="Menu Btn - 3.5" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F32DEAB-F3F4-1038-0FF2-79C13AB95075}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC8C1BB9-5D7B-1D4D-32C0-11DB2256FDBF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4334,10 +1910,10 @@
     </xdr:to>
     <xdr:sp macro="'ModUIMenu.ButtonClickEvent(4)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10067" name="Menu Btn - 4">
+        <xdr:cNvPr id="17" name="Menu Btn - 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF4CBC7D-76B6-6622-29BB-028F2403254F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4189CC4B-176F-40EE-9F14-3C9A1B627D0D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4410,10 +1986,10 @@
     </xdr:to>
     <xdr:sp macro="'ModUIMenu.ButtonClickEvent(5)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10068" name="Menu Btn - 5">
+        <xdr:cNvPr id="18" name="Menu Btn - 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA39EBE7-4D80-549D-C535-FCA314854654}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04B21B73-2D1F-42A5-FF5E-9F5799A8DA93}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4486,10 +2062,10 @@
     </xdr:to>
     <xdr:sp macro="'ModUIMenu.ButtonClickEvent(6)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10069" name="Menu Btn - 6">
+        <xdr:cNvPr id="19" name="Menu Btn - 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA081E3B-0494-3A76-069B-0D01BDF5254E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{899CE92E-DD66-1BE2-2B4A-BAABE1C0C5D5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4562,10 +2138,10 @@
     </xdr:to>
     <xdr:sp macro="'ModUIMenu.ButtonClickEvent(6.1)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10070" name="Menu Btn - 6.1" hidden="1">
+        <xdr:cNvPr id="20" name="Menu Btn - 6.1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{190BACA0-532F-6D6E-E8DE-724E68384BC3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C32DD71C-798E-EBD2-3CA2-541882B61346}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4638,10 +2214,10 @@
     </xdr:to>
     <xdr:sp macro="'ModUIMenu.ButtonClickEvent(6.2)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10071" name="Menu Btn - 6.2" hidden="1">
+        <xdr:cNvPr id="21" name="Menu Btn - 6.2" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CCFAF65-7BAA-58BC-0F10-FED599C3B89A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C96520A-B2F5-7651-3D0E-EC4A5200C765}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4714,10 +2290,10 @@
     </xdr:to>
     <xdr:sp macro="'ModUIMenu.ButtonClickEvent(6.3)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10072" name="Menu Btn - 6.3" hidden="1">
+        <xdr:cNvPr id="22" name="Menu Btn - 6.3" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{051ACB86-248C-F0E0-A2F7-8ACAA656905C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2467C6F-B0F2-1277-3171-3F31323EB499}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4790,10 +2366,10 @@
     </xdr:to>
     <xdr:sp macro="'ModUIMenu.ButtonClickEvent(6.4)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10073" name="Menu Btn - 6.4" hidden="1">
+        <xdr:cNvPr id="23" name="Menu Btn - 6.4" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCB4C3AF-3EA0-468B-EDBB-9573A9CDE65C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9D22446-AF1A-A2C5-2763-313F4376B55F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4866,10 +2442,10 @@
     </xdr:to>
     <xdr:sp macro="'ModUIMenu.ButtonClickEvent(6.5)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10074" name="Menu Btn - 6.5" hidden="1">
+        <xdr:cNvPr id="24" name="Menu Btn - 6.5" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C3FA258-49B9-470E-D382-0A70DB6F1D7B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49D08393-5A73-D974-B8C4-6D0D7E025512}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4942,10 +2518,10 @@
     </xdr:to>
     <xdr:sp macro="'ModUIMenu.ButtonClickEvent(6.6)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10075" name="Menu Btn - 6.6" hidden="1">
+        <xdr:cNvPr id="25" name="Menu Btn - 6.6" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D0CEC81-7CCB-23AA-E027-6A3568A7489F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71436F4B-CECE-60F0-262B-27DC9EF0D093}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5018,10 +2594,10 @@
     </xdr:to>
     <xdr:sp macro="'ModUIMenu.ButtonClickEvent(6.7)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10076" name="Menu Btn - 6.7" hidden="1">
+        <xdr:cNvPr id="26" name="Menu Btn - 6.7" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC830120-7E15-B6CD-84A8-6EDD7D2F5D6B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E011E7DA-E03D-D79F-3F47-2DF91A5A47E8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5094,10 +2670,10 @@
     </xdr:to>
     <xdr:sp macro="'ModUIMenu.ButtonClickEvent(7)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10077" name="Menu Btn - 7">
+        <xdr:cNvPr id="27" name="Menu Btn - 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58C53F4F-7937-519A-0A68-64BC9482B918}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DCC62EA-A74C-3981-9DBA-AEE1C726BCC1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5727,8 +3303,8 @@
   <sheetPr codeName="ShtMain"/>
   <dimension ref="B2:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5746,7 +3322,6 @@
     </row>
     <row r="15" spans="2:2" ht="14.25" customHeight="1"/>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="LIxcXN9cfsxSeBRXsakILRqyLNnQ4yqDq9nbajkEdD2X2LtDKan9zPRC3il9WupbRHh65Y+mKtbRSdZnU2i/8Q==" saltValue="kIq0vMxHoqjzIgrScPeiCg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <dataConsolidate/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -5757,10 +3332,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAF5DD8E-1975-411A-A399-0A0AA8DBB752}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="B1:C11"/>
+  <dimension ref="B1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5774,47 +3349,47 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="2" spans="2:3">
       <c r="B2">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
-        <v>164</v>
+      <c r="C2" s="7" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="3" spans="2:3">
       <c r="B3">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>163</v>
+        <v>2</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="4" spans="2:3">
       <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>169</v>
+        <v>2</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="5" spans="2:3">
       <c r="B5">
         <v>2</v>
       </c>
-      <c r="C5" t="s">
-        <v>168</v>
+      <c r="C5" s="7" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="6" spans="2:3">
       <c r="B6">
         <v>2</v>
       </c>
-      <c r="C6" t="s">
-        <v>171</v>
+      <c r="C6" s="7" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="7" spans="2:3">
@@ -5822,23 +3397,23 @@
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
     </row>
     <row r="8" spans="2:3">
       <c r="B8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="9" spans="2:3">
       <c r="B9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="10" spans="2:3">
@@ -5854,12 +3429,60 @@
         <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>170</v>
+        <v>167</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3">
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3">
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3">
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3">
+      <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3">
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3">
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17" t="s">
+        <v>179</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B1:C11">
-    <sortCondition ref="C1:C11"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B1:C15">
+    <sortCondition ref="B2:B15"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/CBS Workflow.xlsx
+++ b/CBS Workflow.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/50f47e56877e2071/Documents/Development Areas/CBS Workflow/Library/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1FA8F4B4-1F2D-4725-9240-AF710A235788}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C2E58593-38DA-4889-A1FD-F095044F0591}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="39615" yWindow="4590" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -543,9 +543,6 @@
     <t>restructure Class Hierarchy</t>
   </si>
   <si>
-    <t>Add RAG Colours</t>
-  </si>
-  <si>
     <t>Redesign for Project with multiple lender workflows</t>
   </si>
   <si>
@@ -577,6 +574,9 @@
   </si>
   <si>
     <t>For Action Projects</t>
+  </si>
+  <si>
+    <t>Reformat forms</t>
   </si>
 </sst>
 </file>
@@ -724,56 +724,6 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>42</xdr:col>
-      <xdr:colOff>558800</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4829" name="TEMPLATE - Logo" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DD60F29-BC8A-CD9F-F23B-AD9C56698867}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="24117300" y="2276475"/>
-          <a:ext cx="2235200" cy="1460500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -789,10 +739,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Main Screen">
+        <xdr:cNvPr id="6407" name="Main Screen">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B5AD977-B84B-8B91-B5D9-658F1058E114}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F87A184-F8F8-7F53-08FA-17FB38796995}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -866,6 +816,56 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>558800</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4829" name="TEMPLATE - Logo" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DD60F29-BC8A-CD9F-F23B-AD9C56698867}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="24117300" y="2276475"/>
+          <a:ext cx="2235200" cy="1460500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -881,10 +881,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Rectangle 2" hidden="1">
+        <xdr:cNvPr id="6410" name="Rectangle 6409">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3CDC5D79-5BD7-1C18-74BB-FA7F51B585FA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{082E77AF-4C4A-2BE6-B5F0-9745DE471C42}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -928,6 +928,3343 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6434" name="Main Frame">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD09549C-A783-AC9C-1372-C4AA318F206F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2159000" y="1143000"/>
+          <a:ext cx="8890000" cy="4572000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cap="flat" cmpd="sng" algn="ctr">
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="63500" dist="37357" dir="2700000" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100" b="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface=""/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6433" name="Main Frame Header">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F225FC07-0D95-825B-C93C-47BE79BF11FC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2159000" y="1143000"/>
+          <a:ext cx="8890000" cy="317500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="D8336B"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="D8336B"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cap="flat" cmpd="sng" algn="ctr">
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1200" b="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>CRM - Clients</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIButtons.ProcessBtnClicks(&quot;11:1&quot;)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6438" name="0-0">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B65C1B3-EE05-02E6-D190-060E661A1CEE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2159000" y="1460500"/>
+          <a:ext cx="1270000" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="134F69"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="134F69"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Client No</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIButtons.ProcessBtnClicks(&quot;11:1&quot;)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6439" name="1-0">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87D8EF20-C5DA-4DFB-0C4A-D58ECDDE1298}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3429000" y="1460500"/>
+          <a:ext cx="3175000" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="134F69"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="134F69"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Client Name</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIButtons.ProcessBtnClicks(&quot;11:1&quot;)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6440" name="2-0">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9560D3C-865D-C64D-4F5D-F3EBF45C380F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6604000" y="1460500"/>
+          <a:ext cx="1905000" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="134F69"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="134F69"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Phone No</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIButtons.ProcessBtnClicks(&quot;11:1&quot;)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6441" name="3-0">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73C52D08-828F-5D31-5CDD-593C60AD2276}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8509000" y="1460500"/>
+          <a:ext cx="2540000" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="134F69"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="134F69"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Url</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIButtons.ProcessBtnClicks(&quot;11:1&quot;)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6442" name="0-1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6E9636D-74BF-AED2-F5A7-C5062D507236}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2159000" y="1714500"/>
+          <a:ext cx="1270000" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="0">
+              <a:solidFill>
+                <a:srgbClr val="434343"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIButtons.ProcessBtnClicks(&quot;11:1&quot;)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6443" name="1-1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A3CD3D4-E811-A24B-7A2D-2DEDD0DCAEAE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3429000" y="1714500"/>
+          <a:ext cx="3175000" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="0">
+              <a:solidFill>
+                <a:srgbClr val="434343"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Sainsburys</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIButtons.ProcessBtnClicks(&quot;11:1&quot;)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6444" name="2-1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{802DC52B-B91D-42EF-E461-4A6A5B7040B8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6604000" y="1714500"/>
+          <a:ext cx="1905000" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="0">
+              <a:solidFill>
+                <a:srgbClr val="434343"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>01345 6745434</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIButtons.ProcessBtnClicks(&quot;11:1&quot;)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6445" name="3-1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F94DAAF8-EAAE-CEB9-4927-D4901ECA9EA0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8509000" y="1714500"/>
+          <a:ext cx="2540000" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="0">
+              <a:solidFill>
+                <a:srgbClr val="434343"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>www.sainsburys.co.uk</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIButtons.ProcessBtnClicks(&quot;11:2&quot;)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6446" name="0-2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70AA3AB4-A47E-54E9-17E4-DA05A44EB9E7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2159000" y="1968500"/>
+          <a:ext cx="1270000" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="0">
+              <a:solidFill>
+                <a:srgbClr val="434343"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIButtons.ProcessBtnClicks(&quot;11:2&quot;)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6447" name="1-2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{308C621B-32CF-C1F9-26D2-77355404F399}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3429000" y="1968500"/>
+          <a:ext cx="3175000" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="0">
+              <a:solidFill>
+                <a:srgbClr val="434343"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Browns Ltd</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIButtons.ProcessBtnClicks(&quot;11:2&quot;)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6448" name="2-2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10D0241B-DC25-292C-A12D-8E94122736E2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6604000" y="1968500"/>
+          <a:ext cx="1905000" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-GB" sz="1000" b="0">
+            <a:solidFill>
+              <a:srgbClr val="434343"/>
+            </a:solidFill>
+            <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIButtons.ProcessBtnClicks(&quot;11:2&quot;)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6449" name="3-2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E9EECE3-8E2C-CD9A-CE1B-5DCA7728C6CF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8509000" y="1968500"/>
+          <a:ext cx="2540000" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-GB" sz="1000" b="0">
+            <a:solidFill>
+              <a:srgbClr val="434343"/>
+            </a:solidFill>
+            <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIButtons.ProcessBtnClicks(&quot;11:3&quot;)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6450" name="0-3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF7D834C-A751-6A0A-D429-449C78F19690}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2159000" y="2222500"/>
+          <a:ext cx="1270000" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="0">
+              <a:solidFill>
+                <a:srgbClr val="434343"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>3</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIButtons.ProcessBtnClicks(&quot;11:3&quot;)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6451" name="1-3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A2884D9-746A-C997-0D4A-21EB8F029D1B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3429000" y="2222500"/>
+          <a:ext cx="3175000" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="0">
+              <a:solidFill>
+                <a:srgbClr val="434343"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Dell</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIButtons.ProcessBtnClicks(&quot;11:3&quot;)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6452" name="2-3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDE2BEAD-62DD-BEB1-690B-B8895ACD5423}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6604000" y="2222500"/>
+          <a:ext cx="1905000" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-GB" sz="1000" b="0">
+            <a:solidFill>
+              <a:srgbClr val="434343"/>
+            </a:solidFill>
+            <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIButtons.ProcessBtnClicks(&quot;11:3&quot;)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6453" name="3-3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47AFE50D-D198-6186-D2FE-C41C82F078A2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8509000" y="2222500"/>
+          <a:ext cx="2540000" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-GB" sz="1000" b="0">
+            <a:solidFill>
+              <a:srgbClr val="434343"/>
+            </a:solidFill>
+            <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIButtons.ProcessBtnClicks(&quot;11:4&quot;)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6454" name="0-4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D38620D-FFEA-BDEE-F814-13938B4AF6BF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2159000" y="2476500"/>
+          <a:ext cx="1270000" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="0">
+              <a:solidFill>
+                <a:srgbClr val="434343"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>4</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIButtons.ProcessBtnClicks(&quot;11:4&quot;)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6455" name="1-4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E897147E-5B0B-61DE-2E51-F27381E7E4EC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3429000" y="2476500"/>
+          <a:ext cx="3175000" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="0">
+              <a:solidFill>
+                <a:srgbClr val="434343"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Dexys Chicken</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIButtons.ProcessBtnClicks(&quot;11:4&quot;)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6456" name="2-4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25A72938-F185-8EA1-F345-A32F9D809F63}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6604000" y="2476500"/>
+          <a:ext cx="1905000" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-GB" sz="1000" b="0">
+            <a:solidFill>
+              <a:srgbClr val="434343"/>
+            </a:solidFill>
+            <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIButtons.ProcessBtnClicks(&quot;11:4&quot;)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6457" name="3-4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDA99E47-7D75-B130-F583-F95D9D99C63B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8509000" y="2476500"/>
+          <a:ext cx="2540000" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-GB" sz="1000" b="0">
+            <a:solidFill>
+              <a:srgbClr val="434343"/>
+            </a:solidFill>
+            <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>136525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIButtons.ProcessBtnClicks(&quot;11:5&quot;)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6458" name="0-5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B078097-8E90-3B80-B61F-49E2DA550CB1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2159000" y="2730500"/>
+          <a:ext cx="1270000" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="0">
+              <a:solidFill>
+                <a:srgbClr val="434343"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>5</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>136525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIButtons.ProcessBtnClicks(&quot;11:5&quot;)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6459" name="1-5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0EAB65B2-626B-7AB8-EF55-B4367CF37011}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3429000" y="2730500"/>
+          <a:ext cx="3175000" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="0">
+              <a:solidFill>
+                <a:srgbClr val="434343"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Fredericks</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>136525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIButtons.ProcessBtnClicks(&quot;11:5&quot;)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6460" name="2-5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6976A957-27A7-FC9B-FA42-D3CB5F352A34}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6604000" y="2730500"/>
+          <a:ext cx="1905000" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="0">
+              <a:solidFill>
+                <a:srgbClr val="434343"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>01243 45445</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>136525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIButtons.ProcessBtnClicks(&quot;11:5&quot;)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6461" name="3-5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96E0FCD2-4612-ACEC-6796-D1631DD747C5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8509000" y="2730500"/>
+          <a:ext cx="2540000" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="0">
+              <a:solidFill>
+                <a:srgbClr val="434343"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>www.Fred.co.uk</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>136525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIButtons.ProcessBtnClicks(&quot;11:6&quot;)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6462" name="0-6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9D6F437-CC22-D7E9-D8EB-F220C5ACE4F8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2159000" y="2984500"/>
+          <a:ext cx="1270000" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="0">
+              <a:solidFill>
+                <a:srgbClr val="434343"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>6</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>136525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIButtons.ProcessBtnClicks(&quot;11:6&quot;)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6463" name="1-6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0054D425-DA42-9B20-2C2F-C42100E58C86}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3429000" y="2984500"/>
+          <a:ext cx="3175000" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="0">
+              <a:solidFill>
+                <a:srgbClr val="434343"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Deeds</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>136525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIButtons.ProcessBtnClicks(&quot;11:6&quot;)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6464" name="2-6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5E9BB0D-EDCA-8492-B645-C9316BDDCE31}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6604000" y="2984500"/>
+          <a:ext cx="1905000" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="0">
+              <a:solidFill>
+                <a:srgbClr val="434343"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>023 24324</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>136525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIButtons.ProcessBtnClicks(&quot;11:6&quot;)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6465" name="3-6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3ED78FD-B87B-058D-B069-45B7E4813A26}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8509000" y="2984500"/>
+          <a:ext cx="2540000" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="0">
+              <a:solidFill>
+                <a:srgbClr val="434343"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>www.deed.co.uk</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>73025</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIButtons.ProcessBtnClicks(&quot;11:8&quot;)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6466" name="0-7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81A76DD9-8240-5CD5-BBF8-051256AABE47}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2159000" y="3238500"/>
+          <a:ext cx="1270000" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="0">
+              <a:solidFill>
+                <a:srgbClr val="434343"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>8</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>73025</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIButtons.ProcessBtnClicks(&quot;11:8&quot;)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6467" name="1-7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCB24A7D-4297-D2BA-64DA-07B9056D7481}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3429000" y="3238500"/>
+          <a:ext cx="3175000" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="0">
+              <a:solidFill>
+                <a:srgbClr val="434343"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Tesco</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>73025</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIButtons.ProcessBtnClicks(&quot;11:8&quot;)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6468" name="2-7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A80BB18-4160-1651-9F98-60662044AE4D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6604000" y="3238500"/>
+          <a:ext cx="1905000" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="0">
+              <a:solidFill>
+                <a:srgbClr val="434343"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>080 45874</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>73025</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIButtons.ProcessBtnClicks(&quot;11:8&quot;)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6469" name="3-7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E72595D-6AD6-D6E8-C291-CE76C1995967}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8509000" y="3238500"/>
+          <a:ext cx="2540000" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="0">
+              <a:solidFill>
+                <a:srgbClr val="434343"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>www.tesco.co.uk</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6436" name="Button Frame" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FAEDE2B-114C-2FE1-B53D-A14D2746B676}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7810500" y="63500"/>
+          <a:ext cx="3492500" cy="762000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cap="flat" cmpd="sng" algn="ctr">
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="63500" dist="37357" dir="2700000" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100" b="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface=""/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6435" name="Rectangle 6434" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3BB68314-5C88-3FAA-DB3B-151B705FCEB8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="127000" cy="127000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIButtons.ProcessBtnClicks(12)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6437" name="BtnMain1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9EB3031-9E90-5D14-176C-2177ED093E22}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9779000" y="317500"/>
+          <a:ext cx="1270000" cy="508000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="134F69"/>
+        </a:solidFill>
+        <a:ln w="0" cap="flat" cmpd="sng" algn="ctr">
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="63500" dist="37357" dir="2700000" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1200" b="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>New Client</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
@@ -941,10 +4278,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="MenuBar">
+        <xdr:cNvPr id="6409" name="MenuBar">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32549685-A6CA-6830-A905-C34D15391D36}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C5D2CA6-2A2B-1AD7-6EC3-90B980E63490}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1030,10 +4367,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Rectangle 4">
+        <xdr:cNvPr id="6408" name="Rectangle 6407" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09BCF574-E4CF-7B71-BF44-00756D7B14CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27B18C49-AEB9-2143-76C6-7CA03A3CFCB4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1090,10 +4427,10 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Logo">
+        <xdr:cNvPr id="6411" name="Logo">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39F18D25-CC45-70C8-5BA6-A29F408AD6DF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7BAB04E5-4F62-FEDB-1421-EB6148925E1D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1140,10 +4477,10 @@
     </xdr:to>
     <xdr:sp macro="'ModUIMenu.ButtonClickEvent(1)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="Menu Btn - 1">
+        <xdr:cNvPr id="6412" name="Menu Btn - 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{624E4E72-4118-1568-408D-DA0A066C098E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF8B73B1-9A62-1F60-E93A-1A69FA9D3B4E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1226,10 +4563,10 @@
     </xdr:to>
     <xdr:sp macro="'ModUIMenu.ButtonClickEvent(2)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="Menu Btn - 2">
+        <xdr:cNvPr id="6413" name="Menu Btn - 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B939E051-57EC-9A2C-7F9C-FA091433CBC6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9551C88-59EA-A035-F21E-E04AEEE425CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1302,10 +4639,10 @@
     </xdr:to>
     <xdr:sp macro="'ModUIMenu.ButtonClickEvent(2.1)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="Menu Btn - 2.1" hidden="1">
+        <xdr:cNvPr id="6414" name="Menu Btn - 2.1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B48B097-BECD-FDB2-22FF-0951A8ED7FEF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4194EA05-3670-0B5C-DAE2-E5BBFF78BCE5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1378,10 +4715,10 @@
     </xdr:to>
     <xdr:sp macro="'ModUIMenu.ButtonClickEvent(2.2)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="Menu Btn - 2.2" hidden="1">
+        <xdr:cNvPr id="6415" name="Menu Btn - 2.2" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DCCD0B7-0A05-84BE-E976-18BBBB1A67EA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F78DA137-C01F-9834-1191-37729726DDC7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1454,10 +4791,10 @@
     </xdr:to>
     <xdr:sp macro="'ModUIMenu.ButtonClickEvent(3)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="Menu Btn - 3">
+        <xdr:cNvPr id="6416" name="Menu Btn - 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C8D39BB-0A2E-D5F7-6C4F-604B81A89268}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{144DC6DE-48F7-5AF2-5AF7-2FD492D64182}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1530,10 +4867,10 @@
     </xdr:to>
     <xdr:sp macro="'ModUIMenu.ButtonClickEvent(3.1)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="Menu Btn - 3.1" hidden="1">
+        <xdr:cNvPr id="6417" name="Menu Btn - 3.1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6BBA824-C523-9868-853E-2A40A5E8D53E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32389461-EFC2-54AA-02AC-24CA5F3DF5E2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1606,10 +4943,10 @@
     </xdr:to>
     <xdr:sp macro="'ModUIMenu.ButtonClickEvent(3.2)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="Menu Btn - 3.2" hidden="1">
+        <xdr:cNvPr id="6418" name="Menu Btn - 3.2" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD5279AC-674D-E047-83CA-2C065661A92A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{363A29D4-6F3E-6957-A731-0620DA58B156}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1682,10 +5019,10 @@
     </xdr:to>
     <xdr:sp macro="'ModUIMenu.ButtonClickEvent(3.3)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="Menu Btn - 3.3" hidden="1">
+        <xdr:cNvPr id="6419" name="Menu Btn - 3.3" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3650E7D-7F37-337E-017D-4392B4538D3C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55062EA7-7853-065E-E4B5-4E40515E1050}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1758,10 +5095,10 @@
     </xdr:to>
     <xdr:sp macro="'ModUIMenu.ButtonClickEvent(3.4)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="Menu Btn - 3.4" hidden="1">
+        <xdr:cNvPr id="6420" name="Menu Btn - 3.4" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD2E30DB-D269-01CA-9E3F-CFFCD71FAC91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97B4B27B-1CFB-2621-13D4-F88A1EB9972F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1834,10 +5171,10 @@
     </xdr:to>
     <xdr:sp macro="'ModUIMenu.ButtonClickEvent(3.5)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="Menu Btn - 3.5" hidden="1">
+        <xdr:cNvPr id="6421" name="Menu Btn - 3.5" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC8C1BB9-5D7B-1D4D-32C0-11DB2256FDBF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB5B8DEA-B510-B1FE-CAE3-2C4A8D77FDC6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1910,10 +5247,10 @@
     </xdr:to>
     <xdr:sp macro="'ModUIMenu.ButtonClickEvent(4)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="Menu Btn - 4">
+        <xdr:cNvPr id="6422" name="Menu Btn - 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4189CC4B-176F-40EE-9F14-3C9A1B627D0D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0E969C2-8073-BEAD-CB36-2FF36912A3BA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1986,10 +5323,10 @@
     </xdr:to>
     <xdr:sp macro="'ModUIMenu.ButtonClickEvent(5)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="Menu Btn - 5">
+        <xdr:cNvPr id="6423" name="Menu Btn - 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04B21B73-2D1F-42A5-FF5E-9F5799A8DA93}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{542ED2E1-03E6-9E5E-0C5F-120F6682ED1E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2062,10 +5399,10 @@
     </xdr:to>
     <xdr:sp macro="'ModUIMenu.ButtonClickEvent(6)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="Menu Btn - 6">
+        <xdr:cNvPr id="6424" name="Menu Btn - 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{899CE92E-DD66-1BE2-2B4A-BAABE1C0C5D5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F99E44DC-A5D5-1652-75C7-EE0A938234D2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2138,10 +5475,10 @@
     </xdr:to>
     <xdr:sp macro="'ModUIMenu.ButtonClickEvent(6.1)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="Menu Btn - 6.1" hidden="1">
+        <xdr:cNvPr id="6425" name="Menu Btn - 6.1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C32DD71C-798E-EBD2-3CA2-541882B61346}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2267F925-3F12-8938-45A0-60D0F17D9DDB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2214,10 +5551,10 @@
     </xdr:to>
     <xdr:sp macro="'ModUIMenu.ButtonClickEvent(6.2)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="Menu Btn - 6.2" hidden="1">
+        <xdr:cNvPr id="6426" name="Menu Btn - 6.2" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C96520A-B2F5-7651-3D0E-EC4A5200C765}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00FCF287-DDBA-4EF2-32A5-572F41799B60}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2290,10 +5627,10 @@
     </xdr:to>
     <xdr:sp macro="'ModUIMenu.ButtonClickEvent(6.3)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="Menu Btn - 6.3" hidden="1">
+        <xdr:cNvPr id="6427" name="Menu Btn - 6.3" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2467C6F-B0F2-1277-3171-3F31323EB499}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93CD2D4B-5D41-D766-86B3-21CEE1A42487}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2366,10 +5703,10 @@
     </xdr:to>
     <xdr:sp macro="'ModUIMenu.ButtonClickEvent(6.4)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="Menu Btn - 6.4" hidden="1">
+        <xdr:cNvPr id="6428" name="Menu Btn - 6.4" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9D22446-AF1A-A2C5-2763-313F4376B55F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0DC642E-A29D-05F8-7C91-32F2C7551788}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2442,10 +5779,10 @@
     </xdr:to>
     <xdr:sp macro="'ModUIMenu.ButtonClickEvent(6.5)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="Menu Btn - 6.5" hidden="1">
+        <xdr:cNvPr id="6429" name="Menu Btn - 6.5" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49D08393-5A73-D974-B8C4-6D0D7E025512}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A7EA4B8-1AA3-BD60-E3AD-D02FF4BEDFEC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2518,10 +5855,10 @@
     </xdr:to>
     <xdr:sp macro="'ModUIMenu.ButtonClickEvent(6.6)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="25" name="Menu Btn - 6.6" hidden="1">
+        <xdr:cNvPr id="6430" name="Menu Btn - 6.6" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71436F4B-CECE-60F0-262B-27DC9EF0D093}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44B12A01-8566-4DAA-D0FD-F65FF2928208}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2594,10 +5931,10 @@
     </xdr:to>
     <xdr:sp macro="'ModUIMenu.ButtonClickEvent(6.7)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="26" name="Menu Btn - 6.7" hidden="1">
+        <xdr:cNvPr id="6431" name="Menu Btn - 6.7" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E011E7DA-E03D-D79F-3F47-2DF91A5A47E8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4346C303-3FCF-0C09-1173-435D6ED277D2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2670,10 +6007,10 @@
     </xdr:to>
     <xdr:sp macro="'ModUIMenu.ButtonClickEvent(7)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="27" name="Menu Btn - 7">
+        <xdr:cNvPr id="6432" name="Menu Btn - 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DCC62EA-A74C-3981-9DBA-AEE1C726BCC1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{610129B0-D0BA-3B36-6C80-591B6619CA0B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3303,7 +6640,7 @@
   <sheetPr codeName="ShtMain"/>
   <dimension ref="B2:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
@@ -3335,20 +6672,20 @@
   <dimension ref="B1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:3">
       <c r="B1">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="7" t="s">
         <v>168</v>
       </c>
     </row>
@@ -3373,7 +6710,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5" spans="2:3">
@@ -3388,7 +6725,7 @@
       <c r="B6">
         <v>2</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" t="s">
         <v>174</v>
       </c>
     </row>
@@ -3402,10 +6739,10 @@
     </row>
     <row r="8" spans="2:3">
       <c r="B8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
     </row>
     <row r="9" spans="2:3">
@@ -3413,7 +6750,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="10" spans="2:3">
@@ -3421,7 +6758,7 @@
         <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="11" spans="2:3">
@@ -3429,7 +6766,7 @@
         <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="12" spans="2:3">
@@ -3437,23 +6774,23 @@
         <v>3</v>
       </c>
       <c r="C12" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="13" spans="2:3">
       <c r="B13">
         <v>3</v>
       </c>
-      <c r="C13" t="s">
-        <v>166</v>
+      <c r="C13" s="7" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="14" spans="2:3">
       <c r="B14">
         <v>3</v>
       </c>
-      <c r="C14" s="7" t="s">
-        <v>172</v>
+      <c r="C14" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="15" spans="2:3">
@@ -3481,8 +6818,8 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B1:C15">
-    <sortCondition ref="B2:B15"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B1:C14">
+    <sortCondition ref="B1:B14"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/CBS Workflow.xlsx
+++ b/CBS Workflow.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/50f47e56877e2071/Documents/Development Areas/CBS Workflow/Library/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C2E58593-38DA-4889-A1FD-F095044F0591}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E28F420A-08CB-48A1-9C56-089699E90568}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39615" yWindow="4590" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="28410" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="6" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="183">
   <si>
     <t>WorkflowNo</t>
   </si>
@@ -577,6 +577,15 @@
   </si>
   <si>
     <t>Reformat forms</t>
+  </si>
+  <si>
+    <t>Create new Workflow button on client form</t>
+  </si>
+  <si>
+    <t>Create master Client form</t>
+  </si>
+  <si>
+    <t>Add children to parent forms</t>
   </si>
 </sst>
 </file>
@@ -739,10 +748,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6407" name="Main Screen">
+        <xdr:cNvPr id="11163" name="Main Screen">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F87A184-F8F8-7F53-08FA-17FB38796995}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{108D2807-E454-B348-E5DD-D30AE8F9D884}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -881,10 +890,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6410" name="Rectangle 6409">
+        <xdr:cNvPr id="11166" name="Rectangle 11165">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{082E77AF-4C4A-2BE6-B5F0-9745DE471C42}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A527796-D028-A5CA-62CC-7C08C57256F3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -941,10 +950,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6434" name="Main Frame">
+        <xdr:cNvPr id="11235" name="Main Frame">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD09549C-A783-AC9C-1372-C4AA318F206F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0248F77C-4168-A5E3-2E8D-AF15B3E42CC3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1039,10 +1048,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6433" name="Main Frame Header">
+        <xdr:cNvPr id="11234" name="Main Frame Header">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F225FC07-0D95-825B-C93C-47BE79BF11FC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D23B8212-CB7E-22DB-B8EC-2245C46B7DA9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1112,7 +1121,7 @@
               </a:solidFill>
               <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>CRM - Clients</a:t>
+            <a:t>CRM - Lenders</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1132,12 +1141,12 @@
       <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIButtons.ProcessBtnClicks(&quot;11:1&quot;)'" textlink="">
+    <xdr:sp macro="'ModUIButtonHandler.ProcessBtnClicks(&quot;6:3:1&quot;)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6438" name="0-0">
+        <xdr:cNvPr id="11239" name="0-0">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B65C1B3-EE05-02E6-D190-060E661A1CEE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6A8A02B-5267-85C2-5724-4D38BA3C5054}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1203,7 +1212,7 @@
               </a:solidFill>
               <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>Client No</a:t>
+            <a:t>Lender No</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1218,17 +1227,17 @@
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>317500</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>292100</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIButtons.ProcessBtnClicks(&quot;11:1&quot;)'" textlink="">
+    <xdr:sp macro="'ModUIButtonHandler.ProcessBtnClicks(&quot;6:3:1&quot;)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6439" name="1-0">
+        <xdr:cNvPr id="11240" name="1-0">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87D8EF20-C5DA-4DFB-0C4A-D58ECDDE1298}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0386EAB-61C2-43ED-DA50-925FE3C09603}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1237,7 +1246,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3429000" y="1460500"/>
-          <a:ext cx="3175000" cy="254000"/>
+          <a:ext cx="2540000" cy="254000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1294,7 +1303,7 @@
               </a:solidFill>
               <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>Client Name</a:t>
+            <a:t>Name</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1303,23 +1312,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>317500</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>292100</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>393700</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIButtons.ProcessBtnClicks(&quot;11:1&quot;)'" textlink="">
+    <xdr:sp macro="'ModUIButtonHandler.ProcessBtnClicks(&quot;6:3:1&quot;)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6440" name="2-0">
+        <xdr:cNvPr id="11241" name="2-0">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9560D3C-865D-C64D-4F5D-F3EBF45C380F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{546DDC9C-BD0B-D460-E61A-A5149C2BABC5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1327,8 +1336,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6604000" y="1460500"/>
-          <a:ext cx="1905000" cy="254000"/>
+          <a:off x="5969000" y="1460500"/>
+          <a:ext cx="1270000" cy="254000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1394,6 +1403,97 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIButtonHandler.ProcessBtnClicks(&quot;6:3:1&quot;)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11242" name="3-0">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B363101-3DC5-12EB-FB18-ACE698D0DAA8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7239000" y="1460500"/>
+          <a:ext cx="1270000" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="134F69"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="134F69"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Lender Type</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>393700</xdr:colOff>
       <xdr:row>7</xdr:row>
@@ -1405,12 +1505,12 @@
       <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIButtons.ProcessBtnClicks(&quot;11:1&quot;)'" textlink="">
+    <xdr:sp macro="'ModUIButtonHandler.ProcessBtnClicks(&quot;6:3:1&quot;)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6441" name="3-0">
+        <xdr:cNvPr id="11243" name="4-0">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73C52D08-828F-5D31-5CDD-593C60AD2276}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E25D32A-D096-A731-4919-511C4006F42A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1476,7 +1576,7 @@
               </a:solidFill>
               <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>Url</a:t>
+            <a:t>Address</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1496,12 +1596,12 @@
       <xdr:row>10</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIButtons.ProcessBtnClicks(&quot;11:1&quot;)'" textlink="">
+    <xdr:sp macro="'ModUIButtonHandler.ProcessBtnClicks(&quot;6:3:1&quot;)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6442" name="0-1">
+        <xdr:cNvPr id="11244" name="0-1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6E9636D-74BF-AED2-F5A7-C5062D507236}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0AF722D-692C-DBD5-AAE4-F6215D7FA56F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1582,17 +1682,17 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>317500</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>292100</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIButtons.ProcessBtnClicks(&quot;11:1&quot;)'" textlink="">
+    <xdr:sp macro="'ModUIButtonHandler.ProcessBtnClicks(&quot;6:3:1&quot;)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6443" name="1-1">
+        <xdr:cNvPr id="11245" name="1-1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A3CD3D4-E811-A24B-7A2D-2DEDD0DCAEAE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88C4A665-EC9B-BC1F-0B39-D907AF690902}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1601,188 +1701,6 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3429000" y="1714500"/>
-          <a:ext cx="3175000" cy="254000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
-        <a:ln w="0" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1000" b="0">
-              <a:solidFill>
-                <a:srgbClr val="434343"/>
-              </a:solidFill>
-              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>Sainsburys</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>317500</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>393700</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="'ModUIButtons.ProcessBtnClicks(&quot;11:1&quot;)'" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6444" name="2-1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{802DC52B-B91D-42EF-E461-4A6A5B7040B8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6604000" y="1714500"/>
-          <a:ext cx="1905000" cy="254000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
-        <a:ln w="0" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1000" b="0">
-              <a:solidFill>
-                <a:srgbClr val="434343"/>
-              </a:solidFill>
-              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>01345 6745434</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>393700</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="'ModUIButtons.ProcessBtnClicks(&quot;11:1&quot;)'" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6445" name="3-1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F94DAAF8-EAAE-CEB9-4927-D4901ECA9EA0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8509000" y="1714500"/>
           <a:ext cx="2540000" cy="254000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1840,7 +1758,7 @@
               </a:solidFill>
               <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>www.sainsburys.co.uk</a:t>
+            <a:t>Barclays Bank</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1849,23 +1767,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>330200</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>292100</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIButtons.ProcessBtnClicks(&quot;11:2&quot;)'" textlink="">
+    <xdr:sp macro="'ModUIButtonHandler.ProcessBtnClicks(&quot;6:3:1&quot;)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6446" name="0-2">
+        <xdr:cNvPr id="11246" name="2-1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70AA3AB4-A47E-54E9-17E4-DA05A44EB9E7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2E4FC91-5AF9-1F8A-DA7C-4823F50C48DC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1873,7 +1791,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2159000" y="1968500"/>
+          <a:off x="5969000" y="1714500"/>
           <a:ext cx="1270000" cy="254000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1931,7 +1849,7 @@
               </a:solidFill>
               <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>2</a:t>
+            <a:t>0125 564654</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1940,23 +1858,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>317500</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIButtons.ProcessBtnClicks(&quot;11:2&quot;)'" textlink="">
+    <xdr:sp macro="'ModUIButtonHandler.ProcessBtnClicks(&quot;6:3:1&quot;)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6447" name="1-2">
+        <xdr:cNvPr id="11247" name="3-1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{308C621B-32CF-C1F9-26D2-77355404F399}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1865DFCC-916F-8ADA-23C6-12FA8D77E1DD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1964,99 +1882,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3429000" y="1968500"/>
-          <a:ext cx="3175000" cy="254000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
-        <a:ln w="0" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1000" b="0">
-              <a:solidFill>
-                <a:srgbClr val="434343"/>
-              </a:solidFill>
-              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>Browns Ltd</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>317500</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>393700</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="'ModUIButtons.ProcessBtnClicks(&quot;11:2&quot;)'" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6448" name="2-2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10D0241B-DC25-292C-A12D-8E94122736E2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6604000" y="1968500"/>
-          <a:ext cx="1905000" cy="254000"/>
+          <a:off x="7239000" y="1714500"/>
+          <a:ext cx="1270000" cy="254000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2121,21 +1948,21 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>393700</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIButtons.ProcessBtnClicks(&quot;11:2&quot;)'" textlink="">
+    <xdr:sp macro="'ModUIButtonHandler.ProcessBtnClicks(&quot;6:3:1&quot;)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6449" name="3-2">
+        <xdr:cNvPr id="11248" name="4-1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E9EECE3-8E2C-CD9A-CE1B-5DCA7728C6CF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18D9584D-65ED-B59F-3CA1-D72B252D1DC7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2143,7 +1970,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8509000" y="1968500"/>
+          <a:off x="8509000" y="1714500"/>
           <a:ext cx="2540000" cy="254000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2207,1814 +2034,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>330200</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="'ModUIButtons.ProcessBtnClicks(&quot;11:3&quot;)'" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6450" name="0-3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF7D834C-A751-6A0A-D429-449C78F19690}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2159000" y="2222500"/>
-          <a:ext cx="1270000" cy="254000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
-        <a:ln w="0" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1000" b="0">
-              <a:solidFill>
-                <a:srgbClr val="434343"/>
-              </a:solidFill>
-              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>3</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>317500</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="'ModUIButtons.ProcessBtnClicks(&quot;11:3&quot;)'" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6451" name="1-3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A2884D9-746A-C997-0D4A-21EB8F029D1B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3429000" y="2222500"/>
-          <a:ext cx="3175000" cy="254000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
-        <a:ln w="0" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1000" b="0">
-              <a:solidFill>
-                <a:srgbClr val="434343"/>
-              </a:solidFill>
-              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>Dell</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>317500</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>393700</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="'ModUIButtons.ProcessBtnClicks(&quot;11:3&quot;)'" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6452" name="2-3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDE2BEAD-62DD-BEB1-690B-B8895ACD5423}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6604000" y="2222500"/>
-          <a:ext cx="1905000" cy="254000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
-        <a:ln w="0" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="en-GB" sz="1000" b="0">
-            <a:solidFill>
-              <a:srgbClr val="434343"/>
-            </a:solidFill>
-            <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>393700</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="'ModUIButtons.ProcessBtnClicks(&quot;11:3&quot;)'" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6453" name="3-3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47AFE50D-D198-6186-D2FE-C41C82F078A2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8509000" y="2222500"/>
-          <a:ext cx="2540000" cy="254000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
-        <a:ln w="0" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="en-GB" sz="1000" b="0">
-            <a:solidFill>
-              <a:srgbClr val="434343"/>
-            </a:solidFill>
-            <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>330200</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="'ModUIButtons.ProcessBtnClicks(&quot;11:4&quot;)'" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6454" name="0-4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D38620D-FFEA-BDEE-F814-13938B4AF6BF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2159000" y="2476500"/>
-          <a:ext cx="1270000" cy="254000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
-        <a:ln w="0" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1000" b="0">
-              <a:solidFill>
-                <a:srgbClr val="434343"/>
-              </a:solidFill>
-              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>4</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>317500</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="'ModUIButtons.ProcessBtnClicks(&quot;11:4&quot;)'" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6455" name="1-4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E897147E-5B0B-61DE-2E51-F27381E7E4EC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3429000" y="2476500"/>
-          <a:ext cx="3175000" cy="254000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
-        <a:ln w="0" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1000" b="0">
-              <a:solidFill>
-                <a:srgbClr val="434343"/>
-              </a:solidFill>
-              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>Dexys Chicken</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>317500</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>393700</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="'ModUIButtons.ProcessBtnClicks(&quot;11:4&quot;)'" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6456" name="2-4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25A72938-F185-8EA1-F345-A32F9D809F63}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6604000" y="2476500"/>
-          <a:ext cx="1905000" cy="254000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
-        <a:ln w="0" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="en-GB" sz="1000" b="0">
-            <a:solidFill>
-              <a:srgbClr val="434343"/>
-            </a:solidFill>
-            <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>393700</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="'ModUIButtons.ProcessBtnClicks(&quot;11:4&quot;)'" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6457" name="3-4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDA99E47-7D75-B130-F583-F95D9D99C63B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8509000" y="2476500"/>
-          <a:ext cx="2540000" cy="254000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
-        <a:ln w="0" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="en-GB" sz="1000" b="0">
-            <a:solidFill>
-              <a:srgbClr val="434343"/>
-            </a:solidFill>
-            <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>330200</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>136525</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="'ModUIButtons.ProcessBtnClicks(&quot;11:5&quot;)'" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6458" name="0-5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B078097-8E90-3B80-B61F-49E2DA550CB1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2159000" y="2730500"/>
-          <a:ext cx="1270000" cy="254000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
-        <a:ln w="0" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1000" b="0">
-              <a:solidFill>
-                <a:srgbClr val="434343"/>
-              </a:solidFill>
-              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>5</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>317500</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>136525</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="'ModUIButtons.ProcessBtnClicks(&quot;11:5&quot;)'" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6459" name="1-5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0EAB65B2-626B-7AB8-EF55-B4367CF37011}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3429000" y="2730500"/>
-          <a:ext cx="3175000" cy="254000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
-        <a:ln w="0" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1000" b="0">
-              <a:solidFill>
-                <a:srgbClr val="434343"/>
-              </a:solidFill>
-              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>Fredericks</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>317500</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>393700</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>136525</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="'ModUIButtons.ProcessBtnClicks(&quot;11:5&quot;)'" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6460" name="2-5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6976A957-27A7-FC9B-FA42-D3CB5F352A34}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6604000" y="2730500"/>
-          <a:ext cx="1905000" cy="254000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
-        <a:ln w="0" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1000" b="0">
-              <a:solidFill>
-                <a:srgbClr val="434343"/>
-              </a:solidFill>
-              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>01243 45445</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>393700</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>136525</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="'ModUIButtons.ProcessBtnClicks(&quot;11:5&quot;)'" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6461" name="3-5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96E0FCD2-4612-ACEC-6796-D1631DD747C5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8509000" y="2730500"/>
-          <a:ext cx="2540000" cy="254000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
-        <a:ln w="0" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1000" b="0">
-              <a:solidFill>
-                <a:srgbClr val="434343"/>
-              </a:solidFill>
-              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>www.Fred.co.uk</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>330200</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>136525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="'ModUIButtons.ProcessBtnClicks(&quot;11:6&quot;)'" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6462" name="0-6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9D6F437-CC22-D7E9-D8EB-F220C5ACE4F8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2159000" y="2984500"/>
-          <a:ext cx="1270000" cy="254000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
-        <a:ln w="0" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1000" b="0">
-              <a:solidFill>
-                <a:srgbClr val="434343"/>
-              </a:solidFill>
-              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>6</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>136525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>317500</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="'ModUIButtons.ProcessBtnClicks(&quot;11:6&quot;)'" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6463" name="1-6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0054D425-DA42-9B20-2C2F-C42100E58C86}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3429000" y="2984500"/>
-          <a:ext cx="3175000" cy="254000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
-        <a:ln w="0" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1000" b="0">
-              <a:solidFill>
-                <a:srgbClr val="434343"/>
-              </a:solidFill>
-              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>Deeds</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>317500</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>136525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>393700</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="'ModUIButtons.ProcessBtnClicks(&quot;11:6&quot;)'" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6464" name="2-6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5E9BB0D-EDCA-8492-B645-C9316BDDCE31}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6604000" y="2984500"/>
-          <a:ext cx="1905000" cy="254000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
-        <a:ln w="0" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1000" b="0">
-              <a:solidFill>
-                <a:srgbClr val="434343"/>
-              </a:solidFill>
-              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>023 24324</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>393700</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>136525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="'ModUIButtons.ProcessBtnClicks(&quot;11:6&quot;)'" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6465" name="3-6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3ED78FD-B87B-058D-B069-45B7E4813A26}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8509000" y="2984500"/>
-          <a:ext cx="2540000" cy="254000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
-        <a:ln w="0" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1000" b="0">
-              <a:solidFill>
-                <a:srgbClr val="434343"/>
-              </a:solidFill>
-              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>www.deed.co.uk</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>330200</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>73025</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="'ModUIButtons.ProcessBtnClicks(&quot;11:8&quot;)'" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6466" name="0-7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81A76DD9-8240-5CD5-BBF8-051256AABE47}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2159000" y="3238500"/>
-          <a:ext cx="1270000" cy="254000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
-        <a:ln w="0" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1000" b="0">
-              <a:solidFill>
-                <a:srgbClr val="434343"/>
-              </a:solidFill>
-              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>8</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>317500</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>73025</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="'ModUIButtons.ProcessBtnClicks(&quot;11:8&quot;)'" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6467" name="1-7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCB24A7D-4297-D2BA-64DA-07B9056D7481}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3429000" y="3238500"/>
-          <a:ext cx="3175000" cy="254000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
-        <a:ln w="0" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1000" b="0">
-              <a:solidFill>
-                <a:srgbClr val="434343"/>
-              </a:solidFill>
-              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>Tesco</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>317500</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>393700</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>73025</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="'ModUIButtons.ProcessBtnClicks(&quot;11:8&quot;)'" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6468" name="2-7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A80BB18-4160-1651-9F98-60662044AE4D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6604000" y="3238500"/>
-          <a:ext cx="1905000" cy="254000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
-        <a:ln w="0" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1000" b="0">
-              <a:solidFill>
-                <a:srgbClr val="434343"/>
-              </a:solidFill>
-              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>080 45874</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>393700</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>73025</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="'ModUIButtons.ProcessBtnClicks(&quot;11:8&quot;)'" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6469" name="3-7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E72595D-6AD6-D6E8-C291-CE76C1995967}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8509000" y="3238500"/>
-          <a:ext cx="2540000" cy="254000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
-        <a:ln w="0" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1000" b="0">
-              <a:solidFill>
-                <a:srgbClr val="434343"/>
-              </a:solidFill>
-              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>www.tesco.co.uk</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>0</xdr:row>
@@ -4028,10 +2047,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6436" name="Button Frame" hidden="1">
+        <xdr:cNvPr id="11237" name="Button Frame" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FAEDE2B-114C-2FE1-B53D-A14D2746B676}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53B43FC6-F376-5EA7-35C4-523A72C67A3E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4126,10 +2145,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6435" name="Rectangle 6434" hidden="1">
+        <xdr:cNvPr id="11236" name="Rectangle 11235" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3BB68314-5C88-3FAA-DB3B-151B705FCEB8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2EE3FA33-E52B-93FE-10DD-93F414F9B749}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4184,12 +2203,12 @@
       <xdr:row>4</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIButtons.ProcessBtnClicks(12)'" textlink="">
+    <xdr:sp macro="'ModUIButtonHandler.ProcessBtnClicks(&quot;6:6:0&quot;)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6437" name="BtnMain1">
+        <xdr:cNvPr id="11238" name="BtnMain1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9EB3031-9E90-5D14-176C-2177ED093E22}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87BB14A6-7F85-39FE-1092-E66C74C361E0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4256,7 +2275,7 @@
               </a:solidFill>
               <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>New Client</a:t>
+            <a:t>New Lender</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -4278,10 +2297,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6409" name="MenuBar">
+        <xdr:cNvPr id="11165" name="MenuBar">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C5D2CA6-2A2B-1AD7-6EC3-90B980E63490}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30DDDB17-43C4-C6EC-2381-E96777EC6332}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4367,10 +2386,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6408" name="Rectangle 6407" hidden="1">
+        <xdr:cNvPr id="11164" name="Rectangle 11163" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27B18C49-AEB9-2143-76C6-7CA03A3CFCB4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6A540D8-62FC-A83B-41B2-17393D3D8486}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4427,10 +2446,10 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6411" name="Logo">
+        <xdr:cNvPr id="11167" name="Logo">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7BAB04E5-4F62-FEDB-1421-EB6148925E1D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFB0F129-C1EF-098F-2183-282D1844A0DA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4477,10 +2496,10 @@
     </xdr:to>
     <xdr:sp macro="'ModUIMenu.ButtonClickEvent(1)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6412" name="Menu Btn - 1">
+        <xdr:cNvPr id="11168" name="Menu Btn - 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF8B73B1-9A62-1F60-E93A-1A69FA9D3B4E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C09BB60B-25D1-DC6B-9CFC-0FE81C66F615}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4563,10 +2582,10 @@
     </xdr:to>
     <xdr:sp macro="'ModUIMenu.ButtonClickEvent(2)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6413" name="Menu Btn - 2">
+        <xdr:cNvPr id="11169" name="Menu Btn - 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9551C88-59EA-A035-F21E-E04AEEE425CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C4BA643-C4F2-C3CA-D08C-267EBC5826FC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4639,10 +2658,10 @@
     </xdr:to>
     <xdr:sp macro="'ModUIMenu.ButtonClickEvent(2.1)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6414" name="Menu Btn - 2.1" hidden="1">
+        <xdr:cNvPr id="11170" name="Menu Btn - 2.1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4194EA05-3670-0B5C-DAE2-E5BBFF78BCE5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69942206-D6DA-8823-6138-7599285AA27E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4715,10 +2734,10 @@
     </xdr:to>
     <xdr:sp macro="'ModUIMenu.ButtonClickEvent(2.2)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6415" name="Menu Btn - 2.2" hidden="1">
+        <xdr:cNvPr id="11171" name="Menu Btn - 2.2" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F78DA137-C01F-9834-1191-37729726DDC7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66BAB9E7-8527-15E8-08AF-9A9D59946514}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4791,10 +2810,10 @@
     </xdr:to>
     <xdr:sp macro="'ModUIMenu.ButtonClickEvent(3)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6416" name="Menu Btn - 3">
+        <xdr:cNvPr id="11172" name="Menu Btn - 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{144DC6DE-48F7-5AF2-5AF7-2FD492D64182}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02B91290-C61E-921A-2B8F-00E5207F213B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4867,10 +2886,10 @@
     </xdr:to>
     <xdr:sp macro="'ModUIMenu.ButtonClickEvent(3.1)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6417" name="Menu Btn - 3.1" hidden="1">
+        <xdr:cNvPr id="11173" name="Menu Btn - 3.1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32389461-EFC2-54AA-02AC-24CA5F3DF5E2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9BED79A-A6E0-219D-75E8-52DDD8069CA4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4943,10 +2962,10 @@
     </xdr:to>
     <xdr:sp macro="'ModUIMenu.ButtonClickEvent(3.2)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6418" name="Menu Btn - 3.2" hidden="1">
+        <xdr:cNvPr id="11174" name="Menu Btn - 3.2" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{363A29D4-6F3E-6957-A731-0620DA58B156}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27596FCC-E809-0B11-6FD1-AB4F4B4F6C31}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5019,10 +3038,10 @@
     </xdr:to>
     <xdr:sp macro="'ModUIMenu.ButtonClickEvent(3.3)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6419" name="Menu Btn - 3.3" hidden="1">
+        <xdr:cNvPr id="11175" name="Menu Btn - 3.3" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55062EA7-7853-065E-E4B5-4E40515E1050}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93185F32-C768-5EB6-FC0F-CEFF0333402C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5095,10 +3114,10 @@
     </xdr:to>
     <xdr:sp macro="'ModUIMenu.ButtonClickEvent(3.4)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6420" name="Menu Btn - 3.4" hidden="1">
+        <xdr:cNvPr id="11176" name="Menu Btn - 3.4" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97B4B27B-1CFB-2621-13D4-F88A1EB9972F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8933E8E0-E5C8-4B8C-4C54-9AF6C015CD5B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5171,10 +3190,10 @@
     </xdr:to>
     <xdr:sp macro="'ModUIMenu.ButtonClickEvent(3.5)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6421" name="Menu Btn - 3.5" hidden="1">
+        <xdr:cNvPr id="11177" name="Menu Btn - 3.5" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB5B8DEA-B510-B1FE-CAE3-2C4A8D77FDC6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36392E97-A6B4-2C4E-8D8C-544303E15E30}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5247,10 +3266,10 @@
     </xdr:to>
     <xdr:sp macro="'ModUIMenu.ButtonClickEvent(4)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6422" name="Menu Btn - 4">
+        <xdr:cNvPr id="11178" name="Menu Btn - 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0E969C2-8073-BEAD-CB36-2FF36912A3BA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82FE49DC-18E2-477C-B404-B013EC8F70DD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5323,10 +3342,10 @@
     </xdr:to>
     <xdr:sp macro="'ModUIMenu.ButtonClickEvent(5)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6423" name="Menu Btn - 5">
+        <xdr:cNvPr id="11179" name="Menu Btn - 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{542ED2E1-03E6-9E5E-0C5F-120F6682ED1E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CB1BC88-001C-CD60-76E5-D8AA5C928DAA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5399,10 +3418,10 @@
     </xdr:to>
     <xdr:sp macro="'ModUIMenu.ButtonClickEvent(6)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6424" name="Menu Btn - 6">
+        <xdr:cNvPr id="11180" name="Menu Btn - 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F99E44DC-A5D5-1652-75C7-EE0A938234D2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{447097C9-02D4-82A1-2D07-910A624CE461}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5475,10 +3494,10 @@
     </xdr:to>
     <xdr:sp macro="'ModUIMenu.ButtonClickEvent(6.1)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6425" name="Menu Btn - 6.1" hidden="1">
+        <xdr:cNvPr id="11181" name="Menu Btn - 6.1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2267F925-3F12-8938-45A0-60D0F17D9DDB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F910F72C-6212-50E3-A0E9-00D759424E35}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5551,10 +3570,10 @@
     </xdr:to>
     <xdr:sp macro="'ModUIMenu.ButtonClickEvent(6.2)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6426" name="Menu Btn - 6.2" hidden="1">
+        <xdr:cNvPr id="11182" name="Menu Btn - 6.2" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00FCF287-DDBA-4EF2-32A5-572F41799B60}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBD349A7-013F-E3A4-8CAC-C3342B64730B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5627,10 +3646,10 @@
     </xdr:to>
     <xdr:sp macro="'ModUIMenu.ButtonClickEvent(6.3)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6427" name="Menu Btn - 6.3" hidden="1">
+        <xdr:cNvPr id="11183" name="Menu Btn - 6.3" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93CD2D4B-5D41-D766-86B3-21CEE1A42487}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E15A8F42-0ABD-059D-08B1-0907CC546A56}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5703,10 +3722,10 @@
     </xdr:to>
     <xdr:sp macro="'ModUIMenu.ButtonClickEvent(6.4)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6428" name="Menu Btn - 6.4" hidden="1">
+        <xdr:cNvPr id="11184" name="Menu Btn - 6.4" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0DC642E-A29D-05F8-7C91-32F2C7551788}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5EE5A1DF-40C4-A5D9-0EBE-A9A0D9609AA7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5779,10 +3798,10 @@
     </xdr:to>
     <xdr:sp macro="'ModUIMenu.ButtonClickEvent(6.5)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6429" name="Menu Btn - 6.5" hidden="1">
+        <xdr:cNvPr id="11185" name="Menu Btn - 6.5" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A7EA4B8-1AA3-BD60-E3AD-D02FF4BEDFEC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C07C4498-661E-36C6-D829-FE932992950D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5855,10 +3874,10 @@
     </xdr:to>
     <xdr:sp macro="'ModUIMenu.ButtonClickEvent(6.6)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6430" name="Menu Btn - 6.6" hidden="1">
+        <xdr:cNvPr id="11186" name="Menu Btn - 6.6" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44B12A01-8566-4DAA-D0FD-F65FF2928208}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4CD7084F-0A5E-902C-DD29-F8D2B5DC78BD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5931,10 +3950,10 @@
     </xdr:to>
     <xdr:sp macro="'ModUIMenu.ButtonClickEvent(6.7)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6431" name="Menu Btn - 6.7" hidden="1">
+        <xdr:cNvPr id="11187" name="Menu Btn - 6.7" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4346C303-3FCF-0C09-1173-435D6ED277D2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7012E0A5-7FBF-E31D-8F72-02D0B00ACD58}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6007,10 +4026,10 @@
     </xdr:to>
     <xdr:sp macro="'ModUIMenu.ButtonClickEvent(7)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6432" name="Menu Btn - 7">
+        <xdr:cNvPr id="11188" name="Menu Btn - 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{610129B0-D0BA-3B36-6C80-591B6619CA0B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E9F27BF-A2B6-F479-FB06-CA4CC29D5472}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6669,10 +4688,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAF5DD8E-1975-411A-A399-0A0AA8DBB752}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="B1:C17"/>
+  <dimension ref="B1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6815,6 +4834,30 @@
       </c>
       <c r="C17" t="s">
         <v>179</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3">
+      <c r="B18">
+        <v>4</v>
+      </c>
+      <c r="C18" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3">
+      <c r="B19">
+        <v>4</v>
+      </c>
+      <c r="C19" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3">
+      <c r="B20">
+        <v>4</v>
+      </c>
+      <c r="C20" t="s">
+        <v>182</v>
       </c>
     </row>
   </sheetData>

--- a/CBS Workflow.xlsx
+++ b/CBS Workflow.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/50f47e56877e2071/Documents/Development Areas/CBS Workflow/Library/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E28F420A-08CB-48A1-9C56-089699E90568}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EF50FFEC-5FAF-49C0-BB97-BEFFFE58408C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="28410" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="20475" windowHeight="14505" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="6" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="190">
   <si>
     <t>WorkflowNo</t>
   </si>
@@ -540,9 +540,6 @@
     <t>Spv name on project form</t>
   </si>
   <si>
-    <t>restructure Class Hierarchy</t>
-  </si>
-  <si>
     <t>Redesign for Project with multiple lender workflows</t>
   </si>
   <si>
@@ -586,6 +583,30 @@
   </si>
   <si>
     <t>Add children to parent forms</t>
+  </si>
+  <si>
+    <t>Add error checking to picker</t>
+  </si>
+  <si>
+    <t>picker to select when list = search box</t>
+  </si>
+  <si>
+    <t>Add "Add SPV" ,Case Manager, SPV to workflow forms</t>
+  </si>
+  <si>
+    <t>Graphviz not exporting</t>
+  </si>
+  <si>
+    <t>add previous steps</t>
+  </si>
+  <si>
+    <t>Project workflows not saving data correctly</t>
+  </si>
+  <si>
+    <t>Lender Workflow form not showing data</t>
+  </si>
+  <si>
+    <t>Lender workflow not saving all data</t>
   </si>
 </sst>
 </file>
@@ -744,14 +765,14 @@
       <xdr:col>37</xdr:col>
       <xdr:colOff>431800</xdr:colOff>
       <xdr:row>133</xdr:row>
-      <xdr:rowOff>73025</xdr:rowOff>
+      <xdr:rowOff>34925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11163" name="Main Screen">
+        <xdr:cNvPr id="2" name="Main Screen">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{108D2807-E454-B348-E5DD-D30AE8F9D884}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E6E945B-3E10-76C4-FB4E-17EE33D37474}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -877,66 +898,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="11166" name="Rectangle 11165">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A527796-D028-A5CA-62CC-7C08C57256F3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="127000" cy="127000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-GB" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>330200</xdr:colOff>
       <xdr:row>6</xdr:row>
@@ -945,15 +906,15 @@
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11235" name="Main Frame">
+        <xdr:cNvPr id="28" name="Main Frame">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0248F77C-4168-A5E3-2E8D-AF15B3E42CC3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E12E421-7C04-EDD5-E37E-272FA354370E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1048,10 +1009,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11234" name="Main Frame Header">
+        <xdr:cNvPr id="27" name="Main Frame Header">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D23B8212-CB7E-22DB-B8EC-2245C46B7DA9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40F4A814-96FD-7DD4-DCDD-B64FD1DDA96B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1121,7 +1082,7 @@
               </a:solidFill>
               <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>CRM - Lenders</a:t>
+            <a:t>Project For Action</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1136,17 +1097,17 @@
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIButtonHandler.ProcessBtnClicks(&quot;6:3:1&quot;)'" textlink="">
+    <xdr:sp macro="'ModUIButtonHandler.ProcessBtnClicks(&quot;0:1:1&quot;)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11239" name="0-0">
+        <xdr:cNvPr id="33" name="0-0">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6A8A02B-5267-85C2-5724-4D38BA3C5054}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C682941-DB52-821A-3F8D-A490C44DF325}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1155,7 +1116,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2159000" y="1460500"/>
-          <a:ext cx="1270000" cy="254000"/>
+          <a:ext cx="635000" cy="254000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1212,7 +1173,7 @@
               </a:solidFill>
               <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>Lender No</a:t>
+            <a:t>Project No</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1221,23 +1182,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>292100</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIButtonHandler.ProcessBtnClicks(&quot;6:3:1&quot;)'" textlink="">
+    <xdr:sp macro="'ModUIButtonHandler.ProcessBtnClicks(&quot;0:1:1&quot;)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11240" name="1-0">
+        <xdr:cNvPr id="34" name="1-0">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0386EAB-61C2-43ED-DA50-925FE3C09603}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F56009AE-04D4-7753-4C95-507E5528F010}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1245,8 +1206,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3429000" y="1460500"/>
-          <a:ext cx="2540000" cy="254000"/>
+          <a:off x="2794000" y="1460500"/>
+          <a:ext cx="1270000" cy="254000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1303,7 +1264,7 @@
               </a:solidFill>
               <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>Name</a:t>
+            <a:t>Client Name</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1312,23 +1273,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>292100</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIButtonHandler.ProcessBtnClicks(&quot;6:3:1&quot;)'" textlink="">
+    <xdr:sp macro="'ModUIButtonHandler.ProcessBtnClicks(&quot;0:1:1&quot;)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11241" name="2-0">
+        <xdr:cNvPr id="35" name="2-0">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{546DDC9C-BD0B-D460-E61A-A5149C2BABC5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F3C12B2-53E5-E4C2-9D22-2AB222BD5CA9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1336,7 +1297,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5969000" y="1460500"/>
+          <a:off x="4064000" y="1460500"/>
           <a:ext cx="1270000" cy="254000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1394,7 +1355,189 @@
               </a:solidFill>
               <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>Phone No</a:t>
+            <a:t>SPV Name</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIButtonHandler.ProcessBtnClicks(&quot;0:1:1&quot;)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="3-0">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6E32729-AD02-8D26-97F1-777529F0F1EB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5334000" y="1460500"/>
+          <a:ext cx="1270000" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="134F69"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="134F69"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Case Manager</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIButtonHandler.ProcessBtnClicks(&quot;0:1:1&quot;)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="4-0">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B35FDE8-81B0-159F-1AE2-72D83FA7EFD0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6604000" y="1460500"/>
+          <a:ext cx="635000" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="134F69"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="134F69"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Step No</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1409,17 +1552,17 @@
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>393700</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIButtonHandler.ProcessBtnClicks(&quot;6:3:1&quot;)'" textlink="">
+    <xdr:sp macro="'ModUIButtonHandler.ProcessBtnClicks(&quot;0:1:1&quot;)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11242" name="3-0">
+        <xdr:cNvPr id="38" name="5-0">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B363101-3DC5-12EB-FB18-ACE698D0DAA8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9580EB96-02B4-6E9B-5866-2A822FEA6F11}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1428,7 +1571,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7239000" y="1460500"/>
-          <a:ext cx="1270000" cy="254000"/>
+          <a:ext cx="2540000" cy="254000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1485,7 +1628,7 @@
               </a:solidFill>
               <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>Lender Type</a:t>
+            <a:t>Step Name</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1494,8 +1637,8 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>393700</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
@@ -1505,12 +1648,12 @@
       <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIButtonHandler.ProcessBtnClicks(&quot;6:3:1&quot;)'" textlink="">
+    <xdr:sp macro="'ModUIButtonHandler.ProcessBtnClicks(&quot;0:1:1&quot;)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11243" name="4-0">
+        <xdr:cNvPr id="39" name="6-0">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E25D32A-D096-A731-4919-511C4006F42A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4810BBCB-1534-B450-9104-56F36A500F7C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1518,8 +1661,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8509000" y="1460500"/>
-          <a:ext cx="2540000" cy="254000"/>
+          <a:off x="9779000" y="1460500"/>
+          <a:ext cx="1270000" cy="254000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1576,7 +1719,7 @@
               </a:solidFill>
               <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>Address</a:t>
+            <a:t>Status</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1591,17 +1734,17 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIButtonHandler.ProcessBtnClicks(&quot;6:3:1&quot;)'" textlink="">
+    <xdr:sp macro="'ModUIButtonHandler.ProcessBtnClicks(&quot;0:1:1&quot;)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11244" name="0-1">
+        <xdr:cNvPr id="40" name="0-1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0AF722D-692C-DBD5-AAE4-F6215D7FA56F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{924A9B58-FAD4-2769-F497-CE7BD2FFAF52}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1610,7 +1753,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2159000" y="1714500"/>
-          <a:ext cx="1270000" cy="254000"/>
+          <a:ext cx="635000" cy="254000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1676,23 +1819,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>292100</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIButtonHandler.ProcessBtnClicks(&quot;6:3:1&quot;)'" textlink="">
+    <xdr:sp macro="'ModUIButtonHandler.ProcessBtnClicks(&quot;0:1:1&quot;)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11245" name="1-1">
+        <xdr:cNvPr id="41" name="1-1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88C4A665-EC9B-BC1F-0B39-D907AF690902}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47507535-6ADA-F0CB-4781-AAF3F9046461}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1700,189 +1843,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3429000" y="1714500"/>
-          <a:ext cx="2540000" cy="254000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
-        <a:ln w="0" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1000" b="0">
-              <a:solidFill>
-                <a:srgbClr val="434343"/>
-              </a:solidFill>
-              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>Barclays Bank</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>292100</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="'ModUIButtonHandler.ProcessBtnClicks(&quot;6:3:1&quot;)'" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="11246" name="2-1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2E4FC91-5AF9-1F8A-DA7C-4823F50C48DC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5969000" y="1714500"/>
-          <a:ext cx="1270000" cy="254000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
-        <a:ln w="0" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1000" b="0">
-              <a:solidFill>
-                <a:srgbClr val="434343"/>
-              </a:solidFill>
-              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>0125 564654</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>393700</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="'ModUIButtonHandler.ProcessBtnClicks(&quot;6:3:1&quot;)'" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="11247" name="3-1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1865DFCC-916F-8ADA-23C6-12FA8D77E1DD}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7239000" y="1714500"/>
+          <a:off x="2794000" y="1714500"/>
           <a:ext cx="1270000" cy="254000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1946,23 +1907,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>393700</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIButtonHandler.ProcessBtnClicks(&quot;6:3:1&quot;)'" textlink="">
+    <xdr:sp macro="'ModUIButtonHandler.ProcessBtnClicks(&quot;0:1:1&quot;)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11248" name="4-1">
+        <xdr:cNvPr id="42" name="2-1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18D9584D-65ED-B59F-3CA1-D72B252D1DC7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9EBE16C-7C2B-0C44-E39E-45ACCC48220A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1970,8 +1931,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8509000" y="1714500"/>
-          <a:ext cx="2540000" cy="254000"/>
+          <a:off x="4064000" y="1714500"/>
+          <a:ext cx="1270000" cy="254000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2034,6 +1995,4790 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIButtonHandler.ProcessBtnClicks(&quot;0:1:1&quot;)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="3-1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BD1C632-D00D-03A5-CF39-1884263DF701}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5334000" y="1714500"/>
+          <a:ext cx="1270000" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="0">
+              <a:solidFill>
+                <a:srgbClr val="434343"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Fred Bloggs</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIButtonHandler.ProcessBtnClicks(&quot;0:1:1&quot;)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="4-1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B692B12-55C6-126E-1219-BD79E93E0340}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6604000" y="1714500"/>
+          <a:ext cx="635000" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="0">
+              <a:solidFill>
+                <a:srgbClr val="434343"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>1.17</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIButtonHandler.ProcessBtnClicks(&quot;0:1:1&quot;)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="5-1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9322475F-D6F1-5E7C-D553-FF17C9B617D3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7239000" y="1714500"/>
+          <a:ext cx="2540000" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="0">
+              <a:solidFill>
+                <a:srgbClr val="434343"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Agree next steps with Client</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIButtonHandler.ProcessBtnClicks(&quot;0:1:1&quot;)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="6-1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B93643A-484C-1DC9-A78A-63FC95D589BE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9779000" y="1714500"/>
+          <a:ext cx="1270000" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="D7263D"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="D7263D"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>enClosed</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIButtonHandler.ProcessBtnClicks(&quot;0:1:2&quot;)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="0-2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9B1174A-DB9C-09F7-DB78-43B15B46E15B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2159000" y="1968500"/>
+          <a:ext cx="635000" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="0">
+              <a:solidFill>
+                <a:srgbClr val="434343"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIButtonHandler.ProcessBtnClicks(&quot;0:1:2&quot;)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="1-2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A93742B-9B2D-73D5-D033-8811E7CE1E2C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2794000" y="1968500"/>
+          <a:ext cx="1270000" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-GB" sz="1000" b="0">
+            <a:solidFill>
+              <a:srgbClr val="434343"/>
+            </a:solidFill>
+            <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIButtonHandler.ProcessBtnClicks(&quot;0:1:2&quot;)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="49" name="2-2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B12A0B7-7605-B4C8-296C-FB07BCFFAE62}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4064000" y="1968500"/>
+          <a:ext cx="1270000" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-GB" sz="1000" b="0">
+            <a:solidFill>
+              <a:srgbClr val="434343"/>
+            </a:solidFill>
+            <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIButtonHandler.ProcessBtnClicks(&quot;0:1:2&quot;)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="50" name="3-2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{819342E7-E21E-ABE1-7432-8384981AD20C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5334000" y="1968500"/>
+          <a:ext cx="1270000" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="0">
+              <a:solidFill>
+                <a:srgbClr val="434343"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Dan Watkins</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIButtonHandler.ProcessBtnClicks(&quot;0:1:2&quot;)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="51" name="4-2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51DB28A9-70B3-9D83-EAA3-7F260F88A515}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6604000" y="1968500"/>
+          <a:ext cx="635000" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="0">
+              <a:solidFill>
+                <a:srgbClr val="434343"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>1.01</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIButtonHandler.ProcessBtnClicks(&quot;0:1:2&quot;)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="52" name="5-2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C0C532B-49C3-85D2-CD13-830081197F5A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7239000" y="1968500"/>
+          <a:ext cx="2540000" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="0">
+              <a:solidFill>
+                <a:srgbClr val="434343"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Fact Find to Client</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIButtonHandler.ProcessBtnClicks(&quot;0:1:2&quot;)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="53" name="6-2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B177C35-F9CA-5775-8F35-AC1C9F666561}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9779000" y="1968500"/>
+          <a:ext cx="1270000" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="D7263D"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="D7263D"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>enActionReqd</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIButtonHandler.ProcessBtnClicks(&quot;0:1:3&quot;)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="54" name="0-3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5C32FB0-C055-8D5F-1A7C-5047E4E064CE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2159000" y="2222500"/>
+          <a:ext cx="635000" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="0">
+              <a:solidFill>
+                <a:srgbClr val="434343"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>3</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIButtonHandler.ProcessBtnClicks(&quot;0:1:3&quot;)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="55" name="1-3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{637CA764-AD30-6E1C-38F7-ABCC2985C5FF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2794000" y="2222500"/>
+          <a:ext cx="1270000" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-GB" sz="1000" b="0">
+            <a:solidFill>
+              <a:srgbClr val="434343"/>
+            </a:solidFill>
+            <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIButtonHandler.ProcessBtnClicks(&quot;0:1:3&quot;)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="56" name="2-3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D44FE3CD-4A9A-DE62-2C56-C616FCABC2ED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4064000" y="2222500"/>
+          <a:ext cx="1270000" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-GB" sz="1000" b="0">
+            <a:solidFill>
+              <a:srgbClr val="434343"/>
+            </a:solidFill>
+            <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIButtonHandler.ProcessBtnClicks(&quot;0:1:3&quot;)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="57" name="3-3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2AF2CE9-BD30-5C2A-8380-80AA1C2608D2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5334000" y="2222500"/>
+          <a:ext cx="1270000" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="0">
+              <a:solidFill>
+                <a:srgbClr val="434343"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Fred Bloggs</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIButtonHandler.ProcessBtnClicks(&quot;0:1:3&quot;)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="58" name="4-3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3AD2152-4223-5FDE-5346-A4DF42AE55B9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6604000" y="2222500"/>
+          <a:ext cx="635000" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="0">
+              <a:solidFill>
+                <a:srgbClr val="434343"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>1.01</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIButtonHandler.ProcessBtnClicks(&quot;0:1:3&quot;)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="59" name="5-3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{611B4EBA-DBD4-E494-FED2-A93567A159B7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7239000" y="2222500"/>
+          <a:ext cx="2540000" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="0">
+              <a:solidFill>
+                <a:srgbClr val="434343"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Fact Find to Client</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIButtonHandler.ProcessBtnClicks(&quot;0:1:3&quot;)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="60" name="6-3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{322E021C-CA73-E988-1617-7FBF5F024F77}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9779000" y="2222500"/>
+          <a:ext cx="1270000" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="D7263D"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="D7263D"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>enActionReqd</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIButtonHandler.ProcessBtnClicks(&quot;0:1:4&quot;)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="61" name="0-4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7513C3E9-C9CB-03DD-C9EC-33A04C20E9D9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2159000" y="2476500"/>
+          <a:ext cx="635000" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="0">
+              <a:solidFill>
+                <a:srgbClr val="434343"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>4</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIButtonHandler.ProcessBtnClicks(&quot;0:1:4&quot;)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="62" name="1-4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{473B27EA-B10D-4234-929A-DA35039E2848}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2794000" y="2476500"/>
+          <a:ext cx="1270000" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-GB" sz="1000" b="0">
+            <a:solidFill>
+              <a:srgbClr val="434343"/>
+            </a:solidFill>
+            <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIButtonHandler.ProcessBtnClicks(&quot;0:1:4&quot;)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="63" name="2-4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0291A11-F0A0-6AE3-6262-5548C331AE6E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4064000" y="2476500"/>
+          <a:ext cx="1270000" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-GB" sz="1000" b="0">
+            <a:solidFill>
+              <a:srgbClr val="434343"/>
+            </a:solidFill>
+            <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIButtonHandler.ProcessBtnClicks(&quot;0:1:4&quot;)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4800" name="3-4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B48E4C9-5309-EFB8-876C-CA973197BBB3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5334000" y="2476500"/>
+          <a:ext cx="1270000" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="0">
+              <a:solidFill>
+                <a:srgbClr val="434343"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Dan Watkins</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIButtonHandler.ProcessBtnClicks(&quot;0:1:4&quot;)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4801" name="4-4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDE58ED4-B1CE-F408-D951-362E44370C87}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6604000" y="2476500"/>
+          <a:ext cx="635000" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="0">
+              <a:solidFill>
+                <a:srgbClr val="434343"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>1.01</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIButtonHandler.ProcessBtnClicks(&quot;0:1:4&quot;)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4802" name="5-4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DF7FFAD-8418-D866-B926-C37FB43271E8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7239000" y="2476500"/>
+          <a:ext cx="2540000" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="0">
+              <a:solidFill>
+                <a:srgbClr val="434343"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Fact Find to Client</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIButtonHandler.ProcessBtnClicks(&quot;0:1:4&quot;)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4803" name="6-4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2A77579-7A0C-6D16-14B0-78C14430EB0D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9779000" y="2476500"/>
+          <a:ext cx="1270000" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="D7263D"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="D7263D"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>enActionReqd</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIButtonHandler.ProcessBtnClicks(&quot;0:1:5&quot;)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4804" name="0-5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C15B77BC-1678-2868-D684-9FC06D672B3A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2159000" y="2730500"/>
+          <a:ext cx="635000" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="0">
+              <a:solidFill>
+                <a:srgbClr val="434343"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>5</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIButtonHandler.ProcessBtnClicks(&quot;0:1:5&quot;)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4805" name="1-5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68559E24-FA7F-1B9F-285D-31EB1D2AAA04}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2794000" y="2730500"/>
+          <a:ext cx="1270000" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-GB" sz="1000" b="0">
+            <a:solidFill>
+              <a:srgbClr val="434343"/>
+            </a:solidFill>
+            <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIButtonHandler.ProcessBtnClicks(&quot;0:1:5&quot;)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4806" name="2-5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1C51DE2-16EF-A72E-BD7A-FD7676EEFA96}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4064000" y="2730500"/>
+          <a:ext cx="1270000" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-GB" sz="1000" b="0">
+            <a:solidFill>
+              <a:srgbClr val="434343"/>
+            </a:solidFill>
+            <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIButtonHandler.ProcessBtnClicks(&quot;0:1:5&quot;)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4807" name="3-5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15D6DCA7-402F-F995-8265-A6405F56E1AF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5334000" y="2730500"/>
+          <a:ext cx="1270000" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-GB" sz="1000" b="0">
+            <a:solidFill>
+              <a:srgbClr val="434343"/>
+            </a:solidFill>
+            <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIButtonHandler.ProcessBtnClicks(&quot;0:1:5&quot;)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4808" name="4-5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{312E33A3-C9D8-821D-2A21-E32DE53A740F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6604000" y="2730500"/>
+          <a:ext cx="635000" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="0">
+              <a:solidFill>
+                <a:srgbClr val="434343"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>1.01</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIButtonHandler.ProcessBtnClicks(&quot;0:1:5&quot;)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4809" name="5-5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{263A2852-0221-3710-04C2-B05BF1C3BAD1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7239000" y="2730500"/>
+          <a:ext cx="2540000" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="0">
+              <a:solidFill>
+                <a:srgbClr val="434343"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Fact Find to Client</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIButtonHandler.ProcessBtnClicks(&quot;0:1:5&quot;)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4810" name="6-5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4546042-0D00-C055-F407-29492D64BEDE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9779000" y="2730500"/>
+          <a:ext cx="1270000" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="D7263D"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="D7263D"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>enActionReqd</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIButtonHandler.ProcessBtnClicks(&quot;0:1:6&quot;)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4811" name="0-6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B89AA583-3DF7-3A06-6726-1DF49A23688B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2159000" y="2984500"/>
+          <a:ext cx="635000" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="0">
+              <a:solidFill>
+                <a:srgbClr val="434343"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>6</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIButtonHandler.ProcessBtnClicks(&quot;0:1:6&quot;)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4812" name="1-6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73C2AFF5-C5DA-D319-30A2-E0C4694CB600}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2794000" y="2984500"/>
+          <a:ext cx="1270000" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-GB" sz="1000" b="0">
+            <a:solidFill>
+              <a:srgbClr val="434343"/>
+            </a:solidFill>
+            <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIButtonHandler.ProcessBtnClicks(&quot;0:1:6&quot;)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4813" name="2-6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{885ED6F0-BDE4-A75B-DE83-651EB1CC6A75}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4064000" y="2984500"/>
+          <a:ext cx="1270000" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-GB" sz="1000" b="0">
+            <a:solidFill>
+              <a:srgbClr val="434343"/>
+            </a:solidFill>
+            <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIButtonHandler.ProcessBtnClicks(&quot;0:1:6&quot;)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4814" name="3-6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9E3792A-C0ED-3369-9313-84A1F3DEF509}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5334000" y="2984500"/>
+          <a:ext cx="1270000" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="0">
+              <a:solidFill>
+                <a:srgbClr val="434343"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Fred Bloggs</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIButtonHandler.ProcessBtnClicks(&quot;0:1:6&quot;)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4815" name="4-6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E9873B9-D535-0EAD-9072-2CD8AC2B56AF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6604000" y="2984500"/>
+          <a:ext cx="635000" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="0">
+              <a:solidFill>
+                <a:srgbClr val="434343"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>1.05</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIButtonHandler.ProcessBtnClicks(&quot;0:1:6&quot;)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4816" name="5-6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9A7F6E5-97DE-5BC1-53E0-5ABCE65150BB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7239000" y="2984500"/>
+          <a:ext cx="2540000" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="0">
+              <a:solidFill>
+                <a:srgbClr val="434343"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Perform Basic Review</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIButtonHandler.ProcessBtnClicks(&quot;0:1:6&quot;)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4817" name="6-6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17ADA3C6-FF0D-847F-0FE8-24484418777F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9779000" y="2984500"/>
+          <a:ext cx="1270000" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="D7263D"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="D7263D"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>enActionReqd</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>34925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIButtonHandler.ProcessBtnClicks(&quot;0:1:8&quot;)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4818" name="0-7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33AC5543-0BAC-C4C2-7513-074FA135F492}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2159000" y="3238500"/>
+          <a:ext cx="635000" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="0">
+              <a:solidFill>
+                <a:srgbClr val="434343"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>8</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>34925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIButtonHandler.ProcessBtnClicks(&quot;0:1:8&quot;)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4819" name="1-7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6E8A40A-8186-05BD-6585-1F6762740AA5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2794000" y="3238500"/>
+          <a:ext cx="1270000" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-GB" sz="1000" b="0">
+            <a:solidFill>
+              <a:srgbClr val="434343"/>
+            </a:solidFill>
+            <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>34925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIButtonHandler.ProcessBtnClicks(&quot;0:1:8&quot;)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4820" name="2-7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E9053E5-CDF1-DE16-32E7-4F70F3BF1215}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4064000" y="3238500"/>
+          <a:ext cx="1270000" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-GB" sz="1000" b="0">
+            <a:solidFill>
+              <a:srgbClr val="434343"/>
+            </a:solidFill>
+            <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>34925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIButtonHandler.ProcessBtnClicks(&quot;0:1:8&quot;)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4821" name="3-7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DC2C3F6-D346-EBC1-DF5A-A1C8D0A9B2EB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5334000" y="3238500"/>
+          <a:ext cx="1270000" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="0">
+              <a:solidFill>
+                <a:srgbClr val="434343"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Fred Bloggs</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>34925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIButtonHandler.ProcessBtnClicks(&quot;0:1:8&quot;)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4822" name="4-7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D0D403E-D2A0-EE9F-F52D-6F845EB85B32}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6604000" y="3238500"/>
+          <a:ext cx="635000" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="0">
+              <a:solidFill>
+                <a:srgbClr val="434343"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>1.01</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>34925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIButtonHandler.ProcessBtnClicks(&quot;0:1:8&quot;)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4823" name="5-7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93F5ECD6-FB12-BFE7-85ED-9E07EB2181C9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7239000" y="3238500"/>
+          <a:ext cx="2540000" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="0">
+              <a:solidFill>
+                <a:srgbClr val="434343"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Fact Find to Client</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>34925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIButtonHandler.ProcessBtnClicks(&quot;0:1:8&quot;)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4824" name="6-7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FC8F5CD-07B5-C480-CD72-403A0ED76E3D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9779000" y="3238500"/>
+          <a:ext cx="1270000" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="D7263D"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="D7263D"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>enNotStarted</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>34925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIButtonHandler.ProcessBtnClicks(&quot;0:1:9&quot;)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4825" name="0-8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F265EBC-801B-D951-FDDC-66E5A2D513CC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2159000" y="3492500"/>
+          <a:ext cx="635000" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="0">
+              <a:solidFill>
+                <a:srgbClr val="434343"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>9</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>34925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIButtonHandler.ProcessBtnClicks(&quot;0:1:9&quot;)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4826" name="1-8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A3564B5-0843-7420-D8F8-DD2C5E8DF859}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2794000" y="3492500"/>
+          <a:ext cx="1270000" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="0">
+              <a:solidFill>
+                <a:srgbClr val="434343"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Dell</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>34925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIButtonHandler.ProcessBtnClicks(&quot;0:1:9&quot;)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4827" name="2-8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0098091D-C9A4-6CD5-4A3C-3BCD9DACAAE1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4064000" y="3492500"/>
+          <a:ext cx="1270000" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="0">
+              <a:solidFill>
+                <a:srgbClr val="434343"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Medium SPV</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>34925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIButtonHandler.ProcessBtnClicks(&quot;0:1:9&quot;)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4828" name="3-8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9F83F67-3E31-5847-EE8D-1264145202CA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5334000" y="3492500"/>
+          <a:ext cx="1270000" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="0">
+              <a:solidFill>
+                <a:srgbClr val="434343"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Fred Bloggs</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>34925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIButtonHandler.ProcessBtnClicks(&quot;0:1:9&quot;)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4830" name="4-8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{462B30D8-0219-01FD-A673-80B1587DD5D1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6604000" y="3492500"/>
+          <a:ext cx="635000" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="0">
+              <a:solidFill>
+                <a:srgbClr val="434343"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>1.01</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>34925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIButtonHandler.ProcessBtnClicks(&quot;0:1:9&quot;)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4831" name="5-8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6EF9B9F0-355B-511B-8764-8219856B6614}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7239000" y="3492500"/>
+          <a:ext cx="2540000" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="0">
+              <a:solidFill>
+                <a:srgbClr val="434343"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Fact Find to Client</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>34925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIButtonHandler.ProcessBtnClicks(&quot;0:1:9&quot;)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4832" name="6-8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA3C34F9-EB2B-8A4D-0E8D-FB9DB514D934}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9779000" y="3492500"/>
+          <a:ext cx="1270000" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="D7263D"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="D7263D"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>enNotStarted</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>0</xdr:row>
@@ -2047,10 +6792,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11237" name="Button Frame" hidden="1">
+        <xdr:cNvPr id="30" name="Button Frame" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53B43FC6-F376-5EA7-35C4-523A72C67A3E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5FC64B4-801D-2C89-8AD3-DB2694B2E713}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2145,10 +6890,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11236" name="Rectangle 11235" hidden="1">
+        <xdr:cNvPr id="29" name="Rectangle 28" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2EE3FA33-E52B-93FE-10DD-93F414F9B749}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{317C1630-050C-CE87-B7AB-9E6B5FAE9018}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2192,6 +6937,98 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIButtonHandler.ProcessBtnClicks(&quot;0:0:0&quot;)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="BtnMain1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDFF948E-AA56-19E8-4DF5-421588A8CEEE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8191500" y="317500"/>
+          <a:ext cx="1270000" cy="508000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="134F69"/>
+        </a:solidFill>
+        <a:ln w="0" cap="flat" cmpd="sng" algn="ctr">
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="63500" dist="37357" dir="2700000" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1200" b="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>New Project Workflow</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>444500</xdr:colOff>
       <xdr:row>1</xdr:row>
@@ -2203,12 +7040,12 @@
       <xdr:row>4</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIButtonHandler.ProcessBtnClicks(&quot;6:6:0&quot;)'" textlink="">
+    <xdr:sp macro="'ModUIButtonHandler.ProcessBtnClicks(&quot;0:2:0&quot;)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11238" name="BtnMain1">
+        <xdr:cNvPr id="32" name="BtnMain2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87BB14A6-7F85-39FE-1092-E66C74C361E0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FEACBB99-2FCB-FFC4-AC81-DA1AF631540B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2275,7 +7112,7 @@
               </a:solidFill>
               <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>New Lender</a:t>
+            <a:t>New Lender Workflow</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2293,14 +7130,14 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>139700</xdr:colOff>
       <xdr:row>133</xdr:row>
-      <xdr:rowOff>73025</xdr:rowOff>
+      <xdr:rowOff>34925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11165" name="MenuBar">
+        <xdr:cNvPr id="4" name="MenuBar">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30DDDB17-43C4-C6EC-2381-E96777EC6332}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D1B9247-990A-6CC5-3367-D2911F3E7DB4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2386,10 +7223,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11164" name="Rectangle 11163" hidden="1">
+        <xdr:cNvPr id="3" name="Rectangle 2" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6A540D8-62FC-A83B-41B2-17393D3D8486}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{982F067D-F73A-1CE5-903C-F65EB65EAD4C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2446,10 +7283,10 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="11167" name="Logo">
+        <xdr:cNvPr id="5" name="Logo">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFB0F129-C1EF-098F-2183-282D1844A0DA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29FF2B4D-B450-D169-BA9B-7FB52FC9DCA2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2485,21 +7322,21 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>139700</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="'ModUIMenu.ButtonClickEvent(1)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11168" name="Menu Btn - 1">
+        <xdr:cNvPr id="6" name="Menu Btn - 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C09BB60B-25D1-DC6B-9CFC-0FE81C66F615}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF8F5965-C5E3-8E3F-640C-6E154992CCE6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2571,21 +7408,21 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>139700</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="'ModUIMenu.ButtonClickEvent(2)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11169" name="Menu Btn - 2">
+        <xdr:cNvPr id="7" name="Menu Btn - 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C4BA643-C4F2-C3CA-D08C-267EBC5826FC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3008D6D3-786B-80D1-FF9E-6C7FA6019057}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2647,21 +7484,21 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>139700</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>215900</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="'ModUIMenu.ButtonClickEvent(2.1)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11170" name="Menu Btn - 2.1" hidden="1">
+        <xdr:cNvPr id="8" name="Menu Btn - 2.1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69942206-D6DA-8823-6138-7599285AA27E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{626012CF-1157-3508-9842-B45243D4496A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2723,21 +7560,21 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>139700</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>215900</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="'ModUIMenu.ButtonClickEvent(2.2)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11171" name="Menu Btn - 2.2" hidden="1">
+        <xdr:cNvPr id="9" name="Menu Btn - 2.2" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66BAB9E7-8527-15E8-08AF-9A9D59946514}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{126DFB45-4347-D567-75B4-41142EB73A8E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2799,21 +7636,21 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>139700</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="'ModUIMenu.ButtonClickEvent(3)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11172" name="Menu Btn - 3">
+        <xdr:cNvPr id="10" name="Menu Btn - 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02B91290-C61E-921A-2B8F-00E5207F213B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DF3D4E5-2885-1DF6-C059-6826AC8780CF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2875,21 +7712,21 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>139700</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>215900</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="'ModUIMenu.ButtonClickEvent(3.1)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11173" name="Menu Btn - 3.1" hidden="1">
+        <xdr:cNvPr id="11" name="Menu Btn - 3.1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9BED79A-A6E0-219D-75E8-52DDD8069CA4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14954229-B917-ADCD-01C9-DC84DE20A03A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2952,20 +7789,20 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>139700</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>215900</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>60325</xdr:rowOff>
+      <xdr:rowOff>22225</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="'ModUIMenu.ButtonClickEvent(3.2)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11174" name="Menu Btn - 3.2" hidden="1">
+        <xdr:cNvPr id="12" name="Menu Btn - 3.2" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27596FCC-E809-0B11-6FD1-AB4F4B4F6C31}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D08E82EC-3152-4A2B-002C-FDC46F3D1535}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3028,20 +7865,20 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>139700</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>60325</xdr:rowOff>
+      <xdr:rowOff>22225</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>215900</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>73025</xdr:rowOff>
+      <xdr:rowOff>34925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="'ModUIMenu.ButtonClickEvent(3.3)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11175" name="Menu Btn - 3.3" hidden="1">
+        <xdr:cNvPr id="13" name="Menu Btn - 3.3" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93185F32-C768-5EB6-FC0F-CEFF0333402C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{049E35FE-D1CC-ACF3-0EE5-09B9E93D6407}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3104,20 +7941,20 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>139700</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>73025</xdr:rowOff>
+      <xdr:rowOff>34925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>215900</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="'ModUIMenu.ButtonClickEvent(3.4)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11176" name="Menu Btn - 3.4" hidden="1">
+        <xdr:cNvPr id="14" name="Menu Btn - 3.4" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8933E8E0-E5C8-4B8C-4C54-9AF6C015CD5B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1985DA6D-F3BC-72F5-F1E7-6CFB4A4D2237}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3180,20 +8017,20 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>139700</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>215900</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>98425</xdr:rowOff>
+      <xdr:rowOff>60325</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="'ModUIMenu.ButtonClickEvent(3.5)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11177" name="Menu Btn - 3.5" hidden="1">
+        <xdr:cNvPr id="15" name="Menu Btn - 3.5" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36392E97-A6B4-2C4E-8D8C-544303E15E30}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{646BA188-E322-6E60-AABE-DD6029D3ABFC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3256,20 +8093,20 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>63500</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>139700</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>60325</xdr:rowOff>
+      <xdr:rowOff>22225</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="'ModUIMenu.ButtonClickEvent(4)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11178" name="Menu Btn - 4">
+        <xdr:cNvPr id="16" name="Menu Btn - 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82FE49DC-18E2-477C-B404-B013EC8F70DD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F091A7D2-1947-974E-6E29-ED6C75D9220B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3332,20 +8169,20 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>63500</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>60325</xdr:rowOff>
+      <xdr:rowOff>22225</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>139700</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>73025</xdr:rowOff>
+      <xdr:rowOff>34925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="'ModUIMenu.ButtonClickEvent(5)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11179" name="Menu Btn - 5">
+        <xdr:cNvPr id="17" name="Menu Btn - 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CB1BC88-001C-CD60-76E5-D8AA5C928DAA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7513A3F-8986-FCB6-DF91-B7BB63E6BD22}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3408,20 +8245,20 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>63500</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>73025</xdr:rowOff>
+      <xdr:rowOff>34925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>139700</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="'ModUIMenu.ButtonClickEvent(6)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11180" name="Menu Btn - 6">
+        <xdr:cNvPr id="18" name="Menu Btn - 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{447097C9-02D4-82A1-2D07-910A624CE461}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76129880-2DC1-2E8E-1E59-F20EE3169420}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3484,20 +8321,20 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>139700</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>73025</xdr:rowOff>
+      <xdr:rowOff>34925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>215900</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="'ModUIMenu.ButtonClickEvent(6.1)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11181" name="Menu Btn - 6.1" hidden="1">
+        <xdr:cNvPr id="19" name="Menu Btn - 6.1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F910F72C-6212-50E3-A0E9-00D759424E35}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59B416B1-2812-F161-9FFD-0C2D692A1B27}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3560,20 +8397,20 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>139700</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>215900</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>98425</xdr:rowOff>
+      <xdr:rowOff>60325</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="'ModUIMenu.ButtonClickEvent(6.2)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11182" name="Menu Btn - 6.2" hidden="1">
+        <xdr:cNvPr id="20" name="Menu Btn - 6.2" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBD349A7-013F-E3A4-8CAC-C3342B64730B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE4AFCD9-193E-C26D-4A2F-7FBFBCCFB22E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3636,20 +8473,20 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>139700</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>98425</xdr:rowOff>
+      <xdr:rowOff>60325</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>215900</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>111125</xdr:rowOff>
+      <xdr:rowOff>73025</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="'ModUIMenu.ButtonClickEvent(6.3)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11183" name="Menu Btn - 6.3" hidden="1">
+        <xdr:cNvPr id="21" name="Menu Btn - 6.3" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E15A8F42-0ABD-059D-08B1-0907CC546A56}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{109F1736-0B04-3E26-FA2A-9EBC20088737}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3712,20 +8549,20 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>139700</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>111125</xdr:rowOff>
+      <xdr:rowOff>73025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>215900</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="'ModUIMenu.ButtonClickEvent(6.4)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11184" name="Menu Btn - 6.4" hidden="1">
+        <xdr:cNvPr id="22" name="Menu Btn - 6.4" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5EE5A1DF-40C4-A5D9-0EBE-A9A0D9609AA7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC5C7BD6-613E-194D-C84A-D60B392D74B0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3788,20 +8625,20 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>139700</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>215900</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>136525</xdr:rowOff>
+      <xdr:rowOff>98425</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="'ModUIMenu.ButtonClickEvent(6.5)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11185" name="Menu Btn - 6.5" hidden="1">
+        <xdr:cNvPr id="23" name="Menu Btn - 6.5" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C07C4498-661E-36C6-D829-FE932992950D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F0A99B5-5603-7258-0099-9FD236C928A8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3864,20 +8701,20 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>139700</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>136525</xdr:rowOff>
+      <xdr:rowOff>98425</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>215900</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>149225</xdr:rowOff>
+      <xdr:rowOff>111125</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="'ModUIMenu.ButtonClickEvent(6.6)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11186" name="Menu Btn - 6.6" hidden="1">
+        <xdr:cNvPr id="24" name="Menu Btn - 6.6" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4CD7084F-0A5E-902C-DD29-F8D2B5DC78BD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE52A5B-DA8D-B267-022A-362E2093B53A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3940,20 +8777,20 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>139700</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>149225</xdr:rowOff>
+      <xdr:rowOff>111125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>215900</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="'ModUIMenu.ButtonClickEvent(6.7)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11187" name="Menu Btn - 6.7" hidden="1">
+        <xdr:cNvPr id="25" name="Menu Btn - 6.7" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7012E0A5-7FBF-E31D-8F72-02D0B00ACD58}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8289E319-DD24-F753-39DC-D31379D994C2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4016,20 +8853,20 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>63500</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>139700</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>98425</xdr:rowOff>
+      <xdr:rowOff>60325</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="'ModUIMenu.ButtonClickEvent(7)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11188" name="Menu Btn - 7">
+        <xdr:cNvPr id="26" name="Menu Btn - 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E9F27BF-A2B6-F479-FB06-CA4CC29D5472}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5EEA24B1-5DB2-ACE8-C544-AF42455D9F47}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4091,6 +8928,71 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rectangle 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D7BACC9-F432-4312-D8CA-069299CFD5E5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="127000" cy="127000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4659,7 +9561,7 @@
   <sheetPr codeName="ShtMain"/>
   <dimension ref="B2:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
@@ -4673,6 +9575,7 @@
         <v>21</v>
       </c>
     </row>
+    <row r="10" spans="2:2" ht="18" customHeight="1"/>
     <row r="12" spans="2:2">
       <c r="B12" s="6"/>
     </row>
@@ -4688,10 +9591,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAF5DD8E-1975-411A-A399-0A0AA8DBB752}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="B1:C20"/>
+  <dimension ref="B1:C27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4704,8 +9607,8 @@
       <c r="B1">
         <v>2</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>168</v>
+      <c r="C1" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="2" spans="2:3">
@@ -4713,31 +9616,31 @@
         <v>2</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="3" spans="2:3">
       <c r="B3">
         <v>2</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>170</v>
+      <c r="C3" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="4" spans="2:3">
       <c r="B4">
         <v>2</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>172</v>
+      <c r="C4" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="5" spans="2:3">
       <c r="B5">
         <v>2</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>173</v>
+      <c r="C5" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="6" spans="2:3">
@@ -4745,7 +9648,7 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>174</v>
+        <v>187</v>
       </c>
     </row>
     <row r="7" spans="2:3">
@@ -4753,47 +9656,47 @@
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="8" spans="2:3">
       <c r="B8">
-        <v>3</v>
-      </c>
-      <c r="C8" t="s">
-        <v>163</v>
+        <v>2</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="9" spans="2:3">
       <c r="B9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
     </row>
     <row r="10" spans="2:3">
       <c r="B10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
     </row>
     <row r="11" spans="2:3">
       <c r="B11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
     </row>
     <row r="12" spans="2:3">
       <c r="B12">
-        <v>3</v>
-      </c>
-      <c r="C12" t="s">
-        <v>166</v>
+        <v>2</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="13" spans="2:3">
@@ -4801,15 +9704,15 @@
         <v>3</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="14" spans="2:3">
       <c r="B14">
         <v>3</v>
       </c>
-      <c r="C14" t="s">
-        <v>176</v>
+      <c r="C14" s="7" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="15" spans="2:3">
@@ -4817,7 +9720,7 @@
         <v>3</v>
       </c>
       <c r="C15" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
     </row>
     <row r="16" spans="2:3">
@@ -4825,7 +9728,7 @@
         <v>3</v>
       </c>
       <c r="C16" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
     </row>
     <row r="17" spans="2:3">
@@ -4833,38 +9736,95 @@
         <v>3</v>
       </c>
       <c r="C17" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
     </row>
     <row r="18" spans="2:3">
       <c r="B18">
-        <v>4</v>
-      </c>
-      <c r="C18" t="s">
-        <v>180</v>
+        <v>3</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="19" spans="2:3">
       <c r="B19">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C19" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
     </row>
     <row r="20" spans="2:3">
       <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3">
+      <c r="B21">
         <v>4</v>
       </c>
-      <c r="C20" t="s">
-        <v>182</v>
+      <c r="C21" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3">
+      <c r="B22">
+        <v>4</v>
+      </c>
+      <c r="C22" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3">
+      <c r="B23">
+        <v>4</v>
+      </c>
+      <c r="C23" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3">
+      <c r="B24">
+        <v>4</v>
+      </c>
+      <c r="C24" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3">
+      <c r="B25">
+        <v>4</v>
+      </c>
+      <c r="C25" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3">
+      <c r="B26">
+        <v>4</v>
+      </c>
+      <c r="C26" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3">
+      <c r="B27">
+        <v>4</v>
+      </c>
+      <c r="C27" t="s">
+        <v>185</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B1:C14">
-    <sortCondition ref="B1:B14"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B1:C27">
+    <sortCondition ref="B2:B27"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/CBS Workflow.xlsx
+++ b/CBS Workflow.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\CBSWorkflow\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/50f47e56877e2071/Documents/Development Areas/CBS Workflow/Library/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DCBEE037-3BE7-4327-81DF-D99943B06F03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E30E0909-88AC-49DF-88EC-A59CBD0A4B41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22830" yWindow="2595" windowWidth="21165" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30210" yWindow="2130" windowWidth="21165" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="6" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TblStepTemplate!$C$1:$N$42</definedName>
     <definedName name="Button">Sheet1!$B$2</definedName>
   </definedNames>
-  <calcPr calcId="191028" calcMode="manual"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="189">
   <si>
     <t>WorkflowNo</t>
   </si>
@@ -549,9 +549,6 @@
     <t>Add CRM Facility</t>
   </si>
   <si>
-    <t>Help facility for each step</t>
-  </si>
-  <si>
     <t>Add relevant data to workflow form</t>
   </si>
   <si>
@@ -601,6 +598,12 @@
   </si>
   <si>
     <t>Lender workflow not saving all data</t>
+  </si>
+  <si>
+    <t>Support button</t>
+  </si>
+  <si>
+    <t>expand project icon</t>
   </si>
 </sst>
 </file>
@@ -748,56 +751,6 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>42</xdr:col>
-      <xdr:colOff>558800</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4829" name="TEMPLATE - Logo" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DD60F29-BC8A-CD9F-F23B-AD9C56698867}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="24117300" y="2276475"/>
-          <a:ext cx="2235200" cy="1460500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -813,10 +766,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="27" name="Main Screen">
+        <xdr:cNvPr id="30023" name="Main Screen">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C22B0FD5-09A1-433F-7087-E1DE376BCDA6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17A5AB4F-980C-E4FF-4576-9A0A28A865C3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -890,6 +843,56 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>558800</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4829" name="TEMPLATE - Logo" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DD60F29-BC8A-CD9F-F23B-AD9C56698867}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="24117300" y="2276475"/>
+          <a:ext cx="2235200" cy="1460500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -905,10 +908,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="28" name="Rectangle 27" hidden="1">
+        <xdr:cNvPr id="30026" name="Rectangle 30025">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25276621-0936-81F3-42B1-2ACAFD29FF20}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{445E8BD0-AB6B-1737-9274-0116F80E3C60}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -952,23 +955,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>139700</xdr:colOff>
-      <xdr:row>133</xdr:row>
-      <xdr:rowOff>34925</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="29" name="MenuBar">
+        <xdr:cNvPr id="30150" name="Main Frame">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3697A731-CD06-3FA1-AE5D-82A869B21A00}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A475C14A-A6CB-1A99-9771-E4BA6A16D3FB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -976,8 +979,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="1968500" cy="25400000"/>
+          <a:off x="2159000" y="1143000"/>
+          <a:ext cx="8890000" cy="825500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -994,10 +997,9 @@
           <a:lin ang="5400000" scaled="1"/>
           <a:tileRect/>
         </a:gradFill>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:prstClr val="black"/>
-          </a:solidFill>
+        <a:ln w="0" cap="flat" cmpd="sng" algn="ctr">
+          <a:noFill/>
+          <a:prstDash val="solid"/>
         </a:ln>
         <a:effectLst>
           <a:outerShdw blurRad="63500" dist="37357" dir="2700000" rotWithShape="0">
@@ -1006,6 +1008,16 @@
             </a:prstClr>
           </a:outerShdw>
         </a:effectLst>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -1041,1722 +1053,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="30" name="Rectangle 29">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2250300-FA0F-A437-EDD2-6113BB22BAD2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="127000" cy="127000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-GB" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>63501</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>165101</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>593588</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>165101</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="31" name="Logo">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C156B063-475A-C546-822F-9EF17B570173}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="63501" y="165101"/>
-          <a:ext cx="1749287" cy="1143000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>139700</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="'ModUIMenu.ButtonClickEvent(1)'" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="32" name="Menu Btn - 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C6D6E16-63D1-D619-9B4F-EA13BA21A6EF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="63500" y="1905000"/>
-          <a:ext cx="1905000" cy="393700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="D8336B"/>
-        </a:solidFill>
-        <a:ln w="0" cap="flat" cmpd="sng" algn="ctr">
-          <a:noFill/>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:srgbClr val="134F69"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1200" b="0">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>For Action</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>139700</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="'ModUIMenu.ButtonClickEvent(2)'" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="33" name="Menu Btn - 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6895288B-04A0-C0E6-A080-85755C862782}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="63500" y="2298700"/>
-          <a:ext cx="1905000" cy="393700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:srgbClr val="134F69"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1200" b="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>Projects</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>139700</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>215900</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="'ModUIMenu.ButtonClickEvent(2.1)'" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="34" name="Menu Btn - 2.1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3D60CA8-1EBB-15EF-126C-9D5C10DD185D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1968500" y="2298700"/>
-          <a:ext cx="1905000" cy="393700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:srgbClr val="134F69"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1200" b="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>Active</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>139700</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>215900</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="'ModUIMenu.ButtonClickEvent(2.2)'" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="35" name="Menu Btn - 2.2" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D77E017-6F8C-5C88-5C28-C79FAEBD66CA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1968500" y="2692400"/>
-          <a:ext cx="1905000" cy="393700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:srgbClr val="134F69"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1200" b="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>Closed</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>139700</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="'ModUIMenu.ButtonClickEvent(3)'" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="36" name="Menu Btn - 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC8A2574-91D1-FC6E-3F50-DFE626C0045D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="63500" y="2692400"/>
-          <a:ext cx="1905000" cy="393700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:srgbClr val="134F69"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1200" b="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>CRM</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>139700</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>215900</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="'ModUIMenu.ButtonClickEvent(3.1)'" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="37" name="Menu Btn - 3.1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3BC3D48D-D48B-FB18-5420-0FB7E3331E98}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1968500" y="2692400"/>
-          <a:ext cx="1905000" cy="393700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:srgbClr val="134F69"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1200" b="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>Clients</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>139700</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>215900</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>22225</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="'ModUIMenu.ButtonClickEvent(3.2)'" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="38" name="Menu Btn - 3.2" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B3EBFD2-2EFC-216B-8325-F4CD79563FF1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1968500" y="3086100"/>
-          <a:ext cx="1905000" cy="393700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:srgbClr val="134F69"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1200" b="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>SPVs</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>139700</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>22225</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>215900</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>34925</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="'ModUIMenu.ButtonClickEvent(3.3)'" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="39" name="Menu Btn - 3.3" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A456B10D-383E-DFF0-CBC8-15D0771FC113}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1968500" y="3479800"/>
-          <a:ext cx="1905000" cy="393700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:srgbClr val="134F69"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1200" b="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>Contacts</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>139700</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>34925</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>215900</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="'ModUIMenu.ButtonClickEvent(3.4)'" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="40" name="Menu Btn - 3.4" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F966F02-B444-60A5-EACC-4759BBBF117C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1968500" y="3873500"/>
-          <a:ext cx="1905000" cy="393700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:srgbClr val="134F69"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1200" b="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>Projects</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>139700</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>215900</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>60325</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="'ModUIMenu.ButtonClickEvent(3.5)'" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="41" name="Menu Btn - 3.5" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6EA1E49-C057-8A80-C733-40368462E0C6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1968500" y="4267200"/>
-          <a:ext cx="1905000" cy="393700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:srgbClr val="134F69"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1200" b="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>Lenders</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>139700</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>22225</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="'ModUIMenu.ButtonClickEvent(4)'" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="42" name="Menu Btn - 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0919BCC-404E-C9EC-24F2-47D9D738B886}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="63500" y="3086100"/>
-          <a:ext cx="1905000" cy="393700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:srgbClr val="134F69"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1200" b="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>Dashboard</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>22225</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>139700</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>34925</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="'ModUIMenu.ButtonClickEvent(5)'" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="43" name="Menu Btn - 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C3B8306-65E8-1C98-DEAB-0E230BC0358C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="63500" y="3479800"/>
-          <a:ext cx="1905000" cy="393700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:srgbClr val="134F69"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1200" b="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>Reports</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>34925</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>139700</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="'ModUIMenu.ButtonClickEvent(6)'" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="44" name="Menu Btn - 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8409DD8E-9FA3-5590-CCBA-E5CA55A558D1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="63500" y="3873500"/>
-          <a:ext cx="1905000" cy="393700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:srgbClr val="134F69"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1200" b="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>Admin</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>139700</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>34925</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>215900</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="'ModUIMenu.ButtonClickEvent(6.1)'" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="45" name="Menu Btn - 6.1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1EEDA60-DAD8-AAAF-939A-A5BE6D08D441}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1968500" y="3873500"/>
-          <a:ext cx="1905000" cy="393700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:srgbClr val="134F69"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1200" b="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>Users</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>139700</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>215900</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>60325</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="'ModUIMenu.ButtonClickEvent(6.2)'" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="46" name="Menu Btn - 6.2" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C0B7AE1-E672-5A00-DC7C-65206596CFDA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1968500" y="4267200"/>
-          <a:ext cx="1905000" cy="393700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:srgbClr val="134F69"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1200" b="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>Email Templates</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>139700</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>60325</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>215900</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>73025</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="'ModUIMenu.ButtonClickEvent(6.3)'" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="47" name="Menu Btn - 6.3" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C769BF9C-01F8-6774-D301-A882CE887733}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1968500" y="4660900"/>
-          <a:ext cx="1905000" cy="393700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:srgbClr val="134F69"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1200" b="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>Documents</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>139700</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>73025</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>215900</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="'ModUIMenu.ButtonClickEvent(6.4)'" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="48" name="Menu Btn - 6.4" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D73640B9-AC4C-BC15-40F3-B0B5E641E1B7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1968500" y="5054600"/>
-          <a:ext cx="1905000" cy="393700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:srgbClr val="134F69"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1200" b="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>Workflows</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>139700</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>215900</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>98425</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="'ModUIMenu.ButtonClickEvent(6.5)'" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="49" name="Menu Btn - 6.5" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{866D202A-9AA5-9AB9-C985-06C3B196AF4C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1968500" y="5448300"/>
-          <a:ext cx="1905000" cy="393700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:srgbClr val="134F69"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1200" b="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>Workflow Types</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>139700</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>98425</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>215900</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>111125</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="'ModUIMenu.ButtonClickEvent(6.6)'" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="50" name="Menu Btn - 6.6" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4CE6566E-D53E-DA9A-41BB-5FD99D26CDEE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1968500" y="5842000"/>
-          <a:ext cx="1905000" cy="393700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:srgbClr val="134F69"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1200" b="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>Lists</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>139700</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>111125</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>215900</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="'ModUIMenu.ButtonClickEvent(6.7)'" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="51" name="Menu Btn - 6.7" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D56560A-E5A1-844B-74A9-D9898166E5F5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1968500" y="6235700"/>
-          <a:ext cx="1905000" cy="393700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:srgbClr val="134F69"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1200" b="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>Roles</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>139700</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>60325</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="'ModUIMenu.ButtonClickEvent(7)'" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="52" name="Menu Btn - 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BADAB7F0-00A8-1B76-0CC9-29496BFFE406}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="63500" y="4267200"/>
-          <a:ext cx="1905000" cy="393700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:srgbClr val="134F69"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1200" b="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>Exit</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>330200</xdr:colOff>
       <xdr:row>6</xdr:row>
@@ -2770,10 +1066,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="53" name="Main Frame Header">
+        <xdr:cNvPr id="30149" name="Main Frame Header">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC5CC9A0-3DD9-A1FC-5EE2-A137DE5D107F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B0C0860-5DEE-AE31-069A-5654659D91AF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2843,7 +1139,7 @@
               </a:solidFill>
               <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>Project For Action</a:t>
+            <a:t>Active Projects</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2854,21 +1150,1295 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>330200</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIProjects.SplitScreen(&quot;1:1&quot;)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30155" name="0-0">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78B4F3FF-A873-BA43-C4EF-85A69F74D7A6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2159000" y="1460500"/>
+          <a:ext cx="635000" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="134F69"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="134F69"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Project No</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIButtonHandler.ProcessBtnClicks(&quot;1:1:1&quot;)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30156" name="1-0">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F36671D-39C9-424F-3205-7CD8E1CCAC3A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2794000" y="1460500"/>
+          <a:ext cx="1270000" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="134F69"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="134F69"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Client Name</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIButtonHandler.ProcessBtnClicks(&quot;1:1:1&quot;)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30157" name="2-0">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{740BD0BC-1A3F-2762-2437-4BAB99BE678A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4064000" y="1460500"/>
+          <a:ext cx="1270000" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="134F69"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="134F69"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>SPV Name</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIButtonHandler.ProcessBtnClicks(&quot;1:1:1&quot;)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30158" name="3-0">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8AE83484-7E80-A152-9B8F-144C84A88AE5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5334000" y="1460500"/>
+          <a:ext cx="1270000" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="134F69"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="134F69"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Case Manager</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIButtonHandler.ProcessBtnClicks(&quot;1:1:1&quot;)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30159" name="4-0">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13CD4E79-C13B-50D9-8F70-AACC9E345C36}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6604000" y="1460500"/>
+          <a:ext cx="635000" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="134F69"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="134F69"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Step No</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIButtonHandler.ProcessBtnClicks(&quot;1:1:1&quot;)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30160" name="5-0">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6864C0D5-FF4E-4725-9DBC-99D3138EF776}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7239000" y="1460500"/>
+          <a:ext cx="2540000" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="134F69"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="134F69"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Step Name</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIButtonHandler.ProcessBtnClicks(&quot;1:1:1&quot;)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30161" name="6-0">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B442E1AE-A9F8-5068-C90F-AD522ADFAA07}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9779000" y="1460500"/>
+          <a:ext cx="1270000" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="134F69"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="134F69"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Status</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIProjects.SplitScreen(&quot;1:1&quot;)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30162" name="0-1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF0B2A8E-E0D7-A258-7BB1-846DA5946AB3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2159000" y="1714500"/>
+          <a:ext cx="635000" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="0">
+              <a:solidFill>
+                <a:srgbClr val="434343"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIButtonHandler.ProcessBtnClicks(&quot;1:1:1&quot;)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30163" name="1-1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E946A58F-DB91-02E5-3C42-4C662B4E91B0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2794000" y="1714500"/>
+          <a:ext cx="1270000" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="0">
+              <a:solidFill>
+                <a:srgbClr val="434343"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Dexys Chicken</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIButtonHandler.ProcessBtnClicks(&quot;1:1:1&quot;)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30164" name="2-1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{169AC93F-EA65-67FE-C3A2-A72C5D60C4C1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4064000" y="1714500"/>
+          <a:ext cx="1270000" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="0">
+              <a:solidFill>
+                <a:srgbClr val="434343"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Medium SPV</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIButtonHandler.ProcessBtnClicks(&quot;1:1:1&quot;)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30165" name="3-1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F383A5B-2B6D-C166-C73C-C59573841794}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5334000" y="1714500"/>
+          <a:ext cx="1270000" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="0">
+              <a:solidFill>
+                <a:srgbClr val="434343"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Fred Bloggs</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIButtonHandler.ProcessBtnClicks(&quot;1:1:1&quot;)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30166" name="4-1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10AC5F23-FE12-957F-4752-AF1AD1CDCC2D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6604000" y="1714500"/>
+          <a:ext cx="635000" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="0">
+              <a:solidFill>
+                <a:srgbClr val="434343"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>1.01</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIButtonHandler.ProcessBtnClicks(&quot;1:1:1&quot;)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30167" name="5-1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{869CE80E-7848-B39F-D732-E7B6A102AC46}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7239000" y="1714500"/>
+          <a:ext cx="2540000" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="0">
+              <a:solidFill>
+                <a:srgbClr val="434343"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Fact Find to Client</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIButtonHandler.ProcessBtnClicks(&quot;1:1:1&quot;)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30168" name="6-1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DED4C00A-58C6-2735-52D6-B42800E604B1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9779000" y="1714500"/>
+          <a:ext cx="1270000" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="D7263D"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="D7263D"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>enActionReqd</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="54" name="Main Frame">
+        <xdr:cNvPr id="30152" name="Button Frame" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8401F49-D5EC-B126-C1F9-4745630A9D4D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3EE9D89-E9E2-CEDB-7B9D-2C96B0212C67}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2876,8 +2446,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2159000" y="1143000"/>
-          <a:ext cx="8890000" cy="4572000"/>
+          <a:off x="7810500" y="63500"/>
+          <a:ext cx="3492500" cy="762000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2963,10 +2533,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="55" name="Rectangle 54" hidden="1">
+        <xdr:cNvPr id="30151" name="Rectangle 30150" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA179DC3-FF51-F68D-24D2-918DBBB78A96}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FF4D18E-FF31-C45B-EA49-1E72C4894AFA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3010,104 +2580,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>139700</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="56" name="Button Frame" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D94A656B-61F3-0AA3-385B-3038FF1CDFEF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7810500" y="63500"/>
-          <a:ext cx="3492500" cy="762000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="FFFFFF"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
-        <a:ln w="0" cap="flat" cmpd="sng" algn="ctr">
-          <a:noFill/>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:effectLst>
-          <a:outerShdw blurRad="63500" dist="37357" dir="2700000" rotWithShape="0">
-            <a:prstClr val="black">
-              <a:alpha val="40000"/>
-            </a:prstClr>
-          </a:outerShdw>
-        </a:effectLst>
-        <a:extLst>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-GB" sz="1100" b="0">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface=""/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
       <xdr:row>1</xdr:row>
@@ -3119,12 +2591,12 @@
       <xdr:row>4</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIButtonHandler.ProcessBtnClicks(&quot;0:0:0&quot;)'" textlink="">
+    <xdr:sp macro="'ModUIButtonHandler.ProcessBtnClicks(&quot;1:0:0&quot;)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="57" name="BtnMain1">
+        <xdr:cNvPr id="30153" name="BtnMain1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0860C5EE-868F-98CB-664E-562C91143437}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33A81B13-840C-29E6-A879-7E2753C48007}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3211,12 +2683,12 @@
       <xdr:row>4</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="'ModUIButtonHandler.ProcessBtnClicks(&quot;0:2:0&quot;)'" textlink="">
+    <xdr:sp macro="'ModUIButtonHandler.ProcessBtnClicks(&quot;1:2:0&quot;)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4801" name="BtnMain2">
+        <xdr:cNvPr id="30154" name="BtnMain2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E9A85E1-0FC2-1EA3-A39D-D3D1602ACF7D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4478933-5506-C23C-850F-B71B907F4F22}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3290,11 +2762,95 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>34925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30025" name="MenuBar">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80415A4F-ECDF-4D12-06E4-74463291524E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="1968500" cy="25400000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:prstClr val="black"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="63500" dist="37357" dir="2700000" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100" b="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface=""/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -3310,10 +2866,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Rectangle 1">
+        <xdr:cNvPr id="30024" name="Rectangle 30023" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D7BACC9-F432-4312-D8CA-069299CFD5E5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74F1B842-A724-F696-B8A1-918BBB5E9B63}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3355,25 +2911,75 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>63501</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>165101</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>593588</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>165101</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30027" name="Logo">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFBD6983-8D14-5A4E-E005-7FC24F022A29}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="63501" y="165101"/>
+          <a:ext cx="1749287" cy="1143000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp macro="'ModUIMenu.ButtonClickEvent(1)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Rectangle 2">
+        <xdr:cNvPr id="30028" name="Menu Btn - 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05E3E0F0-8919-04F2-ED31-FF0EFC988B24}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DE306CC-09AE-5929-B378-B5CAA335C3EA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3381,12 +2987,22 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="127000" cy="127000"/>
+          <a:off x="63500" y="1905000"/>
+          <a:ext cx="1905000" cy="393700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="134F69"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -3408,8 +3024,16 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-GB" sz="1100"/>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1200" b="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>For Action</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3418,22 +3042,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp macro="'ModUIMenu.ButtonClickEvent(2)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Rectangle 3">
+        <xdr:cNvPr id="30029" name="Menu Btn - 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{184B7827-5FDA-545D-91D8-17D29CB7BCCD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3A56D10-8162-B29A-979E-6CFC486898CF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3441,12 +3065,22 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="127000" cy="127000"/>
+          <a:off x="63500" y="2298700"/>
+          <a:ext cx="1905000" cy="393700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="134F69"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -3468,8 +3102,16 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-GB" sz="1100"/>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1200" b="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Projects</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3477,23 +3119,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp macro="'ModUIMenu.ButtonClickEvent(2.1)'" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Rectangle 4">
+        <xdr:cNvPr id="30030" name="Menu Btn - 2.1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FF02B16-3400-7D55-382A-5E27308E6588}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D441AC6-0E47-CEDE-A70A-76ABD77E5C12}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3501,12 +3143,30 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="127000" cy="127000"/>
+          <a:off x="1968500" y="2298700"/>
+          <a:ext cx="1905000" cy="393700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="D8336B"/>
+        </a:solidFill>
+        <a:ln w="0" cap="flat" cmpd="sng" algn="ctr">
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:srgbClr val="134F69"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -3528,8 +3188,1384 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-GB" sz="1100"/>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1200" b="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Active</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIMenu.ButtonClickEvent(2.2)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30031" name="Menu Btn - 2.2" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8AA623F6-43A3-17CD-7782-D790B3B471FC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1968500" y="2692400"/>
+          <a:ext cx="1905000" cy="393700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="134F69"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1200" b="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Closed</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIMenu.ButtonClickEvent(3)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30032" name="Menu Btn - 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4DE393C-216F-4DCF-60CD-52AD7CF93886}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="63500" y="2692400"/>
+          <a:ext cx="1905000" cy="393700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="134F69"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1200" b="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>CRM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIMenu.ButtonClickEvent(3.1)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30033" name="Menu Btn - 3.1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35720EA5-6F29-49B9-18EA-298F768F28F4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1968500" y="2692400"/>
+          <a:ext cx="1905000" cy="393700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="134F69"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1200" b="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Clients</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>22225</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIMenu.ButtonClickEvent(3.2)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30034" name="Menu Btn - 3.2" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D14BAB2-3927-F127-2864-2E6B5ABBDE09}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1968500" y="3086100"/>
+          <a:ext cx="1905000" cy="393700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="134F69"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1200" b="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>SPVs</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>22225</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>34925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIMenu.ButtonClickEvent(3.3)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30035" name="Menu Btn - 3.3" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8FE16B8-81B4-8711-7A2C-8C7686AC9374}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1968500" y="3479800"/>
+          <a:ext cx="1905000" cy="393700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="134F69"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1200" b="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Contacts</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>34925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIMenu.ButtonClickEvent(3.4)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30036" name="Menu Btn - 3.4" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15494BCE-7688-4E82-24E1-88D628E7C546}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1968500" y="3873500"/>
+          <a:ext cx="1905000" cy="393700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="134F69"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1200" b="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Projects</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>60325</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIMenu.ButtonClickEvent(3.5)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30037" name="Menu Btn - 3.5" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08336E62-4B1A-4E06-D236-0CD437B897D9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1968500" y="4267200"/>
+          <a:ext cx="1905000" cy="393700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="134F69"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1200" b="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Lenders</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>22225</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIMenu.ButtonClickEvent(4)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30038" name="Menu Btn - 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47D74A2B-D387-DA2F-C661-5735A304B4FF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="63500" y="3086100"/>
+          <a:ext cx="1905000" cy="393700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="134F69"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1200" b="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Dashboard</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>22225</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>34925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIMenu.ButtonClickEvent(5)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30039" name="Menu Btn - 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0115E8FD-CD17-9963-80B1-6FE92D3B338F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="63500" y="3479800"/>
+          <a:ext cx="1905000" cy="393700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="134F69"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1200" b="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Eras Medium ITC" panose="020B0602030504020804" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Reports</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>34925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="'ModUIMenu.ButtonClickEvent(6)'" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30040" name="Menu Btn - 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B768E30-782C-8261-5FCA-5CA90DDE8781}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="63500" y="3873500"/>
+          <a:ext cx="1905000" cy="393700"/>
+        </a:xfrm